--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB3EE7-13C1-E341-8E42-C107C8EA59B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE4F0CD-9966-104B-8328-46B7AFC92B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="32680" windowHeight="20540" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="579">
   <si>
     <t>NOTE</t>
   </si>
@@ -1759,7 +1759,19 @@
     <t>TDA and Roseobacticides Backbone</t>
   </si>
   <si>
-    <t>patB|paaF|paaH|cysI|PUF|tdaA|tdaB|tdaC|tdaE|tdaD|tdaF|tdaR1|tdaR2|tdaR3</t>
+    <t>blastp</t>
+  </si>
+  <si>
+    <t>One file with all blastable sequences</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Science/repos/gator/db/gator.faa</t>
+  </si>
+  <si>
+    <t>BLAST</t>
+  </si>
+  <si>
+    <t>patB-&gt;paaF-&gt;paaH-&gt;cysI-&gt;PUF-&gt;tdaA-&gt;tdaB-&gt;tdaC-&gt;tdaE-&gt;tdaD-&gt;tdaF-&gt;tdaR1-&gt;tdaR2-&gt;tdaR3</t>
   </si>
 </sst>
 </file>
@@ -2166,17 +2178,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
@@ -2214,6 +2226,23 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -2225,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4530,7 +4559,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4806,7 +4835,7 @@
         <v>573</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE4F0CD-9966-104B-8328-46B7AFC92B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAEC3BD-DE41-F242-B5C3-A965AB3A2B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="26220" yWindow="460" windowWidth="24980" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
     <sheet name="gene" sheetId="2" r:id="rId2"/>
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="913">
   <si>
     <t>NOTE</t>
   </si>
@@ -1165,9 +1165,6 @@
     <t>CO2 -&gt; CO</t>
   </si>
   <si>
-    <t>Reductive TCA Cycle (Arnon-Buchanan cycle)</t>
-  </si>
-  <si>
     <t>gudB</t>
   </si>
   <si>
@@ -1772,6 +1769,1011 @@
   </si>
   <si>
     <t>patB-&gt;paaF-&gt;paaH-&gt;cysI-&gt;PUF-&gt;tdaA-&gt;tdaB-&gt;tdaC-&gt;tdaE-&gt;tdaD-&gt;tdaF-&gt;tdaR1-&gt;tdaR2-&gt;tdaR3</t>
+  </si>
+  <si>
+    <t>K00466</t>
+  </si>
+  <si>
+    <t>K01426</t>
+  </si>
+  <si>
+    <t>K21801</t>
+  </si>
+  <si>
+    <t>iaaM</t>
+  </si>
+  <si>
+    <t>tryptophan 2-monooxygenase</t>
+  </si>
+  <si>
+    <t>1.13.12.3</t>
+  </si>
+  <si>
+    <t>R00679</t>
+  </si>
+  <si>
+    <t>amiE</t>
+  </si>
+  <si>
+    <t>amidase</t>
+  </si>
+  <si>
+    <t>3.5.1.4</t>
+  </si>
+  <si>
+    <t>iaaH</t>
+  </si>
+  <si>
+    <t>indoleacetamide hydrolase</t>
+  </si>
+  <si>
+    <t>tryptophan-&gt;indole-3-acetamide</t>
+  </si>
+  <si>
+    <t>R03096</t>
+  </si>
+  <si>
+    <t>indole-3-acetamide -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>Tryptophan to IAA I</t>
+  </si>
+  <si>
+    <t>iaaM -&gt; amiE|iaaH</t>
+  </si>
+  <si>
+    <t>tryptophan-&gt;indole-3-acetamide -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>K01593</t>
+  </si>
+  <si>
+    <t>K22433</t>
+  </si>
+  <si>
+    <t>aromatic-L-amino-acid/L-tryptophan decarboxylase</t>
+  </si>
+  <si>
+    <t>DDC</t>
+  </si>
+  <si>
+    <t>R00685</t>
+  </si>
+  <si>
+    <t>L-tryptophan decarboxylase</t>
+  </si>
+  <si>
+    <t>PSID</t>
+  </si>
+  <si>
+    <t>tryptophan-&gt;tryptamine</t>
+  </si>
+  <si>
+    <t>4.1.1.105</t>
+  </si>
+  <si>
+    <t>4.1.1.105,4.1.1.28</t>
+  </si>
+  <si>
+    <t>K11182</t>
+  </si>
+  <si>
+    <t>K00274</t>
+  </si>
+  <si>
+    <t>AOC1</t>
+  </si>
+  <si>
+    <t>diamine oxidase</t>
+  </si>
+  <si>
+    <t>tryptamine -&gt; indole-3-acetaldehyde</t>
+  </si>
+  <si>
+    <t>1.4.3.22</t>
+  </si>
+  <si>
+    <t>R02173</t>
+  </si>
+  <si>
+    <t>1.4.3.4</t>
+  </si>
+  <si>
+    <t>monoamine oxidase</t>
+  </si>
+  <si>
+    <t>MAO</t>
+  </si>
+  <si>
+    <t>K00128</t>
+  </si>
+  <si>
+    <t>K14085</t>
+  </si>
+  <si>
+    <t>K00149</t>
+  </si>
+  <si>
+    <t>K11817</t>
+  </si>
+  <si>
+    <t>K22417</t>
+  </si>
+  <si>
+    <t>ALDH</t>
+  </si>
+  <si>
+    <t>aldehyde dehydrogenase (NAD+)</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
+  </si>
+  <si>
+    <t>R02678</t>
+  </si>
+  <si>
+    <t>ALDH7A1</t>
+  </si>
+  <si>
+    <t>aldehyde dehydrogenase family 7 member A1</t>
+  </si>
+  <si>
+    <t>indole-3-acetaldehyde -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>ALDH9A1</t>
+  </si>
+  <si>
+    <t>aldehyde dehydrogenase family 9 member A1</t>
+  </si>
+  <si>
+    <t>AAO1_2</t>
+  </si>
+  <si>
+    <t>indole-3-acetaldehyde oxidase</t>
+  </si>
+  <si>
+    <t>R02681</t>
+  </si>
+  <si>
+    <t>1.2.3.7</t>
+  </si>
+  <si>
+    <t>AAO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benzaldehyde dehydrogenase (NAD+) / indole-3-acetaldehyde oxidase </t>
+  </si>
+  <si>
+    <t>DDC|PSID -&gt; AOC1|MAO -&gt; ALDH|ALDH7A1|ALDH9A1|AAO1_2|AAO4</t>
+  </si>
+  <si>
+    <t>Tryptophan to IAA II</t>
+  </si>
+  <si>
+    <t>tryptophan-&gt;tryptamine -&gt; indole-3-acetaldehyde -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>K03334</t>
+  </si>
+  <si>
+    <t>K14265</t>
+  </si>
+  <si>
+    <t>K00838</t>
+  </si>
+  <si>
+    <t>K16903</t>
+  </si>
+  <si>
+    <t>K04103</t>
+  </si>
+  <si>
+    <t>IL4I1</t>
+  </si>
+  <si>
+    <t>L-amino-acid oxidase</t>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indolepyruvate</t>
+  </si>
+  <si>
+    <t>Tam1</t>
+  </si>
+  <si>
+    <t>tryptophan aminotransferase</t>
+  </si>
+  <si>
+    <t>R00684</t>
+  </si>
+  <si>
+    <t>R00677</t>
+  </si>
+  <si>
+    <t>2.6.1.27</t>
+  </si>
+  <si>
+    <t>ARO8</t>
+  </si>
+  <si>
+    <t>aromatic amino acid aminotransferase I / 2-aminoadipate transaminase</t>
+  </si>
+  <si>
+    <t>TAA1</t>
+  </si>
+  <si>
+    <t>L-tryptophan---pyruvate aminotransferase</t>
+  </si>
+  <si>
+    <t>2.6.1.99</t>
+  </si>
+  <si>
+    <t>R10180</t>
+  </si>
+  <si>
+    <t>ipdC</t>
+  </si>
+  <si>
+    <t>indolepyruvate decarboxylase</t>
+  </si>
+  <si>
+    <t>indolepyruvate -&gt; indole-3-acetaldehyde</t>
+  </si>
+  <si>
+    <t>4.1.1.74</t>
+  </si>
+  <si>
+    <t>R01974</t>
+  </si>
+  <si>
+    <t>Tryptophan to IAA III</t>
+  </si>
+  <si>
+    <t>IL4I1|Tam1|ARO8|TAA1 -&gt; ipdC -&gt;  ALDH|ALDH7A1|ALDH9A1|AAO1_2|AAO4</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indolepyruvate -&gt; indole-3-acetaldehyde -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>K11812</t>
+  </si>
+  <si>
+    <t>K11813</t>
+  </si>
+  <si>
+    <t>K11868</t>
+  </si>
+  <si>
+    <t>K01501</t>
+  </si>
+  <si>
+    <t>K01721</t>
+  </si>
+  <si>
+    <t>K20807</t>
+  </si>
+  <si>
+    <t>CYP79B1_2</t>
+  </si>
+  <si>
+    <t>1.14.14.156</t>
+  </si>
+  <si>
+    <t>R08160</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetaldehyde oxime</t>
+  </si>
+  <si>
+    <t>CYP79B3</t>
+  </si>
+  <si>
+    <t>tryptophan N-monooxygenase A</t>
+  </si>
+  <si>
+    <t>tryptophan N-monooxygenase B</t>
+  </si>
+  <si>
+    <t>CYP71A13</t>
+  </si>
+  <si>
+    <t>indoleacetaldoxime dehydratase</t>
+  </si>
+  <si>
+    <t>4.99.1.6</t>
+  </si>
+  <si>
+    <t>R04093</t>
+  </si>
+  <si>
+    <t>indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile</t>
+  </si>
+  <si>
+    <t>E3.5.5.1</t>
+  </si>
+  <si>
+    <t>nitrilase</t>
+  </si>
+  <si>
+    <t>3.5.5.1</t>
+  </si>
+  <si>
+    <t>R03093</t>
+  </si>
+  <si>
+    <t>3-indoleacetonitrile-&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>nthA</t>
+  </si>
+  <si>
+    <t>nitrile hydratase subunit alpha</t>
+  </si>
+  <si>
+    <t>4.2.1.84</t>
+  </si>
+  <si>
+    <t>R04020</t>
+  </si>
+  <si>
+    <t>3-indoleacetonitrile -&gt; indole-3-acetamide</t>
+  </si>
+  <si>
+    <t>nthB</t>
+  </si>
+  <si>
+    <t>nitrile hydratase subunit beta</t>
+  </si>
+  <si>
+    <t>Tryptophan to IAA IV</t>
+  </si>
+  <si>
+    <t>CYP79B1_2|CYP79B3 -&gt; CYP71A13 -&gt; E3.5.5.1</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile-&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>Tryptophan to IAA V</t>
+  </si>
+  <si>
+    <t>CYP79B1_2|CYP79B3 -&gt; CYP71A13 -&gt; nthA+nthB -&gt; aniE|iaaH</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile -&gt; indole-3-acetamide -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>IAA</t>
+  </si>
+  <si>
+    <t>Dshi_3523</t>
+  </si>
+  <si>
+    <t>Dshi_3524</t>
+  </si>
+  <si>
+    <t>Dshi_3514</t>
+  </si>
+  <si>
+    <t>Dshi_3508</t>
+  </si>
+  <si>
+    <t>Dshi_3509</t>
+  </si>
+  <si>
+    <t>mlaA</t>
+  </si>
+  <si>
+    <t>PP_2163</t>
+  </si>
+  <si>
+    <t>K04754</t>
+  </si>
+  <si>
+    <t>mlaB</t>
+  </si>
+  <si>
+    <t>PP_0962</t>
+  </si>
+  <si>
+    <t>K07122</t>
+  </si>
+  <si>
+    <t>mlaC</t>
+  </si>
+  <si>
+    <t>PP_0961</t>
+  </si>
+  <si>
+    <t>K07323</t>
+  </si>
+  <si>
+    <t>mlaD</t>
+  </si>
+  <si>
+    <t>PP_0960</t>
+  </si>
+  <si>
+    <t>K02067</t>
+  </si>
+  <si>
+    <t>mlaE</t>
+  </si>
+  <si>
+    <t>PP_0959</t>
+  </si>
+  <si>
+    <t>K02066</t>
+  </si>
+  <si>
+    <t>mlaF</t>
+  </si>
+  <si>
+    <t>PP_0958</t>
+  </si>
+  <si>
+    <t>K02065</t>
+  </si>
+  <si>
+    <t>flhG</t>
+  </si>
+  <si>
+    <t>PP_4342</t>
+  </si>
+  <si>
+    <t>K04562</t>
+  </si>
+  <si>
+    <t>paaX</t>
+  </si>
+  <si>
+    <t>PP_3286</t>
+  </si>
+  <si>
+    <t>K02616</t>
+  </si>
+  <si>
+    <t>cycH</t>
+  </si>
+  <si>
+    <t>PP_4320</t>
+  </si>
+  <si>
+    <t>K02200</t>
+  </si>
+  <si>
+    <t>ccmG</t>
+  </si>
+  <si>
+    <t>PP_4321</t>
+  </si>
+  <si>
+    <t>K02199</t>
+  </si>
+  <si>
+    <t>ccmF</t>
+  </si>
+  <si>
+    <t>PP_4322</t>
+  </si>
+  <si>
+    <t>K02198</t>
+  </si>
+  <si>
+    <t>ccmE</t>
+  </si>
+  <si>
+    <t>PP_4323</t>
+  </si>
+  <si>
+    <t>K02197</t>
+  </si>
+  <si>
+    <t>ccmC</t>
+  </si>
+  <si>
+    <t>PP_4325</t>
+  </si>
+  <si>
+    <t>K02195</t>
+  </si>
+  <si>
+    <t>hyp1</t>
+  </si>
+  <si>
+    <t>PP_4937</t>
+  </si>
+  <si>
+    <t>lapA</t>
+  </si>
+  <si>
+    <t>PP_0168</t>
+  </si>
+  <si>
+    <t>K12549</t>
+  </si>
+  <si>
+    <t>ettA</t>
+  </si>
+  <si>
+    <t>PP_0674</t>
+  </si>
+  <si>
+    <t>K06020</t>
+  </si>
+  <si>
+    <t>oprH</t>
+  </si>
+  <si>
+    <t>PP_1185</t>
+  </si>
+  <si>
+    <t>tyrB</t>
+  </si>
+  <si>
+    <t>PP_1972</t>
+  </si>
+  <si>
+    <t>K00832</t>
+  </si>
+  <si>
+    <t>prtR</t>
+  </si>
+  <si>
+    <t>PP_2889</t>
+  </si>
+  <si>
+    <t>fcs</t>
+  </si>
+  <si>
+    <t>PP_3356</t>
+  </si>
+  <si>
+    <t>K12508</t>
+  </si>
+  <si>
+    <t>ech</t>
+  </si>
+  <si>
+    <t>PP_3358</t>
+  </si>
+  <si>
+    <t>K18383</t>
+  </si>
+  <si>
+    <t>vdh</t>
+  </si>
+  <si>
+    <t>PP_3357</t>
+  </si>
+  <si>
+    <t>K21802</t>
+  </si>
+  <si>
+    <t>pobA</t>
+  </si>
+  <si>
+    <t>PP_3537</t>
+  </si>
+  <si>
+    <t>K00481</t>
+  </si>
+  <si>
+    <t>pobR</t>
+  </si>
+  <si>
+    <t>PP_3538</t>
+  </si>
+  <si>
+    <t>K18954</t>
+  </si>
+  <si>
+    <t>pcaA</t>
+  </si>
+  <si>
+    <t>pcaB</t>
+  </si>
+  <si>
+    <t>PP_1379</t>
+  </si>
+  <si>
+    <t>K01857</t>
+  </si>
+  <si>
+    <t>pcaC</t>
+  </si>
+  <si>
+    <t>PP_1381</t>
+  </si>
+  <si>
+    <t>K01607</t>
+  </si>
+  <si>
+    <t>pcaD</t>
+  </si>
+  <si>
+    <t>PP_1380</t>
+  </si>
+  <si>
+    <t>K01055</t>
+  </si>
+  <si>
+    <t>pcaG</t>
+  </si>
+  <si>
+    <t>PP_4655</t>
+  </si>
+  <si>
+    <t>K00448</t>
+  </si>
+  <si>
+    <t>pcaH</t>
+  </si>
+  <si>
+    <t>PP_4656</t>
+  </si>
+  <si>
+    <t>K00449</t>
+  </si>
+  <si>
+    <t>pcaU</t>
+  </si>
+  <si>
+    <t>pcaF-I</t>
+  </si>
+  <si>
+    <t>PP_1377</t>
+  </si>
+  <si>
+    <t>K07823</t>
+  </si>
+  <si>
+    <t>pcaF-II</t>
+  </si>
+  <si>
+    <t>PP_2137</t>
+  </si>
+  <si>
+    <t>K00632</t>
+  </si>
+  <si>
+    <t>phospholipid-binding lipoprotein</t>
+  </si>
+  <si>
+    <t>p-coumaric acid</t>
+  </si>
+  <si>
+    <t>Coumaric Acid Degradation</t>
+  </si>
+  <si>
+    <t>PATHWAY_NOTES</t>
+  </si>
+  <si>
+    <t>Also might need pcaA and pcaU, but I don’t have reference genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcs+ech+vdh -&gt; pobA -&gt; pcaB+pcaC+pcaD+pcaG+pcaH -&gt; pcaF-I | pcaF-II </t>
+  </si>
+  <si>
+    <t>mlaA + mlaB + mlaC + mlaD + mlaE + mlaF</t>
+  </si>
+  <si>
+    <t>Phospholipid Transport System</t>
+  </si>
+  <si>
+    <t>p-coumarate -&gt; 4-hydroxybenzoate-&gt; proteocatechuate -&gt; beta-ketoadipate -&gt; TCA cycle</t>
+  </si>
+  <si>
+    <t>K00036</t>
+  </si>
+  <si>
+    <t>G6PD</t>
+  </si>
+  <si>
+    <t>glucose-6-phosphate 1-dehydrogenase</t>
+  </si>
+  <si>
+    <t>pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>R02736</t>
+  </si>
+  <si>
+    <t>1.1.1.49, 1.1.1.363</t>
+  </si>
+  <si>
+    <t>K19243</t>
+  </si>
+  <si>
+    <t>pentose phosphate pathway - archaea specific</t>
+  </si>
+  <si>
+    <t>azf</t>
+  </si>
+  <si>
+    <t>NAD+ dependent glucose-6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>1.1.1.388</t>
+  </si>
+  <si>
+    <t>R10907</t>
+  </si>
+  <si>
+    <t>3.1.1.31</t>
+  </si>
+  <si>
+    <t>PGLS</t>
+  </si>
+  <si>
+    <t>6-phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t>pgl</t>
+  </si>
+  <si>
+    <t>K01057</t>
+  </si>
+  <si>
+    <t>K07404</t>
+  </si>
+  <si>
+    <t>R02035</t>
+  </si>
+  <si>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>6-phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t>K00033</t>
+  </si>
+  <si>
+    <t>1.1.1.44, 1.1.1.343</t>
+  </si>
+  <si>
+    <t>R01528, R10221</t>
+  </si>
+  <si>
+    <t>G6PD | azf -&gt; PGLS | pgl -&gt; PGD</t>
+  </si>
+  <si>
+    <t>beta-D-glucose-6P -&gt; D-Glucono-1,5-lactone 6-phosphate -&gt; D-ribulose-5P</t>
+  </si>
+  <si>
+    <t>Pentose Phosphate Pathway (Oxidative Steps)</t>
+  </si>
+  <si>
+    <t>Pentose Phosphate Pathway (Non-Oxidative Steps)</t>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+  </si>
+  <si>
+    <t>5.3.1.6</t>
+  </si>
+  <si>
+    <t>K01783</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>ribulose-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t>R01529</t>
+  </si>
+  <si>
+    <t>K01807</t>
+  </si>
+  <si>
+    <t>K01808</t>
+  </si>
+  <si>
+    <t>R01056</t>
+  </si>
+  <si>
+    <t>rpiA</t>
+  </si>
+  <si>
+    <t>rpiB</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate isomerase A</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate isomerase B</t>
+  </si>
+  <si>
+    <t>K00615</t>
+  </si>
+  <si>
+    <t>R01641,R01830</t>
+  </si>
+  <si>
+    <t>2.2.1.1</t>
+  </si>
+  <si>
+    <t>tktA_tktB</t>
+  </si>
+  <si>
+    <t>transketolase</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>R01827</t>
+  </si>
+  <si>
+    <t>K00616</t>
+  </si>
+  <si>
+    <t>K13810</t>
+  </si>
+  <si>
+    <t>talA_talB</t>
+  </si>
+  <si>
+    <t>transaldolase</t>
+  </si>
+  <si>
+    <t>tal-pgi</t>
+  </si>
+  <si>
+    <t>transaldolase / glucose-6-phosphate isomerase</t>
+  </si>
+  <si>
+    <t>RPE -&gt; rpiA|rpiB -&gt; tktA_tktB -&gt; talA_talB | tal-pgi -&gt; tktA_tktB</t>
+  </si>
+  <si>
+    <t>D-ribulose-5P -&gt; D-xylulose-5P -&gt; D-ribose-5P -&gt; 7-sedoheptulose-7P + D-Glyceraldehyde 3-phosphate -&gt; D-Erythrose 4-phosphate + beta-D-Fructose 6-phosphate -&gt; D-Glyceraldehyde 3-phosphate</t>
+  </si>
+  <si>
+    <t>First two steps happen simultaneously… both from D-ribulose-5P</t>
+  </si>
+  <si>
+    <t>K16157</t>
+  </si>
+  <si>
+    <t>K16158</t>
+  </si>
+  <si>
+    <t>K16159</t>
+  </si>
+  <si>
+    <t>K16160</t>
+  </si>
+  <si>
+    <t>K16161</t>
+  </si>
+  <si>
+    <t>K16162</t>
+  </si>
+  <si>
+    <t>mmoX</t>
+  </si>
+  <si>
+    <t>methane monooxygenase component A alpha chain</t>
+  </si>
+  <si>
+    <t>1.14.13.25</t>
+  </si>
+  <si>
+    <t>R01142</t>
+  </si>
+  <si>
+    <t>mmoY</t>
+  </si>
+  <si>
+    <t>methane monooxygenase component A beta chain</t>
+  </si>
+  <si>
+    <t>methane monooxygenase component A gamma chain</t>
+  </si>
+  <si>
+    <t>mmoZ</t>
+  </si>
+  <si>
+    <t>mmoB</t>
+  </si>
+  <si>
+    <t>methane monooxygenase regulatory protein B</t>
+  </si>
+  <si>
+    <t>mmoC</t>
+  </si>
+  <si>
+    <t>methane monooxygenase component C</t>
+  </si>
+  <si>
+    <t>mmoD</t>
+  </si>
+  <si>
+    <t>methane monooxygenase component D</t>
+  </si>
+  <si>
+    <t>Methanotrophy (Methane to Formaldehyde)</t>
+  </si>
+  <si>
+    <t>methane to methanol</t>
+  </si>
+  <si>
+    <t>methanotrophy</t>
+  </si>
+  <si>
+    <t>methanol to formaldehyde</t>
+  </si>
+  <si>
+    <t>K14028</t>
+  </si>
+  <si>
+    <t>K14029</t>
+  </si>
+  <si>
+    <t>K23995</t>
+  </si>
+  <si>
+    <t>mdh1</t>
+  </si>
+  <si>
+    <t>methanol dehydrogenase (cytochrome c) subunit 1</t>
+  </si>
+  <si>
+    <t>1.1.2.7</t>
+  </si>
+  <si>
+    <t>R01146</t>
+  </si>
+  <si>
+    <t>mdh2</t>
+  </si>
+  <si>
+    <t>methanol dehydrogenase (cytochrome c) subunit 2</t>
+  </si>
+  <si>
+    <t>xoxF</t>
+  </si>
+  <si>
+    <t>lanthanide-dependent methanol dehydrogenase</t>
+  </si>
+  <si>
+    <t>1.1.2.10</t>
+  </si>
+  <si>
+    <t>pmoA-amoA+pmoB-amoB+pmoC-amoC |mmoX+mmoY+mmoZ+mmoB+mmoC+mmoD -&gt; mdh1+mdh2 | xoxF</t>
+  </si>
+  <si>
+    <t>methane -&gt; methanol -&gt; formaldehyde</t>
+  </si>
+  <si>
+    <t>K14468</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - Reductive TCA Cycle (Arnon-Buchanan cycle)</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - Anaerobic (Wood-Ljungdahl)</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - 3-Hydroxypropionate Bi-Cycle</t>
+  </si>
+  <si>
+    <t>malonyl-CoA reductase / 3-hydroxypropionate dehydrogenase (NADP+)</t>
+  </si>
+  <si>
+    <t>mcr</t>
+  </si>
+  <si>
+    <t>mcr + mcl</t>
+  </si>
+  <si>
+    <t>Temp marker genes</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +2813,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1836,6 +2838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1849,7 +2857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1862,6 +2870,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2230,19 +3242,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -2252,19 +3264,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2300,7 +3316,7 @@
         <v>255</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3074,7 +4090,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>214</v>
       </c>
@@ -3088,7 +4104,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>223</v>
       </c>
@@ -3107,7 +4123,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>227</v>
       </c>
@@ -3126,7 +4142,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>231</v>
       </c>
@@ -3145,7 +4161,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>237</v>
       </c>
@@ -3159,7 +4175,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>240</v>
       </c>
@@ -3172,10 +4188,13 @@
       <c r="F56" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K56" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>244</v>
@@ -3186,10 +4205,11 @@
       <c r="F57" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>247</v>
@@ -3200,10 +4220,13 @@
       <c r="F58" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K58" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>250</v>
@@ -3214,8 +4237,11 @@
       <c r="F59" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K59" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>252</v>
       </c>
@@ -3229,7 +4255,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>256</v>
       </c>
@@ -3245,8 +4271,11 @@
         <v>258</v>
       </c>
       <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>260</v>
       </c>
@@ -3262,8 +4291,11 @@
         <v>262</v>
       </c>
       <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>266</v>
       </c>
@@ -3776,777 +4808,2199 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="C100" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G102" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="C104" s="5"/>
       <c r="K104" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="C105" s="5"/>
       <c r="K105" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="C106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="C107" s="5"/>
       <c r="K107" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="C108" s="5"/>
       <c r="K108" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="C110" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="C111" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="C114" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>442</v>
-      </c>
       <c r="C115" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="C116" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="C117" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="C119" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G119" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="C122" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="C123" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="C124" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="C126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="C127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K127" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="C128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="C129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="C130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K130" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="C131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="C132" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="C133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="C134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="C137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="C138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="C139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="C140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="K140" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="C142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="K142" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="C143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="K143" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B144" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="C144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="K144" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K145" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="C146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="K146" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="C147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="K148" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>566</v>
       </c>
       <c r="C149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="K149" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A176" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A177" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A178" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A179" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A180" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A181" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A182" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A183" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A184" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A185" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A186" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A187" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K187" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A188" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A189" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F189" s="5"/>
+      <c r="K189" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A190" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A191" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="K191" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A192" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F192" s="5"/>
+      <c r="K192" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A193" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="K193" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A194" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F194" s="5"/>
+      <c r="K194" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A195" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="K195" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A196" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A197" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A198" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A199" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="K199" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A200" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="K200" s="10"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A201" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A202" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A203" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="K203" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A204" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A205" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A206" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F206" s="10"/>
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A207" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="K207" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A208" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A212" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A213" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A214" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A215" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A216" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A217" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A218" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A220" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A222" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A223" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A224" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A225" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A226" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A227" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A229" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A232" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -4556,21 +7010,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="75.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="56" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -4580,8 +7035,11 @@
       <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -4592,7 +7050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -4603,7 +7061,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -4614,7 +7072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -4625,7 +7083,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -4636,7 +7094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
@@ -4647,7 +7105,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -4658,7 +7116,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>217</v>
       </c>
@@ -4669,7 +7127,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
@@ -4680,7 +7138,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>234</v>
       </c>
@@ -4691,7 +7149,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>280</v>
       </c>
@@ -4699,7 +7157,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>265</v>
       </c>
@@ -4707,7 +7165,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>263</v>
       </c>
@@ -4715,7 +7173,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>305</v>
       </c>
@@ -4723,7 +7181,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>307</v>
       </c>
@@ -4733,7 +7191,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>376</v>
+        <v>906</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>334</v>
@@ -4744,7 +7202,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>340</v>
+        <v>907</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>344</v>
@@ -4755,87 +7213,87 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -4859,6 +7317,133 @@
       <c r="C28" s="1" t="s">
         <v>222</v>
       </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35DF5B-1E3F-6049-BF5E-5CC19E6737E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838CD41-1A79-A745-8B1D-A29C74A0B012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="49980" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -1813,9 +1813,6 @@
     <t xml:space="preserve">benzaldehyde dehydrogenase (NAD+) / indole-3-acetaldehyde oxidase </t>
   </si>
   <si>
-    <t>DDC|PSID -&gt; AOC1|MAO -&gt; ALDH|ALDH7A1|ALDH9A1|AAO1_2|AAO4</t>
-  </si>
-  <si>
     <t>Tryptophan to IAA II</t>
   </si>
   <si>
@@ -1900,9 +1897,6 @@
     <t>Tryptophan to IAA III</t>
   </si>
   <si>
-    <t>IL4I1|Tam1|ARO8|TAA1 -&gt; ipdC -&gt;  ALDH|ALDH7A1|ALDH9A1|AAO1_2|AAO4</t>
-  </si>
-  <si>
     <t>tryptophan -&gt; indolepyruvate -&gt; indole-3-acetaldehyde -&gt; indoleacetate</t>
   </si>
   <si>
@@ -1999,18 +1993,9 @@
     <t>Tryptophan to IAA IV</t>
   </si>
   <si>
-    <t>CYP79B1_2|CYP79B3 -&gt; CYP71A13 -&gt; E3.5.5.1</t>
-  </si>
-  <si>
-    <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile-&gt; indoleacetate</t>
-  </si>
-  <si>
     <t>Tryptophan to IAA V</t>
   </si>
   <si>
-    <t>CYP79B1_2|CYP79B3 -&gt; CYP71A13 -&gt; nthA+nthB -&gt; aniE|iaaH</t>
-  </si>
-  <si>
     <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile -&gt; indole-3-acetamide -&gt; indoleacetate</t>
   </si>
   <si>
@@ -3038,6 +3023,21 @@
   </si>
   <si>
     <t>file with concatenated hmms</t>
+  </si>
+  <si>
+    <t>DDC | PSID -&gt; AOC1 | MAO -&gt; ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
+  </si>
+  <si>
+    <t>IL4I1 | Tam1 | ARO8 | TAA1 -&gt; ipdC -&gt;  ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
+  </si>
+  <si>
+    <t>CYP79B1_2 | CYP79B3 -&gt; CYP71A13 -&gt; E3.5.5.1</t>
+  </si>
+  <si>
+    <t>CYP79B1_2 | CYP79B3 -&gt; CYP71A13 -&gt; nthA + nthB -&gt; amiE | iaaH</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile -&gt; indoleacetate</t>
   </si>
 </sst>
 </file>
@@ -3513,16 +3513,16 @@
         <v>235</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3556,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
@@ -4516,7 +4516,7 @@
         <v>222</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4547,7 +4547,7 @@
         <v>228</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4564,7 +4564,7 @@
         <v>231</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4598,7 +4598,7 @@
         <v>238</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4618,7 +4618,7 @@
         <v>242</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -5493,7 +5493,7 @@
         <v>412</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>413</v>
@@ -5974,7 +5974,7 @@
         <v>539</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>547</v>
@@ -6000,7 +6000,7 @@
         <v>543</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>549</v>
@@ -6023,7 +6023,7 @@
         <v>546</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>549</v>
@@ -6046,7 +6046,7 @@
         <v>554</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>559</v>
@@ -6072,7 +6072,7 @@
         <v>557</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>559</v>
@@ -6098,7 +6098,7 @@
         <v>565</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>566</v>
@@ -6124,7 +6124,7 @@
         <v>570</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>566</v>
@@ -6150,7 +6150,7 @@
         <v>578</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>583</v>
@@ -6176,7 +6176,7 @@
         <v>582</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>583</v>
@@ -6199,7 +6199,7 @@
         <v>585</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>583</v>
@@ -6222,7 +6222,7 @@
         <v>587</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>583</v>
@@ -6248,7 +6248,7 @@
         <v>591</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>583</v>
@@ -6268,25 +6268,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="I145" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6294,25 +6294,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6320,22 +6320,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="D147" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6343,25 +6343,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6369,25 +6369,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6395,25 +6395,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I150" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6421,25 +6421,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="D151" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6447,25 +6447,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6473,25 +6473,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6499,25 +6499,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6525,25 +6525,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6551,19 +6551,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6571,16 +6571,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6588,16 +6588,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6605,16 +6605,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6622,16 +6622,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6639,16 +6639,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6656,16 +6656,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6673,16 +6673,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6690,16 +6690,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6707,16 +6707,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6724,16 +6724,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6741,16 +6741,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6758,16 +6758,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6775,13 +6775,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6789,16 +6789,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6806,16 +6806,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6823,13 +6823,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6837,16 +6837,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6854,13 +6854,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6868,16 +6868,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6885,16 +6885,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -6902,16 +6902,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -6919,16 +6919,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -6936,16 +6936,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -6953,10 +6953,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G180" s="6"/>
       <c r="L180" s="6"/>
@@ -6966,16 +6966,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6983,16 +6983,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7000,16 +7000,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7017,16 +7017,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7034,16 +7034,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7051,10 +7051,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G186" s="6"/>
       <c r="L186" s="6"/>
@@ -7064,16 +7064,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7081,16 +7081,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14">
@@ -7098,22 +7098,22 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G189" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="H189" s="2" t="s">
-        <v>770</v>
-      </c>
       <c r="I189" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7121,22 +7121,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G190" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7144,22 +7144,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I191" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7167,22 +7167,22 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7190,22 +7190,22 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7213,22 +7213,22 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H194" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7236,22 +7236,22 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7259,22 +7259,22 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7282,22 +7282,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7305,22 +7305,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7328,22 +7328,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7351,25 +7351,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7377,25 +7377,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7403,25 +7403,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7429,19 +7429,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7449,25 +7449,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="G204" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I204" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7475,19 +7475,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7495,25 +7495,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G206" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="H206" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="I206" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7521,25 +7521,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G207" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7547,25 +7547,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7573,25 +7573,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7599,22 +7599,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="I210" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7622,25 +7622,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="H211" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="I211" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7648,25 +7648,25 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7674,25 +7674,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7700,19 +7700,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G214" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="I214" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7720,19 +7720,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="H215" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>890</v>
-      </c>
       <c r="I215" s="2" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7740,16 +7740,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>903</v>
-      </c>
       <c r="G216" s="2" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7757,16 +7757,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7774,16 +7774,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7791,16 +7791,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7808,16 +7808,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7825,16 +7825,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7842,16 +7842,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7859,16 +7859,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7876,16 +7876,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7893,16 +7893,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7910,16 +7910,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C226" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="H226" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7927,16 +7927,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C227" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H227" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7944,16 +7944,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C228" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -7969,7 +7969,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -7992,27 +7992,27 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>72</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>314</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>305</v>
@@ -8045,24 +8045,24 @@
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>764</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8072,7 +8072,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>87</v>
@@ -8081,22 +8081,22 @@
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>388</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>423</v>
@@ -8117,10 +8117,10 @@
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>444</v>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>422</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>75</v>
@@ -8153,10 +8153,10 @@
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>203</v>
@@ -8165,27 +8165,27 @@
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>217</v>
@@ -8198,7 +8198,7 @@
         <v>370</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>371</v>
@@ -8207,19 +8207,19 @@
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="14" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>156</v>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="22" spans="1:4" ht="14" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>160</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>73</v>
@@ -8255,10 +8255,10 @@
     </row>
     <row r="24" spans="1:4" ht="14" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>160</v>
@@ -8267,10 +8267,10 @@
     </row>
     <row r="25" spans="1:4" ht="14" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>359</v>
@@ -8279,10 +8279,10 @@
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>202</v>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="27" spans="1:4" ht="14" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>176</v>
@@ -8303,10 +8303,10 @@
     </row>
     <row r="28" spans="1:4" ht="14" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8316,7 +8316,7 @@
         <v>481</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>482</v>
@@ -8325,36 +8325,36 @@
     </row>
     <row r="30" spans="1:4" ht="14" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8364,7 +8364,7 @@
         <v>215</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>216</v>
@@ -8373,13 +8373,13 @@
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -8388,7 +8388,7 @@
         <v>530</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -8398,7 +8398,7 @@
         <v>550</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>551</v>
@@ -8407,49 +8407,49 @@
     </row>
     <row r="37" spans="1:4" ht="14" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="14" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="14" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>654</v>
+        <v>998</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>655</v>
+        <v>1000</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="14" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>657</v>
+        <v>999</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D40" s="2"/>
     </row>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838CD41-1A79-A745-8B1D-A29C74A0B012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993E182-A2FA-5741-A92D-B4D4D504AD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1005">
   <si>
     <t>NOTE</t>
   </si>
@@ -2992,9 +2992,6 @@
     <t>pmoA-amoA + pmoB-amoB + pmoC-amoC -&gt; hao -&gt; narG + narH</t>
   </si>
   <si>
-    <t>gnaD -&gt; kdgpA | kdgA -&gt; cutA + cutB + cutC | gadh | aor</t>
-  </si>
-  <si>
     <t>paaK -&gt; paaA + paaB + paaC + paaE -&gt; paaG -&gt; paaZ -&gt; paaG | paaJ</t>
   </si>
   <si>
@@ -3038,13 +3035,28 @@
   </si>
   <si>
     <t>tryptophan -&gt; indole-3-acetaldehyde oxime -&gt; 3-indoleacetonitrile -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>gnaD -&gt; kdpgA | kdgA -&gt; cutA + cutB + cutC | gadh | aor</t>
+  </si>
+  <si>
+    <t>phaP</t>
+  </si>
+  <si>
+    <t>KAELEDLQQKTVENLRKTAGNAVADSYEEWTNRTHEALNKLQELSLNQSKSSYSLVKQAQ</t>
+  </si>
+  <si>
+    <t>EQYHQVVTQLVEEQKKTRQEFQHVSDAYVEQVKSLQKSFAQSLEQYAVVK</t>
+  </si>
+  <si>
+    <t>polyhydroxyalkanoic acid inclusion protein PhaP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3067,6 +3079,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3113,7 +3131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3128,6 +3146,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3513,16 +3532,16 @@
         <v>235</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -3532,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L228"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="13"/>
@@ -7888,7 +7907,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -7905,7 +7924,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:12">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -7939,7 +7958,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:12">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -7954,6 +7973,30 @@
       </c>
       <c r="H228" s="2" t="s">
         <v>946</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="18">
+      <c r="L230" s="10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="18">
+      <c r="L231" s="10" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -7968,8 +8011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -8306,7 +8349,7 @@
         <v>918</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8316,7 +8359,7 @@
         <v>481</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>482</v>
@@ -8328,7 +8371,7 @@
         <v>891</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>812</v>
@@ -8364,7 +8407,7 @@
         <v>215</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>216</v>
@@ -8376,7 +8419,7 @@
         <v>892</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>917</v>
@@ -8388,7 +8431,7 @@
         <v>530</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -8398,7 +8441,7 @@
         <v>550</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>551</v>
@@ -8410,7 +8453,7 @@
         <v>592</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>593</v>
@@ -8422,7 +8465,7 @@
         <v>619</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>620</v>
@@ -8434,10 +8477,10 @@
         <v>651</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -8446,7 +8489,7 @@
         <v>652</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>653</v>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1B2A8B-3B25-1443-B851-1E42FC8D3D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B83AD-B53E-BF4C-8141-1560F5198699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="24980" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1260" yWindow="460" windowWidth="49940" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gene!$A$1:$L$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1236">
   <si>
     <t>NOTE</t>
   </si>
@@ -250,9 +251,6 @@
     <t>COMPOUNDS</t>
   </si>
   <si>
-    <t>CO2-&gt;CO</t>
-  </si>
-  <si>
     <t>PATHWAY_NAME</t>
   </si>
   <si>
@@ -511,9 +509,6 @@
     <t>6.3.1.2</t>
   </si>
   <si>
-    <t>ammonia-&gt;glutamine</t>
-  </si>
-  <si>
     <t>pmoA-amoA</t>
   </si>
   <si>
@@ -670,9 +665,6 @@
     <t>Reductive Pentose Phosphate</t>
   </si>
   <si>
-    <t>D-Ribulose 5-phosphate-&gt;D-Ribulose 1,5-bisphosphate + CO2 -&gt; 3-Phospho-D-glycerate</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -928,18 +920,9 @@
     <t>K15231</t>
   </si>
   <si>
-    <t>citrate-&gt;oxaloacetate</t>
-  </si>
-  <si>
-    <t>succinyl-CoA-&gt;2-ketoglutarate</t>
-  </si>
-  <si>
     <t>fumurate -&gt; succinate</t>
   </si>
   <si>
-    <t>citrate -&gt; oxaloacetate / succinyl-CoA-&gt;2-ketoglutarate / fumurate -&gt; succinate</t>
-  </si>
-  <si>
     <t>cdhD</t>
   </si>
   <si>
@@ -1135,9 +1118,6 @@
     <t>Methanogenesis (methanol)</t>
   </si>
   <si>
-    <t>methanol-&gt;methyl-CoM</t>
-  </si>
-  <si>
     <t>bhcA</t>
   </si>
   <si>
@@ -1186,9 +1166,6 @@
     <t>BLASTP</t>
   </si>
   <si>
-    <t>glyoxylate + aspartate -&gt; glycine + glyoxylate + oxaloacetate -&gt; beta-hydroxyaspartate-&gt;iminosuccinate-&gt;aspartate</t>
-  </si>
-  <si>
     <t>atoB</t>
   </si>
   <si>
@@ -1663,9 +1640,6 @@
     <t>indoleacetamide hydrolase</t>
   </si>
   <si>
-    <t>tryptophan-&gt;indole-3-acetamide</t>
-  </si>
-  <si>
     <t>R03096</t>
   </si>
   <si>
@@ -1675,9 +1649,6 @@
     <t>Tryptophan to IAA I</t>
   </si>
   <si>
-    <t>tryptophan-&gt;indole-3-acetamide -&gt; indoleacetate</t>
-  </si>
-  <si>
     <t>K01593</t>
   </si>
   <si>
@@ -1699,9 +1670,6 @@
     <t>PSID</t>
   </si>
   <si>
-    <t>tryptophan-&gt;tryptamine</t>
-  </si>
-  <si>
     <t>4.1.1.105</t>
   </si>
   <si>
@@ -1801,9 +1769,6 @@
     <t>Tryptophan to IAA II</t>
   </si>
   <si>
-    <t>tryptophan-&gt;tryptamine -&gt; indole-3-acetaldehyde -&gt; indoleacetate</t>
-  </si>
-  <si>
     <t>K03334</t>
   </si>
   <si>
@@ -1951,9 +1916,6 @@
     <t>R03093</t>
   </si>
   <si>
-    <t>3-indoleacetonitrile-&gt; indoleacetate</t>
-  </si>
-  <si>
     <t>nthA</t>
   </si>
   <si>
@@ -2299,9 +2261,6 @@
     <t>Phospholipid Transport System</t>
   </si>
   <si>
-    <t>p-coumarate -&gt; 4-hydroxybenzoate-&gt; proteocatechuate -&gt; beta-ketoadipate -&gt; TCA cycle</t>
-  </si>
-  <si>
     <t>K00036</t>
   </si>
   <si>
@@ -2656,9 +2615,6 @@
     <t>Branch point, makes Propanoyl-CoA and glyoxylate from L-erythro-3-Methylmalyl-CoA. Also converts that glyoxylate to (S)-maloyl-CoA</t>
   </si>
   <si>
-    <t>Entner-Doudoroff pathway (M00008)</t>
-  </si>
-  <si>
     <t>edd</t>
   </si>
   <si>
@@ -2692,15 +2648,6 @@
     <t>K01625</t>
   </si>
   <si>
-    <t>Pentose Phosphate Pathway (Oxidative Steps - M00006)</t>
-  </si>
-  <si>
-    <t>Pentose Phosphate Pathway (Non-Oxidative Steps - M00007)</t>
-  </si>
-  <si>
-    <t>Semi-phosphorylative Entner-Doudoroff pathway (M00308)</t>
-  </si>
-  <si>
     <t>gnaD</t>
   </si>
   <si>
@@ -2776,9 +2723,6 @@
     <t>D-Gluconic acid -&gt; 2-Dehydro-3-deoxy-D-gluconate -&gt; 2-Dehydro-3-deoxy-6-phospho-D-gluconate -&gt; D-Glyceraldehyde 3-phosphate + pyruvate -&gt; 3-Phospho-D-glycerate</t>
   </si>
   <si>
-    <t>Non-phosphorylative Entner-Doudoroff pathway (M00309)</t>
-  </si>
-  <si>
     <t>pufL + pufM</t>
   </si>
   <si>
@@ -2932,9 +2876,6 @@
     <t>pfk | pfkA | pfkB | pfkC</t>
   </si>
   <si>
-    <t>G6PD -&gt; PGLS | pgl -&gt;  edd -&gt; eda</t>
-  </si>
-  <si>
     <t>bhcA -&gt; bhcC -&gt; bhcB -&gt; bhcD</t>
   </si>
   <si>
@@ -3010,9 +2951,6 @@
     <t>DDC | PSID -&gt; AOC1 | MAO -&gt; ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
   </si>
   <si>
-    <t>IL4I1 | Tam1 | ARO8 | TAA1 -&gt; ipdC -&gt;  ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
-  </si>
-  <si>
     <t>CYP79B1_2 | CYP79B3 -&gt; CYP71A13 -&gt; E3.5.5.1</t>
   </si>
   <si>
@@ -3082,42 +3020,21 @@
     <t>K02227</t>
   </si>
   <si>
-    <t xml:space="preserve">K02228  </t>
-  </si>
-  <si>
     <t>K02229</t>
   </si>
   <si>
     <t xml:space="preserve">K06042 </t>
   </si>
   <si>
-    <t xml:space="preserve">K03394   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05934  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K05895  </t>
-  </si>
-  <si>
     <t xml:space="preserve">K00595 </t>
   </si>
   <si>
     <t xml:space="preserve">K05936 </t>
   </si>
   <si>
-    <t xml:space="preserve">K02230   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K02231  </t>
-  </si>
-  <si>
     <t>K02232</t>
   </si>
   <si>
-    <t xml:space="preserve">K02233  </t>
-  </si>
-  <si>
     <t xml:space="preserve">K00768 </t>
   </si>
   <si>
@@ -3391,9 +3308,6 @@
     <t>Cob(I)yrinate a,c diamide -&gt; Adenosyl cobyrinate a,c diamide -&gt; Adenosyl cobyrinate hexaamide -&gt; Adenosyl cobinamide -&gt; Adenosine-GDP-cobinamide -&gt; Cobamide coenzyme</t>
   </si>
   <si>
-    <t>Dimethylbenzimidazole -&gt; N1-(5-Phospho-alpha-D-ribosyl)-5,6-dimethylbenzimidazole-&gt; alpha-Ribazole-&gt; Cobamide coenzyme</t>
-  </si>
-  <si>
     <t>cobS_cobV</t>
   </si>
   <si>
@@ -3403,15 +3317,6 @@
     <t>cobU-cobT -&gt; rhnA-cobC | cobC -&gt; cobS_cobV</t>
   </si>
   <si>
-    <t>Cobalamin (B12) Synthesis - Part A</t>
-  </si>
-  <si>
-    <t>Cobalamin (B12) Synthesis - Part B</t>
-  </si>
-  <si>
-    <t>Cobalamin (B12) Synthesis - Precorrin</t>
-  </si>
-  <si>
     <t>K00652</t>
   </si>
   <si>
@@ -3499,9 +3404,6 @@
     <t>bioI -&gt; bioF -&gt; bioA_bioK -&gt; bioD -&gt; bioB</t>
   </si>
   <si>
-    <t>Biotin (B7) Synthesis - M00573</t>
-  </si>
-  <si>
     <t>Acyl-[acyl-carrier protein] -&gt; Pimeloyl-[acyl-carrier protein] -&gt; 8-Amino-7-oxononanoate -&gt; 7,8-Diaminononanoate -&gt; Dethiobiotin -&gt; Biotin</t>
   </si>
   <si>
@@ -3529,9 +3431,6 @@
     <t>bioW -&gt; bioF -&gt; bioA_bioK | bioA -&gt; bioD -&gt; bioB</t>
   </si>
   <si>
-    <t>Biotin (B7) Synthesis - M00577</t>
-  </si>
-  <si>
     <t>Pimelate -&gt; 6-Carboxyhexanoyl-CoA -&gt; 8-Amino-7-oxononanoate -&gt; 7,8-Diaminononanoate -&gt; Dethiobiotin -&gt; Biotin</t>
   </si>
   <si>
@@ -3652,9 +3551,6 @@
     <t>R07461</t>
   </si>
   <si>
-    <t>Thiamine (B1) Synthesis - M00127</t>
-  </si>
-  <si>
     <t>4.1.99.19</t>
   </si>
   <si>
@@ -3719,6 +3615,138 @@
   </si>
   <si>
     <t>tenI isn't actually a part of M00127 for some reason. Some fudging of the ordering as it there are a few branches that come together at R10247 and R10712</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - EMP Pathway</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - Entner-Doudoroff pathway (M00008)</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - Non-phosphorylative Entner-Doudoroff pathway (M00309)</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - Pentose Phosphate Pathway (Non-Oxidative Steps - M00007)</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - Pentose Phosphate Pathway (Oxidative Steps - M00006)</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism - Semi-phosphorylative Entner-Doudoroff pathway (M00308)</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Biotin (B7) - M00573</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Biotin (B7) - M00577</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Thiamine (B1) - M00127</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Cobalamin (B12) - Part A</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Cobalamin (B12) - Part B</t>
+  </si>
+  <si>
+    <t>Viatmin Synthesis - Cobalamin (B12) - Precorrin</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - Reductive Pentose Phosphate</t>
+  </si>
+  <si>
+    <t>Malate synthase G (EC 2.3.3.9)</t>
+  </si>
+  <si>
+    <t>Glycolate dehydrogenase (EC 1.1.99.14), subunit GlcD</t>
+  </si>
+  <si>
+    <t>Glycolate dehydrogenase (EC 1.1.99.14), FAD-binding subunit GlcE</t>
+  </si>
+  <si>
+    <t>Glycolate dehydrogenase (EC 1.1.99.14), iron-sulfur subunit GlcF</t>
+  </si>
+  <si>
+    <t>Glucose-6-phosphate 1-dehydrogenase (EC 1.1.1.49)</t>
+  </si>
+  <si>
+    <t>Aliphatic amidase AmiE (EC 3.5.1.4)</t>
+  </si>
+  <si>
+    <t>Indoleacetamide hydrolase (EC 3.5.1.-)</t>
+  </si>
+  <si>
+    <t>marker gene only</t>
+  </si>
+  <si>
+    <t>methanol -&gt; methyl-CoM</t>
+  </si>
+  <si>
+    <t>ammonia -&gt; glutamine</t>
+  </si>
+  <si>
+    <t>citrate -&gt; oxaloacetate / succinyl-CoA -&gt; 2-ketoglutarate / fumurate -&gt; succinate</t>
+  </si>
+  <si>
+    <t>p-coumarate -&gt; 4-hydroxybenzoate -&gt; proteocatechuate -&gt; beta-ketoadipate -&gt; TCA cycle</t>
+  </si>
+  <si>
+    <t>glyoxylate + aspartate -&gt; glycine + glyoxylate + oxaloacetate -&gt; beta-hydroxyaspartate -&gt; iminosuccinate -&gt; aspartate</t>
+  </si>
+  <si>
+    <t>D-Ribulose 5-phosphate -&gt; D-Ribulose 1,5-bisphosphate + CO2 -&gt; 3-Phospho-D-glycerate</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetamide -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; tryptamine -&gt; indole-3-acetaldehyde -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t>Dimethylbenzimidazole -&gt; N1-(5-Phospho-alpha-D-ribosyl)-5,6-dimethylbenzimidazole -&gt; alpha-Ribazole -&gt; Cobamide coenzyme</t>
+  </si>
+  <si>
+    <t>succinyl-CoA -&gt; 2-ketoglutarate</t>
+  </si>
+  <si>
+    <t>citrate -&gt; oxaloacetate</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; indole-3-acetamide</t>
+  </si>
+  <si>
+    <t>tryptophan -&gt; tryptamine</t>
+  </si>
+  <si>
+    <t>3-indoleacetonitrile -&gt; indoleacetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02231 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02233 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K05934 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02228 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K05895 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K03394 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K02230 </t>
+  </si>
+  <si>
+    <t>G6PD -&gt; PGLS | pgl -&gt; edd -&gt; eda</t>
+  </si>
+  <si>
+    <t>IL4I1 | Tam1 | ARO8 | TAA1 -&gt; ipdC -&gt; ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
   </si>
 </sst>
 </file>
@@ -4173,10 +4201,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -4190,36 +4218,36 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -4231,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:L274"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B268" sqref="B268"/>
+    <sheetView topLeftCell="A117" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C137" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -4250,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -4268,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>16</v>
@@ -4280,10 +4308,10 @@
         <v>28</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1">
@@ -4313,6 +4341,9 @@
       <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1">
       <c r="A4" s="4">
@@ -4344,6 +4375,9 @@
       <c r="G5" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14" customHeight="1">
       <c r="A6" s="4">
@@ -4361,6 +4395,9 @@
       <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1">
       <c r="A7" s="4">
@@ -4378,25 +4415,28 @@
       <c r="G7" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="14" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1">
@@ -4404,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" customHeight="1">
@@ -4424,19 +4464,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" customHeight="1">
@@ -4444,19 +4484,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1">
@@ -4647,16 +4687,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" customHeight="1">
@@ -4664,16 +4704,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14" customHeight="1">
@@ -4681,16 +4721,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14" customHeight="1">
@@ -4698,16 +4738,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14" customHeight="1">
@@ -4715,16 +4755,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14" customHeight="1">
@@ -4732,13 +4772,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14" customHeight="1">
@@ -4746,16 +4786,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14" customHeight="1">
@@ -4763,16 +4803,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14" customHeight="1">
@@ -4780,16 +4820,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14" customHeight="1">
@@ -4797,16 +4837,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14" customHeight="1">
@@ -4814,13 +4854,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14" customHeight="1">
@@ -4828,16 +4868,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14" customHeight="1">
@@ -4845,16 +4885,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14" customHeight="1">
@@ -4862,16 +4902,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14" customHeight="1">
@@ -4879,13 +4919,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1">
@@ -4893,16 +4933,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1">
@@ -4910,16 +4950,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1">
@@ -4927,16 +4967,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1">
@@ -4944,16 +4984,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1">
@@ -4961,13 +5001,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1">
@@ -4975,13 +5015,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1">
@@ -4989,16 +5029,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1">
@@ -5006,16 +5046,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1">
@@ -5023,16 +5063,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1">
@@ -5040,13 +5080,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1">
@@ -5054,16 +5094,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1">
@@ -5071,13 +5111,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1">
@@ -5085,13 +5125,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14" customHeight="1">
@@ -5099,13 +5139,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" customHeight="1">
@@ -5113,13 +5153,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" customHeight="1">
@@ -5127,19 +5167,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1">
@@ -5147,19 +5187,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1">
@@ -5167,19 +5207,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14" customHeight="1">
@@ -5187,16 +5227,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14" customHeight="1">
@@ -5204,16 +5244,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1">
@@ -5221,13 +5261,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1">
@@ -5235,16 +5275,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14" customHeight="1">
@@ -5252,16 +5292,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1">
@@ -5269,13 +5309,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14" customHeight="1">
@@ -5283,19 +5323,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="G57" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14" customHeight="1">
@@ -5303,19 +5343,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="L58" s="4" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14" customHeight="1">
@@ -5323,16 +5363,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14" customHeight="1">
@@ -5340,16 +5380,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="14" customHeight="1">
@@ -5357,16 +5397,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14" customHeight="1">
@@ -5374,16 +5414,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14" customHeight="1">
@@ -5391,19 +5431,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14" customHeight="1">
@@ -5411,19 +5451,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14" customHeight="1">
@@ -5431,19 +5471,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14" customHeight="1">
@@ -5451,19 +5491,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14" customHeight="1">
@@ -5471,19 +5511,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14" customHeight="1">
@@ -5491,19 +5531,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="G68" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14" customHeight="1">
@@ -5511,16 +5551,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14" customHeight="1">
@@ -5528,19 +5568,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14" customHeight="1">
@@ -5548,22 +5588,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14" customHeight="1">
@@ -5571,22 +5611,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>297</v>
+        <v>1222</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14" customHeight="1">
@@ -5594,22 +5634,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" customHeight="1">
@@ -5617,22 +5657,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>296</v>
+        <v>1223</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14" customHeight="1">
@@ -5640,22 +5680,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>296</v>
+        <v>1223</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" customHeight="1">
@@ -5663,19 +5703,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14" customHeight="1">
@@ -5683,19 +5723,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14" customHeight="1">
@@ -5703,19 +5743,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D78" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="H78" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14" customHeight="1">
@@ -5723,19 +5763,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" customHeight="1">
@@ -5743,19 +5783,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="14" customHeight="1">
@@ -5763,19 +5803,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="14" customHeight="1">
@@ -5783,19 +5823,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="14" customHeight="1">
@@ -5803,19 +5843,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="14" customHeight="1">
@@ -5823,19 +5863,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="14" customHeight="1">
@@ -5843,19 +5883,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="14" customHeight="1">
@@ -5863,19 +5903,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="14" customHeight="1">
@@ -5883,19 +5923,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="14" customHeight="1">
@@ -5903,19 +5943,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="14" customHeight="1">
@@ -5923,16 +5963,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="14" customHeight="1">
@@ -5940,16 +5980,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14" customHeight="1">
@@ -5957,16 +5997,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D91" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="14" customHeight="1">
@@ -5974,13 +6014,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="14" customHeight="1">
@@ -5988,13 +6028,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="14" customHeight="1">
@@ -6002,13 +6042,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="14" customHeight="1">
@@ -6016,13 +6056,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="14" customHeight="1">
@@ -6030,13 +6070,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -6044,19 +6084,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -6064,19 +6104,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -6084,19 +6124,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14" customHeight="1">
@@ -6104,19 +6144,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14" customHeight="1">
@@ -6124,19 +6164,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14" customHeight="1">
@@ -6144,19 +6184,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14" customHeight="1">
@@ -6164,19 +6204,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14" customHeight="1">
@@ -6184,19 +6224,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -6204,16 +6244,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="14" customHeight="1">
@@ -6221,19 +6261,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14" customHeight="1">
@@ -6241,19 +6281,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -6261,19 +6301,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14" customHeight="1">
@@ -6281,19 +6321,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="14" customHeight="1">
@@ -6301,16 +6341,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="14" customHeight="1">
@@ -6318,16 +6358,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14" customHeight="1">
@@ -6335,16 +6375,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="14" customHeight="1">
@@ -6352,16 +6392,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="14" customHeight="1">
@@ -6369,16 +6409,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="14" customHeight="1">
@@ -6386,16 +6426,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="14" customHeight="1">
@@ -6403,19 +6443,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="14" customHeight="1">
@@ -6423,16 +6463,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="14" customHeight="1">
@@ -6440,16 +6480,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="14" customHeight="1">
@@ -6457,16 +6497,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="14" customHeight="1">
@@ -6474,13 +6514,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14" customHeight="1">
@@ -6488,13 +6528,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="14" customHeight="1">
@@ -6502,16 +6542,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="14" customHeight="1">
@@ -6519,13 +6559,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="14" customHeight="1">
@@ -6533,13 +6573,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="14" customHeight="1">
@@ -6547,13 +6587,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="14" customHeight="1">
@@ -6561,13 +6601,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="14" customHeight="1">
@@ -6575,16 +6615,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14" customHeight="1">
@@ -6592,13 +6632,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" customHeight="1">
@@ -6606,13 +6646,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" customHeight="1">
@@ -6620,13 +6660,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" customHeight="1">
@@ -6634,13 +6674,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="14" customHeight="1">
@@ -6648,16 +6688,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="14" customHeight="1">
@@ -6665,25 +6705,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>541</v>
+        <v>1224</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="14" customHeight="1">
@@ -6691,22 +6731,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G134" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H134" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>538</v>
+      <c r="J134" s="4" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="14" customHeight="1">
@@ -6714,22 +6757,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>542</v>
+        <v>533</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="14" customHeight="1">
@@ -6737,25 +6783,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>553</v>
+        <v>1225</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="14" customHeight="1">
@@ -6763,25 +6809,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>553</v>
+        <v>1225</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" customHeight="1">
@@ -6789,25 +6835,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="14" customHeight="1">
@@ -6815,25 +6861,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="14" customHeight="1">
@@ -6841,25 +6887,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="14" customHeight="1">
@@ -6867,22 +6913,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -6890,22 +6936,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -6913,25 +6959,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14" customHeight="1">
@@ -6939,25 +6985,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="14" customHeight="1">
@@ -6965,25 +7011,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G145" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="I145" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="14" customHeight="1">
@@ -6991,25 +7037,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G146" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="I146" s="4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="14" customHeight="1">
@@ -7017,22 +7063,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="14" customHeight="1">
@@ -7040,25 +7086,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="14" customHeight="1">
@@ -7066,25 +7112,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="14" customHeight="1">
@@ -7092,25 +7138,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="14" customHeight="1">
@@ -7118,25 +7164,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="14" customHeight="1">
@@ -7144,25 +7190,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="14" customHeight="1">
@@ -7170,25 +7216,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>637</v>
+        <v>1226</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="14" customHeight="1">
@@ -7196,25 +7242,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="14" customHeight="1">
@@ -7222,25 +7268,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="14" customHeight="1">
@@ -7248,19 +7294,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="14" customHeight="1">
@@ -7268,16 +7314,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="14" customHeight="1">
@@ -7285,16 +7331,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="14" customHeight="1">
@@ -7302,16 +7348,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="14" customHeight="1">
@@ -7319,16 +7365,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="14" customHeight="1">
@@ -7336,16 +7382,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="14" customHeight="1">
@@ -7353,16 +7399,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="14" customHeight="1">
@@ -7370,16 +7416,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="14" customHeight="1">
@@ -7387,16 +7433,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="14" customHeight="1">
@@ -7404,16 +7450,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="14" customHeight="1">
@@ -7421,16 +7467,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="14" customHeight="1">
@@ -7438,16 +7484,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14" customHeight="1">
@@ -7455,16 +7501,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="14" customHeight="1">
@@ -7472,13 +7518,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="14" customHeight="1">
@@ -7486,16 +7532,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="14" customHeight="1">
@@ -7503,16 +7549,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="14" customHeight="1">
@@ -7520,13 +7566,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="14" customHeight="1">
@@ -7534,16 +7580,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="14" customHeight="1">
@@ -7551,13 +7597,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="14" customHeight="1">
@@ -7565,16 +7611,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="14" customHeight="1">
@@ -7582,16 +7628,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -7599,16 +7645,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="14" customHeight="1">
@@ -7616,16 +7662,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="14" customHeight="1">
@@ -7633,16 +7679,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="14" customHeight="1">
@@ -7650,10 +7696,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G180" s="10"/>
       <c r="L180" s="10"/>
@@ -7663,16 +7709,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="14" customHeight="1">
@@ -7680,16 +7726,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="14" customHeight="1">
@@ -7697,16 +7743,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="14" customHeight="1">
@@ -7714,16 +7760,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="14" customHeight="1">
@@ -7731,16 +7777,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="14" customHeight="1">
@@ -7748,10 +7794,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G186" s="10"/>
       <c r="L186" s="10"/>
@@ -7761,16 +7807,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="14" customHeight="1">
@@ -7778,16 +7824,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14" customHeight="1">
@@ -7795,22 +7841,25 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>758</v>
+        <v>744</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="14" customHeight="1">
@@ -7818,22 +7867,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="14" customHeight="1">
@@ -7841,22 +7890,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="14" customHeight="1">
@@ -7864,22 +7913,22 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D192" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G192" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="G192" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="H192" s="4" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="14" customHeight="1">
@@ -7887,22 +7936,22 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="14" customHeight="1">
@@ -7910,22 +7959,22 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="14" customHeight="1">
@@ -7933,22 +7982,22 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="14" customHeight="1">
@@ -7956,22 +8005,22 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="14" customHeight="1">
@@ -7979,22 +8028,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="14" customHeight="1">
@@ -8002,22 +8051,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="14" customHeight="1">
@@ -8025,22 +8074,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="14" customHeight="1">
@@ -8048,25 +8097,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="C200" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E200" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>829</v>
-      </c>
       <c r="G200" s="4" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="14" customHeight="1">
@@ -8074,25 +8123,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="14" customHeight="1">
@@ -8100,25 +8149,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="14" customHeight="1">
@@ -8126,19 +8175,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="14" customHeight="1">
@@ -8146,25 +8195,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="14" customHeight="1">
@@ -8172,19 +8221,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="14" customHeight="1">
@@ -8192,25 +8241,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="14" customHeight="1">
@@ -8218,25 +8267,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="14" customHeight="1">
@@ -8244,25 +8293,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="14" customHeight="1">
@@ -8270,25 +8319,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E209" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>866</v>
-      </c>
       <c r="G209" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="14" customHeight="1">
@@ -8296,22 +8345,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="14" customHeight="1">
@@ -8319,25 +8368,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="14" customHeight="1">
@@ -8345,25 +8394,25 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="14" customHeight="1">
@@ -8371,25 +8420,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="14" customHeight="1">
@@ -8397,19 +8446,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="14" customHeight="1">
@@ -8417,19 +8466,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="14" customHeight="1">
@@ -8437,16 +8486,16 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="14" customHeight="1">
@@ -8454,16 +8503,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="14" customHeight="1">
@@ -8471,16 +8520,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="14" customHeight="1">
@@ -8488,16 +8537,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="14" customHeight="1">
@@ -8505,16 +8554,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="14" customHeight="1">
@@ -8522,16 +8571,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="G221" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>909</v>
-      </c>
       <c r="H221" s="4" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="14" customHeight="1">
@@ -8539,16 +8588,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="14" customHeight="1">
@@ -8556,16 +8605,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="14" customHeight="1">
@@ -8573,16 +8622,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14" customHeight="1">
@@ -8590,16 +8639,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14" customHeight="1">
@@ -8607,16 +8656,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="G226" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H226" s="4" t="s">
         <v>919</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14" customHeight="1">
@@ -8624,16 +8673,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="G227" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H227" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="14" customHeight="1">
@@ -8641,16 +8690,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="G228" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="H228" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="14" customHeight="1">
@@ -8658,13 +8707,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
     </row>
     <row r="230" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8672,19 +8721,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1064</v>
+        <v>1036</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="231" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8692,22 +8741,22 @@
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="L231" s="15"/>
     </row>
@@ -8716,22 +8765,22 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>1051</v>
+        <v>1023</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G232" s="16" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="233" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8739,19 +8788,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8759,22 +8808,22 @@
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G234" s="16" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="235" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8782,22 +8831,22 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1050</v>
+        <v>1022</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G235" s="16" t="s">
-        <v>1023</v>
+        <v>1227</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>1063</v>
+        <v>1035</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8805,19 +8854,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>1076</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8825,22 +8874,22 @@
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1055</v>
+        <v>1027</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G237" s="16" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>1077</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8848,22 +8897,22 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8871,19 +8920,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="6" customFormat="1" ht="14" customHeight="1">
@@ -8891,22 +8940,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>1118</v>
+        <v>1089</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>1054</v>
+        <v>1026</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>1025</v>
+        <v>1228</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>1079</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="14" customHeight="1">
@@ -8914,22 +8963,22 @@
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>1017</v>
+        <v>1232</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="14" customHeight="1">
@@ -8937,19 +8986,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1085</v>
+        <v>1057</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>1084</v>
+        <v>1056</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="14" customHeight="1">
@@ -8957,22 +9006,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>1033</v>
+        <v>1005</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1034</v>
+        <v>1006</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1035</v>
+        <v>1007</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="14" customHeight="1">
@@ -8980,22 +9029,22 @@
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>1040</v>
+        <v>1012</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>1018</v>
+        <v>1229</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="14" customHeight="1">
@@ -9003,19 +9052,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1091</v>
+        <v>1063</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>1090</v>
+        <v>1062</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="14" customHeight="1">
@@ -9023,22 +9072,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>1046</v>
+        <v>1018</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G246" s="13" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>1093</v>
+        <v>1065</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>1092</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="14" customHeight="1">
@@ -9046,22 +9095,22 @@
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G247" s="13" t="s">
-        <v>1014</v>
+        <v>1230</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="14" customHeight="1">
@@ -9069,22 +9118,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>1042</v>
+        <v>1014</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1043</v>
+        <v>1015</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>1019</v>
+        <v>1231</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>1095</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
@@ -9092,22 +9141,22 @@
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1044</v>
+        <v>1016</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1045</v>
+        <v>1017</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G249" s="13" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>1098</v>
+        <v>1070</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>1097</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
@@ -9115,22 +9164,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1036</v>
+        <v>1008</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>1099</v>
+        <v>1071</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>1100</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
@@ -9138,22 +9187,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>1101</v>
+        <v>1073</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>1102</v>
+        <v>1074</v>
       </c>
       <c r="L251" s="9"/>
     </row>
@@ -9162,22 +9211,22 @@
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1106</v>
+        <v>1078</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>1022</v>
+        <v>1233</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>1104</v>
+        <v>1076</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
@@ -9185,22 +9234,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1053</v>
+        <v>1025</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1107</v>
+        <v>1079</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1105</v>
+        <v>1077</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>1104</v>
+        <v>1076</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
@@ -9208,22 +9257,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1108</v>
+        <v>1080</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>1104</v>
+        <v>1076</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
@@ -9231,22 +9280,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1109</v>
+        <v>1081</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1115</v>
+        <v>1087</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>1166</v>
+        <v>1132</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>1110</v>
+        <v>1082</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>1114</v>
+        <v>1086</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>1111</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="14" customHeight="1">
@@ -9254,22 +9303,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1137</v>
+        <v>1105</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>1136</v>
+        <v>1104</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="14" customHeight="1">
@@ -9277,22 +9326,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>1138</v>
+        <v>1106</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>1140</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="14" customHeight="1">
@@ -9300,22 +9349,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>1142</v>
+        <v>1110</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="14" customHeight="1">
@@ -9323,22 +9372,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>1150</v>
+        <v>1118</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>1145</v>
+        <v>1113</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>1146</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="14" customHeight="1">
@@ -9346,22 +9395,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>1151</v>
+        <v>1119</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>1148</v>
+        <v>1116</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>1149</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="14" customHeight="1">
@@ -9369,22 +9418,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1156</v>
+        <v>1123</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1157</v>
+        <v>1124</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1165</v>
+        <v>1131</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>1155</v>
+        <v>1122</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>1158</v>
+        <v>1125</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>1159</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="14" customHeight="1">
@@ -9392,22 +9441,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H262" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H262" s="4" t="s">
-        <v>1160</v>
-      </c>
       <c r="I262" s="4" t="s">
-        <v>1161</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="14" customHeight="1">
@@ -9415,22 +9464,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>1168</v>
+        <v>1134</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>1169</v>
+        <v>1135</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G263" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H263" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="H263" s="4" t="s">
-        <v>1201</v>
-      </c>
       <c r="I263" s="4" t="s">
-        <v>1200</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="14" customHeight="1">
@@ -9438,16 +9487,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>1171</v>
+        <v>1137</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>1172</v>
+        <v>1138</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>1170</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="14" customHeight="1">
@@ -9455,22 +9504,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>1174</v>
+        <v>1140</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>1175</v>
+        <v>1141</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>1173</v>
+        <v>1139</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>1202</v>
+        <v>1168</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>1203</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="14" customHeight="1">
@@ -9478,22 +9527,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>1177</v>
+        <v>1143</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>1178</v>
+        <v>1144</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>1176</v>
+        <v>1142</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>1205</v>
+        <v>1170</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>1206</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="14" customHeight="1">
@@ -9501,22 +9550,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1180</v>
+        <v>1146</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>1181</v>
+        <v>1147</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>1179</v>
+        <v>1145</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>1207</v>
+        <v>1172</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>1208</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="14" customHeight="1">
@@ -9524,22 +9573,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>1221</v>
+        <v>1186</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>1222</v>
+        <v>1187</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>1223</v>
+        <v>1188</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>1219</v>
+        <v>1184</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>1220</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="14" customHeight="1">
@@ -9547,22 +9596,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>1189</v>
+        <v>1155</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>1190</v>
+        <v>1156</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>1188</v>
+        <v>1154</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>1213</v>
+        <v>1178</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>1214</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="14" customHeight="1">
@@ -9570,22 +9619,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>1183</v>
+        <v>1149</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>1184</v>
+        <v>1150</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>1182</v>
+        <v>1148</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>1209</v>
+        <v>1174</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>1210</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="14" customHeight="1">
@@ -9593,22 +9642,22 @@
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1186</v>
+        <v>1152</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>1187</v>
+        <v>1153</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1185</v>
+        <v>1151</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>1211</v>
+        <v>1176</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>1212</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="14" customHeight="1">
@@ -9616,22 +9665,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1192</v>
+        <v>1158</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>1191</v>
+        <v>1157</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>1215</v>
+        <v>1180</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>1216</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="14" customHeight="1">
@@ -9639,22 +9688,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>1198</v>
+        <v>1164</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>1193</v>
+        <v>1159</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>1197</v>
+        <v>1163</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>1215</v>
+        <v>1180</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>1216</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="14" customHeight="1">
@@ -9662,28 +9711,28 @@
         <v>273</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1195</v>
+        <v>1161</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>1196</v>
+        <v>1162</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1199</v>
+        <v>1165</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>1194</v>
+        <v>1160</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>1217</v>
+        <v>1182</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>1218</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L255" xr:uid="{7B744D2A-59F4-1A45-A154-AE9343A3EAAE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L255">
-      <sortCondition ref="A1:A255"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L274">
+      <sortCondition ref="A1:A274"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L255">
@@ -9697,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -9712,7 +9761,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>67</v>
@@ -9721,493 +9770,501 @@
         <v>69</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>848</v>
+        <v>1192</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>959</v>
+        <v>944</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>851</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>870</v>
+        <v>1193</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>960</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>847</v>
+        <v>1194</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>339</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>961</v>
+        <v>1195</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>960</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>299</v>
+        <v>792</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>748</v>
+        <v>1196</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>962</v>
+        <v>764</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>914</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>958</v>
+        <v>1197</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>834</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>940</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>882</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>965</v>
+        <v>833</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>955</v>
+        <v>832</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>417</v>
+        <v>942</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>421</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>956</v>
+        <v>735</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>438</v>
+        <v>1216</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>416</v>
+        <v>895</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>968</v>
+        <v>933</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>945</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>72</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>969</v>
+        <v>409</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1001</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="C18" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="C19" s="11" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>971</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>972</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14" customHeight="1">
+    </row>
+    <row r="21" spans="1:3" ht="14" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14" customHeight="1">
+        <v>930</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14" customHeight="1">
+        <v>931</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>974</v>
+        <v>358</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>951</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" customHeight="1">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>944</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>975</v>
+        <v>814</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>952</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14" customHeight="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>951</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>976</v>
+        <v>927</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>942</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="14" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>912</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14" customHeight="1">
+    </row>
+    <row r="29" spans="1:3" ht="14" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>475</v>
+        <v>932</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>980</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>778</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" ht="14" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>752</v>
+        <v>467</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>751</v>
+        <v>959</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>209</v>
+        <v>739</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>981</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>210</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>982</v>
+        <v>1204</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>961</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>911</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>545</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>587</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>990</v>
+        <v>1235</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" customHeight="1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>1116</v>
-      </c>
     </row>
     <row r="42" spans="1:4" ht="14" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>1117</v>
+      <c r="A42" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>1112</v>
+        <v>1201</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1090</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>1154</v>
+      <c r="A44" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>1164</v>
+      <c r="A45" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1225</v>
+        <v>1190</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1224</v>
+        <v>1189</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>1226</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D46" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
+      <sortCondition ref="A1:A46"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
     <sortCondition ref="A2:A40"/>
   </sortState>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F303F-A9B1-4240-A28F-168091E50405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D0392-D9D0-2F42-BD0E-1D82460484A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="29260" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="25060" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$255</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1286">
   <si>
     <t>NOTE</t>
   </si>
@@ -3623,24 +3623,6 @@
     <t>Carbohydrate Metabolism - Semi-phosphorylative Entner-Doudoroff pathway (M00308)</t>
   </si>
   <si>
-    <t>Viatmin Synthesis - Biotin (B7) - M00573</t>
-  </si>
-  <si>
-    <t>Viatmin Synthesis - Biotin (B7) - M00577</t>
-  </si>
-  <si>
-    <t>Viatmin Synthesis - Thiamine (B1) - M00127</t>
-  </si>
-  <si>
-    <t>Viatmin Synthesis - Cobalamin (B12) - Part A</t>
-  </si>
-  <si>
-    <t>Viatmin Synthesis - Cobalamin (B12) - Part B</t>
-  </si>
-  <si>
-    <t>Viatmin Synthesis - Cobalamin (B12) - Precorrin</t>
-  </si>
-  <si>
     <t>Carbon Fixation - Reductive Pentose Phosphate</t>
   </si>
   <si>
@@ -3735,6 +3717,186 @@
   </si>
   <si>
     <t>IL4I1 | Tam1 | ARO8 | TAA1 -&gt; ipdC -&gt; ALDH | ALDH7A1 | ALDH9A1 | AAO1_2 | AAO4</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Biotin (B7) - M00573</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Biotin (B7) - M00577</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Cobalamin (B12) - Part A</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Cobalamin (B12) - Part B</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Cobalamin (B12) - Precorrin</t>
+  </si>
+  <si>
+    <t>Vitamin Synthesis - Thiamine (B1) - M00127</t>
+  </si>
+  <si>
+    <t>glcA</t>
+  </si>
+  <si>
+    <t>Glycolate permease</t>
+  </si>
+  <si>
+    <t>K02550</t>
+  </si>
+  <si>
+    <t>Glyoxylate - Glycolate Permease</t>
+  </si>
+  <si>
+    <t>lldP | glcA</t>
+  </si>
+  <si>
+    <t>ghrB</t>
+  </si>
+  <si>
+    <t>1.1.1.79</t>
+  </si>
+  <si>
+    <t>R00465</t>
+  </si>
+  <si>
+    <t>K00090</t>
+  </si>
+  <si>
+    <t>ghrA</t>
+  </si>
+  <si>
+    <t>Glyoxylate reductase A</t>
+  </si>
+  <si>
+    <t>Glyoxylate reductase B</t>
+  </si>
+  <si>
+    <t>K12972</t>
+  </si>
+  <si>
+    <t>ghrA uses glyoxylate as substrate</t>
+  </si>
+  <si>
+    <t>ghrB may prefer hydroxypyruvate as a substrate</t>
+  </si>
+  <si>
+    <t>Glyoxylate - Phosphoglycolate to glyoxylate</t>
+  </si>
+  <si>
+    <t>PGP</t>
+  </si>
+  <si>
+    <t>Phosphoglycolate phosphatase</t>
+  </si>
+  <si>
+    <t>K01091,K19269,K22223</t>
+  </si>
+  <si>
+    <t>3.1.3.18</t>
+  </si>
+  <si>
+    <t>R01334</t>
+  </si>
+  <si>
+    <t>PGP -&gt; ghrA | ghrB</t>
+  </si>
+  <si>
+    <t>Phosphoglycolate -&gt; glycolate -&gt; glyoxylate</t>
+  </si>
+  <si>
+    <t>2.7.8.37</t>
+  </si>
+  <si>
+    <t>R10185</t>
+  </si>
+  <si>
+    <t>K05780</t>
+  </si>
+  <si>
+    <t>K06164</t>
+  </si>
+  <si>
+    <t>K06165</t>
+  </si>
+  <si>
+    <t>K06166</t>
+  </si>
+  <si>
+    <t>phnL</t>
+  </si>
+  <si>
+    <t>phnI</t>
+  </si>
+  <si>
+    <t>phnH</t>
+  </si>
+  <si>
+    <t>phnG</t>
+  </si>
+  <si>
+    <t>alpha-D-ribose 1-methylphosphonate 5-triphosphate synthase subunit PhnL</t>
+  </si>
+  <si>
+    <t>alpha-D-ribose 1-methylphosphonate 5-triphosphate synthase subunit PhnI</t>
+  </si>
+  <si>
+    <t>alpha-D-ribose 1-methylphosphonate 5-triphosphate synthase subunit PhnH</t>
+  </si>
+  <si>
+    <t>alpha-D-ribose 1-methylphosphonate 5-triphosphate synthase subunit PhnG</t>
+  </si>
+  <si>
+    <t>Methylphosponate to Methane</t>
+  </si>
+  <si>
+    <t>3.6.1.63</t>
+  </si>
+  <si>
+    <t>R10186</t>
+  </si>
+  <si>
+    <t>K06162</t>
+  </si>
+  <si>
+    <t>phnM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose 1-methylphosphonate 5-triphosphate diphosphatase </t>
+  </si>
+  <si>
+    <t>methylphosphonate to methane</t>
+  </si>
+  <si>
+    <t>4.7.1.1</t>
+  </si>
+  <si>
+    <t>phnJ</t>
+  </si>
+  <si>
+    <t>K06163</t>
+  </si>
+  <si>
+    <t>R10204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose 1-methylphosphonate 5-phosphate C-P lyase </t>
+  </si>
+  <si>
+    <t>phnL + phnI + phnH + phnG -&gt; phnM -&gt; phnJ</t>
+  </si>
+  <si>
+    <t>Methylphosphonate -&gt; alpha-D-Ribose 1-methylphosphonate 5-triphosphate -&gt; alpha-D-Ribose 1-methylphosphonate 5-phosphate -&gt; methane + alpha-D-Ribose 1,2-cyclic phosphate 5-phosphate</t>
+  </si>
+  <si>
+    <t>afsA</t>
+  </si>
+  <si>
+    <t>SPOA0342_afsA</t>
+  </si>
+  <si>
+    <t>Hypothetical protein - GBL synthesis</t>
   </si>
 </sst>
 </file>
@@ -4172,18 +4334,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="3" customWidth="1"/>
@@ -4249,16 +4411,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>1232</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>1233</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1201</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1">
@@ -4266,13 +4425,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>1241</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>1242</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1245</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
+        <v>1244</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14" customHeight="1">
@@ -4280,19 +4448,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>1237</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>1243</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1246</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>1202</v>
+        <v>1240</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14" customHeight="1">
@@ -4300,19 +4471,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>1248</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>1249</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>1203</v>
+        <v>1250</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1">
@@ -4320,19 +4491,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14" customHeight="1">
@@ -4340,19 +4508,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1">
@@ -4360,19 +4522,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" customHeight="1">
@@ -4380,19 +4542,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" customHeight="1">
@@ -4400,19 +4562,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1">
@@ -4420,31 +4582,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1">
@@ -4452,31 +4602,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1">
@@ -4484,31 +4622,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1">
@@ -4516,28 +4642,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1">
@@ -4545,303 +4662,363 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14" customHeight="1">
+        <v>93</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1">
@@ -4849,16 +5026,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1">
@@ -4866,16 +5043,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1">
@@ -4883,16 +5060,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1">
@@ -4900,16 +5077,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1">
@@ -4917,13 +5091,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1">
@@ -4931,13 +5108,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1">
@@ -4945,16 +5125,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1">
@@ -4962,16 +5142,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1">
@@ -4979,16 +5159,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1">
@@ -4996,13 +5173,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1">
@@ -5010,16 +5187,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1">
@@ -5027,13 +5204,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1">
@@ -5041,13 +5221,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14" customHeight="1">
@@ -5055,13 +5238,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14" customHeight="1">
@@ -5069,13 +5252,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14" customHeight="1">
@@ -5083,19 +5269,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1">
@@ -5103,19 +5283,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1">
@@ -5123,19 +5297,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14" customHeight="1">
@@ -5143,16 +5311,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14" customHeight="1">
@@ -5160,16 +5325,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>635</v>
+        <v>196</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1">
@@ -5177,13 +5345,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1">
@@ -5191,16 +5365,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>636</v>
+        <v>204</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14" customHeight="1">
@@ -5208,16 +5385,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>637</v>
+        <v>207</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1">
@@ -5225,13 +5402,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14" customHeight="1">
@@ -5239,19 +5419,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>633</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14" customHeight="1">
@@ -5259,19 +5433,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14" customHeight="1">
@@ -5279,16 +5450,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14" customHeight="1">
@@ -5296,16 +5467,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="14" customHeight="1">
@@ -5313,16 +5481,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14" customHeight="1">
@@ -5330,16 +5501,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14" customHeight="1">
@@ -5347,19 +5521,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14" customHeight="1">
@@ -5367,19 +5538,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14" customHeight="1">
@@ -5387,19 +5555,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14" customHeight="1">
@@ -5407,19 +5572,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14" customHeight="1">
@@ -5427,16 +5589,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>249</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>248</v>
@@ -5447,16 +5609,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>248</v>
@@ -5467,16 +5629,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14" customHeight="1">
@@ -5484,19 +5649,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14" customHeight="1">
@@ -5504,22 +5669,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>1218</v>
+        <v>249</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14" customHeight="1">
@@ -5527,22 +5689,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>1218</v>
+        <v>265</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14" customHeight="1">
@@ -5550,22 +5709,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" customHeight="1">
@@ -5573,19 +5726,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>1219</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>272</v>
@@ -5596,22 +5746,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" customHeight="1">
@@ -5619,19 +5769,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1212</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14" customHeight="1">
@@ -5639,19 +5792,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14" customHeight="1">
@@ -5659,19 +5815,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>1213</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14" customHeight="1">
@@ -5679,19 +5838,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>296</v>
+        <v>273</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>1213</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" customHeight="1">
@@ -5699,19 +5861,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="14" customHeight="1">
@@ -5719,19 +5881,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="14" customHeight="1">
@@ -5739,19 +5901,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="14" customHeight="1">
@@ -5759,19 +5921,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="14" customHeight="1">
@@ -5779,19 +5941,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="14" customHeight="1">
@@ -5799,19 +5961,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>296</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="14" customHeight="1">
@@ -5819,19 +5981,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="14" customHeight="1">
@@ -5839,19 +6001,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="14" customHeight="1">
@@ -5859,19 +6021,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="14" customHeight="1">
@@ -5879,16 +6041,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>348</v>
+        <v>329</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="14" customHeight="1">
@@ -5896,16 +6061,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>352</v>
+        <v>334</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="14" customHeight="1">
@@ -5913,16 +6081,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>355</v>
+        <v>339</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="14" customHeight="1">
@@ -5930,13 +6101,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>359</v>
+        <v>342</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="14" customHeight="1">
@@ -5944,13 +6121,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>362</v>
+        <v>347</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="14" customHeight="1">
@@ -5958,13 +6138,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>365</v>
+        <v>351</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="14" customHeight="1">
@@ -5972,13 +6155,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>368</v>
+        <v>354</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="14" customHeight="1">
@@ -5986,13 +6172,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -6000,19 +6186,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>398</v>
+        <v>361</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -6020,19 +6200,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>399</v>
+        <v>364</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -6040,19 +6214,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>400</v>
+        <v>367</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14" customHeight="1">
@@ -6060,19 +6228,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>401</v>
+        <v>370</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14" customHeight="1">
@@ -6080,19 +6242,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>376</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14" customHeight="1">
@@ -6100,19 +6262,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>376</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14" customHeight="1">
@@ -6120,19 +6282,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>376</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14" customHeight="1">
@@ -6140,19 +6302,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>854</v>
+        <v>376</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -6160,16 +6322,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>409</v>
+        <v>388</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="14" customHeight="1">
@@ -6177,19 +6342,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14" customHeight="1">
@@ -6197,19 +6362,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -6217,19 +6382,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>415</v>
+        <v>854</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14" customHeight="1">
@@ -6237,19 +6402,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="14" customHeight="1">
@@ -6257,16 +6419,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>434</v>
+        <v>413</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>435</v>
+        <v>414</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="14" customHeight="1">
@@ -6274,16 +6439,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14" customHeight="1">
@@ -6291,16 +6459,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>442</v>
+        <v>420</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>443</v>
+        <v>421</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="14" customHeight="1">
@@ -6308,16 +6479,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>447</v>
+        <v>424</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="14" customHeight="1">
@@ -6325,16 +6499,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="14" customHeight="1">
@@ -6342,16 +6516,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="14" customHeight="1">
@@ -6359,19 +6533,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="14" customHeight="1">
@@ -6379,16 +6550,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="14" customHeight="1">
@@ -6396,16 +6567,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="14" customHeight="1">
@@ -6413,16 +6584,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="14" customHeight="1">
@@ -6430,13 +6601,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>473</v>
+        <v>458</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>474</v>
+        <v>460</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14" customHeight="1">
@@ -6444,13 +6621,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>477</v>
+        <v>464</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="14" customHeight="1">
@@ -6458,16 +6638,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="14" customHeight="1">
@@ -6475,13 +6655,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>482</v>
+        <v>429</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>483</v>
+        <v>430</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="14" customHeight="1">
@@ -6489,13 +6672,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="14" customHeight="1">
@@ -6503,13 +6686,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>490</v>
+        <v>476</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="14" customHeight="1">
@@ -6517,13 +6700,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>481</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="14" customHeight="1">
@@ -6531,16 +6717,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14" customHeight="1">
@@ -6548,13 +6731,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" customHeight="1">
@@ -6562,13 +6745,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>503</v>
+        <v>489</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" customHeight="1">
@@ -6576,13 +6759,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" customHeight="1">
@@ -6590,13 +6773,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>508</v>
+        <v>495</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="14" customHeight="1">
@@ -6604,16 +6790,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="14" customHeight="1">
@@ -6621,25 +6804,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>1220</v>
+        <v>502</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="14" customHeight="1">
@@ -6647,25 +6818,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>1206</v>
+        <v>505</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="14" customHeight="1">
@@ -6673,25 +6832,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>1207</v>
+        <v>508</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="14" customHeight="1">
@@ -6699,25 +6846,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>1221</v>
+        <v>511</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>537</v>
+        <v>513</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="14" customHeight="1">
@@ -6725,25 +6863,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" customHeight="1">
@@ -6751,25 +6889,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>548</v>
+        <v>527</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="14" customHeight="1">
@@ -6777,25 +6915,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>548</v>
+        <v>530</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="14" customHeight="1">
@@ -6803,25 +6941,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>563</v>
+        <v>1215</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="14" customHeight="1">
@@ -6829,22 +6967,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>563</v>
+        <v>1215</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -6852,22 +6993,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>554</v>
+        <v>542</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -6875,25 +7019,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14" customHeight="1">
@@ -6901,10 +7045,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>632</v>
@@ -6913,13 +7057,13 @@
         <v>563</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="14" customHeight="1">
@@ -6927,25 +7071,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="14" customHeight="1">
@@ -6953,25 +7094,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="14" customHeight="1">
@@ -6979,22 +7117,25 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>586</v>
+        <v>569</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="14" customHeight="1">
@@ -7002,25 +7143,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="14" customHeight="1">
@@ -7028,25 +7169,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="14" customHeight="1">
@@ -7054,25 +7195,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="14" customHeight="1">
@@ -7080,25 +7221,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="14" customHeight="1">
@@ -7106,25 +7244,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="14" customHeight="1">
@@ -7132,25 +7270,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>1222</v>
+        <v>595</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="14" customHeight="1">
@@ -7158,25 +7296,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="14" customHeight="1">
@@ -7184,25 +7322,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>632</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="14" customHeight="1">
@@ -7210,19 +7348,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>730</v>
+        <v>614</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>731</v>
+        <v>632</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>617</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>639</v>
+        <v>602</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="14" customHeight="1">
@@ -7230,16 +7374,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>641</v>
+        <v>618</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>619</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>731</v>
+        <v>632</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>1216</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>642</v>
+        <v>603</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="14" customHeight="1">
@@ -7247,16 +7400,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>644</v>
+        <v>622</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>731</v>
+        <v>632</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>645</v>
+        <v>604</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="14" customHeight="1">
@@ -7264,16 +7426,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>647</v>
+        <v>627</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>731</v>
+        <v>632</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>648</v>
+        <v>605</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="14" customHeight="1">
@@ -7281,16 +7452,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>650</v>
+        <v>638</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>730</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="14" customHeight="1">
@@ -7298,16 +7472,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="14" customHeight="1">
@@ -7315,16 +7489,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="14" customHeight="1">
@@ -7332,16 +7506,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="14" customHeight="1">
@@ -7349,16 +7523,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="14" customHeight="1">
@@ -7366,16 +7540,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="14" customHeight="1">
@@ -7383,16 +7557,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="14" customHeight="1">
@@ -7400,16 +7574,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14" customHeight="1">
@@ -7417,16 +7591,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="14" customHeight="1">
@@ -7434,13 +7608,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>731</v>
       </c>
+      <c r="G169" s="3" t="s">
+        <v>667</v>
+      </c>
       <c r="L169" s="3" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="14" customHeight="1">
@@ -7448,16 +7625,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="14" customHeight="1">
@@ -7465,16 +7642,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="14" customHeight="1">
@@ -7482,13 +7659,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>731</v>
       </c>
+      <c r="G172" s="3" t="s">
+        <v>676</v>
+      </c>
       <c r="L172" s="3" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="14" customHeight="1">
@@ -7496,16 +7676,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G173" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="L173" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="14" customHeight="1">
@@ -7513,13 +7690,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>731</v>
       </c>
+      <c r="G174" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="L174" s="3" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="14" customHeight="1">
@@ -7527,16 +7707,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="14" customHeight="1">
@@ -7544,16 +7724,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>697</v>
-      </c>
       <c r="L176" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -7561,16 +7738,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="14" customHeight="1">
@@ -7578,16 +7755,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G178" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="L178" s="3" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="14" customHeight="1">
@@ -7595,16 +7769,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="14" customHeight="1">
@@ -7612,29 +7786,33 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G180" s="8"/>
-      <c r="L180" s="8"/>
+      <c r="G180" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="14" customHeight="1">
       <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="14" customHeight="1">
@@ -7642,16 +7820,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="14" customHeight="1">
@@ -7659,16 +7837,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="14" customHeight="1">
@@ -7676,33 +7854,29 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="L184" s="3" t="s">
-        <v>718</v>
-      </c>
+      <c r="G184" s="8"/>
+      <c r="L184" s="8"/>
     </row>
     <row r="185" spans="1:12" ht="14" customHeight="1">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="14" customHeight="1">
@@ -7710,29 +7884,33 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G186" s="8"/>
-      <c r="L186" s="8"/>
+      <c r="G186" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="187" spans="1:12" ht="14" customHeight="1">
       <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="14" customHeight="1">
@@ -7740,16 +7918,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>731</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14" customHeight="1">
@@ -7757,25 +7935,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="J189" s="3" t="s">
-        <v>1205</v>
+        <v>722</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="14" customHeight="1">
@@ -7783,45 +7952,29 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>748</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="G190" s="8"/>
+      <c r="L190" s="8"/>
     </row>
     <row r="191" spans="1:12" ht="14" customHeight="1">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>755</v>
+        <v>726</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="14" customHeight="1">
@@ -7829,292 +7982,283 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="14" customHeight="1">
+        <v>729</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="14" customHeight="1">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="14" customHeight="1">
+        <v>741</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="14" customHeight="1">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="14" customHeight="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="14" customHeight="1">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="14" customHeight="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14" customHeight="1">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="14" customHeight="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14" customHeight="1">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="14" customHeight="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14" customHeight="1">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="14" customHeight="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="14" customHeight="1">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>740</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="14" customHeight="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="14" customHeight="1">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="14" customHeight="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="14" customHeight="1">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="14" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="14" customHeight="1">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="14" customHeight="1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="14" customHeight="1">
       <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>812</v>
+        <v>740</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="14" customHeight="1">
+        <v>784</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="14" customHeight="1">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>813</v>
@@ -8123,7 +8267,7 @@
         <v>812</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>799</v>
@@ -8132,15 +8276,15 @@
         <v>800</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14" customHeight="1">
+    <row r="205" spans="1:10" ht="14" customHeight="1">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>813</v>
@@ -8149,85 +8293,85 @@
         <v>812</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="14" customHeight="1">
+        <v>792</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="14" customHeight="1">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>813</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="14" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="14" customHeight="1">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>813</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="14" customHeight="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="14" customHeight="1">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>813</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="14" customHeight="1">
@@ -8235,25 +8379,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H209" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="14" customHeight="1">
@@ -8261,22 +8399,25 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>848</v>
+        <v>819</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>847</v>
+        <v>815</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="14" customHeight="1">
@@ -8284,25 +8425,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="14" customHeight="1">
@@ -8310,25 +8451,25 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="14" customHeight="1">
@@ -8336,25 +8477,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>831</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="14" customHeight="1">
@@ -8362,19 +8503,22 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>857</v>
+        <v>848</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="14" customHeight="1">
@@ -8382,19 +8526,25 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>860</v>
+        <v>839</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="14" customHeight="1">
@@ -8402,16 +8552,25 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>866</v>
+        <v>838</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>871</v>
+        <v>845</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>873</v>
+        <v>842</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="14" customHeight="1">
@@ -8419,16 +8578,25 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>874</v>
+        <v>832</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>875</v>
+        <v>828</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>876</v>
+        <v>850</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="14" customHeight="1">
@@ -8436,16 +8604,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>880</v>
+        <v>859</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="14" customHeight="1">
@@ -8453,16 +8624,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>883</v>
+        <v>861</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="14" customHeight="1">
@@ -8470,16 +8644,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="14" customHeight="1">
@@ -8487,16 +8661,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="14" customHeight="1">
@@ -8504,16 +8678,16 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="14" customHeight="1">
@@ -8521,16 +8695,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>908</v>
+        <v>881</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>915</v>
+        <v>883</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="14" customHeight="1">
@@ -8538,16 +8712,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14" customHeight="1">
@@ -8555,16 +8729,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14" customHeight="1">
@@ -8572,16 +8746,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14" customHeight="1">
@@ -8589,16 +8763,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="14" customHeight="1">
@@ -8606,16 +8780,16 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="14" customHeight="1">
@@ -8623,1031 +8797,1251 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="14" customHeight="1">
+      <c r="A230" s="3">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="14" customHeight="1">
+      <c r="A231" s="3">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="14" customHeight="1">
+      <c r="A232" s="3">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="14" customHeight="1">
+      <c r="A233" s="3">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="L233" s="3" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A230" s="4">
-        <v>229</v>
-      </c>
-      <c r="B230" s="4" t="s">
+    <row r="234" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A234" s="3">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>1032</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A231" s="4">
-        <v>230</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="I231" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L231" s="12"/>
-    </row>
-    <row r="232" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A232" s="4">
-        <v>231</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G232" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I232" s="4" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A233" s="4">
-        <v>232</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="I233" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A234" s="4">
-        <v>233</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>996</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G234" s="13" t="s">
-        <v>988</v>
+      <c r="G234" s="4" t="s">
+        <v>1026</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="235" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1017</v>
+        <v>977</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1018</v>
+        <v>978</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G235" s="13" t="s">
-        <v>1223</v>
+      <c r="G235" s="4" t="s">
+        <v>979</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>1031</v>
+        <v>983</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>1043</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="L235" s="12"/>
     </row>
     <row r="236" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>1033</v>
+        <v>1019</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>1020</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G236" s="4" t="s">
-        <v>1034</v>
+      <c r="G236" s="13" t="s">
+        <v>993</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A237" s="4">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G237" s="13" t="s">
-        <v>994</v>
+      <c r="G237" s="4" t="s">
+        <v>1027</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G238" s="4" t="s">
-        <v>986</v>
+      <c r="G238" s="13" t="s">
+        <v>988</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1036</v>
+        <v>1017</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1018</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G239" s="4" t="s">
-        <v>1028</v>
+      <c r="G239" s="13" t="s">
+        <v>1217</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>987</v>
+        <v>1031</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="240" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G240" s="13" t="s">
-        <v>1224</v>
+      <c r="G240" s="4" t="s">
+        <v>1034</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" ht="14" customHeight="1">
-      <c r="A241" s="4">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>1007</v>
+        <v>1037</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>1023</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G241" s="10" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" ht="14" customHeight="1">
-      <c r="A242" s="4">
+      <c r="G241" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>1053</v>
+      <c r="B242" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>985</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" ht="14" customHeight="1">
-      <c r="A243" s="4">
+      <c r="G242" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>1002</v>
+        <v>1036</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G243" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I243" s="3" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="14" customHeight="1">
-      <c r="A244" s="4">
+      <c r="G243" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>1009</v>
+        <v>1085</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1022</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G244" s="10" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>1056</v>
+      <c r="G244" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="14" customHeight="1">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>1059</v>
+      <c r="B245" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G245" s="3" t="s">
-        <v>1058</v>
+      <c r="G245" s="10" t="s">
+        <v>1222</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="14" customHeight="1">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>1015</v>
+      <c r="B246" s="3" t="s">
+        <v>1053</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G246" s="10" t="s">
-        <v>992</v>
+      <c r="G246" s="3" t="s">
+        <v>1052</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="14" customHeight="1">
-      <c r="A247" s="4">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>1226</v>
+        <v>989</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="14" customHeight="1">
-      <c r="A248" s="4">
+      <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <v>248</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>1013</v>
+      <c r="B249" s="3" t="s">
+        <v>1059</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G249" s="10" t="s">
-        <v>991</v>
+      <c r="G249" s="3" t="s">
+        <v>1058</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G251" s="3" t="s">
-        <v>982</v>
+      <c r="G251" s="10" t="s">
+        <v>1220</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1069</v>
+        <v>1000</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="L251" s="7"/>
+        <v>1062</v>
+      </c>
     </row>
     <row r="252" spans="1:12" ht="14" customHeight="1">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>1074</v>
+        <v>1011</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <v>252</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>1021</v>
+      <c r="B253" s="4" t="s">
+        <v>1012</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1075</v>
+        <v>1013</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G253" s="3" t="s">
-        <v>1073</v>
+      <c r="G253" s="10" t="s">
+        <v>991</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>1076</v>
+        <v>1005</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="G254" s="3" t="s">
-        <v>1025</v>
+      <c r="G254" s="10" t="s">
+        <v>990</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
-      <c r="A255" s="4">
+      <c r="A255" s="3">
         <v>254</v>
       </c>
-      <c r="B255" s="3" t="s">
-        <v>1077</v>
+      <c r="B255" s="4" t="s">
+        <v>980</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1083</v>
+        <v>981</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>1128</v>
       </c>
       <c r="G255" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L255" s="7"/>
+    </row>
+    <row r="256" spans="1:12" ht="14" customHeight="1">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G256" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="14" customHeight="1">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="14" customHeight="1">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="14" customHeight="1">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G259" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="H255" s="3" t="s">
+      <c r="H259" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="I259" s="3" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="14" customHeight="1">
-      <c r="A256" s="4">
-        <v>255</v>
-      </c>
-      <c r="B256" s="3" t="s">
+    <row r="260" spans="1:9" ht="14" customHeight="1">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>1101</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I256" s="3" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="14" customHeight="1">
-      <c r="A257" s="4">
-        <v>256</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G257" s="9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I257" s="3" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="14" customHeight="1">
-      <c r="A258" s="4">
-        <v>257</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G258" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H258" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I258" s="3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="14" customHeight="1">
-      <c r="A259" s="4">
-        <v>258</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G259" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I259" s="3" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="14" customHeight="1">
-      <c r="A260" s="4">
-        <v>259</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>1115</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="G260" s="9" t="s">
-        <v>1095</v>
+      <c r="G260" s="3" t="s">
+        <v>1100</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="14" customHeight="1">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="B261" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>1120</v>
+      <c r="B261" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>1103</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="G261" s="3" t="s">
-        <v>1118</v>
+      <c r="G261" s="9" t="s">
+        <v>1088</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="14" customHeight="1">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>1127</v>
       </c>
       <c r="G262" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="14" customHeight="1">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="14" customHeight="1">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="14" customHeight="1">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="14" customHeight="1">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G266" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="H266" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="I266" s="3" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14" customHeight="1">
-      <c r="A263" s="4">
-        <v>262</v>
-      </c>
-      <c r="B263" s="9" t="s">
+    <row r="267" spans="1:9" ht="14" customHeight="1">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+      <c r="B267" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C267" s="9" t="s">
         <v>1131</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G263" s="9" t="s">
-        <v>1129</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="14" customHeight="1">
-      <c r="A264" s="4">
-        <v>263</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="14" customHeight="1">
-      <c r="A265" s="4">
-        <v>264</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G265" s="9" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="14" customHeight="1">
-      <c r="A266" s="4">
-        <v>265</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G266" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="14" customHeight="1">
-      <c r="A267" s="4">
-        <v>266</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>1143</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="14" customHeight="1">
-      <c r="A268" s="4">
+      <c r="A268" s="3">
         <v>267</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>1182</v>
+        <v>1133</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>1183</v>
+        <v>1134</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G268" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>1181</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="14" customHeight="1">
-      <c r="A269" s="4">
+      <c r="A269" s="3">
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="14" customHeight="1">
-      <c r="A270" s="4">
+      <c r="A270" s="3">
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="14" customHeight="1">
-      <c r="A271" s="4">
+      <c r="A271" s="3">
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="14" customHeight="1">
-      <c r="A272" s="4">
+      <c r="A272" s="3">
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1154</v>
+        <v>1182</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1155</v>
+        <v>1183</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>1153</v>
+        <v>1184</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="14" customHeight="1">
-      <c r="A273" s="4">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="14" customHeight="1">
+      <c r="A273" s="3">
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="14" customHeight="1">
-      <c r="A274" s="4">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="14" customHeight="1">
+      <c r="A274" s="3">
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="G274" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="14" customHeight="1">
+      <c r="A275" s="3">
+        <v>274</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="14" customHeight="1">
+      <c r="A276" s="3">
+        <v>275</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G276" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="14" customHeight="1">
+      <c r="A277" s="3">
+        <v>276</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="14" customHeight="1">
+      <c r="A278" s="3">
+        <v>277</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G278" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="I278" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
+    <row r="279" spans="1:12" ht="14" customHeight="1">
+      <c r="A279" s="3">
+        <v>278</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="14" customHeight="1">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="14" customHeight="1">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="14" customHeight="1">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="14" customHeight="1">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="14" customHeight="1">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="14" customHeight="1">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L255">
-    <sortCondition ref="G2:G255"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L259">
+    <sortCondition ref="G2:G259"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9657,7 +10051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -9733,10 +10127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -9773,7 +10167,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
@@ -9781,7 +10175,7 @@
         <v>1189</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>864</v>
@@ -9866,396 +10260,426 @@
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>939</v>
+        <v>1194</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>958</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>734</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>936</v>
+        <v>732</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>930</v>
+        <v>892</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1213</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>933</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>407</v>
+        <v>930</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>942</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>411</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>943</v>
+        <v>407</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>976</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>947</v>
+        <v>1235</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>891</v>
+        <v>932</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>206</v>
+        <v>1247</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>356</v>
+        <v>926</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>948</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>1209</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>811</v>
+        <v>927</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>827</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1210</v>
+        <v>928</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>950</v>
+        <v>356</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>948</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>974</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>951</v>
+        <v>811</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>949</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>973</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>922</v>
+        <v>1269</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>952</v>
+        <v>1281</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>974</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>953</v>
+        <v>924</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>345</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>193</v>
+        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>955</v>
+        <v>921</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>951</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14" customHeight="1">
-      <c r="A33" s="9" t="s">
+    <row r="37" spans="1:3" ht="14" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>958</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14" customHeight="1">
-      <c r="A35" s="9" t="s">
+    <row r="38" spans="1:3" ht="14" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:3" ht="14" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="C40" s="9" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B41" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>966</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>1187</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D46" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
-      <sortCondition ref="A1:A46"/>
+  <autoFilter ref="A1:D48" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+      <sortCondition ref="A1:A48"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
-    <sortCondition ref="A2:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="A2:A49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D0392-D9D0-2F42-BD0E-1D82460484A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AD3D6-959A-044A-80DA-959907651974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="25060" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="26140" yWindow="460" windowWidth="25060" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$259</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1387">
   <si>
     <t>NOTE</t>
   </si>
@@ -1088,9 +1088,6 @@
     <t>K14080</t>
   </si>
   <si>
-    <t>Methanogenesis from methanol</t>
-  </si>
-  <si>
     <t>mtaB</t>
   </si>
   <si>
@@ -1109,9 +1106,6 @@
     <t>K14081</t>
   </si>
   <si>
-    <t>Methanogenesis (methanol)</t>
-  </si>
-  <si>
     <t>bhcA</t>
   </si>
   <si>
@@ -2885,9 +2879,6 @@
     <t>pscA + pscB + pscC + pscD</t>
   </si>
   <si>
-    <t>mtaA + mtaB + mtaC</t>
-  </si>
-  <si>
     <t>pmoA-amoA + pmoB-amoB + pmoC-amoC | mmoX + mmoY + mmoZ + mmoB + mmoC + mmoD -&gt; mdh1 + mdh2 | xoxF</t>
   </si>
   <si>
@@ -3284,9 +3275,6 @@
     <t>cobI-cbiL | cobIJ -&gt; cobG | cobIJ -&gt; cobJ | cbiGH-cobJ -&gt; cobM -&gt; cobF -&gt; cobK-cbiJ -&gt; cobL -&gt; cobH-cbiC -&gt; cobB-cbiA -&gt; cobN + cobS + cobT -&gt; cobR</t>
   </si>
   <si>
-    <t>Precorrin 2 -&gt; Precorrin 3 -&gt; Precorrin 3A -&gt; Precorrin 3B -&gt; Precorrin 4 -&gt; Precorrin 5 -&gt; Precorrin 6A -&gt; Precorrin 6B -&gt; Precorrdin 8X -&gt; Hydrogenebyrinate a,c diamide -&gt; Cob(II)yrinate a,c diamide -&gt; Cob(I)yrinate a,c diamide</t>
-  </si>
-  <si>
     <t>1.16.8.-</t>
   </si>
   <si>
@@ -3650,9 +3638,6 @@
     <t>marker gene only</t>
   </si>
   <si>
-    <t>methanol -&gt; methyl-CoM</t>
-  </si>
-  <si>
     <t>ammonia -&gt; glutamine</t>
   </si>
   <si>
@@ -3848,9 +3833,6 @@
     <t>alpha-D-ribose 1-methylphosphonate 5-triphosphate synthase subunit PhnG</t>
   </si>
   <si>
-    <t>Methylphosponate to Methane</t>
-  </si>
-  <si>
     <t>3.6.1.63</t>
   </si>
   <si>
@@ -3897,6 +3879,327 @@
   </si>
   <si>
     <t>Hypothetical protein - GBL synthesis</t>
+  </si>
+  <si>
+    <t>Methanogenesis - methylotrophic</t>
+  </si>
+  <si>
+    <t>methanol -&gt; methyl-CoM -&gt; methane</t>
+  </si>
+  <si>
+    <t>R04541</t>
+  </si>
+  <si>
+    <t>2.8.4.1</t>
+  </si>
+  <si>
+    <t>K00399</t>
+  </si>
+  <si>
+    <t>K00401</t>
+  </si>
+  <si>
+    <t>K00402</t>
+  </si>
+  <si>
+    <t>mcrA</t>
+  </si>
+  <si>
+    <t>methyl-coenzyme M reductase alpha subunit</t>
+  </si>
+  <si>
+    <t>mcrB</t>
+  </si>
+  <si>
+    <t>methyl-coenzyme M reductase beta subunit</t>
+  </si>
+  <si>
+    <t>mcrG</t>
+  </si>
+  <si>
+    <t>methyl-coenzyme M reductase gamma subunit</t>
+  </si>
+  <si>
+    <t>mtaA + mtaB + mtaC -&gt; mcrA + mcrB + mcrG</t>
+  </si>
+  <si>
+    <t>Methylphosphonate to Methane</t>
+  </si>
+  <si>
+    <t>Methanogenesis - Methylotrophic (M00356)</t>
+  </si>
+  <si>
+    <t>K00200</t>
+  </si>
+  <si>
+    <t>K00201</t>
+  </si>
+  <si>
+    <t>K00202</t>
+  </si>
+  <si>
+    <t>K00203</t>
+  </si>
+  <si>
+    <t>formylmethanofuran dehydrogenase subunit A</t>
+  </si>
+  <si>
+    <t>formylmethanofuran dehydrogenase subunit B</t>
+  </si>
+  <si>
+    <t>formylmethanofuran dehydrogenase subunit C</t>
+  </si>
+  <si>
+    <t>formylmethanofuran dehydrogenase subunit D</t>
+  </si>
+  <si>
+    <t>fmdA</t>
+  </si>
+  <si>
+    <t>fmdB</t>
+  </si>
+  <si>
+    <t>fmdC</t>
+  </si>
+  <si>
+    <t>fmdD</t>
+  </si>
+  <si>
+    <t>Methanogenesis - hydrogenotrophic</t>
+  </si>
+  <si>
+    <t>Methanogenesis - Hydrogenotrophic (M00567)</t>
+  </si>
+  <si>
+    <t>fmdA + fmdB + fmdC + fmdD -&gt; mcrA + mcrB + mcrG</t>
+  </si>
+  <si>
+    <t>CO2 -&gt; methyl-CoM -&gt; methane</t>
+  </si>
+  <si>
+    <t>Skips a lot of middle steps</t>
+  </si>
+  <si>
+    <t>6-phosphofructokinase (EC 2.7.1.11)</t>
+  </si>
+  <si>
+    <t>Pyrophosphate-dependent fructose 6-phosphate-1-kinase (EC 2.7.1.90)</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - Incomplete reductive citrate cycle</t>
+  </si>
+  <si>
+    <t>K00169</t>
+  </si>
+  <si>
+    <t>K00170</t>
+  </si>
+  <si>
+    <t>K00171</t>
+  </si>
+  <si>
+    <t>K00172</t>
+  </si>
+  <si>
+    <t>K01959</t>
+  </si>
+  <si>
+    <t>K01960</t>
+  </si>
+  <si>
+    <t>R01196</t>
+  </si>
+  <si>
+    <t>R00344</t>
+  </si>
+  <si>
+    <t>K00024</t>
+  </si>
+  <si>
+    <t>R00342</t>
+  </si>
+  <si>
+    <t>K01677</t>
+  </si>
+  <si>
+    <t>K01678</t>
+  </si>
+  <si>
+    <t>R01082</t>
+  </si>
+  <si>
+    <t>1.2.7.1</t>
+  </si>
+  <si>
+    <t>6.4.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.37</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>K18209</t>
+  </si>
+  <si>
+    <t>1.3.4.1</t>
+  </si>
+  <si>
+    <t>R10660</t>
+  </si>
+  <si>
+    <t>K18210</t>
+  </si>
+  <si>
+    <t>6.2.1.5</t>
+  </si>
+  <si>
+    <t>R00405</t>
+  </si>
+  <si>
+    <t>K01902</t>
+  </si>
+  <si>
+    <t>K01903</t>
+  </si>
+  <si>
+    <t>1.2.7.3</t>
+  </si>
+  <si>
+    <t>R01197</t>
+  </si>
+  <si>
+    <t>K00176</t>
+  </si>
+  <si>
+    <t>K00177</t>
+  </si>
+  <si>
+    <t>Carbon Fixation - Incomplete reductive citrate cycle (M00620)</t>
+  </si>
+  <si>
+    <t>porA</t>
+  </si>
+  <si>
+    <t>pyruvate ferredoxin oxidoreductase alpha subunit</t>
+  </si>
+  <si>
+    <t>pyruvate ferredoxin oxidoreductase beta subunit</t>
+  </si>
+  <si>
+    <t>porB</t>
+  </si>
+  <si>
+    <t>porD</t>
+  </si>
+  <si>
+    <t>pyruvate ferredoxin oxidoreductase delta subunit</t>
+  </si>
+  <si>
+    <t>porC</t>
+  </si>
+  <si>
+    <t>pyruvate ferredoxin oxidoreductase gamma subunit</t>
+  </si>
+  <si>
+    <t>pcyA</t>
+  </si>
+  <si>
+    <t>pyruvate carboxylase subunit A</t>
+  </si>
+  <si>
+    <t>pcyB</t>
+  </si>
+  <si>
+    <t>pyruvate carboxylase subunit B</t>
+  </si>
+  <si>
+    <t>mdh</t>
+  </si>
+  <si>
+    <t>malate dehydrogenase</t>
+  </si>
+  <si>
+    <t>fumA</t>
+  </si>
+  <si>
+    <t>fumarate hydratase subunit alpha</t>
+  </si>
+  <si>
+    <t>fumB</t>
+  </si>
+  <si>
+    <t>fumarate hydratase subunit beta</t>
+  </si>
+  <si>
+    <t>tfrA</t>
+  </si>
+  <si>
+    <t>fumarate reductase (CoM/CoB) subunit A</t>
+  </si>
+  <si>
+    <t>tfrB</t>
+  </si>
+  <si>
+    <t>fumarate reductase (CoM/CoB) subunit B</t>
+  </si>
+  <si>
+    <t>sucD</t>
+  </si>
+  <si>
+    <t>succinyl-CoA synthetase alpha subunit</t>
+  </si>
+  <si>
+    <t>sucC</t>
+  </si>
+  <si>
+    <t>succinyl-CoA synthetase beta subunit</t>
+  </si>
+  <si>
+    <t>korD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-oxoglutarate ferredoxin oxidoreductase subunit delta </t>
+  </si>
+  <si>
+    <t>korC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-oxoglutarate ferredoxin oxidoreductase subunit gamma </t>
+  </si>
+  <si>
+    <t>Acetyl-CoA + CO2 -&gt; Pyruvate -&gt; Oxaloacetate -&gt; (S)-malate -&gt; Fumarate -&gt; Succinate -&gt; Succinyl-CoA -&gt; 2-Oxoglutarate</t>
+  </si>
+  <si>
+    <t>Pyruvate-&gt;oxaloacetate and fumarate-&gt;succinate have more enzymes not in M00620.</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>pyruvate-ferredoxin/flavodoxin oxidoreductase</t>
+  </si>
+  <si>
+    <t>K03737</t>
+  </si>
+  <si>
+    <t>fumAB</t>
+  </si>
+  <si>
+    <t>fumarate hydratase, class I</t>
+  </si>
+  <si>
+    <t>K01676</t>
+  </si>
+  <si>
+    <t>por | porA + porB + porC + porD -&gt; pcyA + pcyB -&gt; mdh -&gt; fumAB | fumA + fumB -&gt; tfrA + tfrB -&gt; sucD + sucC -&gt; korA + korB + korC + korD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Precorrin 2 -&gt; Precorrin 3 -&gt; Precorrin 3A -&gt; Precorrin 3B -&gt; Precorrin 4 -&gt; Precorrin 5 -&gt; Precorrin 6A -&gt; Precorrin 6B -&gt; Precorrin 8X -&gt; Hydrogenebyrinate a,c diamide -&gt; Cob(II)yrinate a,c diamide -&gt; Cob(I)yrinate a,c diamide</t>
   </si>
 </sst>
 </file>
@@ -4334,20 +4637,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L285"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A310" sqref="A310:XFD334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="3" customWidth="1"/>
     <col min="9" max="12" width="14.1640625" style="3" customWidth="1"/>
@@ -4356,7 +4659,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>5</v>
@@ -4374,7 +4677,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -4389,7 +4692,7 @@
         <v>224</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1">
@@ -4411,13 +4714,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1">
@@ -4425,22 +4728,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14" customHeight="1">
@@ -4448,22 +4751,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14" customHeight="1">
@@ -4471,19 +4774,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1">
@@ -4500,7 +4803,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14" customHeight="1">
@@ -4534,7 +4837,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" customHeight="1">
@@ -4554,7 +4857,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" customHeight="1">
@@ -4574,7 +4877,7 @@
         <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1">
@@ -4596,6 +4899,9 @@
       <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1">
       <c r="A13" s="3">
@@ -4616,6 +4922,9 @@
       <c r="H13" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1">
       <c r="A14" s="3">
@@ -4636,6 +4945,9 @@
       <c r="H14" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1">
       <c r="A15" s="3">
@@ -5391,7 +5703,7 @@
         <v>207</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>208</v>
@@ -5411,7 +5723,7 @@
         <v>211</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14" customHeight="1">
@@ -5442,7 +5754,7 @@
         <v>217</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14" customHeight="1">
@@ -5459,7 +5771,7 @@
         <v>220</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14" customHeight="1">
@@ -5493,7 +5805,7 @@
         <v>227</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14" customHeight="1">
@@ -5513,7 +5825,7 @@
         <v>231</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14" customHeight="1">
@@ -5755,7 +6067,7 @@
         <v>273</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>276</v>
@@ -5778,7 +6090,7 @@
         <v>273</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>280</v>
@@ -5824,7 +6136,7 @@
         <v>273</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>287</v>
@@ -5847,7 +6159,7 @@
         <v>273</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>290</v>
@@ -5876,7 +6188,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="14" customHeight="1">
+    <row r="81" spans="1:9" ht="14" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5896,7 +6208,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="14" customHeight="1">
+    <row r="82" spans="1:9" ht="14" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5916,7 +6228,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="14" customHeight="1">
+    <row r="83" spans="1:9" ht="14" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5936,7 +6248,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="14" customHeight="1">
+    <row r="84" spans="1:9" ht="14" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5956,7 +6268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14" customHeight="1">
+    <row r="85" spans="1:9" ht="14" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5976,7 +6288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="14" customHeight="1">
+    <row r="86" spans="1:9" ht="14" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5996,7 +6308,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14" customHeight="1">
+    <row r="87" spans="1:9" ht="14" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6016,7 +6328,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="14" customHeight="1">
+    <row r="88" spans="1:9" ht="14" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -6036,7 +6348,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14" customHeight="1">
+    <row r="89" spans="1:9" ht="14" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6056,7 +6368,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14" customHeight="1">
+    <row r="90" spans="1:9" ht="14" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -6076,7 +6388,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14" customHeight="1">
+    <row r="91" spans="1:9" ht="14" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6096,7 +6408,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14" customHeight="1">
+    <row r="92" spans="1:9" ht="14" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -6116,7 +6428,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14" customHeight="1">
+    <row r="93" spans="1:9" ht="14" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6127,58 +6439,67 @@
         <v>347</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>349</v>
+        <v>1280</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14" customHeight="1">
+    <row r="94" spans="1:9" ht="14" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="95" spans="1:9" ht="14" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="96" spans="1:9" ht="14" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>357</v>
+        <v>1287</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>359</v>
+        <v>1288</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -6186,13 +6507,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>360</v>
+        <v>1289</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>362</v>
+        <v>1290</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -6200,13 +6530,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>363</v>
+        <v>1291</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>365</v>
+        <v>1292</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -6214,13 +6553,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14" customHeight="1">
@@ -6228,13 +6567,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14" customHeight="1">
@@ -6242,19 +6581,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>398</v>
+        <v>362</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14" customHeight="1">
@@ -6262,19 +6595,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>399</v>
+        <v>365</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14" customHeight="1">
@@ -6282,19 +6609,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>400</v>
+        <v>368</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14" customHeight="1">
@@ -6302,19 +6623,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -6322,19 +6643,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="14" customHeight="1">
@@ -6342,19 +6663,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14" customHeight="1">
@@ -6362,19 +6683,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -6382,19 +6703,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>854</v>
+        <v>374</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14" customHeight="1">
@@ -6402,16 +6723,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>409</v>
+        <v>389</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="14" customHeight="1">
@@ -6419,19 +6743,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="14" customHeight="1">
@@ -6439,19 +6763,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>415</v>
+        <v>852</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14" customHeight="1">
@@ -6459,19 +6783,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="14" customHeight="1">
@@ -6479,19 +6800,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="14" customHeight="1">
@@ -6499,16 +6820,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>435</v>
+        <v>416</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="14" customHeight="1">
@@ -6516,16 +6840,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>439</v>
+        <v>419</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="14" customHeight="1">
@@ -6533,16 +6860,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>442</v>
+        <v>421</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>443</v>
+        <v>422</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="14" customHeight="1">
@@ -6550,16 +6880,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="14" customHeight="1">
@@ -6567,16 +6897,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="14" customHeight="1">
@@ -6584,16 +6914,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="14" customHeight="1">
@@ -6601,19 +6931,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14" customHeight="1">
@@ -6621,16 +6948,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="14" customHeight="1">
@@ -6638,16 +6965,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="14" customHeight="1">
@@ -6655,16 +6982,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>430</v>
+        <v>456</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="14" customHeight="1">
@@ -6672,13 +7002,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>474</v>
+        <v>462</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="14" customHeight="1">
@@ -6686,13 +7019,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="14" customHeight="1">
@@ -6700,16 +7036,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="14" customHeight="1">
@@ -6717,13 +7053,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>484</v>
+        <v>471</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14" customHeight="1">
@@ -6731,13 +7067,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>487</v>
+        <v>474</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" customHeight="1">
@@ -6745,13 +7081,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>489</v>
+        <v>477</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" customHeight="1">
@@ -6759,13 +7098,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" customHeight="1">
@@ -6773,16 +7112,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="14" customHeight="1">
@@ -6790,13 +7126,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="14" customHeight="1">
@@ -6804,13 +7140,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>503</v>
+        <v>490</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="14" customHeight="1">
@@ -6818,13 +7154,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>495</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="14" customHeight="1">
@@ -6832,13 +7171,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="14" customHeight="1">
@@ -6846,16 +7185,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="14" customHeight="1">
@@ -6863,25 +7199,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>524</v>
+        <v>503</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" customHeight="1">
@@ -6889,25 +7213,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>1200</v>
+        <v>506</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="14" customHeight="1">
@@ -6915,25 +7227,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>1201</v>
+        <v>511</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="14" customHeight="1">
@@ -6941,25 +7244,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="14" customHeight="1">
@@ -6967,25 +7270,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>1215</v>
+        <v>529</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>537</v>
+        <v>525</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -6993,25 +7296,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>548</v>
+        <v>528</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -7019,25 +7322,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>546</v>
+        <v>1210</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14" customHeight="1">
@@ -7045,426 +7348,432 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>563</v>
+        <v>1210</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="14" customHeight="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="14" customHeight="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>553</v>
+        <v>540</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="14" customHeight="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="14" customHeight="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>554</v>
+        <v>541</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="14" customHeight="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="14" customHeight="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="14" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="14" customHeight="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="14" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="14" customHeight="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="14" customHeight="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="14" customHeight="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="14" customHeight="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="14" customHeight="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="14" customHeight="1">
+        <v>567</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="14" customHeight="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="14" customHeight="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="14" customHeight="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="14" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="14" customHeight="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="14" customHeight="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="14" customHeight="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="14" customHeight="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="14" customHeight="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="14" customHeight="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="14" customHeight="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>1216</v>
+        <v>607</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="14" customHeight="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="14" customHeight="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="14" customHeight="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="14" customHeight="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="14" customHeight="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="14" customHeight="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>730</v>
+        <v>617</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>731</v>
+        <v>630</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>1211</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>639</v>
+        <v>601</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="14" customHeight="1">
@@ -7472,16 +7781,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>641</v>
+        <v>620</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>621</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>731</v>
+        <v>630</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>642</v>
+        <v>602</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="14" customHeight="1">
@@ -7489,16 +7807,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>644</v>
+        <v>625</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>731</v>
+        <v>630</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>645</v>
+        <v>603</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="14" customHeight="1">
@@ -7506,16 +7833,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>647</v>
+        <v>636</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="14" customHeight="1">
@@ -7523,16 +7853,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="14" customHeight="1">
@@ -7540,16 +7870,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="14" customHeight="1">
@@ -7557,16 +7887,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="14" customHeight="1">
@@ -7574,16 +7904,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14" customHeight="1">
@@ -7591,16 +7921,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="14" customHeight="1">
@@ -7608,16 +7938,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="14" customHeight="1">
@@ -7625,16 +7955,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="14" customHeight="1">
@@ -7642,16 +7972,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="14" customHeight="1">
@@ -7659,16 +7989,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="14" customHeight="1">
@@ -7676,13 +8006,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="14" customHeight="1">
@@ -7690,16 +8023,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="14" customHeight="1">
@@ -7707,16 +8040,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="14" customHeight="1">
@@ -7724,13 +8057,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -7738,16 +8071,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="14" customHeight="1">
@@ -7755,13 +8088,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="14" customHeight="1">
@@ -7769,16 +8105,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>694</v>
+        <v>729</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="14" customHeight="1">
@@ -7786,16 +8119,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="14" customHeight="1">
@@ -7803,16 +8136,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>700</v>
+        <v>729</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="14" customHeight="1">
@@ -7820,16 +8150,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="14" customHeight="1">
@@ -7837,16 +8167,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="14" customHeight="1">
@@ -7854,29 +8184,33 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G184" s="8"/>
-      <c r="L184" s="8"/>
+        <v>729</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="185" spans="1:12" ht="14" customHeight="1">
       <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="14" customHeight="1">
@@ -7884,16 +8218,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="14" customHeight="1">
@@ -7901,33 +8235,29 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="L187" s="3" t="s">
-        <v>715</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="G187" s="8"/>
+      <c r="L187" s="8"/>
     </row>
     <row r="188" spans="1:12" ht="14" customHeight="1">
       <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14" customHeight="1">
@@ -7935,16 +8265,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="14" customHeight="1">
@@ -7952,29 +8282,33 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="G190" s="8"/>
-      <c r="L190" s="8"/>
+        <v>729</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="191" spans="1:12" ht="14" customHeight="1">
       <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="14" customHeight="1">
@@ -7982,396 +8316,371 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="14" customHeight="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="14" customHeight="1">
       <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="J193" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="14" customHeight="1">
+        <v>729</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="L193" s="8"/>
+    </row>
+    <row r="194" spans="1:12" ht="14" customHeight="1">
       <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="14" customHeight="1">
+        <v>724</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="14" customHeight="1">
       <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="14" customHeight="1">
+        <v>727</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="14" customHeight="1">
       <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="D196" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H196" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="G196" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>749</v>
-      </c>
       <c r="I196" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="14" customHeight="1">
+        <v>739</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="14" customHeight="1">
       <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="14" customHeight="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="14" customHeight="1">
       <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="14" customHeight="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="14" customHeight="1">
       <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="14" customHeight="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="14" customHeight="1">
       <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" ht="14" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="14" customHeight="1">
       <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="14" customHeight="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="14" customHeight="1">
       <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="14" customHeight="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="14" customHeight="1">
       <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="14" customHeight="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="14" customHeight="1">
       <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>812</v>
+        <v>738</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="14" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="14" customHeight="1">
       <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>812</v>
+        <v>738</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="14" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="14" customHeight="1">
       <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>812</v>
+        <v>738</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="14" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="14" customHeight="1">
       <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="14" customHeight="1">
+        <v>789</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="14" customHeight="1">
       <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="14" customHeight="1">
@@ -8379,19 +8688,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C209" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>812</v>
-      </c>
       <c r="G209" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="14" customHeight="1">
@@ -8399,25 +8714,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="H210" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="14" customHeight="1">
@@ -8425,25 +8734,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="14" customHeight="1">
@@ -8451,25 +8760,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="14" customHeight="1">
@@ -8477,25 +8780,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="14" customHeight="1">
@@ -8503,22 +8806,25 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>847</v>
+        <v>814</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>818</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="14" customHeight="1">
@@ -8526,25 +8832,25 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>849</v>
+        <v>812</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="14" customHeight="1">
@@ -8552,25 +8858,25 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="14" customHeight="1">
@@ -8578,25 +8884,22 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="14" customHeight="1">
@@ -8604,19 +8907,25 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>857</v>
+        <v>837</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="14" customHeight="1">
@@ -8624,19 +8933,25 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>860</v>
+        <v>843</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="14" customHeight="1">
@@ -8644,16 +8959,25 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>871</v>
+        <v>830</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>873</v>
+        <v>848</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="14" customHeight="1">
@@ -8661,16 +8985,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>876</v>
+        <v>857</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="14" customHeight="1">
@@ -8678,16 +9005,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>880</v>
+        <v>859</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="14" customHeight="1">
@@ -8695,16 +9025,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="14" customHeight="1">
@@ -8712,16 +9042,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14" customHeight="1">
@@ -8729,16 +9059,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14" customHeight="1">
@@ -8746,16 +9076,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>914</v>
+        <v>881</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14" customHeight="1">
@@ -8763,182 +9093,230 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="14" customHeight="1">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>909</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="14" customHeight="1">
+        <v>887</v>
+      </c>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>910</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="14" customHeight="1">
+        <v>912</v>
+      </c>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>911</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="14" customHeight="1">
+        <v>913</v>
+      </c>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>912</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="14" customHeight="1">
+        <v>914</v>
+      </c>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>913</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" ht="14" customHeight="1">
+        <v>914</v>
+      </c>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>970</v>
+        <v>902</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="L233" s="3" t="s">
-        <v>970</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
     </row>
     <row r="234" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="I234" s="4" t="s">
-        <v>1040</v>
-      </c>
+      <c r="B234" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
     </row>
     <row r="235" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A235" s="3">
         <v>234</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="I235" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L235" s="12"/>
+      <c r="B235" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
     </row>
     <row r="236" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A236" s="3">
         <v>235</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G236" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>1041</v>
+      <c r="B236" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -8946,19 +9324,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -8966,243 +9344,292 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G238" s="13" t="s">
-        <v>988</v>
+        <v>1124</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>976</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+        <v>1037</v>
+      </c>
+      <c r="L238" s="12"/>
+    </row>
+    <row r="239" spans="1:12" ht="14" customHeight="1">
       <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>1018</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1128</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
       <c r="G239" s="13" t="s">
-        <v>1217</v>
+        <v>990</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+        <v>1038</v>
+      </c>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+    </row>
+    <row r="240" spans="1:12" ht="14" customHeight="1">
       <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1033</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>1128</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="H240" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="I240" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="I240" s="4" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+    </row>
+    <row r="241" spans="1:12" ht="14" customHeight="1">
       <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>1037</v>
+        <v>992</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1023</v>
+        <v>993</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1128</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
       <c r="G241" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="H241" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="H241" s="4" t="s">
-        <v>1035</v>
-      </c>
       <c r="I241" s="4" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+        <v>1039</v>
+      </c>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+    </row>
+    <row r="242" spans="1:12" ht="14" customHeight="1">
       <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>984</v>
+        <v>1014</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>985</v>
+        <v>1015</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>986</v>
+        <v>1124</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+      <c r="G242" s="13" t="s">
+        <v>1212</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>987</v>
+        <v>1028</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+        <v>1040</v>
+      </c>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+    </row>
+    <row r="243" spans="1:12" ht="14" customHeight="1">
       <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+      <c r="G243" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H243" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="I243" s="4" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+        <v>1041</v>
+      </c>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+    </row>
+    <row r="244" spans="1:12" ht="14" customHeight="1">
       <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1085</v>
+        <v>1034</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1128</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="13" t="s">
-        <v>1218</v>
+        <v>991</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>1047</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="14" customHeight="1">
       <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>1007</v>
+        <v>981</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>982</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G245" s="10" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>1051</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="14" customHeight="1">
       <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B246" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G246" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>1057</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="14" customHeight="1">
       <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>1002</v>
+        <v>1081</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>1019</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G247" s="10" t="s">
-        <v>989</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I247" s="3" t="s">
-        <v>1054</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
     </row>
     <row r="248" spans="1:12" ht="14" customHeight="1">
       <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
@@ -9210,19 +9637,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
@@ -9230,22 +9657,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
@@ -9253,45 +9680,42 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1000</v>
+        <v>1052</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="14" customHeight="1">
       <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>1011</v>
+      <c r="B252" s="3" t="s">
+        <v>1056</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G252" s="10" t="s">
-        <v>1221</v>
+        <v>1124</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>1055</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
@@ -9299,22 +9723,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>1013</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
@@ -9322,22 +9746,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>990</v>
+        <v>1215</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1067</v>
+        <v>997</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
@@ -9345,408 +9769,408 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>980</v>
+        <v>1007</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>981</v>
+        <v>1008</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>982</v>
+        <v>1124</v>
+      </c>
+      <c r="G255" s="10" t="s">
+        <v>1216</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="L255" s="7"/>
+        <v>1060</v>
+      </c>
     </row>
     <row r="256" spans="1:12" ht="14" customHeight="1">
       <c r="A256" s="3">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1074</v>
+        <v>1010</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>1223</v>
+        <v>988</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="14" customHeight="1">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="14" customHeight="1">
       <c r="A257" s="3">
         <v>256</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>1021</v>
+      <c r="B257" s="4" t="s">
+        <v>1001</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>1075</v>
+        <v>1002</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>1073</v>
+        <v>1124</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="14" customHeight="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="14" customHeight="1">
       <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>1076</v>
+        <v>978</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>1025</v>
+        <v>979</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="14" customHeight="1">
+        <v>1067</v>
+      </c>
+      <c r="L258" s="7"/>
+    </row>
+    <row r="259" spans="1:12" ht="14" customHeight="1">
       <c r="A259" s="3">
         <v>258</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>1077</v>
+      <c r="B259" s="4" t="s">
+        <v>1013</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>1078</v>
+        <v>1124</v>
+      </c>
+      <c r="G259" s="10" t="s">
+        <v>1218</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="14" customHeight="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" ht="14" customHeight="1">
       <c r="A260" s="3">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1097</v>
+        <v>1018</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>1127</v>
+        <v>1072</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>1124</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="14" customHeight="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="14" customHeight="1">
       <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="B261" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G261" s="9" t="s">
-        <v>1088</v>
+      <c r="B261" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>1022</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1102</v>
+        <v>1069</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="14" customHeight="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="14" customHeight="1">
       <c r="A262" s="3">
         <v>261</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>1092</v>
+      <c r="B262" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>1075</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>1106</v>
+        <v>1078</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="14" customHeight="1">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="14" customHeight="1">
       <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H263" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C263" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G263" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>1109</v>
-      </c>
       <c r="I263" s="3" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="14" customHeight="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="14" customHeight="1">
       <c r="A264" s="3">
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="14" customHeight="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="14" customHeight="1">
       <c r="A265" s="3">
         <v>264</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>1120</v>
+      <c r="B265" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>1103</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>1118</v>
+        <v>1123</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>1088</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="14" customHeight="1">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" ht="14" customHeight="1">
       <c r="A266" s="3">
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="14" customHeight="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="14" customHeight="1">
       <c r="A267" s="3">
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1130</v>
+        <v>1092</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1161</v>
+        <v>1123</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1129</v>
+        <v>1091</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1163</v>
+        <v>1108</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="14" customHeight="1">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" ht="14" customHeight="1">
       <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="B268" s="9" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C268" s="9" t="s">
-        <v>1134</v>
+      <c r="B268" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1116</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G268" s="9" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="14" customHeight="1">
+        <v>1123</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" ht="14" customHeight="1">
       <c r="A269" s="3">
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1136</v>
+        <v>1087</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1137</v>
+        <v>1107</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1161</v>
+        <v>1123</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>1135</v>
+        <v>1086</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1164</v>
+        <v>1119</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="14" customHeight="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="14" customHeight="1">
       <c r="A270" s="3">
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="14" customHeight="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="14" customHeight="1">
       <c r="A271" s="3">
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H271" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I271" s="3" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="14" customHeight="1">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="14" customHeight="1">
       <c r="A272" s="3">
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1182</v>
+        <v>1132</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1183</v>
+        <v>1133</v>
       </c>
       <c r="D272" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I272" s="3" t="s">
         <v>1161</v>
-      </c>
-      <c r="G272" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H272" s="3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="14" customHeight="1">
@@ -9754,22 +10178,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="14" customHeight="1">
@@ -9777,22 +10201,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="14" customHeight="1">
@@ -9800,22 +10224,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1148</v>
+        <v>1178</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>1149</v>
+        <v>1179</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>1147</v>
+        <v>1180</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="14" customHeight="1">
@@ -9823,22 +10247,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="14" customHeight="1">
@@ -9846,22 +10270,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>1160</v>
+        <v>1141</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="14" customHeight="1">
@@ -9869,91 +10293,91 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="C278" s="9" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>1161</v>
-      </c>
       <c r="G278" s="9" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="14" customHeight="1">
       <c r="A279" s="3">
         <v>278</v>
       </c>
-      <c r="B279" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>1265</v>
+      <c r="B279" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>1151</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>1257</v>
+        <v>1157</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>1149</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1255</v>
+        <v>1172</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>1256</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="14" customHeight="1">
       <c r="A280" s="3">
         <v>279</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>1266</v>
+      <c r="B280" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>1151</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>1258</v>
+        <v>1157</v>
+      </c>
+      <c r="G280" s="9" t="s">
+        <v>1155</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>1255</v>
+        <v>1172</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1256</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="14" customHeight="1">
       <c r="A281" s="3">
         <v>280</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>1267</v>
+      <c r="B281" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>1154</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>1259</v>
+        <v>1157</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>1152</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1255</v>
+        <v>1174</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1256</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="14" customHeight="1">
@@ -9961,22 +10385,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="14" customHeight="1">
@@ -9984,22 +10408,22 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>1272</v>
+        <v>1253</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>1271</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="14" customHeight="1">
@@ -10007,22 +10431,22 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1277</v>
+        <v>1258</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1279</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="14" customHeight="1">
@@ -10030,18 +10454,551 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1283</v>
+        <v>1259</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L285" s="3" t="s">
-        <v>1284</v>
+        <v>1263</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="14" customHeight="1">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="14" customHeight="1">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="14" customHeight="1">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="14" customHeight="1">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="14" customHeight="1">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="14" customHeight="1">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="14" customHeight="1">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="14" customHeight="1">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="14" customHeight="1">
+      <c r="A294" s="3">
+        <v>293</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="14" customHeight="1">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="14" customHeight="1">
+      <c r="A296" s="3">
+        <v>295</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="14" customHeight="1">
+      <c r="A297" s="3">
+        <v>296</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="14" customHeight="1">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="14" customHeight="1">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="14" customHeight="1">
+      <c r="A300" s="3">
+        <v>299</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="14" customHeight="1">
+      <c r="A301" s="3">
+        <v>300</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="14" customHeight="1">
+      <c r="A302" s="3">
+        <v>301</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="14" customHeight="1">
+      <c r="A303" s="3">
+        <v>302</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="14" customHeight="1">
+      <c r="A304" s="3">
+        <v>303</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="14" customHeight="1">
+      <c r="A305" s="3">
+        <v>304</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="14" customHeight="1">
+      <c r="A306" s="3">
+        <v>305</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="14" customHeight="1">
+      <c r="A307" s="3">
+        <v>306</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="14" customHeight="1">
+      <c r="A308" s="3">
+        <v>307</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="14" customHeight="1">
+      <c r="A309" s="3">
+        <v>308</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L259">
-    <sortCondition ref="G2:G259"/>
+  <autoFilter ref="A1:L309" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L309">
+      <sortCondition ref="A1:A309"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L253">
+    <sortCondition ref="G2:G253"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10080,10 +11037,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -10094,16 +11051,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10111,13 +11068,13 @@
         <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -10127,10 +11084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -10153,95 +11110,95 @@
         <v>67</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>331</v>
@@ -10249,7 +11206,7 @@
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>300</v>
@@ -10260,426 +11217,454 @@
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>732</v>
+        <v>1345</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>940</v>
+        <v>1384</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1206</v>
+        <v>1376</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>734</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>936</v>
+        <v>730</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>1207</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>934</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C22" s="9" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="14" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="C29" s="9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>948</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>952</v>
-      </c>
       <c r="C32" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>953</v>
+        <v>919</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>948</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>345</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>193</v>
+        <v>971</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>975</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>956</v>
+        <v>923</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>951</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>466</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>736</v>
+        <v>918</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>735</v>
+        <v>952</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>960</v>
+        <v>463</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>1209</v>
+        <v>734</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>1210</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1225</v>
+        <v>958</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>599</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>968</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>967</v>
+        <v>1220</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>1117</v>
+      <c r="A44" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1126</v>
+      <c r="A45" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>1084</v>
+      <c r="A46" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>1211</v>
+      <c r="A47" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B48" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>1081</v>
-      </c>
     </row>
     <row r="49" spans="1:4" ht="14" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1187</v>
+      <c r="A49" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D48" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
-      <sortCondition ref="A1:A48"/>
+  <autoFilter ref="A1:D50" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
+      <sortCondition ref="A1:A50"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition ref="A2:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AD3D6-959A-044A-80DA-959907651974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99D19F-6C12-6F4E-A081-8953192D5FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26140" yWindow="460" windowWidth="25060" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$309</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1405">
   <si>
     <t>NOTE</t>
   </si>
@@ -4200,6 +4200,60 @@
   </si>
   <si>
     <t>Precorrin 2 -&gt; Precorrin 3 -&gt; Precorrin 3A -&gt; Precorrin 3B -&gt; Precorrin 4 -&gt; Precorrin 5 -&gt; Precorrin 6A -&gt; Precorrin 6B -&gt; Precorrin 8X -&gt; Hydrogenebyrinate a,c diamide -&gt; Cob(II)yrinate a,c diamide -&gt; Cob(I)yrinate a,c diamide</t>
+  </si>
+  <si>
+    <t>glxR</t>
+  </si>
+  <si>
+    <t>glxK</t>
+  </si>
+  <si>
+    <t>glycerate 2-kinase</t>
+  </si>
+  <si>
+    <t>K00865</t>
+  </si>
+  <si>
+    <t>2.7.1.165</t>
+  </si>
+  <si>
+    <t>R08572</t>
+  </si>
+  <si>
+    <t>2-hydroxy-3-oxopropionate reductase</t>
+  </si>
+  <si>
+    <t>K00042</t>
+  </si>
+  <si>
+    <t>1.1.1.60</t>
+  </si>
+  <si>
+    <t>gcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glyoxylate carboligase/tartronate-semialdehyde synthase </t>
+  </si>
+  <si>
+    <t>K01608</t>
+  </si>
+  <si>
+    <t>4.1.1.47</t>
+  </si>
+  <si>
+    <t>R00013</t>
+  </si>
+  <si>
+    <t>R01745,R01747</t>
+  </si>
+  <si>
+    <t>Glyoxylate - Glyoxylate to Pyruvate</t>
+  </si>
+  <si>
+    <t>gcl -&gt; glxR -&gt; glxK</t>
+  </si>
+  <si>
+    <t>glyoxylate -&gt; tartronate semialdehyde -&gt; D-glycerate -&gt; 2-phosphoglycerate</t>
   </si>
 </sst>
 </file>
@@ -4637,10 +4691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L309"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310:XFD334"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -10989,6 +11043,66 @@
       </c>
       <c r="I309" s="3" t="s">
         <v>1328</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="14" customHeight="1">
+      <c r="A310" s="3">
+        <v>309</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="14" customHeight="1">
+      <c r="A311" s="3">
+        <v>310</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="14" customHeight="1">
+      <c r="A312" s="3">
+        <v>311</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>1392</v>
       </c>
     </row>
   </sheetData>
@@ -11084,10 +11198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -11349,322 +11463,333 @@
     </row>
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>1242</v>
+        <v>1402</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1248</v>
+        <v>1403</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1249</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>945</v>
+        <v>1242</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>889</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>206</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>1295</v>
+        <v>926</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1281</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1312</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>809</v>
+        <v>1309</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>946</v>
+        <v>1310</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>825</v>
+        <v>1311</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1275</v>
+        <v>809</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>946</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1276</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>922</v>
+        <v>1294</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>150</v>
+        <v>1275</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1199</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>947</v>
+        <v>150</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>971</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>950</v>
+        <v>920</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>949</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>345</v>
+        <v>971</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>951</v>
+        <v>927</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>950</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>193</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>952</v>
+        <v>923</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>951</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>972</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>463</v>
+        <v>918</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>464</v>
+        <v>972</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>734</v>
+        <v>463</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>733</v>
+        <v>953</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>957</v>
+        <v>734</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>1204</v>
+        <v>957</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1220</v>
+        <v>962</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>597</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>963</v>
+        <v>1220</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>965</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1">
       <c r="A47" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>1122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1083</v>
+        <v>1223</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1082</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1206</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>1225</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14" customHeight="1">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:4" ht="14" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>1183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D50" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
-      <sortCondition ref="A1:A50"/>
+  <autoFilter ref="A1:D51" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+      <sortCondition ref="A1:A51"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortCondition ref="A2:A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99D19F-6C12-6F4E-A081-8953192D5FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FDFCEF-2955-5543-8312-76B201CCFC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26140" yWindow="460" windowWidth="25060" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1428">
   <si>
     <t>NOTE</t>
   </si>
@@ -122,15 +122,6 @@
     <t>PATRIC</t>
   </si>
   <si>
-    <t>Aerobic carbon monoxide dehydrogenase (quinone), medium chain (EC 1.2.5.3)</t>
-  </si>
-  <si>
-    <t>Aerobic carbon monoxide dehydrogenase (quinone), large chain (EC 1.2.5.3)</t>
-  </si>
-  <si>
-    <t>Aerobic carbon monoxide dehydrogenase (quinone), small chain (EC 1.2.5.3)</t>
-  </si>
-  <si>
     <t>HAL file will be built from hmms on the gene sheet</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>aceA</t>
   </si>
   <si>
-    <t>Isocitrate synthase</t>
-  </si>
-  <si>
     <t>K01637</t>
   </si>
   <si>
@@ -2948,9 +2936,6 @@
     <t>polyhydroxyalkanoic acid inclusion protein PhaP</t>
   </si>
   <si>
-    <t>Proteorhodopsin</t>
-  </si>
-  <si>
     <t>nitrate -&gt; nitrite -&gt; nitric oxide -&gt; nitrous oxide -&gt; nitrogen</t>
   </si>
   <si>
@@ -3614,27 +3599,6 @@
     <t>Carbon Fixation - Reductive Pentose Phosphate</t>
   </si>
   <si>
-    <t>Malate synthase G (EC 2.3.3.9)</t>
-  </si>
-  <si>
-    <t>Glycolate dehydrogenase (EC 1.1.99.14), subunit GlcD</t>
-  </si>
-  <si>
-    <t>Glycolate dehydrogenase (EC 1.1.99.14), FAD-binding subunit GlcE</t>
-  </si>
-  <si>
-    <t>Glycolate dehydrogenase (EC 1.1.99.14), iron-sulfur subunit GlcF</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate 1-dehydrogenase (EC 1.1.1.49)</t>
-  </si>
-  <si>
-    <t>Aliphatic amidase AmiE (EC 3.5.1.4)</t>
-  </si>
-  <si>
-    <t>Indoleacetamide hydrolase (EC 3.5.1.-)</t>
-  </si>
-  <si>
     <t>marker gene only</t>
   </si>
   <si>
@@ -3980,12 +3944,6 @@
     <t>Skips a lot of middle steps</t>
   </si>
   <si>
-    <t>6-phosphofructokinase (EC 2.7.1.11)</t>
-  </si>
-  <si>
-    <t>Pyrophosphate-dependent fructose 6-phosphate-1-kinase (EC 2.7.1.90)</t>
-  </si>
-  <si>
     <t>Carbon Fixation - Incomplete reductive citrate cycle</t>
   </si>
   <si>
@@ -4254,6 +4212,117 @@
   </si>
   <si>
     <t>glyoxylate -&gt; tartronate semialdehyde -&gt; D-glycerate -&gt; 2-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>['Transketolase (EC 2.2.1.1)', 'Transketolase, C-terminal section (EC 2.2.1.1)', 'Transketolase, N-terminal section (EC 2.2.1.1)']</t>
+  </si>
+  <si>
+    <t>['ATP:Cob(I)alamin adenosyltransferase (EC 2.5.1.17)']</t>
+  </si>
+  <si>
+    <t>['6-phosphogluconate dehydrogenase, decarboxylating (EC 1.1.1.44)']</t>
+  </si>
+  <si>
+    <t>['Glucose-6-phosphate 1-dehydrogenase (EC 1.1.1.49)']</t>
+  </si>
+  <si>
+    <t>['Aerobic carbon monoxide dehydrogenase (quinone), small chain (EC 1.2.5.3)']</t>
+  </si>
+  <si>
+    <t>['Aerobic carbon monoxide dehydrogenase (quinone), medium chain (EC 1.2.5.3)']</t>
+  </si>
+  <si>
+    <t>['Aerobic carbon monoxide dehydrogenase (quinone), large chain (EC 1.2.5.3)']</t>
+  </si>
+  <si>
+    <t>['6-phosphofructokinase (EC 2.7.1.11)']</t>
+  </si>
+  <si>
+    <t>['Pyrophosphate-dependent fructose 6-phosphate-1-kinase (EC 2.7.1.90)']</t>
+  </si>
+  <si>
+    <t>['6-phosphogluconolactonase (EC 3.1.1.31)']</t>
+  </si>
+  <si>
+    <t>['Aliphatic amidase AmiE (EC 3.5.1.4)']</t>
+  </si>
+  <si>
+    <t>['Ribulose-phosphate 3-epimerase (EC 5.1.3.1)']</t>
+  </si>
+  <si>
+    <t>['Ribose-5-phosphate isomerase A (EC 5.3.1.6)']</t>
+  </si>
+  <si>
+    <t>['Ribose-5-phosphate isomerase B (EC 5.3.1.6)']</t>
+  </si>
+  <si>
+    <t>['Malate synthase G (EC 2.3.3.9)']</t>
+  </si>
+  <si>
+    <t>['Glycolate dehydrogenase (EC 1.1.99.14), subunit GlcD']</t>
+  </si>
+  <si>
+    <t>['Glycolate dehydrogenase (EC 1.1.99.14), FAD-binding subunit GlcE']</t>
+  </si>
+  <si>
+    <t>['Glycolate dehydrogenase (EC 1.1.99.14), iron-sulfur subunit GlcF']</t>
+  </si>
+  <si>
+    <t>['Proteorhodopsin']</t>
+  </si>
+  <si>
+    <t>['Indoleacetamide hydrolase (EC 3.5.1.-)']</t>
+  </si>
+  <si>
+    <t>['Transaldolase (EC 2.2.1.2)']</t>
+  </si>
+  <si>
+    <t>['Phosphoglycolate phosphatase (EC 3.1.3.18)']</t>
+  </si>
+  <si>
+    <t>['Glutamine synthetase type III, GlnN (EC 6.3.1.2)','Glutamine synthetase type II, eukaryotic (EC 6.3.1.2)','Glutamine synthetase type I (EC 6.3.1.2)']</t>
+  </si>
+  <si>
+    <t>['Aldehyde dehydrogenase (EC 1.2.1.3)']</t>
+  </si>
+  <si>
+    <t>['Acetyl-coenzyme A carboxyl transferase alpha chain (EC 6.4.1.2)']</t>
+  </si>
+  <si>
+    <t>['Biotin carboxyl carrier protein of acetyl-CoA carboxylase']</t>
+  </si>
+  <si>
+    <t>['Biotin carboxylase of acetyl-CoA carboxylase (EC 6.3.4.14)']</t>
+  </si>
+  <si>
+    <t>['Acetyl-coenzyme A carboxyl transferase beta chain (EC 6.4.1.2)']</t>
+  </si>
+  <si>
+    <t>6.4.1.2,6.3.4.14</t>
+  </si>
+  <si>
+    <t>isocitrate lyase</t>
+  </si>
+  <si>
+    <t>4.1.3.1</t>
+  </si>
+  <si>
+    <t>R00479</t>
+  </si>
+  <si>
+    <t>['Isocitrate lyase (EC 4.1.3.1)']</t>
+  </si>
+  <si>
+    <t>['Acetyl-CoA acetyltransferase (EC 2.3.1.9)']</t>
+  </si>
+  <si>
+    <t>2.3.1.9</t>
+  </si>
+  <si>
+    <t>cytochrome c biogenesis protein CcmG, thiol:disulfide interchange protein DsbE</t>
+  </si>
+  <si>
+    <t>['Thiol:disulfide interchange protein']</t>
   </si>
 </sst>
 </file>
@@ -4693,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C313" sqref="C313"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -4713,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>5</v>
@@ -4731,7 +4800,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -4743,10 +4812,10 @@
         <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1">
@@ -4754,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14" customHeight="1">
@@ -4768,13 +4837,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1">
@@ -4782,22 +4851,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14" customHeight="1">
@@ -4805,22 +4874,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14" customHeight="1">
@@ -4828,19 +4897,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1247</v>
+        <v>1235</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1">
@@ -4848,16 +4920,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1191</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14" customHeight="1">
@@ -4865,13 +4937,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>1420</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1">
@@ -4879,19 +4960,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1192</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14" customHeight="1">
@@ -4899,19 +4980,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1193</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14" customHeight="1">
@@ -4919,19 +5000,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1194</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1">
@@ -4939,22 +5020,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1314</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1">
@@ -4962,22 +5043,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>1313</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1">
@@ -4985,22 +5066,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>1313</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1">
@@ -5008,19 +5089,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1">
@@ -5052,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>29</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1">
@@ -5084,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>27</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1">
@@ -5116,7 +5197,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>28</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1">
@@ -5124,28 +5205,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14" customHeight="1">
@@ -5153,28 +5234,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14" customHeight="1">
@@ -5182,28 +5263,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" customHeight="1">
@@ -5211,16 +5292,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14" customHeight="1">
@@ -5228,16 +5309,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14" customHeight="1">
@@ -5245,16 +5326,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14" customHeight="1">
@@ -5262,16 +5343,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" customHeight="1">
@@ -5279,16 +5360,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14" customHeight="1">
@@ -5296,13 +5377,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14" customHeight="1">
@@ -5310,16 +5391,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14" customHeight="1">
@@ -5327,16 +5408,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14" customHeight="1">
@@ -5344,16 +5425,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14" customHeight="1">
@@ -5361,16 +5442,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14" customHeight="1">
@@ -5378,270 +5459,273 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1">
+        <v>149</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="14" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1">
@@ -5649,13 +5733,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1">
@@ -5663,13 +5747,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="14" customHeight="1">
@@ -5677,13 +5761,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="14" customHeight="1">
@@ -5691,19 +5775,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1">
@@ -5711,19 +5795,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1">
@@ -5731,19 +5815,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14" customHeight="1">
@@ -5751,16 +5835,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>969</v>
+        <v>1409</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1">
@@ -5768,16 +5852,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14" customHeight="1">
@@ -5785,13 +5869,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="14" customHeight="1">
@@ -5799,16 +5883,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G58" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14" customHeight="1">
@@ -5816,16 +5900,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14" customHeight="1">
@@ -5833,13 +5917,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="14" customHeight="1">
@@ -5847,19 +5931,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14" customHeight="1">
@@ -5867,19 +5951,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14" customHeight="1">
@@ -5887,16 +5971,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="14" customHeight="1">
@@ -5904,16 +5988,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14" customHeight="1">
@@ -5921,16 +6005,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14" customHeight="1">
@@ -5938,16 +6022,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14" customHeight="1">
@@ -5955,19 +6039,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="G67" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14" customHeight="1">
@@ -5975,19 +6059,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14" customHeight="1">
@@ -5995,19 +6079,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14" customHeight="1">
@@ -6015,19 +6099,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14" customHeight="1">
@@ -6035,19 +6119,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14" customHeight="1">
@@ -6055,19 +6139,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14" customHeight="1">
@@ -6075,16 +6159,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14" customHeight="1">
@@ -6092,19 +6176,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14" customHeight="1">
@@ -6112,22 +6196,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14" customHeight="1">
@@ -6135,22 +6219,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14" customHeight="1">
@@ -6158,22 +6242,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14" customHeight="1">
@@ -6181,22 +6265,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14" customHeight="1">
@@ -6204,22 +6288,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14" customHeight="1">
@@ -6227,19 +6311,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G80" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14" customHeight="1">
@@ -6247,19 +6331,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14" customHeight="1">
@@ -6267,19 +6351,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14" customHeight="1">
@@ -6287,19 +6371,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="14" customHeight="1">
@@ -6307,19 +6391,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14" customHeight="1">
@@ -6327,19 +6411,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14" customHeight="1">
@@ -6347,19 +6431,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14" customHeight="1">
@@ -6367,19 +6451,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="14" customHeight="1">
@@ -6387,19 +6471,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14" customHeight="1">
@@ -6407,19 +6491,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="14" customHeight="1">
@@ -6427,19 +6511,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="G90" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14" customHeight="1">
@@ -6447,19 +6531,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="14" customHeight="1">
@@ -6467,19 +6551,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14" customHeight="1">
@@ -6487,16 +6571,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14" customHeight="1">
@@ -6504,16 +6588,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="14" customHeight="1">
@@ -6521,16 +6605,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="14" customHeight="1">
@@ -6538,22 +6622,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -6561,22 +6645,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -6584,22 +6668,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -6607,13 +6691,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14" customHeight="1">
@@ -6621,13 +6705,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14" customHeight="1">
@@ -6635,13 +6719,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14" customHeight="1">
@@ -6649,13 +6733,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="14" customHeight="1">
@@ -6663,13 +6747,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14" customHeight="1">
@@ -6677,19 +6761,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>1425</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -6697,19 +6787,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="14" customHeight="1">
@@ -6717,19 +6807,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14" customHeight="1">
@@ -6737,19 +6827,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -6757,19 +6850,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="14" customHeight="1">
@@ -6777,19 +6870,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="14" customHeight="1">
@@ -6797,19 +6890,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="14" customHeight="1">
@@ -6817,19 +6910,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="14" customHeight="1">
@@ -6837,16 +6930,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="14" customHeight="1">
@@ -6854,19 +6947,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="14" customHeight="1">
@@ -6874,19 +6967,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="14" customHeight="1">
@@ -6894,19 +6987,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="14" customHeight="1">
@@ -6914,19 +7007,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="14" customHeight="1">
@@ -6934,16 +7027,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="14" customHeight="1">
@@ -6951,16 +7044,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="14" customHeight="1">
@@ -6968,16 +7061,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="14" customHeight="1">
@@ -6985,16 +7078,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="14" customHeight="1">
@@ -7002,16 +7095,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="14" customHeight="1">
@@ -7019,16 +7112,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="14" customHeight="1">
@@ -7036,19 +7129,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="14" customHeight="1">
@@ -7056,16 +7149,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="14" customHeight="1">
@@ -7073,16 +7166,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="14" customHeight="1">
@@ -7090,16 +7183,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="14" customHeight="1">
@@ -7107,13 +7200,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="14" customHeight="1">
@@ -7121,13 +7214,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="14" customHeight="1">
@@ -7135,16 +7228,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="14" customHeight="1">
@@ -7152,13 +7245,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="14" customHeight="1">
@@ -7166,13 +7259,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="14" customHeight="1">
@@ -7180,13 +7273,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="14" customHeight="1">
@@ -7194,13 +7287,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="14" customHeight="1">
@@ -7208,16 +7301,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="14" customHeight="1">
@@ -7225,13 +7318,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="14" customHeight="1">
@@ -7239,13 +7332,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="14" customHeight="1">
@@ -7253,13 +7346,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="14" customHeight="1">
@@ -7267,13 +7360,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="14" customHeight="1">
@@ -7281,16 +7374,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="14" customHeight="1">
@@ -7298,25 +7391,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="14" customHeight="1">
@@ -7324,25 +7417,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1196</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -7350,25 +7443,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1197</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -7376,25 +7469,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="G143" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14" customHeight="1">
@@ -7402,432 +7495,435 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="14" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14" customHeight="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="14" customHeight="1">
+    </row>
+    <row r="146" spans="1:10" ht="14" customHeight="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="14" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14" customHeight="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="14" customHeight="1">
+        <v>554</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14" customHeight="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="14" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14" customHeight="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="14" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="14" customHeight="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="14" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14" customHeight="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="14" customHeight="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14" customHeight="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="14" customHeight="1">
+    </row>
+    <row r="153" spans="1:10" ht="14" customHeight="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H153" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="I153" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="14" customHeight="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14" customHeight="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="14" customHeight="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14" customHeight="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="14" customHeight="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14" customHeight="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="14" customHeight="1">
+    </row>
+    <row r="157" spans="1:10" ht="14" customHeight="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="14" customHeight="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14" customHeight="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="14" customHeight="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14" customHeight="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>615</v>
-      </c>
       <c r="G159" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="14" customHeight="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14" customHeight="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="14" customHeight="1">
@@ -7835,25 +7931,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="G161" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="14" customHeight="1">
@@ -7861,25 +7957,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="E162" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="14" customHeight="1">
@@ -7887,19 +7983,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="14" customHeight="1">
@@ -7907,16 +8003,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="14" customHeight="1">
@@ -7924,16 +8020,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="14" customHeight="1">
@@ -7941,16 +8037,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="14" customHeight="1">
@@ -7958,16 +8054,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14" customHeight="1">
@@ -7975,16 +8071,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="14" customHeight="1">
@@ -7992,16 +8088,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="14" customHeight="1">
@@ -8009,16 +8105,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="14" customHeight="1">
@@ -8026,16 +8122,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="14" customHeight="1">
@@ -8043,16 +8139,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1426</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="14" customHeight="1">
@@ -8060,16 +8159,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="14" customHeight="1">
@@ -8077,16 +8176,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="14" customHeight="1">
@@ -8094,16 +8193,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="14" customHeight="1">
@@ -8111,13 +8210,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -8125,16 +8224,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="14" customHeight="1">
@@ -8142,16 +8241,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="14" customHeight="1">
@@ -8159,13 +8258,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="14" customHeight="1">
@@ -8173,16 +8272,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="14" customHeight="1">
@@ -8190,13 +8289,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="14" customHeight="1">
@@ -8204,16 +8303,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="14" customHeight="1">
@@ -8221,16 +8320,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="14" customHeight="1">
@@ -8238,16 +8337,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="14" customHeight="1">
@@ -8255,16 +8354,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="14" customHeight="1">
@@ -8272,16 +8371,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="14" customHeight="1">
@@ -8289,10 +8388,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G187" s="8"/>
       <c r="L187" s="8"/>
@@ -8302,16 +8401,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14" customHeight="1">
@@ -8319,16 +8418,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="14" customHeight="1">
@@ -8336,16 +8435,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="14" customHeight="1">
@@ -8353,16 +8452,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="14" customHeight="1">
@@ -8370,16 +8469,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="14" customHeight="1">
@@ -8387,10 +8486,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G193" s="8"/>
       <c r="L193" s="8"/>
@@ -8400,16 +8499,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="14" customHeight="1">
@@ -8417,16 +8516,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>729</v>
-      </c>
       <c r="G195" s="3" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="14" customHeight="1">
@@ -8434,25 +8533,25 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="H196" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="G196" s="3" t="s">
+      <c r="I196" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="J196" s="3" t="s">
-        <v>1195</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="14" customHeight="1">
@@ -8460,22 +8559,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D197" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I197" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="14" customHeight="1">
@@ -8483,22 +8582,25 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C198" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>753</v>
+      <c r="J198" s="3" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="14" customHeight="1">
@@ -8506,22 +8608,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C199" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="I199" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="14" customHeight="1">
@@ -8529,22 +8631,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="I200" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>758</v>
+      <c r="J200" s="3" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="14" customHeight="1">
@@ -8552,22 +8657,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>766</v>
+        <v>762</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="14" customHeight="1">
@@ -8575,22 +8683,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="14" customHeight="1">
@@ -8598,22 +8709,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>769</v>
+        <v>765</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="14" customHeight="1">
@@ -8621,22 +8735,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="14" customHeight="1">
@@ -8644,22 +8761,25 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="14" customHeight="1">
@@ -8667,22 +8787,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="14" customHeight="1">
@@ -8690,25 +8810,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="14" customHeight="1">
@@ -8716,396 +8836,408 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="14" customHeight="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="14" customHeight="1">
       <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="14" customHeight="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="14" customHeight="1">
       <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="14" customHeight="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="14" customHeight="1">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E211" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>810</v>
-      </c>
       <c r="G211" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H211" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="H211" s="3" t="s">
-        <v>797</v>
-      </c>
       <c r="I211" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="14" customHeight="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="14" customHeight="1">
       <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>811</v>
-      </c>
       <c r="E212" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="14" customHeight="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="14" customHeight="1">
       <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="14" customHeight="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="14" customHeight="1">
       <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G214" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="H214" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="H214" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="I214" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="14" customHeight="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="14" customHeight="1">
       <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="E215" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="G215" s="3" t="s">
+      <c r="H215" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="I215" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="H215" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="14" customHeight="1">
+    </row>
+    <row r="216" spans="1:10" ht="14" customHeight="1">
       <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="14" customHeight="1">
+        <v>835</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="14" customHeight="1">
       <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="14" customHeight="1">
+        <v>835</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="14" customHeight="1">
       <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I218" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="14" customHeight="1">
+      <c r="J218" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="14" customHeight="1">
       <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="H219" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>840</v>
-      </c>
       <c r="I219" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="14" customHeight="1">
+        <v>835</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="14" customHeight="1">
       <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="14" customHeight="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="14" customHeight="1">
       <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="H221" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="H221" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="I221" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="14" customHeight="1">
+    </row>
+    <row r="222" spans="1:10" ht="14" customHeight="1">
       <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>858</v>
-      </c>
       <c r="G222" s="3" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="14" customHeight="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="14" customHeight="1">
       <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="14" customHeight="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="14" customHeight="1">
       <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14" customHeight="1">
@@ -9113,16 +9245,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14" customHeight="1">
@@ -9130,16 +9262,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14" customHeight="1">
@@ -9147,16 +9279,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="228" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -9164,19 +9296,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
@@ -9188,19 +9320,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -9212,19 +9344,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -9236,19 +9368,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -9260,19 +9392,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -9284,19 +9416,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -9308,19 +9440,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -9332,19 +9464,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -9356,10 +9488,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -9370,7 +9502,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -9378,19 +9510,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -9398,22 +9530,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C238" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="H238" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>980</v>
-      </c>
       <c r="I238" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>1392</v>
       </c>
       <c r="L238" s="12"/>
     </row>
@@ -9422,24 +9557,24 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="13" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -9450,22 +9585,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -9476,24 +9611,24 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="13" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -9504,24 +9639,24 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="13" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -9532,22 +9667,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H243" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="H243" s="4" t="s">
+      <c r="I243" s="4" t="s">
         <v>1036</v>
-      </c>
-      <c r="I243" s="4" t="s">
-        <v>1041</v>
       </c>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -9558,24 +9693,24 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="13" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -9586,24 +9721,24 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -9614,22 +9749,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -9640,24 +9775,24 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="13" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -9668,22 +9803,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
@@ -9691,19 +9826,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G249" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I249" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I249" s="3" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
@@ -9711,22 +9846,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
@@ -9734,22 +9869,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="14" customHeight="1">
@@ -9757,19 +9892,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
@@ -9777,22 +9912,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
@@ -9800,22 +9935,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
@@ -9823,22 +9958,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="14" customHeight="1">
@@ -9846,22 +9981,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="14" customHeight="1">
@@ -9869,22 +10004,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="14" customHeight="1">
@@ -9892,22 +10027,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L258" s="7"/>
     </row>
@@ -9916,22 +10051,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="14" customHeight="1">
@@ -9939,22 +10074,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="14" customHeight="1">
@@ -9962,22 +10097,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="14" customHeight="1">
@@ -9985,22 +10120,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>1079</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="14" customHeight="1">
@@ -10008,22 +10143,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="14" customHeight="1">
@@ -10031,22 +10166,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="14" customHeight="1">
@@ -10054,22 +10189,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="14" customHeight="1">
@@ -10077,22 +10212,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="14" customHeight="1">
@@ -10100,22 +10235,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="14" customHeight="1">
@@ -10123,22 +10258,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="14" customHeight="1">
@@ -10146,22 +10281,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="14" customHeight="1">
@@ -10169,22 +10304,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="14" customHeight="1">
@@ -10192,16 +10327,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="14" customHeight="1">
@@ -10209,22 +10344,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="14" customHeight="1">
@@ -10232,22 +10367,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D273" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H273" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="G273" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H273" s="3" t="s">
-        <v>1162</v>
-      </c>
       <c r="I273" s="3" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="14" customHeight="1">
@@ -10255,22 +10390,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="14" customHeight="1">
@@ -10278,22 +10413,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="14" customHeight="1">
@@ -10301,22 +10436,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="14" customHeight="1">
@@ -10324,22 +10459,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="14" customHeight="1">
@@ -10347,22 +10482,22 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="14" customHeight="1">
@@ -10370,22 +10505,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="14" customHeight="1">
@@ -10393,22 +10528,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="14" customHeight="1">
@@ -10416,22 +10551,22 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="14" customHeight="1">
@@ -10439,22 +10574,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="14" customHeight="1">
@@ -10462,22 +10597,22 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>1269</v>
-      </c>
       <c r="G283" s="3" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="14" customHeight="1">
@@ -10485,22 +10620,22 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="14" customHeight="1">
@@ -10508,22 +10643,22 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="14" customHeight="1">
@@ -10531,22 +10666,22 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="14" customHeight="1">
@@ -10554,22 +10689,22 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="14" customHeight="1">
@@ -10577,13 +10712,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="14" customHeight="1">
@@ -10591,16 +10726,16 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="14" customHeight="1">
@@ -10608,16 +10743,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="14" customHeight="1">
@@ -10625,16 +10760,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="14" customHeight="1">
@@ -10642,16 +10777,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="14" customHeight="1">
@@ -10659,22 +10794,22 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="D293" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H293" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="G293" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>1329</v>
-      </c>
       <c r="I293" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="14" customHeight="1">
@@ -10682,22 +10817,22 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="D294" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H294" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="G294" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="H294" s="3" t="s">
-        <v>1329</v>
-      </c>
       <c r="I294" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="14" customHeight="1">
@@ -10705,22 +10840,22 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="D295" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H295" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="G295" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>1329</v>
-      </c>
       <c r="I295" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="14" customHeight="1">
@@ -10728,22 +10863,22 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="D296" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H296" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="G296" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H296" s="3" t="s">
-        <v>1329</v>
-      </c>
       <c r="I296" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="14" customHeight="1">
@@ -10751,22 +10886,22 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="14" customHeight="1">
@@ -10774,22 +10909,22 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="14" customHeight="1">
@@ -10797,22 +10932,22 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="14" customHeight="1">
@@ -10820,22 +10955,22 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="14" customHeight="1">
@@ -10843,22 +10978,22 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="14" customHeight="1">
@@ -10866,22 +11001,22 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="D302" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="14" customHeight="1">
@@ -10889,22 +11024,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="14" customHeight="1">
@@ -10912,22 +11047,22 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="14" customHeight="1">
@@ -10935,22 +11070,22 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="14" customHeight="1">
@@ -10958,22 +11093,22 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="14" customHeight="1">
@@ -10981,22 +11116,22 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="14" customHeight="1">
@@ -11004,22 +11139,22 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="D308" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H308" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="G308" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>1329</v>
-      </c>
       <c r="I308" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="14" customHeight="1">
@@ -11027,22 +11162,22 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="14" customHeight="1">
@@ -11050,19 +11185,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="14" customHeight="1">
@@ -11070,19 +11205,19 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I311" s="3" t="s">
         <v>1387</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1393</v>
-      </c>
-      <c r="G311" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H311" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I311" s="3" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="14" customHeight="1">
@@ -11090,25 +11225,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L309" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L309">
-      <sortCondition ref="A1:A309"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L312">
+      <sortCondition ref="A1:A312"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L253">
@@ -11151,44 +11286,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -11201,7 +11336,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -11215,571 +11350,571 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FDFCEF-2955-5543-8312-76B201CCFC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C632FD-3A93-A04A-BC53-AE62D9B2A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="25100" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1446">
   <si>
     <t>NOTE</t>
   </si>
@@ -4323,6 +4323,60 @@
   </si>
   <si>
     <t>['Thiol:disulfide interchange protein']</t>
+  </si>
+  <si>
+    <t>gacS</t>
+  </si>
+  <si>
+    <t>K07678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two-component system, NarL family, sensor histidine kinase BarA </t>
+  </si>
+  <si>
+    <t>2.7.13.3</t>
+  </si>
+  <si>
+    <t>gacA</t>
+  </si>
+  <si>
+    <t>K07689</t>
+  </si>
+  <si>
+    <t>two-component system, NarL family, invasion response regulator UvrY</t>
+  </si>
+  <si>
+    <t>Gac/Rsm Pathway</t>
+  </si>
+  <si>
+    <t>ladS</t>
+  </si>
+  <si>
+    <t>retS</t>
+  </si>
+  <si>
+    <t>rsmA_csrA</t>
+  </si>
+  <si>
+    <t>K03563</t>
+  </si>
+  <si>
+    <t>carbon storage regulator</t>
+  </si>
+  <si>
+    <t>two-component system, sensor histidine kinase LadS</t>
+  </si>
+  <si>
+    <t>K20971</t>
+  </si>
+  <si>
+    <t>two-component system, sensor histidine kinase RetS</t>
+  </si>
+  <si>
+    <t>K20972</t>
+  </si>
+  <si>
+    <t>gacS + gacA + ladS | retS | rsmA_csrA</t>
   </si>
 </sst>
 </file>
@@ -4760,10 +4814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L312"/>
+  <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B313" sqref="B313:B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -11238,6 +11293,94 @@
       </c>
       <c r="I312" s="3" t="s">
         <v>1378</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="14" customHeight="1">
+      <c r="A313" s="3">
+        <v>312</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="14" customHeight="1">
+      <c r="A314" s="3">
+        <v>313</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="14" customHeight="1">
+      <c r="A315" s="3">
+        <v>314</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="14" customHeight="1">
+      <c r="A316" s="3">
+        <v>315</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="14" customHeight="1">
+      <c r="A317" s="3">
+        <v>316</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -11333,10 +11476,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -11917,6 +12060,26 @@
         <v>1178</v>
       </c>
     </row>
+    <row r="53" spans="1:4" ht="14" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14" customHeight="1">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="14" customHeight="1">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="14" customHeight="1">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="B57" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D51" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C632FD-3A93-A04A-BC53-AE62D9B2A880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD6D98-2B3D-F84D-89C2-08789E5C19BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="25100" windowHeight="28340" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="25100" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1447">
   <si>
     <t>NOTE</t>
   </si>
@@ -4377,6 +4377,9 @@
   </si>
   <si>
     <t>gacS + gacA + ladS | retS | rsmA_csrA</t>
+  </si>
+  <si>
+    <t>Annotates from patric genbank file - no path needed</t>
   </si>
 </sst>
 </file>
@@ -4816,9 +4819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:L317"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B313" sqref="B313:B317"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -11398,10 +11401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11469,6 +11472,28 @@
         <v>957</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11478,7 +11503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD6D98-2B3D-F84D-89C2-08789E5C19BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD189C16-505D-AF4C-AE1E-18A55B50E5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="25100" windowHeight="28340" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="47280" windowHeight="26280" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1603">
   <si>
     <t>NOTE</t>
   </si>
@@ -4380,13 +4380,481 @@
   </si>
   <si>
     <t>Annotates from patric genbank file - no path needed</t>
+  </si>
+  <si>
+    <t>['Respiratory nitrate reductase alpha chain (EC 1.7.99.4)']</t>
+  </si>
+  <si>
+    <t>['Respiratory nitrate reductase beta chain (EC 1.7.99.4)']</t>
+  </si>
+  <si>
+    <t>['Respiratory nitrate reductase gamma chain (EC 1.7.99.4)']</t>
+  </si>
+  <si>
+    <t>6.3.5.5</t>
+  </si>
+  <si>
+    <t>2.1.3.2</t>
+  </si>
+  <si>
+    <t>3.5.2.3</t>
+  </si>
+  <si>
+    <t>1.3.1.14</t>
+  </si>
+  <si>
+    <t>1.3.5.2</t>
+  </si>
+  <si>
+    <t>2.4.2.10</t>
+  </si>
+  <si>
+    <t>4.1.1.23</t>
+  </si>
+  <si>
+    <t>carB</t>
+  </si>
+  <si>
+    <t>K01954,K01955</t>
+  </si>
+  <si>
+    <t>carbamoyl-phosphate synthase large subunit [EC:6.3.5.5]</t>
+  </si>
+  <si>
+    <t>carA</t>
+  </si>
+  <si>
+    <t>carbamoyl-phosphate synthase small subunit</t>
+  </si>
+  <si>
+    <t>K01956</t>
+  </si>
+  <si>
+    <t>K00608</t>
+  </si>
+  <si>
+    <t>pyrBI</t>
+  </si>
+  <si>
+    <t>aspartate carbamoyltransferase</t>
+  </si>
+  <si>
+    <t>K00609</t>
+  </si>
+  <si>
+    <t>K00610</t>
+  </si>
+  <si>
+    <t>pyrB</t>
+  </si>
+  <si>
+    <t>aspartate carbamoyltransferase catalytic subunit</t>
+  </si>
+  <si>
+    <t>pyrI</t>
+  </si>
+  <si>
+    <t>aspartate carbamoyltransferase regulatory subunit</t>
+  </si>
+  <si>
+    <t>K01465</t>
+  </si>
+  <si>
+    <t>R01993</t>
+  </si>
+  <si>
+    <t>R00575</t>
+  </si>
+  <si>
+    <t>R01397</t>
+  </si>
+  <si>
+    <t>pyrC</t>
+  </si>
+  <si>
+    <t>dihydroorotase</t>
+  </si>
+  <si>
+    <t>K00254</t>
+  </si>
+  <si>
+    <t>K17828</t>
+  </si>
+  <si>
+    <t>dihydroorotate dehydrogenase</t>
+  </si>
+  <si>
+    <t>K00226</t>
+  </si>
+  <si>
+    <t>1.3.98.1</t>
+  </si>
+  <si>
+    <t>R01867</t>
+  </si>
+  <si>
+    <t>R01868</t>
+  </si>
+  <si>
+    <t>R01869</t>
+  </si>
+  <si>
+    <t>pyrD</t>
+  </si>
+  <si>
+    <t>DHODH</t>
+  </si>
+  <si>
+    <t>pyrDI</t>
+  </si>
+  <si>
+    <t>R01870</t>
+  </si>
+  <si>
+    <t>pyrE</t>
+  </si>
+  <si>
+    <t>orotate phosphoribosyltransferase</t>
+  </si>
+  <si>
+    <t>K00762</t>
+  </si>
+  <si>
+    <t>R00965</t>
+  </si>
+  <si>
+    <t>pyrF</t>
+  </si>
+  <si>
+    <t>orotidine-5'-phosphate decarboxylase</t>
+  </si>
+  <si>
+    <t>K01591</t>
+  </si>
+  <si>
+    <t>De Novo Pyrimidine Synthesis - To UMP</t>
+  </si>
+  <si>
+    <t>carA + carB -&gt; pyrBI | pyrI + pyrB -&gt; pyrC -&gt; pyrD | pyrDI | DHODH -&gt; pyrE -&gt; pyrF</t>
+  </si>
+  <si>
+    <t>['Carbamoyl-phosphate synthase small chain (EC 6.3.5.5)']</t>
+  </si>
+  <si>
+    <t>['Carbamoyl-phosphate synthase large chain (EC 6.3.5.5)']</t>
+  </si>
+  <si>
+    <t>['Aspartate carbamoyltransferase (EC 2.1.3.2)']</t>
+  </si>
+  <si>
+    <t>['Dihydroorotase (EC 3.5.2.3)']</t>
+  </si>
+  <si>
+    <t>['Dihydroorotate dehydrogenase (quinone) (EC 1.3.5.2)']</t>
+  </si>
+  <si>
+    <t>['Orotate phosphoribosyltransferase (EC 2.4.2.10)']</t>
+  </si>
+  <si>
+    <t>["Orotidine 5'-phosphate decarboxylase (EC 4.1.1.23)"]</t>
+  </si>
+  <si>
+    <t>L-Glutamine -&gt; Carbamoyl phosphate -&gt; N-Carbamoyl-L-aspartate -&gt; (S)-Dihydroorotate -&gt; Orotate + 5-Phospho-alpha-D-ribose 1-diphosphate -&gt; Orotidine 5'-phosphate -&gt; UMP</t>
+  </si>
+  <si>
+    <t>['Amidophosphoribosyltransferase (EC 2.4.2.14)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylamine--glycine ligase (EC 6.3.4.13)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylglycinamide formyltransferase (EC 2.1.2.2)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylformylglycinamidine synthase, synthetase subunit (EC 6.3.5.3)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylformylglycinamidine synthase, glutamine amidotransferase subunit (EC 6.3.5.3)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylformylglycinamidine synthase, PurS subunit (EC 6.3.5.3)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylformylglycinamidine cyclo-ligase (EC 6.3.3.1)']</t>
+  </si>
+  <si>
+    <t>['N5-carboxyaminoimidazole ribonucleotide synthase (EC 6.3.4.18)']</t>
+  </si>
+  <si>
+    <t>['N5-carboxyaminoimidazole ribonucleotide mutase (EC 5.4.99.18)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylaminoimidazole-succinocarboxamide synthase (EC 6.3.2.6)']</t>
+  </si>
+  <si>
+    <t>['SAICAR lyase (EC 4.3.2.2)']</t>
+  </si>
+  <si>
+    <t>['Adenylosuccinate lyase (EC 4.3.2.2)']</t>
+  </si>
+  <si>
+    <t>['Phosphoribosylaminoimidazolecarboxamide formyltransferase (EC 2.1.2.3)']</t>
+  </si>
+  <si>
+    <t>['IMP cyclohydrolase (EC 3.5.4.10)']</t>
+  </si>
+  <si>
+    <t>De Novo Purine Synthesis - To IMP</t>
+  </si>
+  <si>
+    <t>K00764</t>
+  </si>
+  <si>
+    <t>R01072</t>
+  </si>
+  <si>
+    <t>2.4.2.14</t>
+  </si>
+  <si>
+    <t>amidophosphoribosyltransferase</t>
+  </si>
+  <si>
+    <t>R04144</t>
+  </si>
+  <si>
+    <t>6.3.4.13</t>
+  </si>
+  <si>
+    <t>purF</t>
+  </si>
+  <si>
+    <t>purD</t>
+  </si>
+  <si>
+    <t>phosphoribosylamine---glycine ligase</t>
+  </si>
+  <si>
+    <t>K00601,K11175,K08289,K11787,K01492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylglycinamide </t>
+  </si>
+  <si>
+    <t>2.1.2.2</t>
+  </si>
+  <si>
+    <t>R04325</t>
+  </si>
+  <si>
+    <t>purN_purT_purNH</t>
+  </si>
+  <si>
+    <t>6.3.5.3</t>
+  </si>
+  <si>
+    <t>R04463</t>
+  </si>
+  <si>
+    <t>K23264</t>
+  </si>
+  <si>
+    <t>K01952</t>
+  </si>
+  <si>
+    <t>K23265</t>
+  </si>
+  <si>
+    <t>K23270</t>
+  </si>
+  <si>
+    <t>K23269</t>
+  </si>
+  <si>
+    <t>phosphoribosylformylglycinamidine synthase</t>
+  </si>
+  <si>
+    <t>purL</t>
+  </si>
+  <si>
+    <t>purS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylformylglycinamidine synthase subunit PurS </t>
+  </si>
+  <si>
+    <t>purQ</t>
+  </si>
+  <si>
+    <t>phosphoribosylformylglycinamidine synthase subunit PurQ / glutaminase</t>
+  </si>
+  <si>
+    <t>purL_2</t>
+  </si>
+  <si>
+    <t>purSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylformylglycinamidine synthase subunit PurSL </t>
+  </si>
+  <si>
+    <t>R04208</t>
+  </si>
+  <si>
+    <t>6.3.3.1</t>
+  </si>
+  <si>
+    <t>phosphoribosylformylglycinamidine cyclo-ligase</t>
+  </si>
+  <si>
+    <t>K01933</t>
+  </si>
+  <si>
+    <t>purM</t>
+  </si>
+  <si>
+    <t>K01945,K11787,K11788</t>
+  </si>
+  <si>
+    <t>K01589</t>
+  </si>
+  <si>
+    <t>purK</t>
+  </si>
+  <si>
+    <t>5-(carboxyamino)imidazole ribonucleotide synthase</t>
+  </si>
+  <si>
+    <t>6.3.4.18</t>
+  </si>
+  <si>
+    <t>R07404</t>
+  </si>
+  <si>
+    <t>K01588</t>
+  </si>
+  <si>
+    <t>purE</t>
+  </si>
+  <si>
+    <t>5-(carboxyamino)imidazole ribonucleotide mutase</t>
+  </si>
+  <si>
+    <t>5.4.99.18</t>
+  </si>
+  <si>
+    <t>R07405</t>
+  </si>
+  <si>
+    <t>purC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylaminoimidazole-succinocarboxamide synthase </t>
+  </si>
+  <si>
+    <t>K01923</t>
+  </si>
+  <si>
+    <t>6.3.2.6</t>
+  </si>
+  <si>
+    <t>R04591</t>
+  </si>
+  <si>
+    <t>K01587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylaminoimidazole carboxylase / phosphoribosylaminoimidazole-succinocarboxamide synthase </t>
+  </si>
+  <si>
+    <t>PAICS</t>
+  </si>
+  <si>
+    <t>K01756</t>
+  </si>
+  <si>
+    <t>purB</t>
+  </si>
+  <si>
+    <t>adenylosuccinate lyase</t>
+  </si>
+  <si>
+    <t>4.3.2.2</t>
+  </si>
+  <si>
+    <t>R04559</t>
+  </si>
+  <si>
+    <t>SAICAR</t>
+  </si>
+  <si>
+    <t>SAICAR lyase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylaminoimidazolecarboxamide formyltransferase </t>
+  </si>
+  <si>
+    <t>purNH</t>
+  </si>
+  <si>
+    <t>K01492</t>
+  </si>
+  <si>
+    <t>2.1.2.3</t>
+  </si>
+  <si>
+    <t>R04560</t>
+  </si>
+  <si>
+    <t>purO</t>
+  </si>
+  <si>
+    <t>IMP cyclohydrolase</t>
+  </si>
+  <si>
+    <t>K11176</t>
+  </si>
+  <si>
+    <t>3.5.4.10</t>
+  </si>
+  <si>
+    <t>R01127</t>
+  </si>
+  <si>
+    <t>The purM step is a little more complicated than shown here, and may require some other genes found earlier in the pathway</t>
+  </si>
+  <si>
+    <t>K11787</t>
+  </si>
+  <si>
+    <t>R04144,R04325</t>
+  </si>
+  <si>
+    <t>6.3.4.13,2.1.2.2</t>
+  </si>
+  <si>
+    <t>GART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoribosylamine--glycine ligase / phosphoribosylglycinamide formyltransferase / phosphoribosylformylglycinamidine cyclo-ligase </t>
+  </si>
+  <si>
+    <t>5-Phospho-alpha-D-ribose 1-diphosphate + L-Glutamine -&gt; 5-Phosphoribosylamine -&gt; 5'-Phosphoribosylglycinamide -&gt; 5'-Phosphoribosyl-N-formylglycinamide -&gt; 2-(Formamido)-N1-(5'-phosphoribosyl)acetamidine -&gt; Aminoimidazole ribotide -&gt; 1-(5-Phospho-D-ribosyl)-5-amino-4-imidazolecarboxylate -&gt; 1-(5'-Phosphoribosyl)-5-amino-4-(N-succinocarboxamide)-imidazole -&gt; 1-(5'-Phosphoribosyl)-5-amino-4-imidazolecarboxamide -&gt; 1-(5'-Phosphoribosyl)-5-formamido-4-imidazolecarboxamide -&gt; IMP</t>
+  </si>
+  <si>
+    <t>purF -&gt; purD | GART -&gt; purN_purT_purNH | GART -&gt; purL | purL_2 + purS + purQ | purSL + purQ -&gt; purM | purK + purE -&gt; purC | PAICS -&gt; SAICAR | purB -&gt; purNH -&gt; purO</t>
+  </si>
+  <si>
+    <t>De Novo Pyrimidine Synthesis (to UMP)</t>
+  </si>
+  <si>
+    <t>De Novo Purine Synthesis (to IMP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4403,6 +4871,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4461,7 +4935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4503,6 +4977,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4817,11 +5292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L317"/>
+  <dimension ref="A1:L346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H343" sqref="H343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -4829,12 +5304,14 @@
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" style="3" customWidth="1"/>
-    <col min="9" max="12" width="14.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="14.1640625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="40.5" style="3"/>
   </cols>
   <sheetData>
@@ -5286,6 +5763,9 @@
       <c r="I19" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="J19" s="3" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="14" customHeight="1">
       <c r="A20" s="3">
@@ -5315,6 +5795,9 @@
       <c r="I20" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="J20" s="3" t="s">
+        <v>1448</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="14" customHeight="1">
       <c r="A21" s="3">
@@ -5343,6 +5826,9 @@
       </c>
       <c r="I21" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" customHeight="1">
@@ -11123,7 +11609,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14" customHeight="1">
+    <row r="305" spans="1:10" ht="14" customHeight="1">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -11146,7 +11632,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14" customHeight="1">
+    <row r="306" spans="1:10" ht="14" customHeight="1">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -11169,7 +11655,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="14" customHeight="1">
+    <row r="307" spans="1:10" ht="14" customHeight="1">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -11192,7 +11678,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="14" customHeight="1">
+    <row r="308" spans="1:10" ht="14" customHeight="1">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -11215,7 +11701,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14" customHeight="1">
+    <row r="309" spans="1:10" ht="14" customHeight="1">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -11238,7 +11724,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="14" customHeight="1">
+    <row r="310" spans="1:10" ht="14" customHeight="1">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -11258,7 +11744,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="14" customHeight="1">
+    <row r="311" spans="1:10" ht="14" customHeight="1">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -11278,7 +11764,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="14" customHeight="1">
+    <row r="312" spans="1:10" ht="14" customHeight="1">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -11298,7 +11784,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14" customHeight="1">
+    <row r="313" spans="1:10" ht="14" customHeight="1">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -11318,7 +11804,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14" customHeight="1">
+    <row r="314" spans="1:10" ht="14" customHeight="1">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -11335,7 +11821,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14" customHeight="1">
+    <row r="315" spans="1:10" ht="14" customHeight="1">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -11352,7 +11838,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14" customHeight="1">
+    <row r="316" spans="1:10" ht="14" customHeight="1">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -11369,7 +11855,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14" customHeight="1">
+    <row r="317" spans="1:10" ht="14" customHeight="1">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -11384,6 +11870,734 @@
       </c>
       <c r="G317" s="3" t="s">
         <v>1439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="14" customHeight="1">
+      <c r="A318" s="3">
+        <v>317</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="14" customHeight="1">
+      <c r="A319" s="3">
+        <v>318</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="14" customHeight="1">
+      <c r="A320" s="3">
+        <v>319</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="14" customHeight="1">
+      <c r="A321" s="3">
+        <v>320</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="14" customHeight="1">
+      <c r="A322" s="3">
+        <v>321</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="14" customHeight="1">
+      <c r="A323" s="3">
+        <v>322</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="14" customHeight="1">
+      <c r="A324" s="3">
+        <v>323</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="14" customHeight="1">
+      <c r="A325" s="3">
+        <v>324</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="14" customHeight="1">
+      <c r="A326" s="3">
+        <v>325</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="14" customHeight="1">
+      <c r="A327" s="3">
+        <v>326</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="14" customHeight="1">
+      <c r="A328" s="3">
+        <v>327</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="14" customHeight="1">
+      <c r="A329" s="3">
+        <v>328</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J329" s="21" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="14" customHeight="1">
+      <c r="A330" s="3">
+        <v>329</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J330" s="21" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="14" customHeight="1">
+      <c r="A331" s="3">
+        <v>330</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J331" s="21"/>
+    </row>
+    <row r="332" spans="1:10" ht="14" customHeight="1">
+      <c r="A332" s="3">
+        <v>331</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J332" s="21" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="14" customHeight="1">
+      <c r="A333" s="3">
+        <v>332</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J333" s="21" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="14" customHeight="1">
+      <c r="A334" s="3">
+        <v>333</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J334" s="21" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="14" customHeight="1">
+      <c r="A335" s="3">
+        <v>334</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J335" s="21" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="14" customHeight="1">
+      <c r="A336" s="3">
+        <v>335</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J336" s="21"/>
+    </row>
+    <row r="337" spans="1:10" ht="14" customHeight="1">
+      <c r="A337" s="3">
+        <v>336</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J337" s="21"/>
+    </row>
+    <row r="338" spans="1:10" ht="14" customHeight="1">
+      <c r="A338" s="3">
+        <v>337</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J338" s="21" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="14" customHeight="1">
+      <c r="A339" s="3">
+        <v>338</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J339" s="21" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="14" customHeight="1">
+      <c r="A340" s="3">
+        <v>339</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J340" s="21" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="14" customHeight="1">
+      <c r="A341" s="3">
+        <v>340</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J341" s="21" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="14" customHeight="1">
+      <c r="A342" s="3">
+        <v>341</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J342" s="21"/>
+    </row>
+    <row r="343" spans="1:10" ht="14" customHeight="1">
+      <c r="A343" s="3">
+        <v>342</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J343" s="21" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="14" customHeight="1">
+      <c r="A344" s="3">
+        <v>343</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J344" s="21" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="14" customHeight="1">
+      <c r="A345" s="3">
+        <v>344</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J345" s="21" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="14" customHeight="1">
+      <c r="A346" s="3">
+        <v>345</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J346" s="21" t="s">
+        <v>1520</v>
       </c>
     </row>
   </sheetData>
@@ -11395,6 +12609,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L253">
     <sortCondition ref="G2:G253"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11503,8 +12718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
@@ -12094,10 +13309,29 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14" customHeight="1">
-      <c r="B54" s="7"/>
+      <c r="A54" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1506</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="14" customHeight="1">
-      <c r="B55" s="7"/>
+      <c r="A55" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="14" customHeight="1">
       <c r="B56" s="7"/>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD189C16-505D-AF4C-AE1E-18A55B50E5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6D284-34F9-EA4D-9690-6B70014D2605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="47280" windowHeight="26280" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -12719,7 +12719,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6D284-34F9-EA4D-9690-6B70014D2605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618CB0B4-F5CE-ED44-BCB6-30C5CCD68D07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="47280" windowHeight="26280" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="47280" windowHeight="26280" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$M$309</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1605">
   <si>
     <t>NOTE</t>
   </si>
@@ -4848,6 +4848,12 @@
   </si>
   <si>
     <t>De Novo Purine Synthesis (to IMP)</t>
+  </si>
+  <si>
+    <t>kofam96</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Science/kofam/96</t>
   </si>
 </sst>
 </file>
@@ -5292,11 +5298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:L346"/>
+  <dimension ref="A1:M346"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H343" sqref="H343"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -5307,15 +5313,15 @@
     <col min="4" max="4" width="60.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.1640625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="40.5" style="3"/>
+    <col min="7" max="8" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="40.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" customHeight="1">
+    <row r="1" spans="1:13" ht="14" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>913</v>
       </c>
@@ -5338,22 +5344,25 @@
         <v>1040</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" customHeight="1">
+    <row r="2" spans="1:13" ht="14" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5366,8 +5375,11 @@
       <c r="G2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14" customHeight="1">
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5380,8 +5392,11 @@
       <c r="G3" s="3" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14" customHeight="1">
+      <c r="H3" s="3" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5398,13 +5413,16 @@
         <v>1227</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14" customHeight="1">
+    <row r="5" spans="1:13" ht="14" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5421,13 +5439,16 @@
         <v>1223</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14" customHeight="1">
+    <row r="6" spans="1:13" ht="14" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5441,16 +5462,19 @@
         <v>1233</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14" customHeight="1">
+    <row r="7" spans="1:13" ht="14" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5463,11 +5487,14 @@
       <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14" customHeight="1">
+    <row r="8" spans="1:13" ht="14" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5481,16 +5508,19 @@
         <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>1421</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14" customHeight="1">
+    <row r="9" spans="1:13" ht="14" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5506,11 +5536,14 @@
       <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14" customHeight="1">
+    <row r="10" spans="1:13" ht="14" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5526,11 +5559,14 @@
       <c r="G10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14" customHeight="1">
+    <row r="11" spans="1:13" ht="14" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5546,11 +5582,14 @@
       <c r="G11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14" customHeight="1">
+    <row r="12" spans="1:13" ht="14" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5567,13 +5606,16 @@
         <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14" customHeight="1">
+    <row r="13" spans="1:13" ht="14" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5590,13 +5632,16 @@
         <v>72</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14" customHeight="1">
+    <row r="14" spans="1:13" ht="14" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5613,13 +5658,16 @@
         <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14" customHeight="1">
+    <row r="15" spans="1:13" ht="14" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5636,10 +5684,13 @@
         <v>71</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14" customHeight="1">
+    <row r="16" spans="1:13" ht="14" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5661,17 +5712,20 @@
       <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14" customHeight="1">
+    <row r="17" spans="1:11" ht="14" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5693,17 +5747,20 @@
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14" customHeight="1">
+    <row r="18" spans="1:11" ht="14" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5725,17 +5782,20 @@
       <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14" customHeight="1">
+    <row r="19" spans="1:11" ht="14" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5758,16 +5818,19 @@
         <v>28</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14" customHeight="1">
+    <row r="20" spans="1:11" ht="14" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5790,16 +5853,19 @@
         <v>29</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14" customHeight="1">
+    <row r="21" spans="1:11" ht="14" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5822,16 +5888,19 @@
         <v>30</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14" customHeight="1">
+    <row r="22" spans="1:11" ht="14" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5845,10 +5914,13 @@
         <v>87</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14" customHeight="1">
+    <row r="23" spans="1:11" ht="14" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -5862,10 +5934,13 @@
         <v>89</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14" customHeight="1">
+    <row r="24" spans="1:11" ht="14" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -5879,10 +5954,13 @@
         <v>92</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14" customHeight="1">
+    <row r="25" spans="1:11" ht="14" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -5896,10 +5974,13 @@
         <v>96</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14" customHeight="1">
+    <row r="26" spans="1:11" ht="14" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5913,10 +5994,13 @@
         <v>100</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14" customHeight="1">
+    <row r="27" spans="1:11" ht="14" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5929,8 +6013,11 @@
       <c r="G27" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14" customHeight="1">
+      <c r="H27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -5944,10 +6031,13 @@
         <v>107</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14" customHeight="1">
+    <row r="29" spans="1:11" ht="14" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5961,10 +6051,13 @@
         <v>111</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14" customHeight="1">
+    <row r="30" spans="1:11" ht="14" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -5978,10 +6071,13 @@
         <v>115</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14" customHeight="1">
+    <row r="31" spans="1:11" ht="14" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -5995,10 +6091,13 @@
         <v>118</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14" customHeight="1">
+    <row r="32" spans="1:11" ht="14" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6011,8 +6110,11 @@
       <c r="G32" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14" customHeight="1">
+      <c r="H32" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6026,10 +6128,13 @@
         <v>125</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14" customHeight="1">
+    <row r="34" spans="1:11" ht="14" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6043,10 +6148,13 @@
         <v>129</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14" customHeight="1">
+    <row r="35" spans="1:11" ht="14" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6060,10 +6168,13 @@
         <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14" customHeight="1">
+    <row r="36" spans="1:11" ht="14" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -6076,8 +6187,11 @@
       <c r="G36" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14" customHeight="1">
+      <c r="H36" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6091,10 +6205,13 @@
         <v>140</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14" customHeight="1">
+    <row r="38" spans="1:11" ht="14" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -6108,10 +6225,13 @@
         <v>144</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14" customHeight="1">
+    <row r="39" spans="1:11" ht="14" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -6125,13 +6245,16 @@
         <v>148</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14" customHeight="1">
+    <row r="40" spans="1:11" ht="14" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -6145,10 +6268,13 @@
         <v>152</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14" customHeight="1">
+    <row r="41" spans="1:11" ht="14" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -6161,8 +6287,11 @@
       <c r="G41" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14" customHeight="1">
+      <c r="H41" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -6175,8 +6304,11 @@
       <c r="G42" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14" customHeight="1">
+      <c r="H42" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6190,10 +6322,13 @@
         <v>162</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14" customHeight="1">
+    <row r="44" spans="1:11" ht="14" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6207,10 +6342,13 @@
         <v>166</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14" customHeight="1">
+    <row r="45" spans="1:11" ht="14" customHeight="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6224,10 +6362,13 @@
         <v>170</v>
       </c>
       <c r="H45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14" customHeight="1">
+    <row r="46" spans="1:11" ht="14" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6240,8 +6381,11 @@
       <c r="G46" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="14" customHeight="1">
+      <c r="H46" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6255,10 +6399,13 @@
         <v>176</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14" customHeight="1">
+    <row r="48" spans="1:11" ht="14" customHeight="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6271,8 +6418,11 @@
       <c r="G48" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="14" customHeight="1">
+      <c r="H48" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14" customHeight="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6285,8 +6435,11 @@
       <c r="G49" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="14" customHeight="1">
+      <c r="H49" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6299,8 +6452,11 @@
       <c r="G50" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="14" customHeight="1">
+      <c r="H50" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6313,8 +6469,11 @@
       <c r="G51" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="14" customHeight="1">
+      <c r="H51" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -6331,10 +6490,13 @@
         <v>192</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1">
+    <row r="53" spans="1:13" ht="14" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6351,10 +6513,13 @@
         <v>196</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14" customHeight="1">
+    <row r="54" spans="1:13" ht="14" customHeight="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -6371,10 +6536,13 @@
         <v>200</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14" customHeight="1">
+    <row r="55" spans="1:13" ht="14" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6384,14 +6552,14 @@
       <c r="C55" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14" customHeight="1">
+    <row r="56" spans="1:13" ht="14" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -6404,11 +6572,14 @@
       <c r="G56" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14" customHeight="1">
+    <row r="57" spans="1:13" ht="14" customHeight="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6421,8 +6592,11 @@
       <c r="G57" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="14" customHeight="1">
+      <c r="H57" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6435,11 +6609,14 @@
       <c r="G58" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14" customHeight="1">
+    <row r="59" spans="1:13" ht="14" customHeight="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6452,11 +6629,14 @@
       <c r="G59" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="H59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14" customHeight="1">
+    <row r="60" spans="1:13" ht="14" customHeight="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6469,8 +6649,11 @@
       <c r="G60" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="14" customHeight="1">
+      <c r="H60" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14" customHeight="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6486,11 +6669,14 @@
       <c r="G61" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="H61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14" customHeight="1">
+    <row r="62" spans="1:13" ht="14" customHeight="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6506,11 +6692,14 @@
       <c r="G62" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="H62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14" customHeight="1">
+    <row r="63" spans="1:13" ht="14" customHeight="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6526,8 +6715,11 @@
       <c r="G63" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="14" customHeight="1">
+      <c r="H63" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="14" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6543,8 +6735,11 @@
       <c r="G64" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="14" customHeight="1">
+      <c r="H64" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14" customHeight="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6560,8 +6755,11 @@
       <c r="G65" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="14" customHeight="1">
+      <c r="H65" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6577,8 +6775,11 @@
       <c r="G66" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="14" customHeight="1">
+      <c r="H66" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6595,10 +6796,13 @@
         <v>243</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14" customHeight="1">
+    <row r="68" spans="1:9" ht="14" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -6615,10 +6819,13 @@
         <v>248</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14" customHeight="1">
+    <row r="69" spans="1:9" ht="14" customHeight="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6635,10 +6842,13 @@
         <v>251</v>
       </c>
       <c r="H69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14" customHeight="1">
+    <row r="70" spans="1:9" ht="14" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -6655,10 +6865,13 @@
         <v>254</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14" customHeight="1">
+    <row r="71" spans="1:9" ht="14" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6675,10 +6888,13 @@
         <v>257</v>
       </c>
       <c r="H71" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14" customHeight="1">
+    <row r="72" spans="1:9" ht="14" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -6695,10 +6911,13 @@
         <v>260</v>
       </c>
       <c r="H72" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14" customHeight="1">
+    <row r="73" spans="1:9" ht="14" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6714,8 +6933,11 @@
       <c r="G73" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="14" customHeight="1">
+      <c r="H73" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14" customHeight="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -6732,10 +6954,13 @@
         <v>267</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14" customHeight="1">
+    <row r="75" spans="1:9" ht="14" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6755,10 +6980,13 @@
         <v>272</v>
       </c>
       <c r="H75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14" customHeight="1">
+    <row r="76" spans="1:9" ht="14" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -6778,10 +7006,13 @@
         <v>276</v>
       </c>
       <c r="H76" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14" customHeight="1">
+    <row r="77" spans="1:9" ht="14" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6801,10 +7032,13 @@
         <v>279</v>
       </c>
       <c r="H77" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14" customHeight="1">
+    <row r="78" spans="1:9" ht="14" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -6824,10 +7058,13 @@
         <v>283</v>
       </c>
       <c r="H78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14" customHeight="1">
+    <row r="79" spans="1:9" ht="14" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6847,10 +7084,13 @@
         <v>286</v>
       </c>
       <c r="H79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14" customHeight="1">
+    <row r="80" spans="1:9" ht="14" customHeight="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -6867,10 +7107,13 @@
         <v>290</v>
       </c>
       <c r="H80" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14" customHeight="1">
+    <row r="81" spans="1:10" ht="14" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6887,10 +7130,13 @@
         <v>295</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14" customHeight="1">
+    <row r="82" spans="1:10" ht="14" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -6907,10 +7153,13 @@
         <v>298</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14" customHeight="1">
+    <row r="83" spans="1:10" ht="14" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6927,10 +7176,13 @@
         <v>302</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14" customHeight="1">
+    <row r="84" spans="1:10" ht="14" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -6947,10 +7199,13 @@
         <v>306</v>
       </c>
       <c r="H84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14" customHeight="1">
+    <row r="85" spans="1:10" ht="14" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -6967,10 +7222,13 @@
         <v>309</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14" customHeight="1">
+    <row r="86" spans="1:10" ht="14" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -6987,10 +7245,13 @@
         <v>313</v>
       </c>
       <c r="H86" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14" customHeight="1">
+    <row r="87" spans="1:10" ht="14" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7007,10 +7268,13 @@
         <v>317</v>
       </c>
       <c r="H87" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14" customHeight="1">
+    <row r="88" spans="1:10" ht="14" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7027,10 +7291,13 @@
         <v>321</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14" customHeight="1">
+    <row r="89" spans="1:10" ht="14" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7047,10 +7314,13 @@
         <v>325</v>
       </c>
       <c r="H89" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14" customHeight="1">
+    <row r="90" spans="1:10" ht="14" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7067,10 +7337,13 @@
         <v>330</v>
       </c>
       <c r="H90" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14" customHeight="1">
+    <row r="91" spans="1:10" ht="14" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7087,10 +7360,13 @@
         <v>335</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14" customHeight="1">
+    <row r="92" spans="1:10" ht="14" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7107,10 +7383,13 @@
         <v>339</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14" customHeight="1">
+    <row r="93" spans="1:10" ht="14" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -7126,8 +7405,11 @@
       <c r="G93" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="14" customHeight="1">
+      <c r="H93" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -7143,8 +7425,11 @@
       <c r="G94" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="14" customHeight="1">
+      <c r="H94" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -7160,8 +7445,11 @@
       <c r="G95" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="14" customHeight="1">
+      <c r="H95" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -7178,13 +7466,16 @@
         <v>1272</v>
       </c>
       <c r="H96" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14" customHeight="1">
+    <row r="97" spans="1:13" ht="14" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -7201,13 +7492,16 @@
         <v>1273</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I97" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14" customHeight="1">
+    <row r="98" spans="1:13" ht="14" customHeight="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -7224,13 +7518,16 @@
         <v>1274</v>
       </c>
       <c r="H98" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I98" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14" customHeight="1">
+    <row r="99" spans="1:13" ht="14" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -7240,11 +7537,11 @@
       <c r="C99" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14" customHeight="1">
+    <row r="100" spans="1:13" ht="14" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -7254,11 +7551,11 @@
       <c r="C100" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14" customHeight="1">
+    <row r="101" spans="1:13" ht="14" customHeight="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -7268,11 +7565,11 @@
       <c r="C101" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14" customHeight="1">
+    <row r="102" spans="1:13" ht="14" customHeight="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -7282,11 +7579,11 @@
       <c r="C102" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14" customHeight="1">
+    <row r="103" spans="1:13" ht="14" customHeight="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -7296,11 +7593,11 @@
       <c r="C103" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="M103" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14" customHeight="1">
+    <row r="104" spans="1:13" ht="14" customHeight="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -7317,16 +7614,19 @@
         <v>369</v>
       </c>
       <c r="H104" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="14" customHeight="1">
+    <row r="105" spans="1:13" ht="14" customHeight="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -7342,11 +7642,14 @@
       <c r="G105" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="H105" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14" customHeight="1">
+    <row r="106" spans="1:13" ht="14" customHeight="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -7362,11 +7665,14 @@
       <c r="G106" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="H106" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14" customHeight="1">
+    <row r="107" spans="1:13" ht="14" customHeight="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -7382,14 +7688,17 @@
       <c r="G107" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="H107" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14" customHeight="1">
+    <row r="108" spans="1:13" ht="14" customHeight="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -7405,11 +7714,14 @@
       <c r="G108" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="H108" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14" customHeight="1">
+    <row r="109" spans="1:13" ht="14" customHeight="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -7425,11 +7737,14 @@
       <c r="G109" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="H109" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14" customHeight="1">
+    <row r="110" spans="1:13" ht="14" customHeight="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -7445,11 +7760,14 @@
       <c r="G110" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="H110" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J110" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14" customHeight="1">
+    <row r="111" spans="1:13" ht="14" customHeight="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7465,11 +7783,14 @@
       <c r="G111" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="H111" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J111" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14" customHeight="1">
+    <row r="112" spans="1:13" ht="14" customHeight="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7485,8 +7806,11 @@
       <c r="G112" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="14" customHeight="1">
+      <c r="H112" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="14" customHeight="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7502,11 +7826,14 @@
       <c r="G113" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="H113" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14" customHeight="1">
+    <row r="114" spans="1:13" ht="14" customHeight="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7522,11 +7849,14 @@
       <c r="G114" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="H114" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J114" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14" customHeight="1">
+    <row r="115" spans="1:13" ht="14" customHeight="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7542,11 +7872,14 @@
       <c r="G115" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="H115" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J115" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14" customHeight="1">
+    <row r="116" spans="1:13" ht="14" customHeight="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7562,11 +7895,14 @@
       <c r="G116" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="H116" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J116" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14" customHeight="1">
+    <row r="117" spans="1:13" ht="14" customHeight="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7579,11 +7915,14 @@
       <c r="G117" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="L117" s="3" t="s">
+      <c r="H117" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="M117" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14" customHeight="1">
+    <row r="118" spans="1:13" ht="14" customHeight="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7596,11 +7935,14 @@
       <c r="G118" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="L118" s="3" t="s">
+      <c r="H118" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="M118" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14" customHeight="1">
+    <row r="119" spans="1:13" ht="14" customHeight="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7613,11 +7955,14 @@
       <c r="G119" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="H119" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="M119" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14" customHeight="1">
+    <row r="120" spans="1:13" ht="14" customHeight="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7630,11 +7975,14 @@
       <c r="G120" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="H120" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="M120" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14" customHeight="1">
+    <row r="121" spans="1:13" ht="14" customHeight="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7647,11 +7995,14 @@
       <c r="G121" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="L121" s="3" t="s">
+      <c r="H121" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="M121" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14" customHeight="1">
+    <row r="122" spans="1:13" ht="14" customHeight="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7664,11 +8015,14 @@
       <c r="G122" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="L122" s="3" t="s">
+      <c r="H122" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M122" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14" customHeight="1">
+    <row r="123" spans="1:13" ht="14" customHeight="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7684,11 +8038,14 @@
       <c r="G123" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="L123" s="3" t="s">
+      <c r="H123" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="M123" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14" customHeight="1">
+    <row r="124" spans="1:13" ht="14" customHeight="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7701,11 +8058,14 @@
       <c r="G124" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="L124" s="3" t="s">
+      <c r="H124" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="M124" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14" customHeight="1">
+    <row r="125" spans="1:13" ht="14" customHeight="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7718,11 +8078,14 @@
       <c r="G125" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="L125" s="3" t="s">
+      <c r="H125" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="M125" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14" customHeight="1">
+    <row r="126" spans="1:13" ht="14" customHeight="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7735,11 +8098,14 @@
       <c r="G126" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L126" s="3" t="s">
+      <c r="H126" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M126" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14" customHeight="1">
+    <row r="127" spans="1:13" ht="14" customHeight="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7752,8 +8118,11 @@
       <c r="G127" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="14" customHeight="1">
+      <c r="H127" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="14" customHeight="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7766,8 +8135,11 @@
       <c r="G128" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="14" customHeight="1">
+      <c r="H128" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="14" customHeight="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7780,11 +8152,14 @@
       <c r="G129" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="L129" s="3" t="s">
+      <c r="H129" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M129" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14" customHeight="1">
+    <row r="130" spans="1:13" ht="14" customHeight="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7794,11 +8169,11 @@
       <c r="C130" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="L130" s="3" t="s">
+      <c r="M130" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14" customHeight="1">
+    <row r="131" spans="1:13" ht="14" customHeight="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7808,11 +8183,11 @@
       <c r="C131" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L131" s="3" t="s">
+      <c r="M131" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14" customHeight="1">
+    <row r="132" spans="1:13" ht="14" customHeight="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7822,11 +8197,11 @@
       <c r="C132" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="L132" s="3" t="s">
+      <c r="M132" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14" customHeight="1">
+    <row r="133" spans="1:13" ht="14" customHeight="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7836,11 +8211,11 @@
       <c r="C133" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="M133" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14" customHeight="1">
+    <row r="134" spans="1:13" ht="14" customHeight="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7853,11 +8228,14 @@
       <c r="G134" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="L134" s="3" t="s">
+      <c r="H134" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="M134" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14" customHeight="1">
+    <row r="135" spans="1:13" ht="14" customHeight="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7867,11 +8245,11 @@
       <c r="C135" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="M135" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14" customHeight="1">
+    <row r="136" spans="1:13" ht="14" customHeight="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -7884,8 +8262,11 @@
       <c r="G136" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="14" customHeight="1">
+      <c r="H136" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="14" customHeight="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -7895,11 +8276,11 @@
       <c r="C137" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="L137" s="3" t="s">
+      <c r="M137" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14" customHeight="1">
+    <row r="138" spans="1:13" ht="14" customHeight="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -7909,11 +8290,11 @@
       <c r="C138" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="L138" s="3" t="s">
+      <c r="M138" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14" customHeight="1">
+    <row r="139" spans="1:13" ht="14" customHeight="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -7926,11 +8307,14 @@
       <c r="G139" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="L139" s="3" t="s">
+      <c r="H139" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="M139" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="14" customHeight="1">
+    <row r="140" spans="1:13" ht="14" customHeight="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -7950,13 +8334,16 @@
         <v>512</v>
       </c>
       <c r="H140" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14" customHeight="1">
+    <row r="141" spans="1:13" ht="14" customHeight="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -7976,13 +8363,16 @@
         <v>513</v>
       </c>
       <c r="H141" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="K141" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14" customHeight="1">
+    <row r="142" spans="1:13" ht="14" customHeight="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8001,14 +8391,17 @@
       <c r="G142" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="H142" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="J142" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="K142" s="3" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14" customHeight="1">
+    <row r="143" spans="1:13" ht="14" customHeight="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8028,13 +8421,16 @@
         <v>527</v>
       </c>
       <c r="H143" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="J143" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14" customHeight="1">
+    <row r="144" spans="1:13" ht="14" customHeight="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8054,13 +8450,16 @@
         <v>528</v>
       </c>
       <c r="H144" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="J144" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14" customHeight="1">
+    <row r="145" spans="1:11" ht="14" customHeight="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8080,13 +8479,16 @@
         <v>536</v>
       </c>
       <c r="H145" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="J145" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14" customHeight="1">
+    <row r="146" spans="1:11" ht="14" customHeight="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8106,13 +8508,16 @@
         <v>537</v>
       </c>
       <c r="H146" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14" customHeight="1">
+    <row r="147" spans="1:11" ht="14" customHeight="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8132,16 +8537,19 @@
         <v>546</v>
       </c>
       <c r="H147" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="J147" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="K147" s="3" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14" customHeight="1">
+    <row r="148" spans="1:11" ht="14" customHeight="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8160,11 +8568,14 @@
       <c r="G148" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="H148" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J148" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14" customHeight="1">
+    <row r="149" spans="1:11" ht="14" customHeight="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8183,11 +8594,14 @@
       <c r="G149" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="H149" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14" customHeight="1">
+    <row r="150" spans="1:11" ht="14" customHeight="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8207,13 +8621,16 @@
         <v>549</v>
       </c>
       <c r="H150" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="J150" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14" customHeight="1">
+    <row r="151" spans="1:11" ht="14" customHeight="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8233,13 +8650,16 @@
         <v>550</v>
       </c>
       <c r="H151" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="I151" s="3" t="s">
+      <c r="J151" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14" customHeight="1">
+    <row r="152" spans="1:11" ht="14" customHeight="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -8259,13 +8679,16 @@
         <v>567</v>
       </c>
       <c r="H152" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14" customHeight="1">
+    <row r="153" spans="1:11" ht="14" customHeight="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8285,13 +8708,16 @@
         <v>568</v>
       </c>
       <c r="H153" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="J153" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14" customHeight="1">
+    <row r="154" spans="1:11" ht="14" customHeight="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8311,10 +8737,13 @@
         <v>569</v>
       </c>
       <c r="H154" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14" customHeight="1">
+    <row r="155" spans="1:11" ht="14" customHeight="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8334,13 +8763,16 @@
         <v>570</v>
       </c>
       <c r="H155" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="J155" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14" customHeight="1">
+    <row r="156" spans="1:11" ht="14" customHeight="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8360,13 +8792,16 @@
         <v>571</v>
       </c>
       <c r="H156" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="J156" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14" customHeight="1">
+    <row r="157" spans="1:11" ht="14" customHeight="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8386,13 +8821,16 @@
         <v>594</v>
       </c>
       <c r="H157" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="J157" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14" customHeight="1">
+    <row r="158" spans="1:11" ht="14" customHeight="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8412,13 +8850,16 @@
         <v>595</v>
       </c>
       <c r="H158" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="14" customHeight="1">
+    <row r="159" spans="1:11" ht="14" customHeight="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8438,13 +8879,16 @@
         <v>596</v>
       </c>
       <c r="H159" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I159" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="J159" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="14" customHeight="1">
+    <row r="160" spans="1:11" ht="14" customHeight="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8464,13 +8908,16 @@
         <v>597</v>
       </c>
       <c r="H160" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I160" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="J160" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="14" customHeight="1">
+    <row r="161" spans="1:13" ht="14" customHeight="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -8490,13 +8937,16 @@
         <v>598</v>
       </c>
       <c r="H161" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I161" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="14" customHeight="1">
+    <row r="162" spans="1:13" ht="14" customHeight="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -8516,13 +8966,16 @@
         <v>599</v>
       </c>
       <c r="H162" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="J162" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="14" customHeight="1">
+    <row r="163" spans="1:13" ht="14" customHeight="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -8538,11 +8991,14 @@
       <c r="G163" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="L163" s="3" t="s">
+      <c r="H163" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="M163" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="14" customHeight="1">
+    <row r="164" spans="1:13" ht="14" customHeight="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -8555,11 +9011,14 @@
       <c r="G164" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="L164" s="3" t="s">
+      <c r="H164" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="M164" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="14" customHeight="1">
+    <row r="165" spans="1:13" ht="14" customHeight="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -8572,11 +9031,14 @@
       <c r="G165" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="L165" s="3" t="s">
+      <c r="H165" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="M165" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="14" customHeight="1">
+    <row r="166" spans="1:13" ht="14" customHeight="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -8589,11 +9051,14 @@
       <c r="G166" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="H166" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="M166" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="14" customHeight="1">
+    <row r="167" spans="1:13" ht="14" customHeight="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -8606,11 +9071,14 @@
       <c r="G167" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="L167" s="3" t="s">
+      <c r="H167" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M167" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="14" customHeight="1">
+    <row r="168" spans="1:13" ht="14" customHeight="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -8623,11 +9091,14 @@
       <c r="G168" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="L168" s="3" t="s">
+      <c r="H168" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="M168" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="14" customHeight="1">
+    <row r="169" spans="1:13" ht="14" customHeight="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -8640,11 +9111,14 @@
       <c r="G169" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="L169" s="3" t="s">
+      <c r="H169" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="M169" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="14" customHeight="1">
+    <row r="170" spans="1:13" ht="14" customHeight="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -8657,11 +9131,14 @@
       <c r="G170" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="L170" s="3" t="s">
+      <c r="H170" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="M170" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="14" customHeight="1">
+    <row r="171" spans="1:13" ht="14" customHeight="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -8674,11 +9151,14 @@
       <c r="G171" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="L171" s="3" t="s">
+      <c r="H171" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="M171" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="14" customHeight="1">
+    <row r="172" spans="1:13" ht="14" customHeight="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -8694,11 +9174,14 @@
       <c r="G172" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="L172" s="3" t="s">
+      <c r="H172" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="M172" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="14" customHeight="1">
+    <row r="173" spans="1:13" ht="14" customHeight="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -8711,11 +9194,14 @@
       <c r="G173" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="L173" s="3" t="s">
+      <c r="H173" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="M173" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="14" customHeight="1">
+    <row r="174" spans="1:13" ht="14" customHeight="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -8728,11 +9214,14 @@
       <c r="G174" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L174" s="3" t="s">
+      <c r="H174" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="M174" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="14" customHeight="1">
+    <row r="175" spans="1:13" ht="14" customHeight="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -8745,11 +9234,14 @@
       <c r="G175" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="L175" s="3" t="s">
+      <c r="H175" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="M175" s="3" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="14" customHeight="1">
+    <row r="176" spans="1:13" ht="14" customHeight="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -8759,11 +9251,11 @@
       <c r="D176" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="L176" s="3" t="s">
+      <c r="M176" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="14" customHeight="1">
+    <row r="177" spans="1:13" ht="14" customHeight="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -8776,11 +9268,14 @@
       <c r="G177" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L177" s="3" t="s">
+      <c r="H177" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="M177" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="14" customHeight="1">
+    <row r="178" spans="1:13" ht="14" customHeight="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -8793,11 +9288,14 @@
       <c r="G178" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="L178" s="3" t="s">
+      <c r="H178" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="M178" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="14" customHeight="1">
+    <row r="179" spans="1:13" ht="14" customHeight="1">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -8807,11 +9305,11 @@
       <c r="D179" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="L179" s="3" t="s">
+      <c r="M179" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="14" customHeight="1">
+    <row r="180" spans="1:13" ht="14" customHeight="1">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -8824,11 +9322,14 @@
       <c r="G180" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="L180" s="3" t="s">
+      <c r="H180" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="M180" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="14" customHeight="1">
+    <row r="181" spans="1:13" ht="14" customHeight="1">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -8838,11 +9339,11 @@
       <c r="D181" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="M181" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14" customHeight="1">
+    <row r="182" spans="1:13" ht="14" customHeight="1">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -8855,11 +9356,14 @@
       <c r="G182" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="L182" s="3" t="s">
+      <c r="H182" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="M182" s="3" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="14" customHeight="1">
+    <row r="183" spans="1:13" ht="14" customHeight="1">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -8872,11 +9376,14 @@
       <c r="G183" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="L183" s="3" t="s">
+      <c r="H183" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="M183" s="3" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="14" customHeight="1">
+    <row r="184" spans="1:13" ht="14" customHeight="1">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -8889,11 +9396,14 @@
       <c r="G184" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="L184" s="3" t="s">
+      <c r="H184" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="M184" s="3" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="14" customHeight="1">
+    <row r="185" spans="1:13" ht="14" customHeight="1">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -8906,11 +9416,14 @@
       <c r="G185" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="L185" s="3" t="s">
+      <c r="H185" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="M185" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="14" customHeight="1">
+    <row r="186" spans="1:13" ht="14" customHeight="1">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -8923,11 +9436,14 @@
       <c r="G186" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="L186" s="3" t="s">
+      <c r="H186" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="M186" s="3" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="14" customHeight="1">
+    <row r="187" spans="1:13" ht="14" customHeight="1">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -8938,9 +9454,10 @@
         <v>725</v>
       </c>
       <c r="G187" s="8"/>
-      <c r="L187" s="8"/>
-    </row>
-    <row r="188" spans="1:12" ht="14" customHeight="1">
+      <c r="H187" s="8"/>
+      <c r="M187" s="8"/>
+    </row>
+    <row r="188" spans="1:13" ht="14" customHeight="1">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -8953,11 +9470,14 @@
       <c r="G188" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="L188" s="3" t="s">
+      <c r="H188" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="M188" s="3" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="14" customHeight="1">
+    <row r="189" spans="1:13" ht="14" customHeight="1">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -8970,11 +9490,14 @@
       <c r="G189" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="L189" s="3" t="s">
+      <c r="H189" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="M189" s="3" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="14" customHeight="1">
+    <row r="190" spans="1:13" ht="14" customHeight="1">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -8987,11 +9510,14 @@
       <c r="G190" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="L190" s="3" t="s">
+      <c r="H190" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="M190" s="3" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="14" customHeight="1">
+    <row r="191" spans="1:13" ht="14" customHeight="1">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -9004,11 +9530,14 @@
       <c r="G191" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="L191" s="3" t="s">
+      <c r="H191" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="M191" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14" customHeight="1">
+    <row r="192" spans="1:13" ht="14" customHeight="1">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -9021,11 +9550,14 @@
       <c r="G192" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="L192" s="3" t="s">
+      <c r="H192" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="M192" s="3" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="14" customHeight="1">
+    <row r="193" spans="1:13" ht="14" customHeight="1">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -9036,9 +9568,10 @@
         <v>725</v>
       </c>
       <c r="G193" s="8"/>
-      <c r="L193" s="8"/>
-    </row>
-    <row r="194" spans="1:12" ht="14" customHeight="1">
+      <c r="H193" s="8"/>
+      <c r="M193" s="8"/>
+    </row>
+    <row r="194" spans="1:13" ht="14" customHeight="1">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -9051,11 +9584,14 @@
       <c r="G194" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="L194" s="3" t="s">
+      <c r="H194" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="M194" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="14" customHeight="1">
+    <row r="195" spans="1:13" ht="14" customHeight="1">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -9068,11 +9604,14 @@
       <c r="G195" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="L195" s="3" t="s">
+      <c r="H195" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="M195" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="14" customHeight="1">
+    <row r="196" spans="1:13" ht="14" customHeight="1">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -9089,16 +9628,19 @@
         <v>731</v>
       </c>
       <c r="H196" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="I196" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="J196" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="K196" s="3" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14" customHeight="1">
+    <row r="197" spans="1:13" ht="14" customHeight="1">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -9115,13 +9657,16 @@
         <v>737</v>
       </c>
       <c r="H197" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I197" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="J197" s="3" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14" customHeight="1">
+    <row r="198" spans="1:13" ht="14" customHeight="1">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -9138,16 +9683,19 @@
         <v>747</v>
       </c>
       <c r="H198" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="J198" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="K198" s="3" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="14" customHeight="1">
+    <row r="199" spans="1:13" ht="14" customHeight="1">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -9164,13 +9712,16 @@
         <v>748</v>
       </c>
       <c r="H199" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="I199" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="J199" s="3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="14" customHeight="1">
+    <row r="200" spans="1:13" ht="14" customHeight="1">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -9187,16 +9738,19 @@
         <v>752</v>
       </c>
       <c r="H200" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="I200" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="K200" s="3" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="14" customHeight="1">
+    <row r="201" spans="1:13" ht="14" customHeight="1">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -9213,16 +9767,19 @@
         <v>759</v>
       </c>
       <c r="H201" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="J201" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="K201" s="3" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="14" customHeight="1">
+    <row r="202" spans="1:13" ht="14" customHeight="1">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -9239,16 +9796,19 @@
         <v>763</v>
       </c>
       <c r="H202" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="I202" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I202" s="3" t="s">
+      <c r="J202" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="K202" s="3" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14" customHeight="1">
+    <row r="203" spans="1:13" ht="14" customHeight="1">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -9265,16 +9825,19 @@
         <v>764</v>
       </c>
       <c r="H203" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="I203" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="J203" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="K203" s="3" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="14" customHeight="1">
+    <row r="204" spans="1:13" ht="14" customHeight="1">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -9291,16 +9854,19 @@
         <v>770</v>
       </c>
       <c r="H204" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="I204" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="I204" s="3" t="s">
+      <c r="J204" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="K204" s="3" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="14" customHeight="1">
+    <row r="205" spans="1:13" ht="14" customHeight="1">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -9317,16 +9883,19 @@
         <v>777</v>
       </c>
       <c r="H205" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="I205" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="J205" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="K205" s="3" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="14" customHeight="1">
+    <row r="206" spans="1:13" ht="14" customHeight="1">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -9343,13 +9912,16 @@
         <v>778</v>
       </c>
       <c r="H206" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="I206" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="I206" s="3" t="s">
+      <c r="J206" s="3" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="14" customHeight="1">
+    <row r="207" spans="1:13" ht="14" customHeight="1">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -9369,13 +9941,16 @@
         <v>785</v>
       </c>
       <c r="H207" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="I207" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="J207" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="14" customHeight="1">
+    <row r="208" spans="1:13" ht="14" customHeight="1">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -9395,13 +9970,16 @@
         <v>786</v>
       </c>
       <c r="H208" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I208" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="J208" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="14" customHeight="1">
+    <row r="209" spans="1:11" ht="14" customHeight="1">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -9421,13 +9999,16 @@
         <v>787</v>
       </c>
       <c r="H209" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="I209" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="J209" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="14" customHeight="1">
+    <row r="210" spans="1:11" ht="14" customHeight="1">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -9446,8 +10027,11 @@
       <c r="G210" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="14" customHeight="1">
+      <c r="H210" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="14" customHeight="1">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -9467,13 +10051,16 @@
         <v>789</v>
       </c>
       <c r="H211" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I211" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I211" s="3" t="s">
+      <c r="J211" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="14" customHeight="1">
+    <row r="212" spans="1:11" ht="14" customHeight="1">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -9492,8 +10079,11 @@
       <c r="G212" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="14" customHeight="1">
+      <c r="H212" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="14" customHeight="1">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -9513,13 +10103,16 @@
         <v>809</v>
       </c>
       <c r="H213" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="I213" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="I213" s="3" t="s">
+      <c r="J213" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14" customHeight="1">
+    <row r="214" spans="1:11" ht="14" customHeight="1">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -9539,13 +10132,16 @@
         <v>810</v>
       </c>
       <c r="H214" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="I214" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="I214" s="3" t="s">
+      <c r="J214" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="14" customHeight="1">
+    <row r="215" spans="1:11" ht="14" customHeight="1">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -9565,13 +10161,16 @@
         <v>811</v>
       </c>
       <c r="H215" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="I215" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="I215" s="3" t="s">
+      <c r="J215" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="14" customHeight="1">
+    <row r="216" spans="1:11" ht="14" customHeight="1">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -9591,16 +10190,19 @@
         <v>838</v>
       </c>
       <c r="H216" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="I216" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="J216" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="K216" s="3" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="14" customHeight="1">
+    <row r="217" spans="1:11" ht="14" customHeight="1">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -9619,14 +10221,17 @@
       <c r="G217" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="H217" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="J217" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="K217" s="3" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="14" customHeight="1">
+    <row r="218" spans="1:11" ht="14" customHeight="1">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -9646,16 +10251,19 @@
         <v>834</v>
       </c>
       <c r="H218" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I218" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="J218" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="K218" s="3" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="14" customHeight="1">
+    <row r="219" spans="1:11" ht="14" customHeight="1">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -9675,16 +10283,19 @@
         <v>840</v>
       </c>
       <c r="H219" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I219" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="J219" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="K219" s="3" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="14" customHeight="1">
+    <row r="220" spans="1:11" ht="14" customHeight="1">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -9704,13 +10315,16 @@
         <v>822</v>
       </c>
       <c r="H220" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="I220" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="I220" s="3" t="s">
+      <c r="J220" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14" customHeight="1">
+    <row r="221" spans="1:11" ht="14" customHeight="1">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -9724,13 +10338,16 @@
         <v>852</v>
       </c>
       <c r="H221" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="I221" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="J221" s="3" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="14" customHeight="1">
+    <row r="222" spans="1:11" ht="14" customHeight="1">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -9744,13 +10361,16 @@
         <v>859</v>
       </c>
       <c r="H222" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I222" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="J222" s="3" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="14" customHeight="1">
+    <row r="223" spans="1:11" ht="14" customHeight="1">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -9764,10 +10384,13 @@
         <v>866</v>
       </c>
       <c r="H223" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="I223" s="3" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14" customHeight="1">
+    <row r="224" spans="1:11" ht="14" customHeight="1">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -9781,10 +10404,13 @@
         <v>869</v>
       </c>
       <c r="H224" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="I224" s="3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="14" customHeight="1">
+    <row r="225" spans="1:13" ht="14" customHeight="1">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -9798,10 +10424,13 @@
         <v>873</v>
       </c>
       <c r="H225" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="I225" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="14" customHeight="1">
+    <row r="226" spans="1:13" ht="14" customHeight="1">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -9815,10 +10444,13 @@
         <v>876</v>
       </c>
       <c r="H226" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="I226" s="3" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="14" customHeight="1">
+    <row r="227" spans="1:13" ht="14" customHeight="1">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -9832,10 +10464,13 @@
         <v>879</v>
       </c>
       <c r="H227" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="I227" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+    <row r="228" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -9852,14 +10487,17 @@
         <v>882</v>
       </c>
       <c r="H228" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="I228" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
-    </row>
-    <row r="229" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M228" s="3"/>
+    </row>
+    <row r="229" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -9876,14 +10514,17 @@
         <v>887</v>
       </c>
       <c r="H229" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I229" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
-    </row>
-    <row r="230" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M229" s="3"/>
+    </row>
+    <row r="230" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -9900,14 +10541,17 @@
         <v>888</v>
       </c>
       <c r="H230" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I230" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-    </row>
-    <row r="231" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M230" s="3"/>
+    </row>
+    <row r="231" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -9924,14 +10568,17 @@
         <v>889</v>
       </c>
       <c r="H231" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I231" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
-    </row>
-    <row r="232" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M231" s="3"/>
+    </row>
+    <row r="232" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -9948,14 +10595,17 @@
         <v>890</v>
       </c>
       <c r="H232" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I232" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
-    </row>
-    <row r="233" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M232" s="3"/>
+    </row>
+    <row r="233" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -9972,14 +10622,17 @@
         <v>891</v>
       </c>
       <c r="H233" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="I233" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
-    </row>
-    <row r="234" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M233" s="3"/>
+    </row>
+    <row r="234" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -9996,14 +10649,17 @@
         <v>892</v>
       </c>
       <c r="H234" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I234" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
-    </row>
-    <row r="235" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M234" s="3"/>
+    </row>
+    <row r="235" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -10020,14 +10676,17 @@
         <v>893</v>
       </c>
       <c r="H235" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="I235" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
-    </row>
-    <row r="236" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="M235" s="3"/>
+    </row>
+    <row r="236" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -10045,11 +10704,12 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
-      <c r="L236" s="3" t="s">
+      <c r="L236" s="3"/>
+      <c r="M236" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+    <row r="237" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -10063,13 +10723,16 @@
         <v>1018</v>
       </c>
       <c r="H237" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I237" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="I237" s="4" t="s">
+      <c r="J237" s="4" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
+    <row r="238" spans="1:13" s="4" customFormat="1" ht="14" customHeight="1">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -10086,17 +10749,20 @@
         <v>971</v>
       </c>
       <c r="H238" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I238" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="I238" s="4" t="s">
+      <c r="J238" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="J238" s="4" t="s">
+      <c r="K238" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="L238" s="12"/>
-    </row>
-    <row r="239" spans="1:12" ht="14" customHeight="1">
+      <c r="M238" s="12"/>
+    </row>
+    <row r="239" spans="1:13" ht="14" customHeight="1">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -10114,17 +10780,20 @@
       <c r="G239" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="H239" s="4" t="s">
+      <c r="H239" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="I239" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="I239" s="4" t="s">
+      <c r="J239" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4"/>
-    </row>
-    <row r="240" spans="1:12" ht="14" customHeight="1">
+      <c r="M239" s="4"/>
+    </row>
+    <row r="240" spans="1:13" ht="14" customHeight="1">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -10141,16 +10810,19 @@
         <v>1019</v>
       </c>
       <c r="H240" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I240" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="I240" s="4" t="s">
+      <c r="J240" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
-    </row>
-    <row r="241" spans="1:12" ht="14" customHeight="1">
+      <c r="M240" s="4"/>
+    </row>
+    <row r="241" spans="1:13" ht="14" customHeight="1">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -10168,17 +10840,20 @@
       <c r="G241" s="13" t="s">
         <v>980</v>
       </c>
-      <c r="H241" s="4" t="s">
+      <c r="H241" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="I241" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="I241" s="4" t="s">
+      <c r="J241" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="J241" s="4"/>
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
-    </row>
-    <row r="242" spans="1:12" ht="14" customHeight="1">
+      <c r="M241" s="4"/>
+    </row>
+    <row r="242" spans="1:13" ht="14" customHeight="1">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -10196,17 +10871,20 @@
       <c r="G242" s="13" t="s">
         <v>1200</v>
       </c>
-      <c r="H242" s="4" t="s">
+      <c r="H242" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I242" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="I242" s="4" t="s">
+      <c r="J242" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="J242" s="4"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
-    </row>
-    <row r="243" spans="1:12" ht="14" customHeight="1">
+      <c r="M242" s="4"/>
+    </row>
+    <row r="243" spans="1:13" ht="14" customHeight="1">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -10223,16 +10901,19 @@
         <v>1026</v>
       </c>
       <c r="H243" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I243" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="I243" s="4" t="s">
+      <c r="J243" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="J243" s="4"/>
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
-    </row>
-    <row r="244" spans="1:12" ht="14" customHeight="1">
+      <c r="M243" s="4"/>
+    </row>
+    <row r="244" spans="1:13" ht="14" customHeight="1">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -10250,17 +10931,20 @@
       <c r="G244" s="13" t="s">
         <v>986</v>
       </c>
-      <c r="H244" s="4" t="s">
+      <c r="H244" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="I244" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="I244" s="4" t="s">
+      <c r="J244" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
-    </row>
-    <row r="245" spans="1:12" ht="14" customHeight="1">
+      <c r="M244" s="4"/>
+    </row>
+    <row r="245" spans="1:13" ht="14" customHeight="1">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -10279,16 +10963,19 @@
         <v>978</v>
       </c>
       <c r="H245" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="I245" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="I245" s="4" t="s">
+      <c r="J245" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="J245" s="4"/>
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
-    </row>
-    <row r="246" spans="1:12" ht="14" customHeight="1">
+      <c r="M245" s="4"/>
+    </row>
+    <row r="246" spans="1:13" ht="14" customHeight="1">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -10305,16 +10992,19 @@
         <v>1020</v>
       </c>
       <c r="H246" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I246" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="I246" s="4" t="s">
+      <c r="J246" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="J246" s="4"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
-    </row>
-    <row r="247" spans="1:12" ht="14" customHeight="1">
+      <c r="M246" s="4"/>
+    </row>
+    <row r="247" spans="1:13" ht="14" customHeight="1">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -10332,17 +11022,20 @@
       <c r="G247" s="13" t="s">
         <v>1201</v>
       </c>
-      <c r="H247" s="4" t="s">
+      <c r="H247" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I247" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="I247" s="4" t="s">
+      <c r="J247" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="J247" s="4"/>
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
-    </row>
-    <row r="248" spans="1:12" ht="14" customHeight="1">
+      <c r="M247" s="4"/>
+    </row>
+    <row r="248" spans="1:13" ht="14" customHeight="1">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -10358,14 +11051,17 @@
       <c r="G248" s="10" t="s">
         <v>1205</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="H248" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I248" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="J248" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="14" customHeight="1">
+    <row r="249" spans="1:13" ht="14" customHeight="1">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -10379,13 +11075,16 @@
         <v>1044</v>
       </c>
       <c r="H249" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I249" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="J249" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="14" customHeight="1">
+    <row r="250" spans="1:13" ht="14" customHeight="1">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -10401,14 +11100,17 @@
       <c r="G250" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="H250" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="I250" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="J250" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="14" customHeight="1">
+    <row r="251" spans="1:13" ht="14" customHeight="1">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -10424,14 +11126,17 @@
       <c r="G251" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="H251" s="3" t="s">
+      <c r="H251" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I251" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="J251" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="14" customHeight="1">
+    <row r="252" spans="1:13" ht="14" customHeight="1">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -10445,13 +11150,16 @@
         <v>1050</v>
       </c>
       <c r="H252" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I252" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="J252" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="14" customHeight="1">
+    <row r="253" spans="1:13" ht="14" customHeight="1">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -10467,14 +11175,17 @@
       <c r="G253" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="H253" s="3" t="s">
+      <c r="H253" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="I253" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="J253" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="14" customHeight="1">
+    <row r="254" spans="1:13" ht="14" customHeight="1">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -10490,14 +11201,17 @@
       <c r="G254" s="10" t="s">
         <v>1203</v>
       </c>
-      <c r="H254" s="3" t="s">
+      <c r="H254" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I254" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="14" customHeight="1">
+    <row r="255" spans="1:13" ht="14" customHeight="1">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -10513,14 +11227,17 @@
       <c r="G255" s="10" t="s">
         <v>1204</v>
       </c>
-      <c r="H255" s="3" t="s">
+      <c r="H255" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I255" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="J255" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="14" customHeight="1">
+    <row r="256" spans="1:13" ht="14" customHeight="1">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -10536,14 +11253,17 @@
       <c r="G256" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="H256" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="I256" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="J256" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="14" customHeight="1">
+    <row r="257" spans="1:13" ht="14" customHeight="1">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -10559,14 +11279,17 @@
       <c r="G257" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="H257" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="I257" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="J257" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="14" customHeight="1">
+    <row r="258" spans="1:13" ht="14" customHeight="1">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -10583,14 +11306,17 @@
         <v>974</v>
       </c>
       <c r="H258" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="I258" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="J258" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="L258" s="7"/>
-    </row>
-    <row r="259" spans="1:12" ht="14" customHeight="1">
+      <c r="M258" s="7"/>
+    </row>
+    <row r="259" spans="1:13" ht="14" customHeight="1">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -10606,14 +11332,17 @@
       <c r="G259" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="H259" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I259" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="J259" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="14" customHeight="1">
+    <row r="260" spans="1:13" ht="14" customHeight="1">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -10630,13 +11359,16 @@
         <v>1065</v>
       </c>
       <c r="H260" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I260" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="J260" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="14" customHeight="1">
+    <row r="261" spans="1:13" ht="14" customHeight="1">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -10653,13 +11385,16 @@
         <v>1017</v>
       </c>
       <c r="H261" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I261" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="J261" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="14" customHeight="1">
+    <row r="262" spans="1:13" ht="14" customHeight="1">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -10676,13 +11411,16 @@
         <v>1070</v>
       </c>
       <c r="H262" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I262" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="J262" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="14" customHeight="1">
+    <row r="263" spans="1:13" ht="14" customHeight="1">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -10699,13 +11437,16 @@
         <v>1091</v>
       </c>
       <c r="H263" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I263" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="14" customHeight="1">
+    <row r="264" spans="1:13" ht="14" customHeight="1">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -10721,14 +11462,17 @@
       <c r="G264" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="H264" s="3" t="s">
+      <c r="H264" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I264" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="J264" s="3" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="14" customHeight="1">
+    <row r="265" spans="1:13" ht="14" customHeight="1">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -10744,14 +11488,17 @@
       <c r="G265" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="H265" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I265" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="J265" s="3" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="14" customHeight="1">
+    <row r="266" spans="1:13" ht="14" customHeight="1">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -10767,14 +11514,17 @@
       <c r="G266" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="H266" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I266" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="J266" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="14" customHeight="1">
+    <row r="267" spans="1:13" ht="14" customHeight="1">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -10790,14 +11540,17 @@
       <c r="G267" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="H267" s="3" t="s">
+      <c r="H267" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I267" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="J267" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="14" customHeight="1">
+    <row r="268" spans="1:13" ht="14" customHeight="1">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -10814,13 +11567,16 @@
         <v>1109</v>
       </c>
       <c r="H268" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I268" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="J268" s="3" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="14" customHeight="1">
+    <row r="269" spans="1:13" ht="14" customHeight="1">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -10836,14 +11592,17 @@
       <c r="G269" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="H269" s="3" t="s">
+      <c r="H269" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I269" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="J269" s="3" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="14" customHeight="1">
+    <row r="270" spans="1:13" ht="14" customHeight="1">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -10859,14 +11618,17 @@
       <c r="G270" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="H270" s="3" t="s">
+      <c r="H270" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I270" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="J270" s="3" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="14" customHeight="1">
+    <row r="271" spans="1:13" ht="14" customHeight="1">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -10882,8 +11644,11 @@
       <c r="G271" s="9" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" ht="14" customHeight="1">
+      <c r="H271" s="9" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="14" customHeight="1">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -10899,14 +11664,17 @@
       <c r="G272" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="H272" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I272" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="J272" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="14" customHeight="1">
+    <row r="273" spans="1:13" ht="14" customHeight="1">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -10922,14 +11690,17 @@
       <c r="G273" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="H273" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I273" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="J273" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="14" customHeight="1">
+    <row r="274" spans="1:13" ht="14" customHeight="1">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -10945,14 +11716,17 @@
       <c r="G274" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H274" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I274" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="J274" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="14" customHeight="1">
+    <row r="275" spans="1:13" ht="14" customHeight="1">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -10968,14 +11742,17 @@
       <c r="G275" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H275" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I275" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="J275" s="3" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="14" customHeight="1">
+    <row r="276" spans="1:13" ht="14" customHeight="1">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -10991,14 +11768,17 @@
       <c r="G276" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="H276" s="3" t="s">
+      <c r="H276" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I276" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="J276" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="14" customHeight="1">
+    <row r="277" spans="1:13" ht="14" customHeight="1">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -11014,14 +11794,17 @@
       <c r="G277" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="H277" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I277" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="J277" s="3" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="14" customHeight="1">
+    <row r="278" spans="1:13" ht="14" customHeight="1">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -11037,14 +11820,17 @@
       <c r="G278" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="H278" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I278" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="J278" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="14" customHeight="1">
+    <row r="279" spans="1:13" ht="14" customHeight="1">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -11060,14 +11846,17 @@
       <c r="G279" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="H279" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I279" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="J279" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="14" customHeight="1">
+    <row r="280" spans="1:13" ht="14" customHeight="1">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -11083,14 +11872,17 @@
       <c r="G280" s="9" t="s">
         <v>1150</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="H280" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I280" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="J280" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="14" customHeight="1">
+    <row r="281" spans="1:13" ht="14" customHeight="1">
       <c r="A281" s="3">
         <v>280</v>
       </c>
@@ -11106,14 +11898,17 @@
       <c r="G281" s="9" t="s">
         <v>1147</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="H281" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I281" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="J281" s="3" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="14" customHeight="1">
+    <row r="282" spans="1:13" ht="14" customHeight="1">
       <c r="A282" s="3">
         <v>281</v>
       </c>
@@ -11130,13 +11925,16 @@
         <v>1240</v>
       </c>
       <c r="H282" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I282" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="J282" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="14" customHeight="1">
+    <row r="283" spans="1:13" ht="14" customHeight="1">
       <c r="A283" s="3">
         <v>282</v>
       </c>
@@ -11153,13 +11951,16 @@
         <v>1241</v>
       </c>
       <c r="H283" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I283" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="J283" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="14" customHeight="1">
+    <row r="284" spans="1:13" ht="14" customHeight="1">
       <c r="A284" s="3">
         <v>283</v>
       </c>
@@ -11176,13 +11977,16 @@
         <v>1242</v>
       </c>
       <c r="H284" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I284" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="J284" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="14" customHeight="1">
+    <row r="285" spans="1:13" ht="14" customHeight="1">
       <c r="A285" s="3">
         <v>284</v>
       </c>
@@ -11199,13 +12003,16 @@
         <v>1243</v>
       </c>
       <c r="H285" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I285" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="J285" s="3" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="14" customHeight="1">
+    <row r="286" spans="1:13" ht="14" customHeight="1">
       <c r="A286" s="3">
         <v>285</v>
       </c>
@@ -11222,13 +12029,16 @@
         <v>1254</v>
       </c>
       <c r="H286" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I286" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="J286" s="3" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="14" customHeight="1">
+    <row r="287" spans="1:13" ht="14" customHeight="1">
       <c r="A287" s="3">
         <v>286</v>
       </c>
@@ -11245,13 +12055,16 @@
         <v>1260</v>
       </c>
       <c r="H287" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I287" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="J287" s="3" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="14" customHeight="1">
+    <row r="288" spans="1:13" ht="14" customHeight="1">
       <c r="A288" s="3">
         <v>287</v>
       </c>
@@ -11261,11 +12074,11 @@
       <c r="C288" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="L288" s="3" t="s">
+      <c r="M288" s="3" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="14" customHeight="1">
+    <row r="289" spans="1:10" ht="14" customHeight="1">
       <c r="A289" s="3">
         <v>288</v>
       </c>
@@ -11281,8 +12094,11 @@
       <c r="G289" s="3" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" ht="14" customHeight="1">
+      <c r="H289" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="14" customHeight="1">
       <c r="A290" s="3">
         <v>289</v>
       </c>
@@ -11298,8 +12114,11 @@
       <c r="G290" s="3" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" ht="14" customHeight="1">
+      <c r="H290" s="3" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="14" customHeight="1">
       <c r="A291" s="3">
         <v>290</v>
       </c>
@@ -11315,8 +12134,11 @@
       <c r="G291" s="3" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" ht="14" customHeight="1">
+      <c r="H291" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="14" customHeight="1">
       <c r="A292" s="3">
         <v>291</v>
       </c>
@@ -11332,8 +12154,11 @@
       <c r="G292" s="3" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" ht="14" customHeight="1">
+      <c r="H292" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="14" customHeight="1">
       <c r="A293" s="3">
         <v>292</v>
       </c>
@@ -11350,13 +12175,16 @@
         <v>1302</v>
       </c>
       <c r="H293" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I293" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="J293" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="14" customHeight="1">
+    <row r="294" spans="1:10" ht="14" customHeight="1">
       <c r="A294" s="3">
         <v>293</v>
       </c>
@@ -11373,13 +12201,16 @@
         <v>1303</v>
       </c>
       <c r="H294" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I294" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="J294" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="14" customHeight="1">
+    <row r="295" spans="1:10" ht="14" customHeight="1">
       <c r="A295" s="3">
         <v>294</v>
       </c>
@@ -11396,13 +12227,16 @@
         <v>1304</v>
       </c>
       <c r="H295" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I295" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="J295" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="14" customHeight="1">
+    <row r="296" spans="1:10" ht="14" customHeight="1">
       <c r="A296" s="3">
         <v>295</v>
       </c>
@@ -11419,13 +12253,16 @@
         <v>1305</v>
       </c>
       <c r="H296" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I296" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="I296" s="3" t="s">
+      <c r="J296" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="14" customHeight="1">
+    <row r="297" spans="1:10" ht="14" customHeight="1">
       <c r="A297" s="3">
         <v>296</v>
       </c>
@@ -11442,13 +12279,16 @@
         <v>1306</v>
       </c>
       <c r="H297" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I297" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="J297" s="3" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="14" customHeight="1">
+    <row r="298" spans="1:10" ht="14" customHeight="1">
       <c r="A298" s="3">
         <v>297</v>
       </c>
@@ -11465,13 +12305,16 @@
         <v>1307</v>
       </c>
       <c r="H298" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I298" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="J298" s="3" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="14" customHeight="1">
+    <row r="299" spans="1:10" ht="14" customHeight="1">
       <c r="A299" s="3">
         <v>298</v>
       </c>
@@ -11488,13 +12331,16 @@
         <v>1310</v>
       </c>
       <c r="H299" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I299" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="14" customHeight="1">
+    <row r="300" spans="1:10" ht="14" customHeight="1">
       <c r="A300" s="3">
         <v>299</v>
       </c>
@@ -11511,13 +12357,16 @@
         <v>1312</v>
       </c>
       <c r="H300" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I300" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="J300" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="14" customHeight="1">
+    <row r="301" spans="1:10" ht="14" customHeight="1">
       <c r="A301" s="3">
         <v>300</v>
       </c>
@@ -11534,13 +12383,16 @@
         <v>1313</v>
       </c>
       <c r="H301" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I301" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="I301" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="14" customHeight="1">
+    <row r="302" spans="1:10" ht="14" customHeight="1">
       <c r="A302" s="3">
         <v>301</v>
       </c>
@@ -11557,13 +12409,16 @@
         <v>1319</v>
       </c>
       <c r="H302" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I302" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="J302" s="3" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="14" customHeight="1">
+    <row r="303" spans="1:10" ht="14" customHeight="1">
       <c r="A303" s="3">
         <v>302</v>
       </c>
@@ -11580,13 +12435,16 @@
         <v>1322</v>
       </c>
       <c r="H303" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I303" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="J303" s="3" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="14" customHeight="1">
+    <row r="304" spans="1:10" ht="14" customHeight="1">
       <c r="A304" s="3">
         <v>303</v>
       </c>
@@ -11603,13 +12461,16 @@
         <v>1325</v>
       </c>
       <c r="H304" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I304" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="J304" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="14" customHeight="1">
+    <row r="305" spans="1:11" ht="14" customHeight="1">
       <c r="A305" s="3">
         <v>304</v>
       </c>
@@ -11626,13 +12487,16 @@
         <v>1326</v>
       </c>
       <c r="H305" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I305" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="I305" s="3" t="s">
+      <c r="J305" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="14" customHeight="1">
+    <row r="306" spans="1:11" ht="14" customHeight="1">
       <c r="A306" s="3">
         <v>305</v>
       </c>
@@ -11649,13 +12513,16 @@
         <v>1329</v>
       </c>
       <c r="H306" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I306" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="J306" s="3" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="14" customHeight="1">
+    <row r="307" spans="1:11" ht="14" customHeight="1">
       <c r="A307" s="3">
         <v>306</v>
       </c>
@@ -11672,13 +12539,16 @@
         <v>1330</v>
       </c>
       <c r="H307" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I307" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="J307" s="3" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="14" customHeight="1">
+    <row r="308" spans="1:11" ht="14" customHeight="1">
       <c r="A308" s="3">
         <v>307</v>
       </c>
@@ -11695,13 +12565,16 @@
         <v>1366</v>
       </c>
       <c r="H308" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I308" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="J308" s="3" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="14" customHeight="1">
+    <row r="309" spans="1:11" ht="14" customHeight="1">
       <c r="A309" s="3">
         <v>308</v>
       </c>
@@ -11718,13 +12591,16 @@
         <v>1369</v>
       </c>
       <c r="H309" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I309" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="J309" s="3" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="14" customHeight="1">
+    <row r="310" spans="1:11" ht="14" customHeight="1">
       <c r="A310" s="3">
         <v>309</v>
       </c>
@@ -11738,13 +12614,16 @@
         <v>1384</v>
       </c>
       <c r="H310" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I310" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="J310" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="14" customHeight="1">
+    <row r="311" spans="1:11" ht="14" customHeight="1">
       <c r="A311" s="3">
         <v>310</v>
       </c>
@@ -11758,13 +12637,16 @@
         <v>1380</v>
       </c>
       <c r="H311" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I311" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="J311" s="3" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="14" customHeight="1">
+    <row r="312" spans="1:11" ht="14" customHeight="1">
       <c r="A312" s="3">
         <v>311</v>
       </c>
@@ -11778,13 +12660,16 @@
         <v>1376</v>
       </c>
       <c r="H312" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I312" s="3" t="s">
         <v>1377</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="J312" s="3" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="14" customHeight="1">
+    <row r="313" spans="1:11" ht="14" customHeight="1">
       <c r="A313" s="3">
         <v>312</v>
       </c>
@@ -11801,10 +12686,13 @@
         <v>1429</v>
       </c>
       <c r="H313" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I313" s="3" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="14" customHeight="1">
+    <row r="314" spans="1:11" ht="14" customHeight="1">
       <c r="A314" s="3">
         <v>313</v>
       </c>
@@ -11820,8 +12708,11 @@
       <c r="G314" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" ht="14" customHeight="1">
+      <c r="H314" s="3" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="14" customHeight="1">
       <c r="A315" s="3">
         <v>314</v>
       </c>
@@ -11837,8 +12728,11 @@
       <c r="G315" s="3" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" ht="14" customHeight="1">
+      <c r="H315" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="14" customHeight="1">
       <c r="A316" s="3">
         <v>315</v>
       </c>
@@ -11854,8 +12748,11 @@
       <c r="G316" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" ht="14" customHeight="1">
+      <c r="H316" s="3" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="14" customHeight="1">
       <c r="A317" s="3">
         <v>316</v>
       </c>
@@ -11871,8 +12768,11 @@
       <c r="G317" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" ht="14" customHeight="1">
+      <c r="H317" s="3" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="14" customHeight="1">
       <c r="A318" s="3">
         <v>317</v>
       </c>
@@ -11889,16 +12789,19 @@
         <v>1462</v>
       </c>
       <c r="H318" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I318" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="J318" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="J318" s="3" t="s">
+      <c r="K318" s="3" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="14" customHeight="1">
+    <row r="319" spans="1:11" ht="14" customHeight="1">
       <c r="A319" s="3">
         <v>318</v>
       </c>
@@ -11915,16 +12818,19 @@
         <v>1458</v>
       </c>
       <c r="H319" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I319" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="J319" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="J319" s="3" t="s">
+      <c r="K319" s="3" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="14" customHeight="1">
+    <row r="320" spans="1:11" ht="14" customHeight="1">
       <c r="A320" s="3">
         <v>319</v>
       </c>
@@ -11941,16 +12847,19 @@
         <v>1463</v>
       </c>
       <c r="H320" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="I320" s="3" t="s">
         <v>1451</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="J320" s="3" t="s">
+      <c r="K320" s="3" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="14" customHeight="1">
+    <row r="321" spans="1:11" ht="14" customHeight="1">
       <c r="A321" s="3">
         <v>320</v>
       </c>
@@ -11967,13 +12876,16 @@
         <v>1466</v>
       </c>
       <c r="H321" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I321" s="3" t="s">
         <v>1451</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="14" customHeight="1">
+    <row r="322" spans="1:11" ht="14" customHeight="1">
       <c r="A322" s="3">
         <v>321</v>
       </c>
@@ -11990,13 +12902,16 @@
         <v>1467</v>
       </c>
       <c r="H322" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I322" s="3" t="s">
         <v>1451</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="J322" s="3" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="14" customHeight="1">
+    <row r="323" spans="1:11" ht="14" customHeight="1">
       <c r="A323" s="3">
         <v>322</v>
       </c>
@@ -12013,16 +12928,19 @@
         <v>1472</v>
       </c>
       <c r="H323" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I323" s="3" t="s">
         <v>1452</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="J323" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="J323" s="3" t="s">
+      <c r="K323" s="3" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="14" customHeight="1">
+    <row r="324" spans="1:11" ht="14" customHeight="1">
       <c r="A324" s="3">
         <v>323</v>
       </c>
@@ -12039,13 +12957,16 @@
         <v>1481</v>
       </c>
       <c r="H324" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I324" s="3" t="s">
         <v>1482</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="J324" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="14" customHeight="1">
+    <row r="325" spans="1:11" ht="14" customHeight="1">
       <c r="A325" s="3">
         <v>324</v>
       </c>
@@ -12062,13 +12983,16 @@
         <v>1479</v>
       </c>
       <c r="H325" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I325" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="J325" s="3" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="14" customHeight="1">
+    <row r="326" spans="1:11" ht="14" customHeight="1">
       <c r="A326" s="3">
         <v>325</v>
       </c>
@@ -12085,16 +13009,19 @@
         <v>1478</v>
       </c>
       <c r="H326" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I326" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="J326" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="J326" s="3" t="s">
+      <c r="K326" s="3" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="14" customHeight="1">
+    <row r="327" spans="1:11" ht="14" customHeight="1">
       <c r="A327" s="3">
         <v>326</v>
       </c>
@@ -12111,16 +13038,19 @@
         <v>1492</v>
       </c>
       <c r="H327" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I327" s="3" t="s">
         <v>1455</v>
       </c>
-      <c r="I327" s="3" t="s">
+      <c r="J327" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="J327" s="3" t="s">
+      <c r="K327" s="3" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="14" customHeight="1">
+    <row r="328" spans="1:11" ht="14" customHeight="1">
       <c r="A328" s="3">
         <v>327</v>
       </c>
@@ -12137,16 +13067,19 @@
         <v>1496</v>
       </c>
       <c r="H328" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I328" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="J328" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="J328" s="3" t="s">
+      <c r="K328" s="3" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="14" customHeight="1">
+    <row r="329" spans="1:11" ht="14" customHeight="1">
       <c r="A329" s="3">
         <v>328</v>
       </c>
@@ -12163,16 +13096,19 @@
         <v>1522</v>
       </c>
       <c r="H329" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I329" s="3" t="s">
         <v>1524</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="J329" s="3" t="s">
         <v>1523</v>
       </c>
-      <c r="J329" s="21" t="s">
+      <c r="K329" s="21" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="14" customHeight="1">
+    <row r="330" spans="1:11" ht="14" customHeight="1">
       <c r="A330" s="3">
         <v>329</v>
       </c>
@@ -12189,16 +13125,19 @@
         <v>1557</v>
       </c>
       <c r="H330" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I330" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="J330" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="J330" s="21" t="s">
+      <c r="K330" s="21" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="14" customHeight="1">
+    <row r="331" spans="1:11" ht="14" customHeight="1">
       <c r="A331" s="3">
         <v>330</v>
       </c>
@@ -12215,14 +13154,17 @@
         <v>1594</v>
       </c>
       <c r="H331" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I331" s="3" t="s">
         <v>1596</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="J331" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="J331" s="21"/>
-    </row>
-    <row r="332" spans="1:10" ht="14" customHeight="1">
+      <c r="K331" s="21"/>
+    </row>
+    <row r="332" spans="1:11" ht="14" customHeight="1">
       <c r="A332" s="3">
         <v>331</v>
       </c>
@@ -12239,16 +13181,19 @@
         <v>1531</v>
       </c>
       <c r="H332" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I332" s="3" t="s">
         <v>1533</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="J332" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="J332" s="21" t="s">
+      <c r="K332" s="21" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="14" customHeight="1">
+    <row r="333" spans="1:11" ht="14" customHeight="1">
       <c r="A333" s="3">
         <v>332</v>
       </c>
@@ -12265,16 +13210,19 @@
         <v>1539</v>
       </c>
       <c r="H333" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I333" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="J333" s="21" t="s">
+      <c r="K333" s="21" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="14" customHeight="1">
+    <row r="334" spans="1:11" ht="14" customHeight="1">
       <c r="A334" s="3">
         <v>333</v>
       </c>
@@ -12291,16 +13239,19 @@
         <v>1540</v>
       </c>
       <c r="H334" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I334" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="J334" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="J334" s="21" t="s">
+      <c r="K334" s="21" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="14" customHeight="1">
+    <row r="335" spans="1:11" ht="14" customHeight="1">
       <c r="A335" s="3">
         <v>334</v>
       </c>
@@ -12317,16 +13268,19 @@
         <v>1538</v>
       </c>
       <c r="H335" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I335" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="J335" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="J335" s="21" t="s">
+      <c r="K335" s="21" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="14" customHeight="1">
+    <row r="336" spans="1:11" ht="14" customHeight="1">
       <c r="A336" s="3">
         <v>335</v>
       </c>
@@ -12343,14 +13297,17 @@
         <v>1541</v>
       </c>
       <c r="H336" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I336" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="J336" s="21"/>
-    </row>
-    <row r="337" spans="1:10" ht="14" customHeight="1">
+      <c r="K336" s="21"/>
+    </row>
+    <row r="337" spans="1:11" ht="14" customHeight="1">
       <c r="A337" s="3">
         <v>336</v>
       </c>
@@ -12367,14 +13324,17 @@
         <v>1542</v>
       </c>
       <c r="H337" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I337" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="J337" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="J337" s="21"/>
-    </row>
-    <row r="338" spans="1:10" ht="14" customHeight="1">
+      <c r="K337" s="21"/>
+    </row>
+    <row r="338" spans="1:11" ht="14" customHeight="1">
       <c r="A338" s="3">
         <v>337</v>
       </c>
@@ -12391,16 +13351,19 @@
         <v>1555</v>
       </c>
       <c r="H338" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I338" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="J338" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="J338" s="21" t="s">
+      <c r="K338" s="21" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="14" customHeight="1">
+    <row r="339" spans="1:11" ht="14" customHeight="1">
       <c r="A339" s="3">
         <v>338</v>
       </c>
@@ -12417,16 +13380,19 @@
         <v>1558</v>
       </c>
       <c r="H339" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I339" s="3" t="s">
         <v>1561</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>1562</v>
       </c>
-      <c r="J339" s="21" t="s">
+      <c r="K339" s="21" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="14" customHeight="1">
+    <row r="340" spans="1:11" ht="14" customHeight="1">
       <c r="A340" s="3">
         <v>339</v>
       </c>
@@ -12443,16 +13409,19 @@
         <v>1563</v>
       </c>
       <c r="H340" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I340" s="3" t="s">
         <v>1566</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="J340" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="J340" s="21" t="s">
+      <c r="K340" s="21" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="14" customHeight="1">
+    <row r="341" spans="1:11" ht="14" customHeight="1">
       <c r="A341" s="3">
         <v>340</v>
       </c>
@@ -12469,16 +13438,19 @@
         <v>1570</v>
       </c>
       <c r="H341" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I341" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="J341" s="21" t="s">
+      <c r="K341" s="21" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="14" customHeight="1">
+    <row r="342" spans="1:11" ht="14" customHeight="1">
       <c r="A342" s="3">
         <v>341</v>
       </c>
@@ -12495,14 +13467,17 @@
         <v>1573</v>
       </c>
       <c r="H342" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I342" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="J342" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="J342" s="21"/>
-    </row>
-    <row r="343" spans="1:10" ht="14" customHeight="1">
+      <c r="K342" s="21"/>
+    </row>
+    <row r="343" spans="1:11" ht="14" customHeight="1">
       <c r="A343" s="3">
         <v>342</v>
       </c>
@@ -12515,14 +13490,14 @@
       <c r="D343" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="H343" s="3" t="s">
+      <c r="I343" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="J343" s="21" t="s">
+      <c r="K343" s="21" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="14" customHeight="1">
+    <row r="344" spans="1:11" ht="14" customHeight="1">
       <c r="A344" s="3">
         <v>343</v>
       </c>
@@ -12539,16 +13514,19 @@
         <v>1576</v>
       </c>
       <c r="H344" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I344" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="J344" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="J344" s="21" t="s">
+      <c r="K344" s="21" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="14" customHeight="1">
+    <row r="345" spans="1:11" ht="14" customHeight="1">
       <c r="A345" s="3">
         <v>344</v>
       </c>
@@ -12565,16 +13543,19 @@
         <v>1585</v>
       </c>
       <c r="H345" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I345" s="3" t="s">
         <v>1586</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="J345" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="J345" s="21" t="s">
+      <c r="K345" s="21" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="14" customHeight="1">
+    <row r="346" spans="1:11" ht="14" customHeight="1">
       <c r="A346" s="3">
         <v>345</v>
       </c>
@@ -12591,22 +13572,25 @@
         <v>1590</v>
       </c>
       <c r="H346" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I346" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="J346" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="J346" s="21" t="s">
+      <c r="K346" s="21" t="s">
         <v>1520</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L309" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L312">
+  <autoFilter ref="A1:M309" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M312">
       <sortCondition ref="A1:A312"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L253">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M253">
     <sortCondition ref="G2:G253"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12616,10 +13600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12661,51 +13645,65 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>366</v>
+        <v>1603</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>511</v>
+        <v>1604</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>510</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -12718,7 +13716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F0824B-D4E2-FF4F-8721-1F9C8D6A6C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E5DC12-C45A-5649-A393-C10AD7750439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="25060" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$309</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gene!$A$1:$L$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1721">
   <si>
     <t>NOTE</t>
   </si>
@@ -2897,9 +2897,6 @@
     <t>gnaD -&gt; kdgK -&gt; eda -&gt; gapA + pgk | gapN_NADP | gapN_NADPH</t>
   </si>
   <si>
-    <t>patB -&gt; paaF -&gt; paaH -&gt; cysI -&gt; PUF -&gt; tdaA -&gt; tdaB -&gt; tdaC -&gt; tdaE -&gt; tdaD -&gt; tdaF -&gt; tdaR1 -&gt; tdaR2 -&gt; tdaR3</t>
-  </si>
-  <si>
     <t>iaaM -&gt; amiE | iaaH</t>
   </si>
   <si>
@@ -4974,6 +4971,237 @@
   </si>
   <si>
     <t>/Users/kimbrel1/Science/kofam/98/</t>
+  </si>
+  <si>
+    <t>TDA Resistance</t>
+  </si>
+  <si>
+    <t>patB -&gt; paaF -&gt; paaH -&gt; cysI -&gt; PUF -&gt; tdaA -&gt; tdaB -&gt; tdaC -&gt; tdaE -&gt; tdaD -&gt; tdaF</t>
+  </si>
+  <si>
+    <t>tdaR1 -&gt; tdaR2 -&gt; tdaR3</t>
+  </si>
+  <si>
+    <t>paaK is not required if Phenylacetyl-CoA can be made directly from phenylalanine (Berger, 2012)</t>
+  </si>
+  <si>
+    <t>PMID:26802120</t>
+  </si>
+  <si>
+    <t>mcyA</t>
+  </si>
+  <si>
+    <t>mcyB</t>
+  </si>
+  <si>
+    <t>mcyC</t>
+  </si>
+  <si>
+    <t>mcyD</t>
+  </si>
+  <si>
+    <t>mcyE</t>
+  </si>
+  <si>
+    <t>mcyF</t>
+  </si>
+  <si>
+    <t>mcyG</t>
+  </si>
+  <si>
+    <t>mcyH</t>
+  </si>
+  <si>
+    <t>mcyI</t>
+  </si>
+  <si>
+    <t>mcyJ</t>
+  </si>
+  <si>
+    <t>K16130</t>
+  </si>
+  <si>
+    <t>K16131</t>
+  </si>
+  <si>
+    <t>K16132</t>
+  </si>
+  <si>
+    <t>K16128</t>
+  </si>
+  <si>
+    <t>K16129</t>
+  </si>
+  <si>
+    <t>K16127</t>
+  </si>
+  <si>
+    <t>K16133</t>
+  </si>
+  <si>
+    <t>K16134</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyA</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyB</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyC</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyD</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyE</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyF</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyG</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyH</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyI</t>
+  </si>
+  <si>
+    <t>microcystin synthetase protein McyJ</t>
+  </si>
+  <si>
+    <t>Microcystin Production - mcyABC</t>
+  </si>
+  <si>
+    <t>Microcystin Production - mcyDEFGHIJ</t>
+  </si>
+  <si>
+    <t>mcyA + mcyB + mcyC</t>
+  </si>
+  <si>
+    <t>mcyD + mcyE + mcyF + mcyG + mcyH + mcyI + mcyJ</t>
+  </si>
+  <si>
+    <t>Tillet, 2000</t>
+  </si>
+  <si>
+    <t>Tillet, 2000. Mikalsen, 2003</t>
+  </si>
+  <si>
+    <t>K01779</t>
+  </si>
+  <si>
+    <t>K02471</t>
+  </si>
+  <si>
+    <t>mcyABC</t>
+  </si>
+  <si>
+    <t>mcyDEFGHIJ</t>
+  </si>
+  <si>
+    <t>mcyDEFGHIJ. McyF may have functions outside of microcystin synthesis</t>
+  </si>
+  <si>
+    <t>mcyDEFGHIJ. McyH may have functions outside of microcystin synthesis</t>
+  </si>
+  <si>
+    <t>mlrC</t>
+  </si>
+  <si>
+    <t>mlrA</t>
+  </si>
+  <si>
+    <t>Bourne, 2001</t>
+  </si>
+  <si>
+    <t>mlrD</t>
+  </si>
+  <si>
+    <t>mlrB</t>
+  </si>
+  <si>
+    <t>Microcystinase A</t>
+  </si>
+  <si>
+    <t>Microcystinase B</t>
+  </si>
+  <si>
+    <t>Microcystinase C</t>
+  </si>
+  <si>
+    <t>Microcystinase D</t>
+  </si>
+  <si>
+    <t>mlrA_AF411068_partial,QVQ24103.1_mlrA</t>
+  </si>
+  <si>
+    <t>mlrB_AF411069_partial,AMH41235.1_mlrB</t>
+  </si>
+  <si>
+    <t>mlrC_AF411070_partial,Q93CA6.1_mlrC</t>
+  </si>
+  <si>
+    <t>mlrD_AF411071_partial,QCT05772.1_mlrD</t>
+  </si>
+  <si>
+    <t>Microcystin Degradataion</t>
+  </si>
+  <si>
+    <t>mlrA + mlrB + mlrC + mlrD</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Science/repos/gator/db/phospho.hmm</t>
+  </si>
+  <si>
+    <t>phosphorous related HMMs from Wei Li</t>
+  </si>
+  <si>
+    <t>mpnS</t>
+  </si>
+  <si>
+    <t>pepM</t>
+  </si>
+  <si>
+    <t>phnW</t>
+  </si>
+  <si>
+    <t>phnw</t>
+  </si>
+  <si>
+    <t>phnY</t>
+  </si>
+  <si>
+    <t>phny</t>
+  </si>
+  <si>
+    <t>phnZ</t>
+  </si>
+  <si>
+    <t>phnz</t>
+  </si>
+  <si>
+    <t>phnA</t>
+  </si>
+  <si>
+    <t>phna</t>
+  </si>
+  <si>
+    <t>phng</t>
+  </si>
+  <si>
+    <t>phnh</t>
+  </si>
+  <si>
+    <t>phnj</t>
+  </si>
+  <si>
+    <t>phnl</t>
+  </si>
+  <si>
+    <t>WEI_PHOSPHO</t>
   </si>
 </sst>
 </file>
@@ -5061,7 +5289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5104,6 +5332,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5418,30 +5647,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:M360"/>
+  <dimension ref="A1:N380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="14.1640625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="40.5" style="3"/>
+    <col min="7" max="13" width="9.83203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="40.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" customHeight="1">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>912</v>
       </c>
@@ -5461,7 +5686,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -5478,11 +5703,14 @@
       <c r="L1" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="14" customHeight="1">
+      <c r="M1" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5496,90 +5724,90 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14" customHeight="1">
+    <row r="3" spans="1:14" ht="14" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="14" customHeight="1">
+    </row>
+    <row r="4" spans="1:14" ht="14" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1222</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1">
+    </row>
+    <row r="5" spans="1:14" ht="14" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14" customHeight="1">
+    </row>
+    <row r="6" spans="1:14" ht="14" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>1232</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14" customHeight="1">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5593,10 +5821,10 @@
         <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="14" customHeight="1">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5604,22 +5832,22 @@
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="14" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" ht="14" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5636,10 +5864,10 @@
         <v>47</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14" customHeight="1">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5656,10 +5884,10 @@
         <v>50</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="14" customHeight="1">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5676,10 +5904,10 @@
         <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="14" customHeight="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5699,10 +5927,10 @@
         <v>75</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="14" customHeight="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5722,10 +5950,10 @@
         <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14" customHeight="1">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5745,10 +5973,10 @@
         <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="14" customHeight="1">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5768,7 +5996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14" customHeight="1">
+    <row r="16" spans="1:14" ht="14" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5797,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1">
@@ -5829,7 +6057,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1">
@@ -5861,7 +6089,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1">
@@ -5893,7 +6121,7 @@
         <v>58</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14" customHeight="1">
@@ -5925,7 +6153,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14" customHeight="1">
@@ -5957,7 +6185,7 @@
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" customHeight="1">
@@ -6189,10 +6417,10 @@
         <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14" customHeight="1">
@@ -6209,7 +6437,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14" customHeight="1">
@@ -6246,7 +6474,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" customHeight="1">
@@ -6266,7 +6494,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14" customHeight="1">
@@ -6523,7 +6751,7 @@
         <v>202</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>203</v>
@@ -6887,7 +7115,7 @@
         <v>268</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>271</v>
@@ -6910,7 +7138,7 @@
         <v>268</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>275</v>
@@ -6956,7 +7184,7 @@
         <v>268</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>282</v>
@@ -6979,7 +7207,7 @@
         <v>268</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>285</v>
@@ -7259,7 +7487,7 @@
         <v>342</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>343</v>
@@ -7276,7 +7504,7 @@
         <v>345</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>346</v>
@@ -7293,7 +7521,7 @@
         <v>348</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>349</v>
@@ -7304,22 +7532,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>1273</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -7327,22 +7555,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>1275</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -7350,22 +7578,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>1277</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -7455,13 +7683,13 @@
         <v>368</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>391</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -7524,7 +7752,7 @@
         <v>394</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -8082,7 +8310,7 @@
         <v>625</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>511</v>
@@ -8117,7 +8345,7 @@
         <v>520</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -8143,7 +8371,7 @@
         <v>523</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -8160,7 +8388,7 @@
         <v>625</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>526</v>
@@ -8186,7 +8414,7 @@
         <v>625</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>527</v>
@@ -8276,7 +8504,7 @@
         <v>553</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14" customHeight="1">
@@ -8596,7 +8824,7 @@
         <v>625</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>596</v>
@@ -8824,7 +9052,7 @@
         <v>658</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>724</v>
@@ -9233,7 +9461,7 @@
         <v>734</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="14" customHeight="1">
@@ -9282,7 +9510,7 @@
         <v>748</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="14" customHeight="1">
@@ -9331,7 +9559,7 @@
         <v>753</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="14" customHeight="1">
@@ -9357,7 +9585,7 @@
         <v>761</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="14" customHeight="1">
@@ -9383,7 +9611,7 @@
         <v>764</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="14" customHeight="1">
@@ -9409,7 +9637,7 @@
         <v>764</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="14" customHeight="1">
@@ -9435,7 +9663,7 @@
         <v>770</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="14" customHeight="1">
@@ -9461,7 +9689,7 @@
         <v>775</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="14" customHeight="1">
@@ -9735,7 +9963,7 @@
         <v>834</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="14" customHeight="1">
@@ -9761,7 +9989,7 @@
         <v>834</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="14" customHeight="1">
@@ -9784,13 +10012,13 @@
         <v>833</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>834</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="14" customHeight="1">
@@ -9819,7 +10047,7 @@
         <v>834</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="14" customHeight="1">
@@ -10170,10 +10398,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>962</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>963</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10184,7 +10412,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -10192,19 +10420,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -10212,25 +10440,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="D238" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G238" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>970</v>
-      </c>
       <c r="H238" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="L238" s="12"/>
     </row>
@@ -10239,24 +10467,24 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C239" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>1011</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="13" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -10267,22 +10495,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -10293,24 +10521,24 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -10321,24 +10549,24 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>1009</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -10349,22 +10577,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -10375,24 +10603,24 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -10403,24 +10631,24 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C245" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>976</v>
-      </c>
       <c r="D245" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="H245" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="H245" s="4" t="s">
-        <v>978</v>
-      </c>
       <c r="I245" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -10431,22 +10659,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -10457,24 +10685,24 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -10485,22 +10713,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>998</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H248" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I248" s="3" t="s">
         <v>1039</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
@@ -10508,19 +10736,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
@@ -10528,22 +10756,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G250" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="H250" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G250" s="10" t="s">
-        <v>980</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>994</v>
-      </c>
       <c r="I250" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
@@ -10551,22 +10779,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>1000</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H251" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I251" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="14" customHeight="1">
@@ -10574,19 +10802,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H252" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I252" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="I252" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
@@ -10594,22 +10822,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>1006</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
@@ -10617,22 +10845,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G254" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H254" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G254" s="10" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>991</v>
-      </c>
       <c r="I254" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
@@ -10640,22 +10868,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>1002</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="14" customHeight="1">
@@ -10663,22 +10891,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>1004</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="14" customHeight="1">
@@ -10686,22 +10914,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="C257" s="3" t="s">
-        <v>996</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H257" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I257" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="I257" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="14" customHeight="1">
@@ -10709,22 +10937,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="D258" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G258" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>973</v>
-      </c>
       <c r="H258" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I258" s="3" t="s">
         <v>1058</v>
-      </c>
-      <c r="I258" s="3" t="s">
-        <v>1059</v>
       </c>
       <c r="L258" s="7"/>
     </row>
@@ -10733,22 +10961,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="14" customHeight="1">
@@ -10756,22 +10984,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="14" customHeight="1">
@@ -10779,22 +11007,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G261" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>1016</v>
-      </c>
       <c r="H261" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="14" customHeight="1">
@@ -10802,22 +11030,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G262" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G262" s="3" t="s">
+      <c r="H262" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I262" s="3" t="s">
         <v>1067</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I262" s="3" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="14" customHeight="1">
@@ -10825,22 +11053,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H263" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H263" s="3" t="s">
+      <c r="I263" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="14" customHeight="1">
@@ -10848,22 +11076,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C264" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G264" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I264" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G264" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I264" s="3" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="14" customHeight="1">
@@ -10871,22 +11099,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H265" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="I265" s="3" t="s">
         <v>1095</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G265" s="9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="14" customHeight="1">
@@ -10894,22 +11122,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H266" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I266" s="3" t="s">
         <v>1097</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="14" customHeight="1">
@@ -10917,22 +11145,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H267" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I267" s="3" t="s">
         <v>1100</v>
-      </c>
-      <c r="I267" s="3" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="14" customHeight="1">
@@ -10940,22 +11168,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H268" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H268" s="3" t="s">
+      <c r="I268" s="3" t="s">
         <v>1109</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="14" customHeight="1">
@@ -10963,22 +11191,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H269" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I269" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="I269" s="3" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="14" customHeight="1">
@@ -10986,22 +11214,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C270" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="C270" s="9" t="s">
-        <v>1119</v>
-      </c>
       <c r="D270" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I270" s="3" t="s">
         <v>1149</v>
-      </c>
-      <c r="G270" s="9" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H270" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I270" s="3" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="14" customHeight="1">
@@ -11009,16 +11237,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C271" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="C271" s="9" t="s">
-        <v>1122</v>
-      </c>
       <c r="D271" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="14" customHeight="1">
@@ -11026,1927 +11254,2245 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C272" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="C272" s="9" t="s">
-        <v>1125</v>
-      </c>
       <c r="D272" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H272" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I272" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="I272" s="3" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="273" spans="1:14" ht="14" customHeight="1">
       <c r="A273" s="3">
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C273" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="C273" s="9" t="s">
-        <v>1128</v>
-      </c>
       <c r="D273" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H273" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I273" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="I273" s="3" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="274" spans="1:14" ht="14" customHeight="1">
       <c r="A274" s="3">
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="C274" s="9" t="s">
-        <v>1131</v>
-      </c>
       <c r="D274" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H274" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I274" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="I274" s="3" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="275" spans="1:14" ht="14" customHeight="1">
       <c r="A275" s="3">
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C275" s="9" t="s">
         <v>1170</v>
       </c>
-      <c r="C275" s="9" t="s">
+      <c r="D275" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G275" s="9" t="s">
         <v>1171</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G275" s="9" t="s">
-        <v>1172</v>
-      </c>
       <c r="H275" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I275" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="I275" s="3" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="276" spans="1:14" ht="14" customHeight="1">
       <c r="A276" s="3">
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C276" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="C276" s="9" t="s">
-        <v>1140</v>
-      </c>
       <c r="D276" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H276" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I276" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I276" s="3" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="277" spans="1:14" ht="14" customHeight="1">
       <c r="A277" s="3">
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C277" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="C277" s="9" t="s">
-        <v>1134</v>
-      </c>
       <c r="D277" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H277" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I277" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="I277" s="3" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="278" spans="1:14" ht="14" customHeight="1">
       <c r="A278" s="3">
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="C278" s="9" t="s">
-        <v>1137</v>
-      </c>
       <c r="D278" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H278" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I278" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="I278" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="279" spans="1:14" ht="14" customHeight="1">
       <c r="A279" s="3">
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="C279" s="9" t="s">
-        <v>1143</v>
-      </c>
       <c r="D279" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H279" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I279" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="I279" s="3" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="280" spans="1:14" ht="14" customHeight="1">
       <c r="A280" s="3">
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="C280" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>1149</v>
-      </c>
       <c r="G280" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H280" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I280" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="I280" s="3" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" ht="14" customHeight="1">
+    </row>
+    <row r="281" spans="1:14" ht="14" customHeight="1">
       <c r="A281" s="3">
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C281" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="C281" s="9" t="s">
-        <v>1146</v>
-      </c>
       <c r="D281" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H281" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I281" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="I281" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="14" customHeight="1">
-      <c r="A282" s="3">
+    </row>
+    <row r="282" spans="1:14" ht="14" customHeight="1">
+      <c r="B282" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G282" s="9"/>
+      <c r="N282" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="14" customHeight="1">
+      <c r="B283" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G283" s="9"/>
+      <c r="N283" s="3" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="14" customHeight="1">
+      <c r="A284" s="3">
         <v>281</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B284" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="14" customHeight="1">
+      <c r="A285" s="3">
+        <v>282</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C285" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D285" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="14" customHeight="1">
+      <c r="A286" s="3">
+        <v>283</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="14" customHeight="1">
+      <c r="A287" s="3">
+        <v>284</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="14" customHeight="1">
+      <c r="A288" s="3">
+        <v>285</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="14" customHeight="1">
+      <c r="A289" s="3">
+        <v>286</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H289" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="G282" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H282" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I282" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="14" customHeight="1">
-      <c r="A283" s="3">
-        <v>282</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="H283" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I283" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" ht="14" customHeight="1">
-      <c r="A284" s="3">
-        <v>283</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H284" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I284" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" ht="14" customHeight="1">
-      <c r="A285" s="3">
-        <v>284</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H285" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" ht="14" customHeight="1">
-      <c r="A286" s="3">
-        <v>285</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H286" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="14" customHeight="1">
-      <c r="A287" s="3">
-        <v>286</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G287" s="3" t="s">
+      <c r="I289" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="H287" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I287" s="3" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="14" customHeight="1">
-      <c r="A288" s="3">
+      <c r="N289" s="3" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="14" customHeight="1">
+      <c r="B290" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="14" customHeight="1">
+      <c r="B291" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="14" customHeight="1">
+      <c r="B292" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="14" customHeight="1">
+      <c r="B293" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="14" customHeight="1">
+      <c r="A294" s="3">
         <v>287</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B294" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L294" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" ht="14" customHeight="1">
-      <c r="A289" s="3">
+    </row>
+    <row r="295" spans="1:14" ht="14" customHeight="1">
+      <c r="A295" s="3">
         <v>288</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B295" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="14" customHeight="1">
+      <c r="A296" s="3">
+        <v>289</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C296" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="D289" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G289" s="3" t="s">
+      <c r="D296" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G296" s="3" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="14" customHeight="1">
-      <c r="A290" s="3">
-        <v>289</v>
-      </c>
-      <c r="B290" s="3" t="s">
+    <row r="297" spans="1:14" ht="14" customHeight="1">
+      <c r="A297" s="3">
+        <v>290</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C297" s="3" t="s">
         <v>1286</v>
       </c>
-      <c r="D290" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G290" s="3" t="s">
+      <c r="D297" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G297" s="3" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="14" customHeight="1">
-      <c r="A291" s="3">
-        <v>290</v>
-      </c>
-      <c r="B291" s="3" t="s">
+    <row r="298" spans="1:14" ht="14" customHeight="1">
+      <c r="A298" s="3">
+        <v>291</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C298" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="D291" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G291" s="3" t="s">
+      <c r="D298" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G298" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="14" customHeight="1">
-      <c r="A292" s="3">
-        <v>291</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="14" customHeight="1">
-      <c r="A293" s="3">
+    <row r="299" spans="1:14" ht="14" customHeight="1">
+      <c r="A299" s="3">
         <v>292</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B299" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D299" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="14" customHeight="1">
+      <c r="A300" s="3">
+        <v>293</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="D293" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G293" s="3" t="s">
+      <c r="D300" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G300" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="H293" s="3" t="s">
+      <c r="H300" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="14" customHeight="1">
+      <c r="A301" s="3">
+        <v>294</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="14" customHeight="1">
+      <c r="A302" s="3">
+        <v>295</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="14" customHeight="1">
+      <c r="A303" s="3">
+        <v>296</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="14" customHeight="1">
+      <c r="A304" s="3">
+        <v>297</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H304" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="I304" s="3" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="14" customHeight="1">
-      <c r="A294" s="3">
-        <v>293</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H294" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I294" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="14" customHeight="1">
-      <c r="A295" s="3">
-        <v>294</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="14" customHeight="1">
-      <c r="A296" s="3">
-        <v>295</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D296" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G296" s="3" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H296" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I296" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="14" customHeight="1">
-      <c r="A297" s="3">
-        <v>296</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D297" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G297" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="I297" s="3" t="s">
+    <row r="305" spans="1:9" ht="14" customHeight="1">
+      <c r="A305" s="3">
+        <v>298</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G305" s="3" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" ht="14" customHeight="1">
-      <c r="A298" s="3">
-        <v>297</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D298" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G298" s="3" t="s">
+      <c r="H305" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="14" customHeight="1">
+      <c r="A306" s="3">
+        <v>299</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="14" customHeight="1">
+      <c r="A307" s="3">
+        <v>300</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="14" customHeight="1">
+      <c r="A308" s="3">
+        <v>301</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="14" customHeight="1">
+      <c r="A309" s="3">
+        <v>302</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="14" customHeight="1">
+      <c r="A310" s="3">
+        <v>303</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="14" customHeight="1">
+      <c r="A311" s="3">
+        <v>304</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="14" customHeight="1">
+      <c r="A312" s="3">
+        <v>305</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="14" customHeight="1">
+      <c r="A313" s="3">
+        <v>306</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="14" customHeight="1">
+      <c r="A314" s="3">
+        <v>307</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="I314" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="H298" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="I298" s="3" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" ht="14" customHeight="1">
-      <c r="A299" s="3">
-        <v>298</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D299" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G299" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H299" s="3" t="s">
+    </row>
+    <row r="315" spans="1:9" ht="14" customHeight="1">
+      <c r="A315" s="3">
+        <v>308</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H315" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="I299" s="3" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" ht="14" customHeight="1">
-      <c r="A300" s="3">
-        <v>299</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D300" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G300" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I300" s="3" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" ht="14" customHeight="1">
-      <c r="A301" s="3">
-        <v>300</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D301" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G301" s="3" t="s">
+      <c r="I315" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="H301" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" ht="14" customHeight="1">
-      <c r="A302" s="3">
-        <v>301</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D302" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G302" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" ht="14" customHeight="1">
-      <c r="A303" s="3">
-        <v>302</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D303" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G303" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I303" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" ht="14" customHeight="1">
-      <c r="A304" s="3">
-        <v>303</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G304" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H304" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I304" s="3" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" ht="14" customHeight="1">
-      <c r="A305" s="3">
-        <v>304</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D305" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G305" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H305" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" ht="14" customHeight="1">
-      <c r="A306" s="3">
-        <v>305</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D306" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G306" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="H306" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" ht="14" customHeight="1">
-      <c r="A307" s="3">
-        <v>306</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D307" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H307" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I307" s="3" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" ht="14" customHeight="1">
-      <c r="A308" s="3">
-        <v>307</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D308" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" ht="14" customHeight="1">
-      <c r="A309" s="3">
-        <v>308</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D309" s="9" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G309" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H309" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I309" s="3" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" ht="14" customHeight="1">
-      <c r="A310" s="3">
+    </row>
+    <row r="316" spans="1:9" ht="14" customHeight="1">
+      <c r="A316" s="3">
         <v>309</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B316" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="G316" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="H316" s="3" t="s">
         <v>1381</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="I316" s="3" t="s">
         <v>1382</v>
       </c>
-      <c r="I310" s="3" t="s">
+    </row>
+    <row r="317" spans="1:9" ht="14" customHeight="1">
+      <c r="A317" s="3">
+        <v>310</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I317" s="3" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="14" customHeight="1">
-      <c r="A311" s="3">
-        <v>310</v>
-      </c>
-      <c r="B311" s="3" t="s">
+    <row r="318" spans="1:9" ht="14" customHeight="1">
+      <c r="A318" s="3">
+        <v>311</v>
+      </c>
+      <c r="B318" s="3" t="s">
         <v>1370</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G311" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H311" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I311" s="3" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" ht="14" customHeight="1">
-      <c r="A312" s="3">
-        <v>311</v>
-      </c>
-      <c r="B312" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="G318" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="G312" s="3" t="s">
+      <c r="H318" s="3" t="s">
         <v>1373</v>
       </c>
-      <c r="H312" s="3" t="s">
+      <c r="I318" s="3" t="s">
         <v>1374</v>
       </c>
-      <c r="I312" s="3" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" ht="14" customHeight="1">
-      <c r="A313" s="3">
+    </row>
+    <row r="319" spans="1:9" ht="14" customHeight="1">
+      <c r="A319" s="3">
         <v>312</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B319" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G319" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="H319" s="3" t="s">
         <v>1427</v>
       </c>
-      <c r="D313" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H313" s="3" t="s">
+    </row>
+    <row r="320" spans="1:9" ht="14" customHeight="1">
+      <c r="A320" s="3">
+        <v>313</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" ht="14" customHeight="1">
-      <c r="A314" s="3">
-        <v>313</v>
-      </c>
-      <c r="B314" s="3" t="s">
+      <c r="C320" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G320" s="3" t="s">
         <v>1429</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G314" s="3" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" ht="14" customHeight="1">
-      <c r="A315" s="3">
-        <v>314</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G315" s="3" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" ht="14" customHeight="1">
-      <c r="A316" s="3">
-        <v>315</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G316" s="3" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" ht="14" customHeight="1">
-      <c r="A317" s="3">
-        <v>316</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G317" s="3" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" ht="14" customHeight="1">
-      <c r="A318" s="3">
-        <v>317</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H318" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" ht="14" customHeight="1">
-      <c r="A319" s="3">
-        <v>318</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G319" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H319" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J319" s="3" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" ht="14" customHeight="1">
-      <c r="A320" s="3">
-        <v>319</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G320" s="3" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H320" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="J320" s="3" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="14" customHeight="1">
       <c r="A321" s="3">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1465</v>
+        <v>1432</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1466</v>
+        <v>1437</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>1494</v>
+        <v>1431</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>1472</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="14" customHeight="1">
       <c r="A322" s="3">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1467</v>
+        <v>1433</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1494</v>
+        <v>1431</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I322" s="3" t="s">
-        <v>1472</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="14" customHeight="1">
       <c r="A323" s="3">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1473</v>
+        <v>1434</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1474</v>
+        <v>1436</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1494</v>
+        <v>1431</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="H323" s="3" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I323" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="J323" s="3" t="s">
-        <v>1499</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="14" customHeight="1">
       <c r="A324" s="3">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1483</v>
+        <v>1456</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1479</v>
+        <v>1446</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1480</v>
+        <v>1470</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="14" customHeight="1">
       <c r="A325" s="3">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1485</v>
+        <v>1453</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1477</v>
+        <v>1455</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1481</v>
+        <v>1470</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="14" customHeight="1">
       <c r="A326" s="3">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1484</v>
+        <v>1460</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="14" customHeight="1">
       <c r="A327" s="3">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1487</v>
+        <v>1464</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1488</v>
+        <v>1465</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>1489</v>
+        <v>1462</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>1486</v>
-      </c>
-      <c r="J327" s="3" t="s">
-        <v>1501</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="14" customHeight="1">
       <c r="A328" s="3">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1491</v>
+        <v>1466</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1492</v>
+        <v>1467</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>1493</v>
+        <v>1463</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J328" s="3" t="s">
-        <v>1502</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="14" customHeight="1">
       <c r="A329" s="3">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1525</v>
+        <v>1472</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>1522</v>
+        <v>1473</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>1519</v>
+        <v>1468</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>1521</v>
+        <v>1448</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="J329" s="21" t="s">
-        <v>1504</v>
+        <v>1469</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="14" customHeight="1">
       <c r="A330" s="3">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1526</v>
+        <v>1482</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1527</v>
+        <v>1476</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>1554</v>
+        <v>1477</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>1524</v>
+        <v>1478</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="J330" s="21" t="s">
-        <v>1505</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="14" customHeight="1">
       <c r="A331" s="3">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1594</v>
+        <v>1484</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>1595</v>
+        <v>1476</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1591</v>
+        <v>1475</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>1593</v>
+        <v>1449</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="J331" s="21"/>
+        <v>1480</v>
+      </c>
     </row>
     <row r="332" spans="1:10" ht="14" customHeight="1">
       <c r="A332" s="3">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1532</v>
+        <v>1483</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>1529</v>
+        <v>1476</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>1528</v>
+        <v>1474</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>1530</v>
+        <v>1450</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J332" s="21" t="s">
-        <v>1506</v>
+        <v>1481</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="14" customHeight="1">
       <c r="A333" s="3">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1541</v>
+        <v>1486</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>1540</v>
+        <v>1487</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>1536</v>
+        <v>1488</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>1533</v>
+        <v>1451</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="J333" s="21" t="s">
-        <v>1507</v>
+        <v>1485</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="14" customHeight="1">
       <c r="A334" s="3">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1544</v>
+        <v>1490</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>1545</v>
+        <v>1491</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1518</v>
+        <v>1493</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>1537</v>
+        <v>1492</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>1533</v>
+        <v>1452</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="J334" s="21" t="s">
-        <v>1508</v>
+        <v>1489</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="14" customHeight="1">
       <c r="A335" s="3">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1542</v>
+        <v>1524</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>1543</v>
+        <v>1521</v>
       </c>
       <c r="D335" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G335" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="G335" s="3" t="s">
-        <v>1535</v>
-      </c>
       <c r="H335" s="3" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
       <c r="J335" s="21" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="14" customHeight="1">
       <c r="A336" s="3">
+        <v>329</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J336" s="21" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="14" customHeight="1">
+      <c r="A337" s="3">
+        <v>330</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J337" s="21"/>
+    </row>
+    <row r="338" spans="1:10" ht="14" customHeight="1">
+      <c r="A338" s="3">
+        <v>331</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J338" s="21" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="14" customHeight="1">
+      <c r="A339" s="3">
+        <v>332</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J339" s="21" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="14" customHeight="1">
+      <c r="A340" s="3">
+        <v>333</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J340" s="21" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="14" customHeight="1">
+      <c r="A341" s="3">
+        <v>334</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J341" s="21" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="14" customHeight="1">
+      <c r="A342" s="3">
         <v>335</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B342" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D342" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J342" s="21"/>
+    </row>
+    <row r="343" spans="1:10" ht="14" customHeight="1">
+      <c r="A343" s="3">
+        <v>336</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J343" s="21"/>
+    </row>
+    <row r="344" spans="1:10" ht="14" customHeight="1">
+      <c r="A344" s="3">
+        <v>337</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I344" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="D336" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G336" s="3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H336" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I336" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="J336" s="21"/>
-    </row>
-    <row r="337" spans="1:13" ht="14" customHeight="1">
-      <c r="A337" s="3">
-        <v>336</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I337" s="3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="J337" s="21"/>
-    </row>
-    <row r="338" spans="1:13" ht="14" customHeight="1">
-      <c r="A338" s="3">
-        <v>337</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G338" s="3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H338" s="3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I338" s="3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J338" s="21" t="s">
+      <c r="J344" s="21" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="14" customHeight="1">
+      <c r="A345" s="3">
+        <v>338</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J345" s="21" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="14" customHeight="1">
-      <c r="A339" s="3">
-        <v>338</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G339" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="H339" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I339" s="3" t="s">
+    <row r="346" spans="1:10" ht="14" customHeight="1">
+      <c r="A346" s="3">
+        <v>339</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G346" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="J339" s="21" t="s">
+      <c r="H346" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J346" s="21" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="14" customHeight="1">
-      <c r="A340" s="3">
-        <v>339</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H340" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="I340" s="3" t="s">
+    <row r="347" spans="1:10" ht="14" customHeight="1">
+      <c r="A347" s="3">
+        <v>340</v>
+      </c>
+      <c r="B347" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="J340" s="21" t="s">
+      <c r="C347" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J347" s="21" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="14" customHeight="1">
-      <c r="A341" s="3">
-        <v>340</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G341" s="3" t="s">
+    <row r="348" spans="1:10" ht="14" customHeight="1">
+      <c r="A348" s="3">
+        <v>341</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H348" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="I348" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="I341" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="J341" s="21" t="s">
+      <c r="J348" s="21"/>
+    </row>
+    <row r="349" spans="1:10" ht="14" customHeight="1">
+      <c r="A349" s="3">
+        <v>342</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J349" s="21" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="14" customHeight="1">
-      <c r="A342" s="3">
-        <v>341</v>
-      </c>
-      <c r="B342" s="3" t="s">
+    <row r="350" spans="1:10" ht="14" customHeight="1">
+      <c r="A350" s="3">
+        <v>343</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G350" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="C342" s="3" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G342" s="3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="H342" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I342" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="J342" s="21"/>
-    </row>
-    <row r="343" spans="1:13" ht="14" customHeight="1">
-      <c r="A343" s="3">
-        <v>342</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C343" s="3" t="s">
+      <c r="H350" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J350" s="21" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="14" customHeight="1">
+      <c r="A351" s="3">
+        <v>344</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="D343" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="H343" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="J343" s="21" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" ht="14" customHeight="1">
-      <c r="A344" s="3">
-        <v>343</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G344" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H344" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I344" s="3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J344" s="21" t="s">
+      <c r="D351" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J351" s="21" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="14" customHeight="1">
-      <c r="A345" s="3">
-        <v>344</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H345" s="3" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I345" s="3" t="s">
+    <row r="352" spans="1:10" ht="14" customHeight="1">
+      <c r="A352" s="3">
+        <v>345</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="J345" s="21" t="s">
+      <c r="C352" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J352" s="21" t="s">
         <v>1516</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" ht="14" customHeight="1">
-      <c r="A346" s="3">
-        <v>345</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="G346" s="3" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H346" s="3" t="s">
-        <v>1588</v>
-      </c>
-      <c r="I346" s="3" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J346" s="21" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" ht="14" customHeight="1">
-      <c r="A347" s="3">
-        <v>346</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>1602</v>
-      </c>
-      <c r="M347" s="3" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" ht="14" customHeight="1">
-      <c r="A348" s="3">
-        <v>347</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>1603</v>
-      </c>
-      <c r="M348" s="3" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" ht="14" customHeight="1">
-      <c r="A349" s="3">
-        <v>348</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>1604</v>
-      </c>
-      <c r="M349" s="3" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" ht="14" customHeight="1">
-      <c r="A350" s="3">
-        <v>349</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="M350" s="3" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" ht="14" customHeight="1">
-      <c r="A351" s="3">
-        <v>350</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>1606</v>
-      </c>
-      <c r="M351" s="3" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" ht="14" customHeight="1">
-      <c r="A352" s="3">
-        <v>351</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>1607</v>
-      </c>
-      <c r="M352" s="3" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="14" customHeight="1">
       <c r="A353" s="3">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="14" customHeight="1">
       <c r="A354" s="3">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="14" customHeight="1">
       <c r="A355" s="3">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="M355" s="3" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="14" customHeight="1">
       <c r="A356" s="3">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1634</v>
+        <v>1604</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>1636</v>
+        <v>1604</v>
+      </c>
+      <c r="M356" s="3" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="14" customHeight="1">
       <c r="A357" s="3">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1633</v>
+        <v>1605</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G357" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="J357" s="3" t="s">
-        <v>1624</v>
+        <v>1605</v>
+      </c>
+      <c r="M357" s="3" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="14" customHeight="1">
       <c r="A358" s="3">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1631</v>
+        <v>1606</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G358" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="J358" s="3" t="s">
-        <v>1625</v>
+        <v>1606</v>
+      </c>
+      <c r="M358" s="3" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="14" customHeight="1">
       <c r="A359" s="3">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1629</v>
-      </c>
-      <c r="G359" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="J359" s="3" t="s">
-        <v>1626</v>
+        <v>1607</v>
+      </c>
+      <c r="M359" s="3" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="14" customHeight="1">
       <c r="A360" s="3">
+        <v>353</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M360" s="3" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" ht="14" customHeight="1">
+      <c r="A361" s="3">
+        <v>354</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M361" s="3" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="14" customHeight="1">
+      <c r="A362" s="3">
+        <v>355</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" ht="14" customHeight="1">
+      <c r="A363" s="3">
+        <v>356</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="14" customHeight="1">
+      <c r="A364" s="3">
+        <v>357</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="14" customHeight="1">
+      <c r="A365" s="3">
+        <v>358</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" ht="14" customHeight="1">
+      <c r="A366" s="3">
         <v>359</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B366" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G366" s="3" t="s">
         <v>1640</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G360" s="3" t="s">
-        <v>1641</v>
+    </row>
+    <row r="367" spans="1:13" ht="14" customHeight="1">
+      <c r="A367" s="3">
+        <v>360</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" ht="14" customHeight="1">
+      <c r="A368" s="3">
+        <v>361</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="14" customHeight="1">
+      <c r="A369" s="3">
+        <v>362</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="14" customHeight="1">
+      <c r="A370" s="3">
+        <v>363</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="14" customHeight="1">
+      <c r="A371" s="3">
+        <v>364</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="14" customHeight="1">
+      <c r="A372" s="3">
+        <v>365</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="14" customHeight="1">
+      <c r="A373" s="3">
+        <v>366</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="14" customHeight="1">
+      <c r="A374" s="3">
+        <v>367</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="14" customHeight="1">
+      <c r="A375" s="3">
+        <v>368</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="14" customHeight="1">
+      <c r="A376" s="3">
+        <v>369</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="14" customHeight="1">
+      <c r="A377" s="3">
+        <v>370</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="14" customHeight="1">
+      <c r="A378" s="3">
+        <v>371</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="14" customHeight="1">
+      <c r="A379" s="3">
+        <v>372</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L379" s="3" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="14" customHeight="1">
+      <c r="A380" s="3">
+        <v>373</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L309" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L312">
-      <sortCondition ref="A1:A312"/>
+  <autoFilter ref="A1:L315" xr:uid="{244A603C-C4DA-A14D-AB80-F91FC8E606E6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L318">
+      <sortCondition ref="A1:A318"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12956,17 +13502,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -12987,10 +13533,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1644</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -13018,13 +13564,13 @@
         <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13035,7 +13581,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13046,21 +13592,35 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1601</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="22" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1705</v>
       </c>
     </row>
   </sheetData>
@@ -13070,15 +13630,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="59.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="66" style="9" bestFit="1" customWidth="1"/>
@@ -13101,7 +13661,7 @@
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>934</v>
@@ -13110,15 +13670,15 @@
         <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>857</v>
@@ -13126,15 +13686,15 @@
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>949</v>
@@ -13148,7 +13708,7 @@
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>754</v>
@@ -13159,7 +13719,7 @@
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>951</v>
@@ -13203,13 +13763,13 @@
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>950</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
@@ -13220,21 +13780,21 @@
         <v>932</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1359</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
@@ -13245,7 +13805,7 @@
         <v>933</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>727</v>
@@ -13267,7 +13827,7 @@
         <v>935</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1">
@@ -13316,10 +13876,10 @@
     </row>
     <row r="21" spans="1:4" ht="14" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>1215</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" customHeight="1">
@@ -13330,29 +13890,29 @@
         <v>939</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>1385</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>1386</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>1233</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" customHeight="1">
@@ -13381,27 +13941,27 @@
     </row>
     <row r="28" spans="1:4" ht="14" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>1294</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>1296</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" customHeight="1">
@@ -13417,13 +13977,13 @@
     </row>
     <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>1260</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1">
@@ -13434,10 +13994,10 @@
         <v>145</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>916</v>
       </c>
@@ -13445,10 +14005,10 @@
         <v>942</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>914</v>
       </c>
@@ -13456,10 +14016,10 @@
         <v>943</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>915</v>
       </c>
@@ -13467,10 +14027,10 @@
         <v>944</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>922</v>
       </c>
@@ -13481,7 +14041,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1">
+    <row r="37" spans="1:4" ht="14" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>918</v>
       </c>
@@ -13492,7 +14052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1">
+    <row r="38" spans="1:4" ht="14" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>913</v>
       </c>
@@ -13500,10 +14060,10 @@
         <v>947</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>458</v>
       </c>
@@ -13513,8 +14073,11 @@
       <c r="C39" s="9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1">
+      <c r="D39" s="9" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>729</v>
       </c>
@@ -13522,190 +14085,228 @@
         <v>728</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1">
+    <row r="41" spans="1:4" ht="14" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>507</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="45" spans="1:4" ht="14" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="C46" s="9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>1075</v>
+        <v>1207</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1073</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1191</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" customHeight="1">
       <c r="A51" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>1442</v>
-      </c>
     </row>
     <row r="54" spans="1:4" ht="14" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>1598</v>
+      <c r="A54" s="9" t="s">
+        <v>1431</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>1503</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1597</v>
+        <v>1494</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C56" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>1638</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
-      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="14" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1703</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
-      <sortCondition ref="A1:A51"/>
+  <autoFilter ref="A1:D52" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+      <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E5DC12-C45A-5649-A393-C10AD7750439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A19E5-2B5C-EE43-8855-3066C7FCF97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="25060" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -4871,33 +4871,6 @@
     <t>virB11</t>
   </si>
   <si>
-    <t>T4SS_T_virB1.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB10.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB11.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB2.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB3.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB5.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB6.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB8.hmm</t>
-  </si>
-  <si>
-    <t>T4SS_T_virB9.hmm</t>
-  </si>
-  <si>
     <t>['Nitrite reductase [NAD(P)H] small subunit (EC 1.7.1.4)', 'Nitrite reductase [NAD(P)H] large subunit (EC 1.7.1.4)']</t>
   </si>
   <si>
@@ -5202,6 +5175,33 @@
   </si>
   <si>
     <t>WEI_PHOSPHO</t>
+  </si>
+  <si>
+    <t>T_virB1</t>
+  </si>
+  <si>
+    <t>T_virB10</t>
+  </si>
+  <si>
+    <t>T_virB11</t>
+  </si>
+  <si>
+    <t>T_virB2</t>
+  </si>
+  <si>
+    <t>T_virB3</t>
+  </si>
+  <si>
+    <t>T_virB5</t>
+  </si>
+  <si>
+    <t>T_virB6</t>
+  </si>
+  <si>
+    <t>T_virB8</t>
+  </si>
+  <si>
+    <t>T_virB9</t>
   </si>
 </sst>
 </file>
@@ -5650,8 +5650,8 @@
   <dimension ref="A1:N380"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M353" sqref="M353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -5662,7 +5662,9 @@
     <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7" max="13" width="9.83203125" style="3" customWidth="1"/>
+    <col min="7" max="11" width="9.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="101" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" style="3" customWidth="1"/>
     <col min="14" max="16384" width="40.5" style="3"/>
   </cols>
   <sheetData>
@@ -5686,7 +5688,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -5707,7 +5709,7 @@
         <v>1599</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14" customHeight="1">
@@ -6417,10 +6419,10 @@
         <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14" customHeight="1">
@@ -6437,7 +6439,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14" customHeight="1">
@@ -6474,7 +6476,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" customHeight="1">
@@ -11481,26 +11483,26 @@
     </row>
     <row r="282" spans="1:14" ht="14" customHeight="1">
       <c r="B282" s="9" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="G282" s="9"/>
       <c r="N282" s="3" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="14" customHeight="1">
       <c r="B283" s="9" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="G283" s="9"/>
       <c r="N283" s="3" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="14" customHeight="1">
@@ -11526,7 +11528,7 @@
         <v>1235</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="14" customHeight="1">
@@ -11575,7 +11577,7 @@
         <v>1235</v>
       </c>
       <c r="N286" s="3" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="14" customHeight="1">
@@ -11601,7 +11603,7 @@
         <v>1235</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="14" customHeight="1">
@@ -11650,51 +11652,51 @@
         <v>1257</v>
       </c>
       <c r="N289" s="3" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="14" customHeight="1">
       <c r="B290" s="3" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="14" customHeight="1">
       <c r="B291" s="3" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="N291" s="3" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="14" customHeight="1">
       <c r="B292" s="3" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="N292" s="3" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="14" customHeight="1">
       <c r="B293" s="3" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="14" customHeight="1">
@@ -13057,7 +13059,7 @@
         <v>1601</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>1610</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="14" customHeight="1">
@@ -13071,7 +13073,7 @@
         <v>1602</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>1613</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="14" customHeight="1">
@@ -13085,7 +13087,7 @@
         <v>1603</v>
       </c>
       <c r="M355" s="3" t="s">
-        <v>1614</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="14" customHeight="1">
@@ -13099,7 +13101,7 @@
         <v>1604</v>
       </c>
       <c r="M356" s="3" t="s">
-        <v>1615</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="14" customHeight="1">
@@ -13113,7 +13115,7 @@
         <v>1605</v>
       </c>
       <c r="M357" s="3" t="s">
-        <v>1616</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="14" customHeight="1">
@@ -13127,7 +13129,7 @@
         <v>1606</v>
       </c>
       <c r="M358" s="3" t="s">
-        <v>1617</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="14" customHeight="1">
@@ -13141,7 +13143,7 @@
         <v>1607</v>
       </c>
       <c r="M359" s="3" t="s">
-        <v>1618</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="14" customHeight="1">
@@ -13155,7 +13157,7 @@
         <v>1608</v>
       </c>
       <c r="M360" s="3" t="s">
-        <v>1611</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="14" customHeight="1">
@@ -13169,7 +13171,7 @@
         <v>1609</v>
       </c>
       <c r="M361" s="3" t="s">
-        <v>1612</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="14" customHeight="1">
@@ -13177,13 +13179,13 @@
         <v>355</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="14" customHeight="1">
@@ -13191,16 +13193,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="14" customHeight="1">
@@ -13208,16 +13210,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="14" customHeight="1">
@@ -13225,16 +13227,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="14" customHeight="1">
@@ -13242,13 +13244,13 @@
         <v>359</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="14" customHeight="1">
@@ -13256,16 +13258,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="14" customHeight="1">
@@ -13273,16 +13275,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="369" spans="1:12" ht="14" customHeight="1">
@@ -13290,16 +13292,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="370" spans="1:12" ht="14" customHeight="1">
@@ -13307,16 +13309,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="371" spans="1:12" ht="14" customHeight="1">
@@ -13324,16 +13326,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="372" spans="1:12" ht="14" customHeight="1">
@@ -13341,16 +13343,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="373" spans="1:12" ht="14" customHeight="1">
@@ -13358,16 +13360,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G373" s="3" t="s">
         <v>1655</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>1686</v>
-      </c>
-      <c r="G373" s="3" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="374" spans="1:12" ht="14" customHeight="1">
@@ -13375,16 +13377,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="375" spans="1:12" ht="14" customHeight="1">
@@ -13392,16 +13394,16 @@
         <v>368</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="376" spans="1:12" ht="14" customHeight="1">
@@ -13409,16 +13411,16 @@
         <v>369</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="377" spans="1:12" ht="14" customHeight="1">
@@ -13426,16 +13428,16 @@
         <v>370</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="L377" s="3" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="378" spans="1:12" ht="14" customHeight="1">
@@ -13443,16 +13445,16 @@
         <v>371</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="L378" s="3" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="14" customHeight="1">
@@ -13460,16 +13462,16 @@
         <v>372</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="D379" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L379" s="3" t="s">
         <v>1691</v>
-      </c>
-      <c r="L379" s="3" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="380" spans="1:12" ht="14" customHeight="1">
@@ -13477,16 +13479,16 @@
         <v>373</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L380" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L380" s="3" t="s">
-        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -13505,7 +13507,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13533,10 +13535,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -13611,16 +13613,16 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>953</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -14074,7 +14076,7 @@
         <v>459</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" customHeight="1">
@@ -14090,18 +14092,18 @@
         <v>507</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
@@ -14263,40 +14265,40 @@
     </row>
     <row r="57" spans="1:4" ht="14" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Science/repos/gator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/GitHub/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A19E5-2B5C-EE43-8855-3066C7FCF97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D4A8A-E336-1D4F-B056-DE48ABCB84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="25060" windowHeight="28340" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="14800" yWindow="-23520" windowWidth="28380" windowHeight="17660" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="gene" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1758">
   <si>
     <t>NOTE</t>
   </si>
@@ -1571,9 +1571,6 @@
     <t>One file with all blastable sequences</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Science/repos/gator/db/gator.faa</t>
-  </si>
-  <si>
     <t>K00466</t>
   </si>
   <si>
@@ -2102,9 +2099,6 @@
     <t>PP_3356</t>
   </si>
   <si>
-    <t>K12508</t>
-  </si>
-  <si>
     <t>ech</t>
   </si>
   <si>
@@ -2222,9 +2216,6 @@
     <t>PATHWAY_NOTES</t>
   </si>
   <si>
-    <t>Also might need pcaA and pcaU, but I don’t have reference genes</t>
-  </si>
-  <si>
     <t>mlaA + mlaB + mlaC + mlaD + mlaE + mlaF</t>
   </si>
   <si>
@@ -2903,9 +2894,6 @@
     <t>hmm</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Science/repos/gator/db/pfams.hmm</t>
-  </si>
-  <si>
     <t>file with concatenated hmms</t>
   </si>
   <si>
@@ -4841,9 +4829,6 @@
     <t>TXSS</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Science/repos/gator/db/TXSS.hmm</t>
-  </si>
-  <si>
     <t>virB1</t>
   </si>
   <si>
@@ -4940,12 +4925,6 @@
     <t>small subunit ribosomal protein S6e</t>
   </si>
   <si>
-    <t>kofam98</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Science/kofam/98/</t>
-  </si>
-  <si>
     <t>TDA Resistance</t>
   </si>
   <si>
@@ -5120,15 +5099,9 @@
     <t>mlrD_AF411071_partial,QCT05772.1_mlrD</t>
   </si>
   <si>
-    <t>Microcystin Degradataion</t>
-  </si>
-  <si>
     <t>mlrA + mlrB + mlrC + mlrD</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Science/repos/gator/db/phospho.hmm</t>
-  </si>
-  <si>
     <t>phosphorous related HMMs from Wei Li</t>
   </si>
   <si>
@@ -5202,6 +5175,144 @@
   </si>
   <si>
     <t>T_virB9</t>
+  </si>
+  <si>
+    <t>kofam100</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/GitHub/gator/db/gator.faa</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/GitHub/gator/db/pfams.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/GitHub/gator/db/TXSS.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/GitHub/gator/db/phospho.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/100/</t>
+  </si>
+  <si>
+    <t>M00573 doesn't list bioA as an option, but M00577 does. This is why there may be a discrepancy between "8-Amino-7-oxononanoate -&gt; 7,8-Diaminononanoate" in these two pathways</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate 3-monooxygenase</t>
+  </si>
+  <si>
+    <t>4HBA degradation</t>
+  </si>
+  <si>
+    <t>bsdC</t>
+  </si>
+  <si>
+    <t>bsdD</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate decarboxylase subunit C</t>
+  </si>
+  <si>
+    <t>K01612,K16239</t>
+  </si>
+  <si>
+    <t>4.1.1.61</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate decarboxylase subunit D</t>
+  </si>
+  <si>
+    <t>K21759</t>
+  </si>
+  <si>
+    <t>ubiA</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate polyprenyltransferase</t>
+  </si>
+  <si>
+    <t>K03179, K06125</t>
+  </si>
+  <si>
+    <t>2.5.1.39</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate-CoA ligase</t>
+  </si>
+  <si>
+    <t>6.2.1.27</t>
+  </si>
+  <si>
+    <t>K20458,K04105</t>
+  </si>
+  <si>
+    <t>hcl_hba</t>
+  </si>
+  <si>
+    <t>R01300</t>
+  </si>
+  <si>
+    <t>p-coumaric acid, 4HBA degradation</t>
+  </si>
+  <si>
+    <t>['P-hydroxybenzoate hydroxylase (EC 1.14.13.2)']</t>
+  </si>
+  <si>
+    <t>['4-hydroxybenzoate polyprenyltransferase (EC 2.5.1.39)']</t>
+  </si>
+  <si>
+    <t>4-coumarate--CoA ligase</t>
+  </si>
+  <si>
+    <t>ATP + 4-Coumarate + CoA &lt;=&gt; AMP + Diphosphate + p-Coumaroyl-CoA</t>
+  </si>
+  <si>
+    <t>6.2.1.12</t>
+  </si>
+  <si>
+    <t>R01616</t>
+  </si>
+  <si>
+    <t>4.1.2.61</t>
+  </si>
+  <si>
+    <t>feruloyl-CoA hydratase/lyase</t>
+  </si>
+  <si>
+    <t>vanillin dehydrogenase</t>
+  </si>
+  <si>
+    <t>1.2.1.67</t>
+  </si>
+  <si>
+    <t>Also might need pcaA and pcaU, but I don’t have reference genes. Calero, 2016 and Calero 2017</t>
+  </si>
+  <si>
+    <t>pobA Regulator</t>
+  </si>
+  <si>
+    <t>protocatechuate 3,4-dioxygenase, alpha subunit</t>
+  </si>
+  <si>
+    <t>1.13.11.3</t>
+  </si>
+  <si>
+    <t>5.5.1.2</t>
+  </si>
+  <si>
+    <t>3-carboxy-cis,cis-muconate cycloisomerase</t>
+  </si>
+  <si>
+    <t>K01904,K12508</t>
+  </si>
+  <si>
+    <t>p-coumaric acid. Added K01904 as the "true" KO</t>
+  </si>
+  <si>
+    <t>1.14.13.2, 1.14.13.33</t>
+  </si>
+  <si>
+    <t>Microcystin Degradation</t>
   </si>
 </sst>
 </file>
@@ -5647,22 +5758,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:N384"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M353" sqref="M353"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="9.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="101" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="3" customWidth="1"/>
     <col min="14" max="16384" width="40.5" style="3"/>
@@ -5670,7 +5783,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>5</v>
@@ -5687,8 +5800,8 @@
       <c r="F1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>1633</v>
+      <c r="G1" s="2" t="s">
+        <v>1712</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>14</v>
@@ -5706,10 +5819,10 @@
         <v>365</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14" customHeight="1">
@@ -5731,13 +5844,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14" customHeight="1">
@@ -5745,22 +5858,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1224</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14" customHeight="1">
@@ -5768,22 +5881,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14" customHeight="1">
@@ -5791,22 +5904,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>1231</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14" customHeight="1">
@@ -5823,7 +5936,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14" customHeight="1">
@@ -5834,19 +5947,19 @@
         <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14" customHeight="1">
@@ -5866,7 +5979,7 @@
         <v>47</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14" customHeight="1">
@@ -5886,7 +5999,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14" customHeight="1">
@@ -5906,7 +6019,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" customHeight="1">
@@ -5929,7 +6042,7 @@
         <v>75</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14" customHeight="1">
@@ -5952,7 +6065,7 @@
         <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14" customHeight="1">
@@ -5975,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" customHeight="1">
@@ -6027,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14" customHeight="1">
@@ -6059,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14" customHeight="1">
@@ -6091,7 +6204,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14" customHeight="1">
@@ -6123,7 +6236,7 @@
         <v>58</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14" customHeight="1">
@@ -6155,7 +6268,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14" customHeight="1">
@@ -6187,7 +6300,7 @@
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14" customHeight="1">
@@ -6419,10 +6532,10 @@
         <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14" customHeight="1">
@@ -6439,7 +6552,7 @@
         <v>136</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14" customHeight="1">
@@ -6476,7 +6589,7 @@
         <v>144</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" customHeight="1">
@@ -6496,7 +6609,7 @@
         <v>148</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14" customHeight="1">
@@ -6753,7 +6866,7 @@
         <v>202</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>203</v>
@@ -6773,7 +6886,7 @@
         <v>206</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="14" customHeight="1">
@@ -6804,7 +6917,7 @@
         <v>212</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="14" customHeight="1">
@@ -6821,7 +6934,7 @@
         <v>215</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="14" customHeight="1">
@@ -6855,7 +6968,7 @@
         <v>222</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="14" customHeight="1">
@@ -6875,7 +6988,7 @@
         <v>226</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="14" customHeight="1">
@@ -7117,7 +7230,7 @@
         <v>268</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>271</v>
@@ -7140,7 +7253,7 @@
         <v>268</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>275</v>
@@ -7186,7 +7299,7 @@
         <v>268</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>282</v>
@@ -7209,7 +7322,7 @@
         <v>268</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>285</v>
@@ -7489,7 +7602,7 @@
         <v>342</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>343</v>
@@ -7506,7 +7619,7 @@
         <v>345</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>346</v>
@@ -7523,7 +7636,7 @@
         <v>348</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>349</v>
@@ -7534,22 +7647,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>1268</v>
-      </c>
       <c r="H96" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14" customHeight="1">
@@ -7557,22 +7670,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14" customHeight="1">
@@ -7580,22 +7693,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14" customHeight="1">
@@ -7685,13 +7798,13 @@
         <v>368</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>391</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="14" customHeight="1">
@@ -7754,7 +7867,7 @@
         <v>394</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="14" customHeight="1">
@@ -7828,7 +7941,7 @@
         <v>389</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>390</v>
@@ -8303,25 +8416,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H140" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="14" customHeight="1">
@@ -8329,25 +8442,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="J141" s="3" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="14" customHeight="1">
@@ -8355,25 +8468,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="J142" s="3" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="14" customHeight="1">
@@ -8381,25 +8494,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="14" customHeight="1">
@@ -8407,25 +8520,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H144" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>533</v>
-      </c>
       <c r="I144" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14" customHeight="1">
@@ -8433,25 +8546,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="G145" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H145" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14" customHeight="1">
@@ -8459,25 +8572,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14" customHeight="1">
@@ -8485,28 +8598,28 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H147" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="I147" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="J147" s="3" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14" customHeight="1">
@@ -8514,22 +8627,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="G148" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14" customHeight="1">
@@ -8537,22 +8650,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>558</v>
-      </c>
       <c r="D149" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14" customHeight="1">
@@ -8560,25 +8673,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14" customHeight="1">
@@ -8586,25 +8699,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14" customHeight="1">
@@ -8612,25 +8725,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H152" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="I152" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14" customHeight="1">
@@ -8638,25 +8751,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14" customHeight="1">
@@ -8664,22 +8777,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14" customHeight="1">
@@ -8687,25 +8800,25 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H155" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="H155" s="3" t="s">
+      <c r="I155" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14" customHeight="1">
@@ -8713,25 +8826,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E156" s="3" t="s">
+      <c r="G156" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="G156" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H156" s="3" t="s">
+      <c r="I156" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14" customHeight="1">
@@ -8739,25 +8852,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H157" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H157" s="3" t="s">
+      <c r="I157" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="14" customHeight="1">
@@ -8765,25 +8878,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H158" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="14" customHeight="1">
@@ -8791,25 +8904,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H159" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="H159" s="3" t="s">
+      <c r="I159" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="14" customHeight="1">
@@ -8817,25 +8930,25 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H160" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H160" s="3" t="s">
+      <c r="I160" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="14" customHeight="1">
@@ -8843,25 +8956,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H161" s="3" t="s">
+      <c r="I161" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="14" customHeight="1">
@@ -8869,25 +8982,25 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="D162" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H162" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="14" customHeight="1">
@@ -8895,19 +9008,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="L163" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="14" customHeight="1">
@@ -8915,16 +9028,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="L164" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="14" customHeight="1">
@@ -8932,16 +9045,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>637</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="14" customHeight="1">
@@ -8949,16 +9062,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L166" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="14" customHeight="1">
@@ -8966,16 +9079,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="L167" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="14" customHeight="1">
@@ -8983,16 +9096,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L168" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="14" customHeight="1">
@@ -9000,16 +9113,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="L169" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="14" customHeight="1">
@@ -9017,16 +9130,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="L170" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="14" customHeight="1">
@@ -9034,16 +9147,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L171" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="14" customHeight="1">
@@ -9051,19 +9164,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="L172" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="14" customHeight="1">
@@ -9071,16 +9184,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="L173" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="14" customHeight="1">
@@ -9088,16 +9201,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="L174" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="14" customHeight="1">
@@ -9105,16 +9218,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="L175" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="L175" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="14" customHeight="1">
@@ -9122,13 +9235,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="L176" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="L176" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -9136,16 +9249,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="L177" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="L177" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="14" customHeight="1">
@@ -9153,16 +9266,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="L178" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="L178" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="14" customHeight="1">
@@ -9170,13 +9283,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="L179" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="L179" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="14" customHeight="1">
@@ -9184,16 +9297,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="L180" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="L180" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="14" customHeight="1">
@@ -9201,13 +9314,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="L181" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="L181" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="14" customHeight="1">
@@ -9215,16 +9328,28 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="L182" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="14" customHeight="1">
@@ -9232,16 +9357,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G183" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>690</v>
+      <c r="H183" s="3" t="s">
+        <v>1744</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="14" customHeight="1">
@@ -9249,16 +9380,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>693</v>
+      <c r="H184" s="3" t="s">
+        <v>1747</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="14" customHeight="1">
@@ -9266,16 +9403,25 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>696</v>
+      <c r="H185" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>1738</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="14" customHeight="1">
@@ -9283,16 +9429,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="L186" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="14" customHeight="1">
@@ -9300,10 +9449,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G187" s="8"/>
       <c r="L187" s="8"/>
@@ -9313,16 +9462,22 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>703</v>
+      <c r="H188" s="3" t="s">
+        <v>1752</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="14" customHeight="1">
@@ -9330,16 +9485,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>706</v>
-      </c>
       <c r="L189" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="14" customHeight="1">
@@ -9347,16 +9502,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>709</v>
-      </c>
       <c r="L190" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="14" customHeight="1">
@@ -9364,16 +9519,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>712</v>
+      <c r="H191" s="3" t="s">
+        <v>1751</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="14" customHeight="1">
@@ -9381,16 +9542,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="L192" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="14" customHeight="1">
@@ -9398,10 +9559,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G193" s="8"/>
       <c r="L193" s="8"/>
@@ -9411,16 +9572,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G194" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>719</v>
-      </c>
       <c r="L194" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="14" customHeight="1">
@@ -9428,16 +9589,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G195" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D195" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>722</v>
-      </c>
       <c r="L195" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="14" customHeight="1">
@@ -9445,25 +9606,25 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="I196" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>734</v>
-      </c>
       <c r="J196" s="3" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="14" customHeight="1">
@@ -9471,22 +9632,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="I197" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="14" customHeight="1">
@@ -9494,25 +9655,25 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G198" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="H198" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="14" customHeight="1">
@@ -9520,22 +9681,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="I199" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="14" customHeight="1">
@@ -9543,25 +9704,25 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="I200" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="D200" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>753</v>
-      </c>
       <c r="J200" s="3" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="14" customHeight="1">
@@ -9569,25 +9730,25 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G201" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="J201" s="3" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="14" customHeight="1">
@@ -9595,25 +9756,25 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="14" customHeight="1">
@@ -9621,25 +9782,25 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="14" customHeight="1">
@@ -9647,25 +9808,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="14" customHeight="1">
@@ -9673,25 +9834,25 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="14" customHeight="1">
@@ -9699,22 +9860,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="14" customHeight="1">
@@ -9722,25 +9883,25 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="I207" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="14" customHeight="1">
@@ -9748,25 +9909,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="14" customHeight="1">
@@ -9774,25 +9935,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="14" customHeight="1">
@@ -9800,19 +9961,19 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="14" customHeight="1">
@@ -9820,25 +9981,25 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="14" customHeight="1">
@@ -9846,19 +10007,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E212" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>805</v>
-      </c>
       <c r="G212" s="3" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="14" customHeight="1">
@@ -9866,25 +10027,25 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="I213" s="3" t="s">
         <v>811</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="H213" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="14" customHeight="1">
@@ -9892,25 +10053,25 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D214" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G214" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="H214" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="14" customHeight="1">
@@ -9918,25 +10079,25 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="G215" s="3" t="s">
-        <v>810</v>
-      </c>
       <c r="H215" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="14" customHeight="1">
@@ -9944,28 +10105,28 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="14" customHeight="1">
@@ -9973,25 +10134,25 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="14" customHeight="1">
@@ -9999,28 +10160,28 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>833</v>
-      </c>
       <c r="H218" s="3" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="14" customHeight="1">
@@ -10028,28 +10189,28 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="I219" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>834</v>
-      </c>
       <c r="J219" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="14" customHeight="1">
@@ -10057,25 +10218,25 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="14" customHeight="1">
@@ -10083,19 +10244,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>851</v>
-      </c>
       <c r="H221" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="14" customHeight="1">
@@ -10103,19 +10264,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="14" customHeight="1">
@@ -10123,16 +10284,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14" customHeight="1">
@@ -10140,16 +10301,16 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="14" customHeight="1">
@@ -10157,16 +10318,16 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="H225" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="14" customHeight="1">
@@ -10174,16 +10335,16 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="14" customHeight="1">
@@ -10191,16 +10352,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="228" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -10208,19 +10369,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
@@ -10232,19 +10393,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -10256,19 +10417,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -10280,19 +10441,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -10304,19 +10465,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -10328,19 +10489,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -10352,19 +10513,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -10376,19 +10537,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -10400,10 +10561,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10414,7 +10575,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="237" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -10422,19 +10583,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="238" spans="1:12" s="4" customFormat="1" ht="14" customHeight="1">
@@ -10442,25 +10603,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G238" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="H238" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="H238" s="4" t="s">
-        <v>973</v>
-      </c>
       <c r="I238" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="L238" s="12"/>
     </row>
@@ -10469,24 +10630,24 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="13" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
@@ -10497,22 +10658,22 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
@@ -10523,24 +10684,24 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="13" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
@@ -10551,24 +10712,24 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="13" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
@@ -10579,22 +10740,22 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
@@ -10605,24 +10766,24 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="13" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
@@ -10633,24 +10794,24 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
@@ -10661,22 +10822,22 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
@@ -10687,24 +10848,24 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="13" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
@@ -10715,22 +10876,22 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="249" spans="1:12" ht="14" customHeight="1">
@@ -10738,19 +10899,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I249" s="3" t="s">
         <v>1041</v>
-      </c>
-      <c r="D249" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I249" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="14" customHeight="1">
@@ -10758,22 +10919,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="14" customHeight="1">
@@ -10781,22 +10942,22 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="14" customHeight="1">
@@ -10804,19 +10965,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="253" spans="1:12" ht="14" customHeight="1">
@@ -10824,22 +10985,22 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="254" spans="1:12" ht="14" customHeight="1">
@@ -10847,22 +11008,22 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="14" customHeight="1">
@@ -10870,22 +11031,22 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="14" customHeight="1">
@@ -10893,22 +11054,22 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="14" customHeight="1">
@@ -10916,22 +11077,22 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="258" spans="1:12" ht="14" customHeight="1">
@@ -10939,22 +11100,22 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="L258" s="7"/>
     </row>
@@ -10963,22 +11124,22 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="14" customHeight="1">
@@ -10986,22 +11147,22 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="14" customHeight="1">
@@ -11009,22 +11170,22 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="14" customHeight="1">
@@ -11032,22 +11193,22 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H262" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>1069</v>
-      </c>
       <c r="I262" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="14" customHeight="1">
@@ -11055,22 +11216,22 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>1088</v>
-      </c>
       <c r="D263" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="14" customHeight="1">
@@ -11078,22 +11239,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="265" spans="1:12" ht="14" customHeight="1">
@@ -11101,22 +11262,22 @@
         <v>264</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="266" spans="1:12" ht="14" customHeight="1">
@@ -11124,22 +11285,22 @@
         <v>265</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="14" customHeight="1">
@@ -11147,22 +11308,22 @@
         <v>266</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="14" customHeight="1">
@@ -11170,22 +11331,22 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G268" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I268" s="3" t="s">
         <v>1105</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="269" spans="1:12" ht="14" customHeight="1">
@@ -11193,22 +11354,22 @@
         <v>268</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G269" s="9" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="270" spans="1:12" ht="14" customHeight="1">
@@ -11216,22 +11377,22 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="271" spans="1:12" ht="14" customHeight="1">
@@ -11239,16 +11400,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="272" spans="1:12" ht="14" customHeight="1">
@@ -11256,22 +11417,22 @@
         <v>271</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D272" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I272" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="G272" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H272" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="14" customHeight="1">
@@ -11279,22 +11440,22 @@
         <v>272</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="14" customHeight="1">
@@ -11302,22 +11463,22 @@
         <v>273</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="14" customHeight="1">
@@ -11325,22 +11486,22 @@
         <v>274</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="14" customHeight="1">
@@ -11348,22 +11509,22 @@
         <v>275</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="14" customHeight="1">
@@ -11371,22 +11532,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="14" customHeight="1">
@@ -11394,22 +11555,22 @@
         <v>277</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="14" customHeight="1">
@@ -11417,22 +11578,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="14" customHeight="1">
@@ -11440,22 +11601,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C280" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G280" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="D280" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G280" s="9" t="s">
-        <v>1146</v>
-      </c>
       <c r="H280" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="14" customHeight="1">
@@ -11463,46 +11624,46 @@
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="C281" s="9" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>1148</v>
-      </c>
       <c r="G281" s="9" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="14" customHeight="1">
       <c r="B282" s="9" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="G282" s="9"/>
       <c r="N282" s="3" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="14" customHeight="1">
       <c r="B283" s="9" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="G283" s="9"/>
       <c r="N283" s="3" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="14" customHeight="1">
@@ -11510,25 +11671,25 @@
         <v>281</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>1244</v>
-      </c>
       <c r="D284" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="N284" s="3" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="14" customHeight="1">
@@ -11536,22 +11697,22 @@
         <v>282</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>1245</v>
-      </c>
       <c r="D285" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="14" customHeight="1">
@@ -11559,25 +11720,25 @@
         <v>283</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>1246</v>
-      </c>
       <c r="D286" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="N286" s="3" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="14" customHeight="1">
@@ -11585,25 +11746,25 @@
         <v>284</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>1247</v>
-      </c>
       <c r="D287" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="N287" s="3" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="14" customHeight="1">
@@ -11611,22 +11772,22 @@
         <v>285</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="14" customHeight="1">
@@ -11634,69 +11795,69 @@
         <v>286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D289" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I289" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="G289" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H289" s="3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I289" s="3" t="s">
-        <v>1257</v>
-      </c>
       <c r="N289" s="3" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="14" customHeight="1">
       <c r="B290" s="3" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="N290" s="3" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="14" customHeight="1">
       <c r="B291" s="3" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="N291" s="3" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="14" customHeight="1">
       <c r="B292" s="3" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="N292" s="3" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="14" customHeight="1">
       <c r="B293" s="3" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="N293" s="3" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="14" customHeight="1">
@@ -11704,13 +11865,13 @@
         <v>287</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="14" customHeight="1">
@@ -11718,16 +11879,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>1292</v>
-      </c>
       <c r="G295" s="3" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="14" customHeight="1">
@@ -11735,16 +11896,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="14" customHeight="1">
@@ -11752,16 +11913,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="14" customHeight="1">
@@ -11769,16 +11930,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="14" customHeight="1">
@@ -11786,22 +11947,22 @@
         <v>292</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="14" customHeight="1">
@@ -11809,22 +11970,22 @@
         <v>293</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="301" spans="1:14" ht="14" customHeight="1">
@@ -11832,22 +11993,22 @@
         <v>294</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D301" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G301" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I301" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="14" customHeight="1">
@@ -11855,22 +12016,22 @@
         <v>295</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D302" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G302" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="G302" s="3" t="s">
-        <v>1301</v>
-      </c>
       <c r="H302" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="14" customHeight="1">
@@ -11878,22 +12039,22 @@
         <v>296</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="304" spans="1:14" ht="14" customHeight="1">
@@ -11901,22 +12062,22 @@
         <v>297</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D304" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="14" customHeight="1">
@@ -11924,22 +12085,22 @@
         <v>298</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="14" customHeight="1">
@@ -11947,22 +12108,22 @@
         <v>299</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="14" customHeight="1">
@@ -11970,22 +12131,22 @@
         <v>300</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="14" customHeight="1">
@@ -11993,22 +12154,22 @@
         <v>301</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="14" customHeight="1">
@@ -12016,22 +12177,22 @@
         <v>302</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="14" customHeight="1">
@@ -12039,22 +12200,22 @@
         <v>303</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="14" customHeight="1">
@@ -12062,22 +12223,22 @@
         <v>304</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="14" customHeight="1">
@@ -12085,22 +12246,22 @@
         <v>305</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D312" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="14" customHeight="1">
@@ -12108,22 +12269,22 @@
         <v>306</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D313" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="14" customHeight="1">
@@ -12131,22 +12292,22 @@
         <v>307</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="14" customHeight="1">
@@ -12154,22 +12315,22 @@
         <v>308</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D315" s="9" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="14" customHeight="1">
@@ -12177,19 +12338,19 @@
         <v>309</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I316" s="3" t="s">
         <v>1378</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G316" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H316" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I316" s="3" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="14" customHeight="1">
@@ -12197,19 +12358,19 @@
         <v>310</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="14" customHeight="1">
@@ -12217,19 +12378,19 @@
         <v>311</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I318" s="3" t="s">
         <v>1370</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G318" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H318" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="14" customHeight="1">
@@ -12237,19 +12398,19 @@
         <v>312</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="14" customHeight="1">
@@ -12257,16 +12418,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="14" customHeight="1">
@@ -12274,16 +12435,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="14" customHeight="1">
@@ -12291,16 +12452,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="14" customHeight="1">
@@ -12308,16 +12469,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D323" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G323" s="3" t="s">
         <v>1431</v>
-      </c>
-      <c r="G323" s="3" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="324" spans="1:10" ht="14" customHeight="1">
@@ -12325,25 +12486,25 @@
         <v>317</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="14" customHeight="1">
@@ -12351,25 +12512,25 @@
         <v>318</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="14" customHeight="1">
@@ -12377,25 +12538,25 @@
         <v>319</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D326" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J326" s="3" t="s">
         <v>1493</v>
-      </c>
-      <c r="G326" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H326" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I326" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="J326" s="3" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="14" customHeight="1">
@@ -12403,22 +12564,22 @@
         <v>320</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="14" customHeight="1">
@@ -12426,22 +12587,22 @@
         <v>321</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C328" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I328" s="3" t="s">
         <v>1467</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G328" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="H328" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I328" s="3" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="14" customHeight="1">
@@ -12449,25 +12610,25 @@
         <v>322</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="14" customHeight="1">
@@ -12475,22 +12636,22 @@
         <v>323</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="14" customHeight="1">
@@ -12498,22 +12659,22 @@
         <v>324</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="C331" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I331" s="3" t="s">
         <v>1476</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G331" s="3" t="s">
-        <v>1475</v>
-      </c>
-      <c r="H331" s="3" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I331" s="3" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="14" customHeight="1">
@@ -12521,25 +12682,25 @@
         <v>325</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="14" customHeight="1">
@@ -12547,25 +12708,25 @@
         <v>326</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="14" customHeight="1">
@@ -12573,25 +12734,25 @@
         <v>327</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="14" customHeight="1">
@@ -12599,25 +12760,25 @@
         <v>328</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="J335" s="21" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="14" customHeight="1">
@@ -12625,25 +12786,25 @@
         <v>329</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="J336" s="21" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="14" customHeight="1">
@@ -12651,22 +12812,22 @@
         <v>330</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="J337" s="21"/>
     </row>
@@ -12675,25 +12836,25 @@
         <v>331</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="J338" s="21" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="14" customHeight="1">
@@ -12701,25 +12862,25 @@
         <v>332</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J339" s="21" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="14" customHeight="1">
@@ -12727,25 +12888,25 @@
         <v>333</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J340" s="21" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="14" customHeight="1">
@@ -12753,25 +12914,25 @@
         <v>334</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J341" s="21" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="14" customHeight="1">
@@ -12779,22 +12940,22 @@
         <v>335</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J342" s="21"/>
     </row>
@@ -12803,22 +12964,22 @@
         <v>336</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="J343" s="21"/>
     </row>
@@ -12827,25 +12988,25 @@
         <v>337</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="J344" s="21" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="14" customHeight="1">
@@ -12853,25 +13014,25 @@
         <v>338</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G345" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I345" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="H345" s="3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I345" s="3" t="s">
-        <v>1558</v>
-      </c>
       <c r="J345" s="21" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="14" customHeight="1">
@@ -12879,25 +13040,25 @@
         <v>339</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G346" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I346" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="H346" s="3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I346" s="3" t="s">
-        <v>1563</v>
-      </c>
       <c r="J346" s="21" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="14" customHeight="1">
@@ -12905,25 +13066,25 @@
         <v>340</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I347" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="C347" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G347" s="3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="H347" s="3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I347" s="3" t="s">
-        <v>1568</v>
-      </c>
       <c r="J347" s="21" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="14" customHeight="1">
@@ -12931,22 +13092,22 @@
         <v>341</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="J348" s="21"/>
     </row>
@@ -12955,19 +13116,19 @@
         <v>342</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="J349" s="21" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="14" customHeight="1">
@@ -12975,25 +13136,25 @@
         <v>343</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="G350" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I350" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="H350" s="3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I350" s="3" t="s">
-        <v>1576</v>
-      </c>
       <c r="J350" s="21" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="14" customHeight="1">
@@ -13001,25 +13162,25 @@
         <v>344</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C351" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I351" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="D351" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G351" s="3" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H351" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I351" s="3" t="s">
-        <v>1583</v>
-      </c>
       <c r="J351" s="21" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="14" customHeight="1">
@@ -13027,25 +13188,25 @@
         <v>345</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I352" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="C352" s="3" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G352" s="3" t="s">
-        <v>1586</v>
-      </c>
-      <c r="H352" s="3" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I352" s="3" t="s">
-        <v>1588</v>
-      </c>
       <c r="J352" s="21" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="14" customHeight="1">
@@ -13053,13 +13214,13 @@
         <v>346</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="14" customHeight="1">
@@ -13067,13 +13228,13 @@
         <v>347</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="14" customHeight="1">
@@ -13081,13 +13242,13 @@
         <v>348</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="M355" s="3" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="14" customHeight="1">
@@ -13095,13 +13256,13 @@
         <v>349</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="M356" s="3" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="14" customHeight="1">
@@ -13109,13 +13270,13 @@
         <v>350</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
       <c r="M357" s="3" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="14" customHeight="1">
@@ -13123,13 +13284,13 @@
         <v>351</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
       <c r="M358" s="3" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="14" customHeight="1">
@@ -13137,13 +13298,13 @@
         <v>352</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
       <c r="M359" s="3" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="14" customHeight="1">
@@ -13151,13 +13312,13 @@
         <v>353</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
       <c r="M360" s="3" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="14" customHeight="1">
@@ -13165,13 +13326,13 @@
         <v>354</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1609</v>
+        <v>1604</v>
       </c>
       <c r="M361" s="3" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="14" customHeight="1">
@@ -13179,13 +13340,13 @@
         <v>355</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="14" customHeight="1">
@@ -13193,16 +13354,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="14" customHeight="1">
@@ -13210,16 +13371,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>1615</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="14" customHeight="1">
@@ -13227,16 +13388,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="14" customHeight="1">
@@ -13244,13 +13405,13 @@
         <v>359</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="14" customHeight="1">
@@ -13258,16 +13419,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="14" customHeight="1">
@@ -13275,16 +13436,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="369" spans="1:12" ht="14" customHeight="1">
@@ -13292,16 +13453,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="370" spans="1:12" ht="14" customHeight="1">
@@ -13309,16 +13470,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="371" spans="1:12" ht="14" customHeight="1">
@@ -13326,16 +13487,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="372" spans="1:12" ht="14" customHeight="1">
@@ -13343,16 +13504,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="373" spans="1:12" ht="14" customHeight="1">
@@ -13360,16 +13521,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="374" spans="1:12" ht="14" customHeight="1">
@@ -13377,16 +13538,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="375" spans="1:12" ht="14" customHeight="1">
@@ -13394,16 +13555,16 @@
         <v>368</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="376" spans="1:12" ht="14" customHeight="1">
@@ -13411,16 +13572,16 @@
         <v>369</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="377" spans="1:12" ht="14" customHeight="1">
@@ -13428,16 +13589,16 @@
         <v>370</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="D377" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L377" s="3" t="s">
         <v>1682</v>
-      </c>
-      <c r="L377" s="3" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="378" spans="1:12" ht="14" customHeight="1">
@@ -13445,16 +13606,16 @@
         <v>371</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L378" s="3" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="379" spans="1:12" ht="14" customHeight="1">
@@ -13462,16 +13623,16 @@
         <v>372</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>1687</v>
-      </c>
       <c r="D379" s="3" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L379" s="3" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="380" spans="1:12" ht="14" customHeight="1">
@@ -13479,16 +13640,99 @@
         <v>373</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L380" s="3" t="s">
-        <v>1692</v>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="14" customHeight="1">
+      <c r="A381" s="3">
+        <v>375</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="14" customHeight="1">
+      <c r="A382" s="3">
+        <v>376</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="14" customHeight="1">
+      <c r="A383" s="3">
+        <v>377</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J383" s="3" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="14" customHeight="1">
+      <c r="A384" s="3">
+        <v>378</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -13506,8 +13750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13535,10 +13779,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1633</v>
+        <v>1712</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1634</v>
+        <v>1717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -13552,7 +13796,7 @@
         <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>1713</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>508</v>
@@ -13566,13 +13810,13 @@
         <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>954</v>
+        <v>1714</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13583,7 +13827,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13594,35 +13838,35 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1600</v>
+        <v>1715</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1695</v>
+        <v>1716</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -13634,15 +13878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="84.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="65.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="9"/>
   </cols>
@@ -13658,95 +13902,95 @@
         <v>63</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>930</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>326</v>
@@ -13754,7 +13998,7 @@
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>295</v>
@@ -13765,76 +14009,76 @@
     </row>
     <row r="11" spans="1:4" ht="14" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>727</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>400</v>
@@ -13845,10 +14089,10 @@
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>421</v>
@@ -13856,10 +14100,10 @@
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>399</v>
@@ -13867,10 +14111,10 @@
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>65</v>
@@ -13878,64 +14122,64 @@
     </row>
     <row r="21" spans="1:4" ht="14" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>201</v>
@@ -13943,101 +14187,101 @@
     </row>
     <row r="28" spans="1:4" ht="14" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>340</v>
@@ -14045,10 +14289,10 @@
     </row>
     <row r="37" spans="1:4" ht="14" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>188</v>
@@ -14056,13 +14300,13 @@
     </row>
     <row r="38" spans="1:4" ht="14" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" customHeight="1">
@@ -14070,21 +14314,21 @@
         <v>458</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>459</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" customHeight="1">
@@ -14092,213 +14336,219 @@
         <v>507</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>591</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>1104</v>
+        <v>1100</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>1693</v>
+        <v>1757</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
     </row>
   </sheetData>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/GitHub/gator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A94C3F0-E5E4-A14E-97BA-36F6BA973A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBAE18-0C31-C942-9C17-B5F92F7C0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -6593,9 +6593,6 @@
     <t xml:space="preserve">glnA is an alternative to gdhA for ammonia assimilation, but requires ATP. It is also involved in the "Ammonia assimilation/Nitrogen Mineralization" potato. </t>
   </si>
   <si>
-    <t>There are two glutamate potatoes. Either glutamate dehydrogenase (gdhA, GDH, gudB, GLUD1_2) or GOGAT (gltBD) is needed, and although these do the same reaction with 2-KG they get the amine group from a different source. gdhA gets uses ammonia and GOGAT gets the amine group from glutamine making two glutamates.</t>
-  </si>
-  <si>
     <t>These genes are often reversible able to strip amine groups off of organic nitrogen to ammonia (the mineralization/ammonification part), and then stick ammonia back onto molecules (the assimilation part). These genes are those in the glutamate (from ammonia)/glutamine synthesis potatoes as well.</t>
   </si>
   <si>
@@ -6743,9 +6740,6 @@
     <t>gdhA | gudB | GLUD1_2 | GDH2 | GLU</t>
   </si>
   <si>
-    <t>There are two glutamate potatoes. Either glutamate dehydrogenase (gdhA, GDH, gudB, GLUD1_2) or GOGAT (gltBD) is needed, and although these do the same reaction with 2-KG they get the amine group from a different source. gdhA gets uses ammonia and GOGAT gets the amine group from glutamine making two glutamates. Glutamate dehydrogenase is also involved in the "Ammonia assimilation/Nitrogen Mineralization" potato. GLU uses ferredoxin and appears limited to plants and cyanobacteria.</t>
-  </si>
-  <si>
     <t>glutamate:Na+ symporter</t>
   </si>
   <si>
@@ -6915,6 +6909,12 @@
   </si>
   <si>
     <t>Amino Acid Transport - aapJQMP - General</t>
+  </si>
+  <si>
+    <t>There are two glutamate potatoes. Either glutamate dehydrogenase (gdhA, GDH, gudB, GLUD1_2) or GOGAT (gltBD) is needed, and although these do the same reaction with 2-KG they get the amine group from a different source. gdhA uses ammonia and GOGAT gets the amine group from glutamine making two glutamates. Glutamate dehydrogenase is also involved in the "Ammonia assimilation/Nitrogen Mineralization" potato. GLU uses ferredoxin and appears limited to plants and cyanobacteria.</t>
+  </si>
+  <si>
+    <t>There are two glutamate potatoes. Either glutamate dehydrogenase (gdhA, GDH, gudB, GLUD1_2) or GOGAT (gltBD) is needed, and although these do the same reaction with 2-KG they get the amine group from a different source. gdhA uses ammonia and GOGAT gets the amine group from glutamine making two glutamates.</t>
   </si>
 </sst>
 </file>
@@ -7513,9 +7513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:O487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H484" sqref="B484:H487"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -17008,10 +17008,10 @@
         <v>326</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H460" s="3" t="s">
         <v>327</v>
@@ -17028,7 +17028,7 @@
         <v>329</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H461" s="3" t="s">
         <v>330</v>
@@ -17045,7 +17045,7 @@
         <v>332</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>333</v>
@@ -17056,10 +17056,10 @@
         <v>2176</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H463" s="3" t="s">
         <v>2177</v>
@@ -17076,7 +17076,7 @@
         <v>146</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>147</v>
@@ -17090,324 +17090,324 @@
     </row>
     <row r="465" spans="2:8" ht="14" customHeight="1">
       <c r="B465" s="3" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>2173</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="466" spans="2:8" ht="14" customHeight="1">
       <c r="B466" s="3" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>2173</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="467" spans="2:8" ht="14" customHeight="1">
       <c r="B467" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C467" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D467" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="D467" s="3" t="s">
+      <c r="H467" s="3" t="s">
         <v>2199</v>
-      </c>
-      <c r="H467" s="3" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="468" spans="2:8" ht="14" customHeight="1">
       <c r="B468" s="3" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C468" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H468" s="3" t="s">
         <v>2208</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="H468" s="3" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="469" spans="2:8" ht="14" customHeight="1">
       <c r="B469" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="C469" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H469" s="3" t="s">
         <v>2210</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="H469" s="3" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="470" spans="2:8" ht="14" customHeight="1">
       <c r="B470" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C470" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H470" s="3" t="s">
         <v>2212</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="H470" s="3" t="s">
-        <v>2213</v>
       </c>
     </row>
     <row r="471" spans="2:8" ht="14" customHeight="1">
       <c r="B471" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="472" spans="2:8" ht="14" customHeight="1">
       <c r="B472" s="3" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="473" spans="2:8" ht="14" customHeight="1">
       <c r="B473" s="3" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="474" spans="2:8" ht="14" customHeight="1">
       <c r="B474" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="475" spans="2:8" ht="14" customHeight="1">
       <c r="B475" s="3" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C475" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H475" s="3" t="s">
         <v>2235</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>2236</v>
-      </c>
-      <c r="H475" s="3" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="476" spans="2:8" ht="14" customHeight="1">
       <c r="B476" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H476" s="3" t="s">
         <v>2243</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>2236</v>
-      </c>
-      <c r="H476" s="3" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="477" spans="2:8" ht="14" customHeight="1">
       <c r="B477" s="3" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="478" spans="2:8" ht="14" customHeight="1">
       <c r="B478" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="479" spans="2:8" ht="14" customHeight="1">
       <c r="B479" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="480" spans="2:8" ht="14" customHeight="1">
       <c r="B480" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="481" spans="2:8" ht="14" customHeight="1">
       <c r="B481" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>2255</v>
+      </c>
+      <c r="H481" s="3" t="s">
         <v>2256</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="D481" s="3" t="s">
-        <v>2257</v>
-      </c>
-      <c r="H481" s="3" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="482" spans="2:8" ht="14" customHeight="1">
       <c r="B482" s="3" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="483" spans="2:8" ht="14" customHeight="1">
       <c r="B483" s="3" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="484" spans="2:8" ht="14" customHeight="1">
       <c r="B484" s="3" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="485" spans="2:8" ht="14" customHeight="1">
       <c r="B485" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D485" s="3" t="s">
         <v>2277</v>
       </c>
-      <c r="C485" s="3" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D485" s="3" t="s">
+      <c r="H485" s="3" t="s">
         <v>2279</v>
-      </c>
-      <c r="H485" s="3" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="486" spans="2:8" ht="14" customHeight="1">
       <c r="B486" s="3" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="487" spans="2:8" ht="14" customHeight="1">
       <c r="B487" s="3" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
   </sheetData>
@@ -17425,8 +17425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -18277,13 +18277,13 @@
         <v>2178</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>2180</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>2234</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="84">
@@ -18291,13 +18291,13 @@
         <v>2179</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>2187</v>
-      </c>
       <c r="D76" s="14" t="s">
-        <v>2184</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="42">
@@ -18421,105 +18421,105 @@
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28">
       <c r="A92" s="14" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>2201</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>2202</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>2203</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28">
       <c r="A93" s="14" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>2229</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="D93" s="14" t="s">
         <v>2230</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>2231</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14">
       <c r="A94" s="14" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D94" s="14" t="s">
         <v>2238</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>2197</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14">
       <c r="A95" s="14" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>2241</v>
       </c>
-      <c r="B95" s="14" t="s">
-        <v>2243</v>
-      </c>
       <c r="C95" s="14" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28">
       <c r="A96" s="14" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="28">
       <c r="A97" s="14" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>2267</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="D97" s="14" t="s">
         <v>2268</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28">
       <c r="A98" s="14" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B98" s="14" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>2288</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F05A2A-923B-3540-B70B-BBEDD0AE75DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B998FE4-D100-9947-8E03-743F8BC9E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="46400" windowHeight="28220" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -5957,12 +5957,6 @@
     <t>catechol -&gt; cis,cis-muconate -&gt; muconolactone -&gt; 4-ketoadipate enol-lactone -&gt; 3-oxoadipate -&gt; 3-oxoadipyl-coa -&gt; acetyl-coa + succinate</t>
   </si>
   <si>
-    <t>kofam103</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/103/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspartate is an "entry point" amino acid for asparagine, threonine, methionine and lysine. </t>
   </si>
   <si>
@@ -7076,21 +7070,6 @@
     <t xml:space="preserve">A pathway to remove excess nitrogen/ammonia by converting it to urea. Also called the ornithine or urea/ornithine cycle, because ornithine is both consumed and created in the process. </t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/gator.faa</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/pfams.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/TXSS.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/phospho.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/mlr.hmm</t>
-  </si>
-  <si>
     <t>ureI</t>
   </si>
   <si>
@@ -7386,6 +7365,27 @@
   </si>
   <si>
     <t>gnaD -&gt; kdgK -&gt; eda -&gt; gapA + pgk | gapN_NADP | gapN_NAD</t>
+  </si>
+  <si>
+    <t>kofam106</t>
+  </si>
+  <si>
+    <t>/gator_vol/kofam106/</t>
+  </si>
+  <si>
+    <t>/gator_vol/gator/pfams.hmm</t>
+  </si>
+  <si>
+    <t>/gator_vol/gator/TXSS.hmm</t>
+  </si>
+  <si>
+    <t>/gator_vol/gator/phospho.hmm</t>
+  </si>
+  <si>
+    <t>/gator_vol/gator/mlr.hmm</t>
+  </si>
+  <si>
+    <t>/app/gator.faa</t>
   </si>
 </sst>
 </file>
@@ -7844,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7873,10 +7873,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1972</v>
+        <v>2442</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1973</v>
+        <v>2443</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -7890,7 +7890,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2345</v>
+        <v>2448</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>484</v>
@@ -7904,7 +7904,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2346</v>
+        <v>2444</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>915</v>
@@ -7940,7 +7940,7 @@
         <v>1555</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2347</v>
+        <v>2445</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>915</v>
@@ -7954,7 +7954,7 @@
         <v>1659</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2348</v>
+        <v>2446</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>915</v>
@@ -7968,7 +7968,7 @@
         <v>1706</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2349</v>
+        <v>2447</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>915</v>
@@ -7979,6 +7979,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7987,8 +7988,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B532" sqref="B532"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -8030,7 +8031,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>1972</v>
+        <v>2442</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>14</v>
@@ -11859,7 +11860,7 @@
         <v>753</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>2424</v>
+        <v>2417</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>747</v>
@@ -15094,7 +15095,7 @@
         <v>1579</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="H346" s="16" t="s">
         <v>1580</v>
@@ -15108,7 +15109,7 @@
         <v>1578</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="H347" s="16" t="s">
         <v>1581</v>
@@ -15997,7 +15998,7 @@
         <v>1835</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H391" s="16" t="s">
         <v>1818</v>
@@ -16014,13 +16015,13 @@
         <v>384</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C392" s="16" t="s">
         <v>1837</v>
       </c>
       <c r="D392" s="16" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E392" s="16" t="s">
         <v>1850</v>
@@ -16046,7 +16047,7 @@
         <v>1839</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H393" s="16" t="s">
         <v>1820</v>
@@ -16373,22 +16374,22 @@
         <v>400</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D408" s="16" t="s">
         <v>1917</v>
       </c>
       <c r="G408" s="16" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="H408" s="16" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I408" s="16" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="409" spans="1:12" ht="14" customHeight="1">
@@ -16691,19 +16692,19 @@
         <v>415</v>
       </c>
       <c r="B423" s="16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D423" s="16" t="s">
         <v>1979</v>
       </c>
-      <c r="C423" s="16" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D423" s="16" t="s">
-        <v>1981</v>
-      </c>
       <c r="H423" s="16" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I423" s="16" t="s">
         <v>1980</v>
-      </c>
-      <c r="I423" s="16" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="424" spans="1:12" ht="14" customHeight="1">
@@ -16711,19 +16712,19 @@
         <v>416</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="H424" s="16" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I424" s="16" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="425" spans="1:12" ht="14" customHeight="1">
@@ -16731,19 +16732,19 @@
         <v>417</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D425" s="16" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="H425" s="16" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="I425" s="16" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="426" spans="1:12" ht="14" customHeight="1">
@@ -16751,19 +16752,19 @@
         <v>418</v>
       </c>
       <c r="B426" s="16" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D426" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H426" s="16" t="s">
         <v>1991</v>
       </c>
-      <c r="C426" s="16" t="s">
+      <c r="I426" s="16" t="s">
         <v>1992</v>
-      </c>
-      <c r="D426" s="16" t="s">
-        <v>1981</v>
-      </c>
-      <c r="H426" s="16" t="s">
-        <v>1993</v>
-      </c>
-      <c r="I426" s="16" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="427" spans="1:12" ht="14" customHeight="1">
@@ -16771,19 +16772,19 @@
         <v>419</v>
       </c>
       <c r="B427" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D427" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="H427" s="16" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I427" s="16" t="s">
         <v>1996</v>
-      </c>
-      <c r="C427" s="16" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D427" s="16" t="s">
-        <v>1981</v>
-      </c>
-      <c r="H427" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="I427" s="16" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="428" spans="1:12" ht="14" customHeight="1">
@@ -16791,19 +16792,19 @@
         <v>420</v>
       </c>
       <c r="B428" s="16" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D428" s="16" t="s">
         <v>2000</v>
       </c>
-      <c r="C428" s="16" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D428" s="16" t="s">
+      <c r="H428" s="16" t="s">
         <v>2002</v>
       </c>
-      <c r="H428" s="16" t="s">
-        <v>2004</v>
-      </c>
       <c r="I428" s="16" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="429" spans="1:12" ht="14" customHeight="1">
@@ -16811,19 +16812,19 @@
         <v>421</v>
       </c>
       <c r="B429" s="16" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C429" s="16" t="s">
         <v>2006</v>
       </c>
-      <c r="C429" s="16" t="s">
+      <c r="D429" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H429" s="16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I429" s="16" t="s">
         <v>2008</v>
-      </c>
-      <c r="D429" s="16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H429" s="16" t="s">
-        <v>2009</v>
-      </c>
-      <c r="I429" s="16" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="430" spans="1:12" ht="14" customHeight="1">
@@ -16831,19 +16832,19 @@
         <v>422</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D430" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H430" s="16" t="s">
+        <v>2010</v>
+      </c>
+      <c r="I430" s="16" t="s">
         <v>2011</v>
-      </c>
-      <c r="D430" s="16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H430" s="16" t="s">
-        <v>2012</v>
-      </c>
-      <c r="I430" s="16" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="431" spans="1:12" ht="14" customHeight="1">
@@ -16851,19 +16852,19 @@
         <v>423</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H431" s="16" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I431" s="16" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="432" spans="1:12" ht="14" customHeight="1">
@@ -16871,19 +16872,19 @@
         <v>424</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H432" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I432" s="16" t="s">
         <v>2016</v>
-      </c>
-      <c r="I432" s="16" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="14" customHeight="1">
@@ -16891,19 +16892,19 @@
         <v>425</v>
       </c>
       <c r="B433" s="16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C433" s="16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D433" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H433" s="16" t="s">
         <v>2022</v>
       </c>
-      <c r="C433" s="16" t="s">
+      <c r="I433" s="16" t="s">
         <v>2023</v>
-      </c>
-      <c r="D433" s="16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H433" s="16" t="s">
-        <v>2024</v>
-      </c>
-      <c r="I433" s="16" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="14" customHeight="1">
@@ -16911,19 +16912,19 @@
         <v>426</v>
       </c>
       <c r="B434" s="16" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D434" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H434" s="16" t="s">
         <v>2026</v>
       </c>
-      <c r="C434" s="16" t="s">
+      <c r="I434" s="16" t="s">
         <v>2027</v>
-      </c>
-      <c r="D434" s="16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H434" s="16" t="s">
-        <v>2028</v>
-      </c>
-      <c r="I434" s="16" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="14" customHeight="1">
@@ -16931,19 +16932,19 @@
         <v>427</v>
       </c>
       <c r="B435" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C435" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D435" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H435" s="16" t="s">
         <v>2030</v>
       </c>
-      <c r="C435" s="16" t="s">
+      <c r="I435" s="16" t="s">
         <v>2031</v>
-      </c>
-      <c r="D435" s="16" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H435" s="16" t="s">
-        <v>2032</v>
-      </c>
-      <c r="I435" s="16" t="s">
-        <v>2033</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="14" customHeight="1">
@@ -16951,19 +16952,19 @@
         <v>428</v>
       </c>
       <c r="B436" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C436" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D436" s="16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H436" s="16" t="s">
         <v>2038</v>
       </c>
-      <c r="C436" s="16" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D436" s="16" t="s">
-        <v>2041</v>
-      </c>
-      <c r="H436" s="16" t="s">
+      <c r="I436" s="16" t="s">
         <v>2040</v>
-      </c>
-      <c r="I436" s="16" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="14" customHeight="1">
@@ -16971,16 +16972,16 @@
         <v>429</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="H437" s="16" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="14" customHeight="1">
@@ -16988,19 +16989,19 @@
         <v>430</v>
       </c>
       <c r="B438" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C438" s="16" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D438" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="H438" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="I438" s="16" t="s">
         <v>2047</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D438" s="16" t="s">
-        <v>2037</v>
-      </c>
-      <c r="H438" s="16" t="s">
-        <v>2048</v>
-      </c>
-      <c r="I438" s="16" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="14" customHeight="1">
@@ -17008,19 +17009,19 @@
         <v>431</v>
       </c>
       <c r="B439" s="16" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C439" s="16" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D439" s="16" t="s">
         <v>2053</v>
       </c>
-      <c r="C439" s="16" t="s">
+      <c r="H439" s="16" t="s">
         <v>2054</v>
       </c>
-      <c r="D439" s="16" t="s">
+      <c r="I439" s="16" t="s">
         <v>2055</v>
-      </c>
-      <c r="H439" s="16" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I439" s="16" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="14" customHeight="1">
@@ -17028,19 +17029,19 @@
         <v>432</v>
       </c>
       <c r="B440" s="16" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C440" s="16" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D440" s="16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H440" s="16" t="s">
         <v>2058</v>
       </c>
-      <c r="C440" s="16" t="s">
+      <c r="I440" s="16" t="s">
         <v>2059</v>
-      </c>
-      <c r="D440" s="16" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H440" s="16" t="s">
-        <v>2060</v>
-      </c>
-      <c r="I440" s="16" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="14" customHeight="1">
@@ -17048,19 +17049,19 @@
         <v>433</v>
       </c>
       <c r="B441" s="16" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C441" s="16" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D441" s="16" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H441" s="16" t="s">
         <v>2062</v>
       </c>
-      <c r="C441" s="16" t="s">
+      <c r="I441" s="16" t="s">
         <v>2063</v>
-      </c>
-      <c r="D441" s="16" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H441" s="16" t="s">
-        <v>2064</v>
-      </c>
-      <c r="I441" s="16" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="14" customHeight="1">
@@ -17068,19 +17069,19 @@
         <v>434</v>
       </c>
       <c r="B442" s="16" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C442" s="16" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D442" s="16" t="s">
         <v>2071</v>
       </c>
-      <c r="C442" s="16" t="s">
+      <c r="H442" s="16" t="s">
         <v>2072</v>
       </c>
-      <c r="D442" s="16" t="s">
+      <c r="I442" s="16" t="s">
         <v>2073</v>
-      </c>
-      <c r="H442" s="16" t="s">
-        <v>2074</v>
-      </c>
-      <c r="I442" s="16" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="14" customHeight="1">
@@ -17088,19 +17089,19 @@
         <v>435</v>
       </c>
       <c r="B443" s="16" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C443" s="16" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D443" s="16" t="s">
         <v>2078</v>
       </c>
-      <c r="C443" s="16" t="s">
+      <c r="H443" s="16" t="s">
         <v>2079</v>
       </c>
-      <c r="D443" s="16" t="s">
+      <c r="I443" s="16" t="s">
         <v>2080</v>
-      </c>
-      <c r="H443" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="I443" s="16" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="14" customHeight="1">
@@ -17108,19 +17109,19 @@
         <v>436</v>
       </c>
       <c r="B444" s="16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D444" s="16" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H444" s="16" t="s">
         <v>2083</v>
       </c>
-      <c r="C444" s="16" t="s">
+      <c r="I444" s="16" t="s">
         <v>2084</v>
-      </c>
-      <c r="D444" s="16" t="s">
-        <v>2080</v>
-      </c>
-      <c r="H444" s="16" t="s">
-        <v>2085</v>
-      </c>
-      <c r="I444" s="16" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="14" customHeight="1">
@@ -17128,19 +17129,19 @@
         <v>437</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="C445" s="16" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D445" s="16" t="s">
+        <v>2114</v>
+      </c>
+      <c r="H445" s="16" t="s">
         <v>2098</v>
       </c>
-      <c r="D445" s="16" t="s">
-        <v>2116</v>
-      </c>
-      <c r="H445" s="16" t="s">
-        <v>2100</v>
-      </c>
       <c r="I445" s="16" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="14" customHeight="1">
@@ -17148,19 +17149,19 @@
         <v>438</v>
       </c>
       <c r="B446" s="16" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C446" s="16" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D446" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H446" s="16" t="s">
         <v>2102</v>
       </c>
-      <c r="C446" s="16" t="s">
+      <c r="I446" s="16" t="s">
         <v>2103</v>
-      </c>
-      <c r="D446" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H446" s="16" t="s">
-        <v>2104</v>
-      </c>
-      <c r="I446" s="16" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="14" customHeight="1">
@@ -17168,19 +17169,19 @@
         <v>439</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C447" s="16" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D447" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H447" s="16" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I447" s="16" t="s">
         <v>2113</v>
-      </c>
-      <c r="D447" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H447" s="16" t="s">
-        <v>2114</v>
-      </c>
-      <c r="I447" s="16" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="14" customHeight="1">
@@ -17188,19 +17189,19 @@
         <v>440</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="C448" s="16" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D448" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="H448" s="16" t="s">
         <v>2117</v>
       </c>
-      <c r="D448" s="16" t="s">
+      <c r="I448" s="16" t="s">
         <v>2118</v>
-      </c>
-      <c r="H448" s="16" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I448" s="16" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="449" spans="1:10" ht="14" customHeight="1">
@@ -17208,19 +17209,19 @@
         <v>441</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C449" s="16" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D449" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H449" s="16" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I449" s="16" t="s">
         <v>2121</v>
-      </c>
-      <c r="D449" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H449" s="16" t="s">
-        <v>2122</v>
-      </c>
-      <c r="I449" s="16" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="14" customHeight="1">
@@ -17228,19 +17229,19 @@
         <v>442</v>
       </c>
       <c r="B450" s="16" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C450" s="16" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D450" s="16" t="s">
         <v>2097</v>
       </c>
-      <c r="C450" s="16" t="s">
+      <c r="H450" s="16" t="s">
         <v>2124</v>
       </c>
-      <c r="D450" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H450" s="16" t="s">
-        <v>2126</v>
-      </c>
       <c r="I450" s="16" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="14" customHeight="1">
@@ -17248,19 +17249,19 @@
         <v>443</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="C451" s="16" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D451" s="16" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H451" s="16" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I451" s="16" t="s">
         <v>2127</v>
-      </c>
-      <c r="D451" s="16" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H451" s="16" t="s">
-        <v>2128</v>
-      </c>
-      <c r="I451" s="16" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="452" spans="1:10" ht="14" customHeight="1">
@@ -17268,16 +17269,16 @@
         <v>444</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="D452" s="16" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="H452" s="16" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="14" customHeight="1">
@@ -17285,16 +17286,16 @@
         <v>445</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="H453" s="16" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="454" spans="1:10" ht="14" customHeight="1">
@@ -17302,16 +17303,16 @@
         <v>446</v>
       </c>
       <c r="B454" s="16" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C454" s="16" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D454" s="16" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H454" s="16" t="s">
         <v>2138</v>
-      </c>
-      <c r="C454" s="16" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D454" s="16" t="s">
-        <v>2137</v>
-      </c>
-      <c r="H454" s="16" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="455" spans="1:10" ht="14" customHeight="1">
@@ -17322,10 +17323,10 @@
         <v>310</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D455" s="16" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H455" s="16" t="s">
         <v>311</v>
@@ -17342,7 +17343,7 @@
         <v>313</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H456" s="16" t="s">
         <v>314</v>
@@ -17359,7 +17360,7 @@
         <v>316</v>
       </c>
       <c r="D457" s="16" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H457" s="16" t="s">
         <v>317</v>
@@ -17370,16 +17371,16 @@
         <v>450</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D458" s="16" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H458" s="16" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="459" spans="1:10" ht="14" customHeight="1">
@@ -17393,7 +17394,7 @@
         <v>130</v>
       </c>
       <c r="D459" s="16" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="H459" s="16" t="s">
         <v>131</v>
@@ -17410,16 +17411,16 @@
         <v>452</v>
       </c>
       <c r="B460" s="16" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C460" s="16" t="s">
         <v>2160</v>
       </c>
-      <c r="C460" s="16" t="s">
-        <v>2162</v>
-      </c>
       <c r="D460" s="16" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="H460" s="16" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="14" customHeight="1">
@@ -17427,16 +17428,16 @@
         <v>453</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D461" s="16" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="H461" s="16" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="14" customHeight="1">
@@ -17444,16 +17445,16 @@
         <v>454</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="C462" s="16" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D462" s="16" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H462" s="16" t="s">
         <v>2170</v>
-      </c>
-      <c r="D462" s="16" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H462" s="16" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="463" spans="1:10" ht="14" customHeight="1">
@@ -17461,16 +17462,16 @@
         <v>455</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D463" s="16" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="H463" s="16" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="14" customHeight="1">
@@ -17478,16 +17479,16 @@
         <v>456</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D464" s="16" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="H464" s="16" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="14" customHeight="1">
@@ -17495,16 +17496,16 @@
         <v>457</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C465" s="16" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D465" s="16" t="s">
         <v>2184</v>
       </c>
-      <c r="D465" s="16" t="s">
-        <v>2186</v>
-      </c>
       <c r="H465" s="16" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="14" customHeight="1">
@@ -17512,16 +17513,16 @@
         <v>458</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D466" s="16" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="H466" s="16" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="14" customHeight="1">
@@ -17529,16 +17530,16 @@
         <v>459</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="C467" s="16" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D467" s="16" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="H467" s="16" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="14" customHeight="1">
@@ -17546,16 +17547,16 @@
         <v>460</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D468" s="16" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="H468" s="16" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="14" customHeight="1">
@@ -17563,16 +17564,16 @@
         <v>461</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="C469" s="16" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D469" s="16" t="s">
         <v>2198</v>
       </c>
-      <c r="D469" s="16" t="s">
-        <v>2200</v>
-      </c>
       <c r="H469" s="16" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="14" customHeight="1">
@@ -17580,16 +17581,16 @@
         <v>462</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C470" s="16" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D470" s="16" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H470" s="16" t="s">
         <v>2206</v>
-      </c>
-      <c r="D470" s="16" t="s">
-        <v>2207</v>
-      </c>
-      <c r="H470" s="16" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="14" customHeight="1">
@@ -17597,16 +17598,16 @@
         <v>463</v>
       </c>
       <c r="B471" s="16" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C471" s="16" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D471" s="16" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H471" s="16" t="s">
         <v>2214</v>
-      </c>
-      <c r="C471" s="16" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D471" s="16" t="s">
-        <v>2207</v>
-      </c>
-      <c r="H471" s="16" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="14" customHeight="1">
@@ -17614,16 +17615,16 @@
         <v>464</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D472" s="16" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="H472" s="16" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="14" customHeight="1">
@@ -17631,16 +17632,16 @@
         <v>465</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="C473" s="16" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D473" s="16" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="H473" s="16" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="474" spans="1:8" ht="14" customHeight="1">
@@ -17648,16 +17649,16 @@
         <v>466</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D474" s="16" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="H474" s="16" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="14" customHeight="1">
@@ -17665,16 +17666,16 @@
         <v>467</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="C475" s="16" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D475" s="16" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="H475" s="16" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="14" customHeight="1">
@@ -17682,16 +17683,16 @@
         <v>468</v>
       </c>
       <c r="B476" s="16" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D476" s="16" t="s">
+        <v>2226</v>
+      </c>
+      <c r="H476" s="16" t="s">
         <v>2227</v>
-      </c>
-      <c r="C476" s="16" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D476" s="16" t="s">
-        <v>2228</v>
-      </c>
-      <c r="H476" s="16" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="477" spans="1:8" ht="14" customHeight="1">
@@ -17699,16 +17700,16 @@
         <v>469</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C477" s="16" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D477" s="16" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="H477" s="16" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="478" spans="1:8" ht="14" customHeight="1">
@@ -17716,16 +17717,16 @@
         <v>470</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C478" s="16" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="D478" s="16" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="H478" s="16" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="14" customHeight="1">
@@ -17733,16 +17734,16 @@
         <v>471</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D479" s="16" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="H479" s="16" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="14" customHeight="1">
@@ -17750,16 +17751,16 @@
         <v>472</v>
       </c>
       <c r="B480" s="16" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D480" s="16" t="s">
         <v>2248</v>
       </c>
-      <c r="C480" s="16" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D480" s="16" t="s">
+      <c r="H480" s="16" t="s">
         <v>2250</v>
-      </c>
-      <c r="H480" s="16" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="481" spans="1:8" ht="14" customHeight="1">
@@ -17767,16 +17768,16 @@
         <v>473</v>
       </c>
       <c r="B481" s="16" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D481" s="16" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="H481" s="16" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="482" spans="1:8" ht="14" customHeight="1">
@@ -17784,16 +17785,16 @@
         <v>474</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D482" s="16" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="H482" s="16" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="483" spans="1:8" ht="14" customHeight="1">
@@ -17801,16 +17802,16 @@
         <v>475</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D483" s="16" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="H483" s="16" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="484" spans="1:8" ht="14" customHeight="1">
@@ -17818,16 +17819,16 @@
         <v>476</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C484" s="16" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D484" s="16" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H484" s="16" t="s">
         <v>2270</v>
-      </c>
-      <c r="D484" s="16" t="s">
-        <v>2269</v>
-      </c>
-      <c r="H484" s="16" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="485" spans="1:8" ht="14" customHeight="1">
@@ -17835,16 +17836,16 @@
         <v>477</v>
       </c>
       <c r="B485" s="16" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C485" s="16" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D485" s="16" t="s">
         <v>2267</v>
       </c>
-      <c r="C485" s="16" t="s">
-        <v>2271</v>
-      </c>
-      <c r="D485" s="16" t="s">
-        <v>2269</v>
-      </c>
       <c r="H485" s="16" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="486" spans="1:8" ht="14" customHeight="1">
@@ -17852,16 +17853,16 @@
         <v>478</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="H486" s="16" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="14" customHeight="1">
@@ -17869,16 +17870,16 @@
         <v>479</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D487" s="16" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H487" s="16" t="s">
         <v>2283</v>
-      </c>
-      <c r="H487" s="16" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="488" spans="1:8" ht="14" customHeight="1">
@@ -17886,16 +17887,16 @@
         <v>480</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D488" s="16" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="H488" s="16" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="489" spans="1:8" ht="14" customHeight="1">
@@ -17903,16 +17904,16 @@
         <v>481</v>
       </c>
       <c r="B489" s="16" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C489" s="16" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D489" s="16" t="s">
         <v>2281</v>
       </c>
-      <c r="C489" s="16" t="s">
-        <v>2292</v>
-      </c>
-      <c r="D489" s="16" t="s">
-        <v>2283</v>
-      </c>
       <c r="H489" s="16" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="490" spans="1:8" ht="14" customHeight="1">
@@ -17920,16 +17921,16 @@
         <v>482</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D490" s="16" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="H490" s="16" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="491" spans="1:8" ht="14" customHeight="1">
@@ -17937,16 +17938,16 @@
         <v>483</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D491" s="16" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H491" s="16" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="492" spans="1:8" ht="14" customHeight="1">
@@ -17954,16 +17955,16 @@
         <v>484</v>
       </c>
       <c r="B492" s="16" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="D492" s="16" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H492" s="16" t="s">
         <v>2308</v>
-      </c>
-      <c r="H492" s="16" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="493" spans="1:8" ht="14" customHeight="1">
@@ -17971,16 +17972,16 @@
         <v>485</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H493" s="16" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="494" spans="1:8" ht="14" customHeight="1">
@@ -17988,16 +17989,16 @@
         <v>486</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="C494" s="17" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H494" s="16" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="495" spans="1:8" ht="14" customHeight="1">
@@ -18005,16 +18006,16 @@
         <v>487</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H495" s="16" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="496" spans="1:8" ht="14" customHeight="1">
@@ -18022,16 +18023,16 @@
         <v>488</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="C496" s="17" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D496" s="16" t="s">
         <v>2306</v>
       </c>
-      <c r="D496" s="16" t="s">
-        <v>2308</v>
-      </c>
       <c r="H496" s="16" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="497" spans="1:8" ht="14" customHeight="1">
@@ -18039,16 +18040,16 @@
         <v>489</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C497" s="17" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D497" s="16" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="H497" s="16" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="14" customHeight="1">
@@ -18056,16 +18057,16 @@
         <v>490</v>
       </c>
       <c r="B498" s="16" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C498" s="16" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D498" s="16" t="s">
+        <v>2306</v>
+      </c>
+      <c r="H498" s="16" t="s">
         <v>2316</v>
-      </c>
-      <c r="C498" s="16" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D498" s="16" t="s">
-        <v>2308</v>
-      </c>
-      <c r="H498" s="16" t="s">
-        <v>2318</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="14" customHeight="1">
@@ -18073,16 +18074,16 @@
         <v>491</v>
       </c>
       <c r="B499" s="16" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C499" s="16" t="s">
         <v>2326</v>
       </c>
-      <c r="C499" s="16" t="s">
-        <v>2328</v>
-      </c>
       <c r="D499" s="16" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="H499" s="16" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="14" customHeight="1">
@@ -18090,16 +18091,16 @@
         <v>492</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="H500" s="16" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="14" customHeight="1">
@@ -18107,16 +18108,16 @@
         <v>493</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="D501" s="16" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="H501" s="16" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="14" customHeight="1">
@@ -18124,16 +18125,16 @@
         <v>494</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="C502" s="16" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="D502" s="16" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="H502" s="16" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="14" customHeight="1">
@@ -18141,16 +18142,16 @@
         <v>495</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C503" s="16" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D503" s="16" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="H503" s="16" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="14" customHeight="1">
@@ -18158,16 +18159,16 @@
         <v>496</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>2350</v>
+        <v>2343</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>2353</v>
+        <v>2346</v>
       </c>
       <c r="D504" s="16" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
       <c r="H504" s="16" t="s">
-        <v>2351</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="14" customHeight="1">
@@ -18175,16 +18176,16 @@
         <v>497</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>2354</v>
+        <v>2347</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
       <c r="D505" s="16" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
       <c r="H505" s="16" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="14" customHeight="1">
@@ -18192,16 +18193,16 @@
         <v>498</v>
       </c>
       <c r="B506" s="16" t="s">
-        <v>2359</v>
+        <v>2352</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H506" s="16" t="s">
-        <v>2368</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="14" customHeight="1">
@@ -18209,16 +18210,16 @@
         <v>499</v>
       </c>
       <c r="B507" s="16" t="s">
-        <v>2360</v>
+        <v>2353</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
       <c r="D507" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H507" s="16" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="14" customHeight="1">
@@ -18226,16 +18227,16 @@
         <v>500</v>
       </c>
       <c r="B508" s="16" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
       <c r="D508" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H508" s="16" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="14" customHeight="1">
@@ -18243,16 +18244,16 @@
         <v>501</v>
       </c>
       <c r="B509" s="16" t="s">
-        <v>2369</v>
+        <v>2362</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H509" s="16" t="s">
-        <v>2370</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="14" customHeight="1">
@@ -18260,16 +18261,16 @@
         <v>502</v>
       </c>
       <c r="B510" s="16" t="s">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
       <c r="D510" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H510" s="16" t="s">
-        <v>2373</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="14" customHeight="1">
@@ -18277,16 +18278,16 @@
         <v>503</v>
       </c>
       <c r="B511" s="16" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
       <c r="D511" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H511" s="16" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="14" customHeight="1">
@@ -18294,16 +18295,16 @@
         <v>504</v>
       </c>
       <c r="B512" s="16" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="D512" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H512" s="16" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="14" customHeight="1">
@@ -18311,16 +18312,16 @@
         <v>505</v>
       </c>
       <c r="B513" s="16" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="D513" s="16" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="H513" s="16" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="14" customHeight="1">
@@ -18328,19 +18329,19 @@
         <v>506</v>
       </c>
       <c r="B514" s="16" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>2391</v>
+        <v>2384</v>
       </c>
       <c r="D514" s="16" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="H514" s="16" t="s">
-        <v>2392</v>
+        <v>2385</v>
       </c>
       <c r="I514" s="16" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="14" customHeight="1">
@@ -18348,19 +18349,19 @@
         <v>507</v>
       </c>
       <c r="B515" s="16" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C515" s="16" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D515" s="16" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H515" s="16" t="s">
         <v>2388</v>
       </c>
-      <c r="C515" s="16" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D515" s="16" t="s">
+      <c r="I515" s="16" t="s">
         <v>2387</v>
-      </c>
-      <c r="H515" s="16" t="s">
-        <v>2395</v>
-      </c>
-      <c r="I515" s="16" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="14" customHeight="1">
@@ -18368,19 +18369,19 @@
         <v>508</v>
       </c>
       <c r="B516" s="16" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>2400</v>
+        <v>2393</v>
       </c>
       <c r="D516" s="16" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="H516" s="16" t="s">
-        <v>2399</v>
+        <v>2392</v>
       </c>
       <c r="I516" s="16" t="s">
-        <v>2398</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="14" customHeight="1">
@@ -18388,19 +18389,19 @@
         <v>509</v>
       </c>
       <c r="B517" s="16" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="C517" s="16" t="s">
-        <v>2405</v>
+        <v>2398</v>
       </c>
       <c r="D517" s="16" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H517" s="16" t="s">
         <v>2403</v>
       </c>
-      <c r="H517" s="16" t="s">
-        <v>2410</v>
-      </c>
       <c r="I517" s="16" t="s">
-        <v>2411</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="518" spans="1:10" ht="14" customHeight="1">
@@ -18408,19 +18409,19 @@
         <v>510</v>
       </c>
       <c r="B518" s="16" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C518" s="16" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D518" s="16" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H518" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I518" s="16" t="s">
         <v>2406</v>
-      </c>
-      <c r="C518" s="16" t="s">
-        <v>2409</v>
-      </c>
-      <c r="D518" s="16" t="s">
-        <v>2403</v>
-      </c>
-      <c r="H518" s="16" t="s">
-        <v>2412</v>
-      </c>
-      <c r="I518" s="16" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="14" customHeight="1">
@@ -18428,19 +18429,19 @@
         <v>511</v>
       </c>
       <c r="B519" s="16" t="s">
-        <v>2404</v>
+        <v>2397</v>
       </c>
       <c r="C519" s="16" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D519" s="16" t="s">
+        <v>2396</v>
+      </c>
+      <c r="H519" s="16" t="s">
         <v>2408</v>
       </c>
-      <c r="D519" s="16" t="s">
-        <v>2403</v>
-      </c>
-      <c r="H519" s="16" t="s">
-        <v>2415</v>
-      </c>
       <c r="I519" s="16" t="s">
-        <v>2414</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="14" customHeight="1">
@@ -18448,19 +18449,19 @@
         <v>512</v>
       </c>
       <c r="B522" s="16" t="s">
-        <v>2421</v>
+        <v>2414</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H522" s="16" t="s">
-        <v>2425</v>
+        <v>2418</v>
       </c>
       <c r="I522" s="16" t="s">
-        <v>2426</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="14" customHeight="1">
@@ -18471,16 +18472,16 @@
         <v>66</v>
       </c>
       <c r="C523" s="16" t="s">
-        <v>2419</v>
+        <v>2412</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H523" s="16" t="s">
-        <v>2418</v>
+        <v>2411</v>
       </c>
       <c r="I523" s="16" t="s">
-        <v>2420</v>
+        <v>2413</v>
       </c>
       <c r="J523" s="16" t="s">
         <v>1351</v>
@@ -18491,19 +18492,19 @@
         <v>514</v>
       </c>
       <c r="B524" s="16" t="s">
-        <v>2429</v>
+        <v>2422</v>
       </c>
       <c r="C524" s="16" t="s">
-        <v>2427</v>
+        <v>2420</v>
       </c>
       <c r="D524" s="16" t="s">
+        <v>2416</v>
+      </c>
+      <c r="H524" s="16" t="s">
         <v>2423</v>
       </c>
-      <c r="H524" s="16" t="s">
-        <v>2430</v>
-      </c>
       <c r="I524" s="16" t="s">
-        <v>2428</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="14" customHeight="1">
@@ -18517,7 +18518,7 @@
         <v>841</v>
       </c>
       <c r="D525" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H525" s="16" t="s">
         <v>842</v>
@@ -18534,10 +18535,10 @@
         <v>832</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2431</v>
+        <v>2424</v>
       </c>
       <c r="D526" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H526" s="16" t="s">
         <v>844</v>
@@ -18551,19 +18552,19 @@
         <v>517</v>
       </c>
       <c r="B527" s="16" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>2433</v>
+        <v>2426</v>
       </c>
       <c r="D527" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H527" s="16" t="s">
-        <v>2435</v>
+        <v>2428</v>
       </c>
       <c r="I527" s="16" t="s">
-        <v>2434</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="14" customHeight="1">
@@ -18571,19 +18572,19 @@
         <v>518</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>2436</v>
+        <v>2429</v>
       </c>
       <c r="C528" s="16" t="s">
-        <v>2438</v>
+        <v>2431</v>
       </c>
       <c r="D528" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H528" s="16" t="s">
-        <v>2437</v>
+        <v>2430</v>
       </c>
       <c r="I528" s="16" t="s">
-        <v>2439</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="14" customHeight="1">
@@ -18591,19 +18592,19 @@
         <v>519</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>2440</v>
+        <v>2433</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>2443</v>
+        <v>2436</v>
       </c>
       <c r="D529" s="16" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="H529" s="16" t="s">
-        <v>2441</v>
+        <v>2434</v>
       </c>
       <c r="I529" s="16" t="s">
-        <v>2442</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="14" customHeight="1">
@@ -18628,7 +18629,7 @@
         <v>521</v>
       </c>
       <c r="B532" s="16" t="s">
-        <v>2445</v>
+        <v>2438</v>
       </c>
       <c r="C532" s="16" t="s">
         <v>849</v>
@@ -18655,7 +18656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -18731,7 +18732,7 @@
         <v>1141</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2448</v>
+        <v>2441</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>852</v>
@@ -18992,7 +18993,7 @@
         <v>1217</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28">
@@ -19052,7 +19053,7 @@
     </row>
     <row r="38" spans="1:4" ht="56">
       <c r="A38" s="11" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>911</v>
@@ -19263,15 +19264,15 @@
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14">
       <c r="A57" s="8" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -19373,7 +19374,7 @@
         <v>1802</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28">
@@ -19387,7 +19388,7 @@
         <v>1815</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="42">
@@ -19395,41 +19396,41 @@
         <v>1817</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>1878</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="70">
       <c r="A68" s="8" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>2034</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="42">
       <c r="A69" s="8" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="42">
@@ -19448,125 +19449,125 @@
     </row>
     <row r="71" spans="1:4" ht="42">
       <c r="A71" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>2067</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>2068</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="42">
       <c r="A72" s="8" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="42">
       <c r="A73" s="8" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="112">
       <c r="A74" s="8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>2205</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>2153</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="84">
       <c r="A75" s="8" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="42">
       <c r="A76" s="8" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="140">
       <c r="A77" s="8" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56">
       <c r="A78" s="8" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2401</v>
+        <v>2394</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="56">
       <c r="A79" s="11" t="s">
-        <v>2403</v>
+        <v>2396</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2416</v>
+        <v>2409</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>2417</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="42">
@@ -19574,7 +19575,7 @@
         <v>1925</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>1927</v>
@@ -19588,7 +19589,7 @@
         <v>1912</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>1923</v>
@@ -19616,7 +19617,7 @@
         <v>1933</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>1970</v>
@@ -19641,208 +19642,208 @@
     </row>
     <row r="88" spans="1:4" ht="28">
       <c r="A88" s="8" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="56">
       <c r="A89" s="8" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="84">
       <c r="A90" s="8" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28">
       <c r="A91" s="8" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>2173</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>2174</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>2175</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28">
       <c r="A92" s="8" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>2199</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="8" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>2201</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>2202</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>2203</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14">
       <c r="A93" s="8" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>2209</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>2169</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14">
       <c r="A94" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>2212</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>2214</v>
-      </c>
       <c r="C94" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28">
       <c r="A95" s="8" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28">
       <c r="A96" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>2238</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>2239</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="28">
       <c r="A97" s="8" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>2259</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="84">
       <c r="A98" s="8" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="84">
       <c r="A99" s="8" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="28">
       <c r="A100" s="8" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>2275</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="98">
       <c r="A101" s="15" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>2358</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="42">
       <c r="A102" s="8" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>2342</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="84">
@@ -19850,13 +19851,13 @@
         <v>1136</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>2447</v>
+        <v>2440</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2444</v>
+        <v>2437</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>2446</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="105" spans="1:4">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A7F02-616B-E841-B533-1E18E40F692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C493FA-DB27-A746-9F51-A35148A2538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -7556,22 +7556,22 @@
     <t>Alkaline Phosphatase X</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/gator/gator.faa</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/gator/pfams.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/gator/TXSS.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/gator/phospho.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/gator/mlr.hmm</t>
-  </si>
-  <si>
-    <t>/Users/kimbrel1/Library/CloudStorage/Dropbox/Lab/Resources/kofam/106/</t>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/106/</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/gator.faa</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/pfams.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/TXSS.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/phospho.hmm</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/mlr.hmm</t>
   </si>
 </sst>
 </file>
@@ -8030,8 +8030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D2F0C6-77F3-5B4E-B688-F0627CD33D07}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8062,7 +8062,7 @@
         <v>2437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2510</v>
+        <v>2505</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8076,7 +8076,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>484</v>
@@ -8090,7 +8090,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>911</v>
@@ -8126,7 +8126,7 @@
         <v>1550</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>911</v>
@@ -8140,7 +8140,7 @@
         <v>1654</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>911</v>
@@ -8154,7 +8154,7 @@
         <v>1701</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>911</v>
@@ -8173,9 +8173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I532" sqref="I532"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H518" sqref="H518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -8186,7 +8186,7 @@
     <col min="4" max="4" width="45.1640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="16" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.83203125" style="16" customWidth="1"/>
@@ -18735,7 +18735,7 @@
       <c r="D517" s="16" t="s">
         <v>2488</v>
       </c>
-      <c r="G517" s="16" t="s">
+      <c r="H517" s="16" t="s">
         <v>2449</v>
       </c>
       <c r="I517" s="16" t="s">
@@ -18755,7 +18755,7 @@
       <c r="D518" s="16" t="s">
         <v>2488</v>
       </c>
-      <c r="G518" s="16" t="s">
+      <c r="H518" s="16" t="s">
         <v>2452</v>
       </c>
       <c r="I518" s="16" t="s">
@@ -18772,7 +18772,7 @@
       <c r="D519" s="16" t="s">
         <v>2489</v>
       </c>
-      <c r="G519" s="16" t="s">
+      <c r="H519" s="16" t="s">
         <v>2454</v>
       </c>
       <c r="I519" s="16" t="s">
@@ -18792,7 +18792,7 @@
       <c r="D520" s="16" t="s">
         <v>2488</v>
       </c>
-      <c r="G520" s="16" t="s">
+      <c r="H520" s="16" t="s">
         <v>2457</v>
       </c>
       <c r="I520" s="16" t="s">
@@ -18809,7 +18809,7 @@
       <c r="D521" s="16" t="s">
         <v>2488</v>
       </c>
-      <c r="G521" s="16" t="s">
+      <c r="H521" s="16" t="s">
         <v>2460</v>
       </c>
       <c r="I521" s="16" t="s">
@@ -18829,7 +18829,7 @@
       <c r="D522" s="16" t="s">
         <v>2488</v>
       </c>
-      <c r="G522" s="16" t="s">
+      <c r="H522" s="16" t="s">
         <v>2462</v>
       </c>
       <c r="I522" s="16" t="s">
@@ -18846,7 +18846,7 @@
       <c r="D523" s="16" t="s">
         <v>2490</v>
       </c>
-      <c r="G523" s="16" t="s">
+      <c r="H523" s="16" t="s">
         <v>2465</v>
       </c>
       <c r="I523" s="16" t="s">
@@ -18863,7 +18863,7 @@
       <c r="D524" s="16" t="s">
         <v>2491</v>
       </c>
-      <c r="G524" s="16" t="s">
+      <c r="H524" s="16" t="s">
         <v>2468</v>
       </c>
       <c r="I524" s="16" t="s">
@@ -18880,7 +18880,7 @@
       <c r="D525" s="16" t="s">
         <v>2492</v>
       </c>
-      <c r="G525" s="16" t="s">
+      <c r="H525" s="16" t="s">
         <v>2472</v>
       </c>
       <c r="I525" s="16" t="s">
@@ -18900,7 +18900,7 @@
       <c r="D526" s="16" t="s">
         <v>2492</v>
       </c>
-      <c r="G526" s="16" t="s">
+      <c r="H526" s="16" t="s">
         <v>2476</v>
       </c>
       <c r="I526" s="16" t="s">
@@ -18920,7 +18920,7 @@
       <c r="D527" s="16" t="s">
         <v>2492</v>
       </c>
-      <c r="G527" s="16" t="s">
+      <c r="H527" s="16" t="s">
         <v>2479</v>
       </c>
       <c r="N527" s="16" t="s">
@@ -18937,7 +18937,7 @@
       <c r="D528" s="16" t="s">
         <v>2492</v>
       </c>
-      <c r="G528" s="16" t="s">
+      <c r="H528" s="16" t="s">
         <v>2481</v>
       </c>
       <c r="I528" s="16" t="s">
@@ -18954,7 +18954,7 @@
       <c r="D529" s="16" t="s">
         <v>2485</v>
       </c>
-      <c r="G529" s="16" t="s">
+      <c r="H529" s="16" t="s">
         <v>2486</v>
       </c>
       <c r="I529" s="16" t="s">
@@ -18971,7 +18971,7 @@
       <c r="D530" s="16" t="s">
         <v>2501</v>
       </c>
-      <c r="G530" s="16" t="s">
+      <c r="H530" s="16" t="s">
         <v>2498</v>
       </c>
       <c r="I530" s="16" t="s">
@@ -18988,7 +18988,7 @@
       <c r="D531" s="16" t="s">
         <v>2501</v>
       </c>
-      <c r="G531" s="16" t="s">
+      <c r="H531" s="16" t="s">
         <v>2499</v>
       </c>
       <c r="I531" s="16" t="s">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C493FA-DB27-A746-9F51-A35148A2538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E91F8C-17F2-814B-9B05-09B7753A584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="pathway" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gene!$A$1:$O$510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">gene!$A$1:$O$505</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pathway!$A$1:$D$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -8174,8 +8174,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H518" sqref="H518"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H513" sqref="H513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -16217,2802 +16217,2802 @@
     </row>
     <row r="384" spans="1:10" ht="14" customHeight="1">
       <c r="A384" s="16">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>1877</v>
+        <v>2084</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>1879</v>
+        <v>2088</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>1874</v>
+        <v>1912</v>
+      </c>
+      <c r="G384" s="16" t="s">
+        <v>2087</v>
       </c>
       <c r="H384" s="16" t="s">
-        <v>1875</v>
+        <v>2085</v>
       </c>
       <c r="I384" s="16" t="s">
-        <v>1876</v>
-      </c>
-      <c r="J384" s="16" t="s">
-        <v>1897</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="14" customHeight="1">
       <c r="A385" s="16">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>1878</v>
+        <v>1913</v>
       </c>
       <c r="D385" s="16" t="s">
-        <v>1874</v>
+        <v>1912</v>
+      </c>
+      <c r="G385" s="16" t="s">
+        <v>1911</v>
       </c>
       <c r="H385" s="16" t="s">
-        <v>1881</v>
-      </c>
-      <c r="J385" s="16" t="s">
-        <v>1898</v>
+        <v>1909</v>
+      </c>
+      <c r="I385" s="16" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="386" spans="1:12" ht="14" customHeight="1">
       <c r="A386" s="16">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>1883</v>
+        <v>1915</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="D386" s="16" t="s">
-        <v>1874</v>
+        <v>1912</v>
       </c>
       <c r="H386" s="16" t="s">
-        <v>1884</v>
-      </c>
-      <c r="J386" s="16" t="s">
-        <v>1899</v>
+        <v>1916</v>
+      </c>
+      <c r="I386" s="16" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="14" customHeight="1">
       <c r="A387" s="16">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>1885</v>
+        <v>1929</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>1889</v>
+        <v>1930</v>
       </c>
       <c r="D387" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G387" s="16" t="s">
-        <v>1890</v>
+        <v>1961</v>
       </c>
       <c r="H387" s="16" t="s">
-        <v>1886</v>
+        <v>1931</v>
       </c>
       <c r="I387" s="16" t="s">
-        <v>1887</v>
-      </c>
-      <c r="J387" s="16" t="s">
-        <v>1888</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="388" spans="1:12" ht="14" customHeight="1">
       <c r="A388" s="16">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>1894</v>
+        <v>1933</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>1896</v>
+        <v>1934</v>
       </c>
       <c r="D388" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="J388" s="16" t="s">
-        <v>1895</v>
+        <v>1961</v>
+      </c>
+      <c r="H388" s="16" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I388" s="16" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="389" spans="1:12" ht="14" customHeight="1">
       <c r="A389" s="16">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>2084</v>
+        <v>1937</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>2088</v>
+        <v>1938</v>
       </c>
       <c r="D389" s="16" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G389" s="16" t="s">
-        <v>2087</v>
+        <v>1961</v>
       </c>
       <c r="H389" s="16" t="s">
-        <v>2085</v>
+        <v>1939</v>
       </c>
       <c r="I389" s="16" t="s">
-        <v>2086</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="390" spans="1:12" ht="14" customHeight="1">
       <c r="A390" s="16">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>1908</v>
+        <v>684</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>1913</v>
+        <v>1941</v>
       </c>
       <c r="D390" s="16" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G390" s="16" t="s">
-        <v>1911</v>
+        <v>1961</v>
       </c>
       <c r="H390" s="16" t="s">
-        <v>1909</v>
+        <v>686</v>
       </c>
       <c r="I390" s="16" t="s">
-        <v>1910</v>
+        <v>1695</v>
+      </c>
+      <c r="L390" s="16" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="391" spans="1:12" ht="14" customHeight="1">
       <c r="A391" s="16">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>1915</v>
+        <v>687</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>1914</v>
+        <v>1950</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>1912</v>
+        <v>1961</v>
       </c>
       <c r="H391" s="16" t="s">
-        <v>1916</v>
+        <v>689</v>
       </c>
       <c r="I391" s="16" t="s">
-        <v>1917</v>
+        <v>1695</v>
+      </c>
+      <c r="L391" s="16" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="392" spans="1:12" ht="14" customHeight="1">
       <c r="A392" s="16">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>1929</v>
+        <v>675</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>1930</v>
+        <v>1942</v>
       </c>
       <c r="D392" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H392" s="16" t="s">
-        <v>1931</v>
+        <v>677</v>
       </c>
       <c r="I392" s="16" t="s">
-        <v>1932</v>
+        <v>1696</v>
+      </c>
+      <c r="L392" s="16" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="393" spans="1:12" ht="14" customHeight="1">
       <c r="A393" s="16">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>1933</v>
+        <v>678</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1934</v>
+        <v>1943</v>
       </c>
       <c r="D393" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H393" s="16" t="s">
-        <v>1935</v>
+        <v>680</v>
       </c>
       <c r="I393" s="16" t="s">
-        <v>1936</v>
+        <v>1944</v>
+      </c>
+      <c r="L393" s="16" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="394" spans="1:12" ht="14" customHeight="1">
       <c r="A394" s="16">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="D394" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H394" s="16" t="s">
-        <v>1939</v>
-      </c>
-      <c r="I394" s="16" t="s">
-        <v>1940</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="14" customHeight="1">
       <c r="A395" s="16">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="D395" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H395" s="16" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I395" s="16" t="s">
-        <v>1695</v>
+        <v>1949</v>
       </c>
       <c r="L395" s="16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="396" spans="1:12" ht="14" customHeight="1">
       <c r="A396" s="16">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>687</v>
+        <v>1951</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="D396" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H396" s="16" t="s">
-        <v>689</v>
+        <v>1955</v>
       </c>
       <c r="I396" s="16" t="s">
-        <v>1695</v>
-      </c>
-      <c r="L396" s="16" t="s">
-        <v>688</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="397" spans="1:12" ht="14" customHeight="1">
       <c r="A397" s="16">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>675</v>
+        <v>1953</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>1942</v>
+        <v>1954</v>
       </c>
       <c r="D397" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H397" s="16" t="s">
-        <v>677</v>
+        <v>1956</v>
       </c>
       <c r="I397" s="16" t="s">
-        <v>1696</v>
-      </c>
-      <c r="L397" s="16" t="s">
-        <v>676</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="398" spans="1:12" ht="14" customHeight="1">
       <c r="A398" s="16">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>678</v>
+        <v>1958</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>1943</v>
+        <v>1959</v>
       </c>
       <c r="D398" s="16" t="s">
         <v>1961</v>
       </c>
       <c r="H398" s="16" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="I398" s="16" t="s">
-        <v>1944</v>
-      </c>
-      <c r="L398" s="16" t="s">
-        <v>679</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="399" spans="1:12" ht="14" customHeight="1">
       <c r="A399" s="16">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>1945</v>
+        <v>1972</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>1946</v>
+        <v>1976</v>
       </c>
       <c r="D399" s="16" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
       <c r="H399" s="16" t="s">
-        <v>1947</v>
+        <v>1973</v>
+      </c>
+      <c r="I399" s="16" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="400" spans="1:12" ht="14" customHeight="1">
       <c r="A400" s="16">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>681</v>
+        <v>1977</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>1948</v>
+        <v>1981</v>
       </c>
       <c r="D400" s="16" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
       <c r="H400" s="16" t="s">
-        <v>683</v>
+        <v>1980</v>
       </c>
       <c r="I400" s="16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="L400" s="16" t="s">
-        <v>682</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="14" customHeight="1">
       <c r="A401" s="16">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>1951</v>
+        <v>1978</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>1952</v>
+        <v>1982</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
       <c r="H401" s="16" t="s">
-        <v>1955</v>
+        <v>1979</v>
       </c>
       <c r="I401" s="16" t="s">
-        <v>1957</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="14" customHeight="1">
       <c r="A402" s="16">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>1953</v>
+        <v>1984</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>1954</v>
+        <v>1985</v>
       </c>
       <c r="D402" s="16" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
       <c r="H402" s="16" t="s">
-        <v>1956</v>
+        <v>1986</v>
       </c>
       <c r="I402" s="16" t="s">
-        <v>1957</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="14" customHeight="1">
       <c r="A403" s="16">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>1958</v>
+        <v>1989</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>1959</v>
+        <v>1990</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>1961</v>
+        <v>1974</v>
       </c>
       <c r="H403" s="16" t="s">
-        <v>693</v>
+        <v>1988</v>
       </c>
       <c r="I403" s="16" t="s">
-        <v>1960</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="14" customHeight="1">
       <c r="A404" s="16">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>1972</v>
+        <v>1993</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="D404" s="16" t="s">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="H404" s="16" t="s">
-        <v>1973</v>
+        <v>1997</v>
       </c>
       <c r="I404" s="16" t="s">
-        <v>1975</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="14" customHeight="1">
       <c r="A405" s="16">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="D405" s="16" t="s">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="H405" s="16" t="s">
-        <v>1980</v>
+        <v>2002</v>
       </c>
       <c r="I405" s="16" t="s">
-        <v>1975</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="14" customHeight="1">
       <c r="A406" s="16">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>1982</v>
+        <v>2004</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="H406" s="16" t="s">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="I406" s="16" t="s">
-        <v>1975</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="14" customHeight="1">
       <c r="A407" s="16">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>1985</v>
+        <v>2012</v>
       </c>
       <c r="D407" s="16" t="s">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="H407" s="16" t="s">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="I407" s="16" t="s">
-        <v>1987</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="14" customHeight="1">
       <c r="A408" s="16">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>1989</v>
+        <v>2008</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>1990</v>
+        <v>2013</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>1974</v>
+        <v>1995</v>
       </c>
       <c r="H408" s="16" t="s">
-        <v>1988</v>
+        <v>2009</v>
       </c>
       <c r="I408" s="16" t="s">
-        <v>1991</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="14" customHeight="1">
       <c r="A409" s="16">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>1993</v>
+        <v>2015</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>1994</v>
+        <v>2016</v>
       </c>
       <c r="D409" s="16" t="s">
         <v>1995</v>
       </c>
       <c r="H409" s="16" t="s">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="I409" s="16" t="s">
-        <v>1998</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="14" customHeight="1">
       <c r="A410" s="16">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B410" s="16" t="s">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="D410" s="16" t="s">
         <v>1995</v>
       </c>
       <c r="H410" s="16" t="s">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="I410" s="16" t="s">
-        <v>2003</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="14" customHeight="1">
       <c r="A411" s="16">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>2000</v>
+        <v>2023</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="D411" s="16" t="s">
         <v>1995</v>
       </c>
       <c r="H411" s="16" t="s">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="I411" s="16" t="s">
-        <v>2006</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="14" customHeight="1">
       <c r="A412" s="16">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>2007</v>
+        <v>2031</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>2012</v>
+        <v>2032</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>1995</v>
+        <v>2034</v>
       </c>
       <c r="H412" s="16" t="s">
-        <v>2010</v>
+        <v>2033</v>
       </c>
       <c r="I412" s="16" t="s">
-        <v>2011</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="14" customHeight="1">
       <c r="A413" s="16">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>2013</v>
+        <v>2036</v>
       </c>
       <c r="D413" s="16" t="s">
-        <v>1995</v>
+        <v>2059</v>
       </c>
       <c r="H413" s="16" t="s">
-        <v>2009</v>
-      </c>
-      <c r="I413" s="16" t="s">
-        <v>2011</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="14" customHeight="1">
       <c r="A414" s="16">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>2015</v>
+        <v>2040</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>2016</v>
+        <v>2039</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>1995</v>
+        <v>2030</v>
       </c>
       <c r="H414" s="16" t="s">
-        <v>2017</v>
+        <v>2041</v>
       </c>
       <c r="I414" s="16" t="s">
-        <v>2018</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="14" customHeight="1">
       <c r="A415" s="16">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>2019</v>
+        <v>2046</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>2020</v>
+        <v>2047</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>1995</v>
+        <v>2048</v>
       </c>
       <c r="H415" s="16" t="s">
-        <v>2021</v>
+        <v>2049</v>
       </c>
       <c r="I415" s="16" t="s">
-        <v>2022</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="14" customHeight="1">
       <c r="A416" s="16">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>2023</v>
+        <v>2051</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>2024</v>
+        <v>2052</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>1995</v>
+        <v>2048</v>
       </c>
       <c r="H416" s="16" t="s">
-        <v>2025</v>
+        <v>2053</v>
       </c>
       <c r="I416" s="16" t="s">
-        <v>2026</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="14" customHeight="1">
       <c r="A417" s="16">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>2031</v>
+        <v>2055</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>2032</v>
+        <v>2056</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>2034</v>
+        <v>2048</v>
       </c>
       <c r="H417" s="16" t="s">
-        <v>2033</v>
+        <v>2057</v>
       </c>
       <c r="I417" s="16" t="s">
-        <v>2035</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="14" customHeight="1">
       <c r="A418" s="16">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>2014</v>
+        <v>2064</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>2036</v>
+        <v>2065</v>
       </c>
       <c r="D418" s="16" t="s">
-        <v>2059</v>
+        <v>2066</v>
       </c>
       <c r="H418" s="16" t="s">
-        <v>2037</v>
+        <v>2067</v>
+      </c>
+      <c r="I418" s="16" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="14" customHeight="1">
       <c r="A419" s="16">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>2040</v>
+        <v>2071</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>2039</v>
+        <v>2072</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>2030</v>
+        <v>2073</v>
       </c>
       <c r="H419" s="16" t="s">
-        <v>2041</v>
+        <v>2074</v>
       </c>
       <c r="I419" s="16" t="s">
-        <v>2042</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="14" customHeight="1">
       <c r="A420" s="16">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>2046</v>
+        <v>2076</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>2047</v>
+        <v>2077</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>2048</v>
+        <v>2073</v>
       </c>
       <c r="H420" s="16" t="s">
-        <v>2049</v>
+        <v>2078</v>
       </c>
       <c r="I420" s="16" t="s">
-        <v>2050</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="14" customHeight="1">
       <c r="A421" s="16">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>2051</v>
+        <v>2099</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>2052</v>
+        <v>2091</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>2048</v>
+        <v>2109</v>
       </c>
       <c r="H421" s="16" t="s">
-        <v>2053</v>
+        <v>2093</v>
       </c>
       <c r="I421" s="16" t="s">
-        <v>2054</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="14" customHeight="1">
       <c r="A422" s="16">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>2055</v>
+        <v>2095</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>2056</v>
+        <v>2096</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>2048</v>
+        <v>2092</v>
       </c>
       <c r="H422" s="16" t="s">
-        <v>2057</v>
+        <v>2097</v>
       </c>
       <c r="I422" s="16" t="s">
-        <v>2058</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="14" customHeight="1">
       <c r="A423" s="16">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>2064</v>
+        <v>2100</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>2065</v>
+        <v>2106</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>2066</v>
+        <v>2092</v>
       </c>
       <c r="H423" s="16" t="s">
-        <v>2067</v>
+        <v>2107</v>
       </c>
       <c r="I423" s="16" t="s">
-        <v>2068</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="14" customHeight="1">
       <c r="A424" s="16">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>2071</v>
+        <v>2101</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>2072</v>
+        <v>2110</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>2073</v>
+        <v>2111</v>
       </c>
       <c r="H424" s="16" t="s">
-        <v>2074</v>
+        <v>2112</v>
       </c>
       <c r="I424" s="16" t="s">
-        <v>2075</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="14" customHeight="1">
       <c r="A425" s="16">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>2076</v>
+        <v>2102</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>2077</v>
+        <v>2114</v>
       </c>
       <c r="D425" s="16" t="s">
-        <v>2073</v>
+        <v>2092</v>
       </c>
       <c r="H425" s="16" t="s">
-        <v>2078</v>
+        <v>2115</v>
       </c>
       <c r="I425" s="16" t="s">
-        <v>2079</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="14" customHeight="1">
       <c r="A426" s="16">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>2091</v>
+        <v>2117</v>
       </c>
       <c r="D426" s="16" t="s">
-        <v>2109</v>
+        <v>2092</v>
       </c>
       <c r="H426" s="16" t="s">
-        <v>2093</v>
+        <v>2119</v>
       </c>
       <c r="I426" s="16" t="s">
-        <v>2094</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="14" customHeight="1">
       <c r="A427" s="16">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>2096</v>
+        <v>2120</v>
       </c>
       <c r="D427" s="16" t="s">
         <v>2092</v>
       </c>
       <c r="H427" s="16" t="s">
-        <v>2097</v>
+        <v>2121</v>
       </c>
       <c r="I427" s="16" t="s">
-        <v>2098</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="14" customHeight="1">
       <c r="A428" s="16">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>2106</v>
+        <v>2124</v>
       </c>
       <c r="D428" s="16" t="s">
         <v>2092</v>
       </c>
       <c r="H428" s="16" t="s">
-        <v>2107</v>
-      </c>
-      <c r="I428" s="16" t="s">
-        <v>2108</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="14" customHeight="1">
       <c r="A429" s="16">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>2111</v>
+        <v>2092</v>
       </c>
       <c r="H429" s="16" t="s">
-        <v>2112</v>
-      </c>
-      <c r="I429" s="16" t="s">
-        <v>2113</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="14" customHeight="1">
       <c r="A430" s="16">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>2102</v>
+        <v>2131</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>2114</v>
+        <v>2132</v>
       </c>
       <c r="D430" s="16" t="s">
-        <v>2092</v>
+        <v>2130</v>
       </c>
       <c r="H430" s="16" t="s">
-        <v>2115</v>
-      </c>
-      <c r="I430" s="16" t="s">
-        <v>2116</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="14" customHeight="1">
       <c r="A431" s="16">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>2090</v>
+        <v>310</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>2117</v>
+        <v>2161</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>2092</v>
+        <v>2156</v>
       </c>
       <c r="H431" s="16" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I431" s="16" t="s">
-        <v>2118</v>
+        <v>311</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="14" customHeight="1">
       <c r="A432" s="16">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>2103</v>
+        <v>312</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>2120</v>
+        <v>313</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>2092</v>
+        <v>2156</v>
       </c>
       <c r="H432" s="16" t="s">
-        <v>2121</v>
-      </c>
-      <c r="I432" s="16" t="s">
-        <v>2122</v>
+        <v>314</v>
       </c>
     </row>
     <row r="433" spans="1:10" ht="14" customHeight="1">
       <c r="A433" s="16">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>2104</v>
+        <v>315</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>2124</v>
+        <v>316</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>2092</v>
+        <v>2156</v>
       </c>
       <c r="H433" s="16" t="s">
-        <v>2123</v>
+        <v>317</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="14" customHeight="1">
       <c r="A434" s="16">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>2105</v>
+        <v>2142</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>2126</v>
+        <v>2161</v>
       </c>
       <c r="D434" s="16" t="s">
-        <v>2092</v>
+        <v>2156</v>
       </c>
       <c r="H434" s="16" t="s">
-        <v>2125</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="14" customHeight="1">
       <c r="A435" s="16">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>2131</v>
+        <v>129</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>2132</v>
+        <v>130</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>2130</v>
+        <v>2157</v>
       </c>
       <c r="H435" s="16" t="s">
-        <v>2133</v>
+        <v>131</v>
+      </c>
+      <c r="I435" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J435" s="16" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="436" spans="1:10" ht="14" customHeight="1">
       <c r="A436" s="16">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>310</v>
+        <v>2153</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>2156</v>
+        <v>2139</v>
       </c>
       <c r="H436" s="16" t="s">
-        <v>311</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="14" customHeight="1">
       <c r="A437" s="16">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>312</v>
+        <v>2154</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>313</v>
+        <v>2159</v>
       </c>
       <c r="D437" s="16" t="s">
-        <v>2156</v>
+        <v>2139</v>
       </c>
       <c r="H437" s="16" t="s">
-        <v>314</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="14" customHeight="1">
       <c r="A438" s="16">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>315</v>
+        <v>2197</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>316</v>
+        <v>2163</v>
       </c>
       <c r="D438" s="16" t="s">
-        <v>2156</v>
+        <v>2164</v>
       </c>
       <c r="H438" s="16" t="s">
-        <v>317</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="14" customHeight="1">
       <c r="A439" s="16">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>2142</v>
+        <v>2170</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>2161</v>
+        <v>2173</v>
       </c>
       <c r="D439" s="16" t="s">
-        <v>2156</v>
+        <v>2179</v>
       </c>
       <c r="H439" s="16" t="s">
-        <v>2143</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="14" customHeight="1">
       <c r="A440" s="16">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>129</v>
+        <v>2171</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>130</v>
+        <v>2175</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>2157</v>
+        <v>2179</v>
       </c>
       <c r="H440" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I440" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J440" s="16" t="s">
-        <v>1360</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14" customHeight="1">
       <c r="A441" s="16">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>2153</v>
+        <v>2172</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>2155</v>
+        <v>2177</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>2139</v>
+        <v>2179</v>
       </c>
       <c r="H441" s="16" t="s">
-        <v>2158</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="14" customHeight="1">
       <c r="A442" s="16">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>2154</v>
+        <v>2180</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>2159</v>
+        <v>2188</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>2139</v>
+        <v>2193</v>
       </c>
       <c r="H442" s="16" t="s">
-        <v>2160</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="14" customHeight="1">
       <c r="A443" s="16">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>2197</v>
+        <v>2181</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>2163</v>
+        <v>2189</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>2164</v>
+        <v>2193</v>
       </c>
       <c r="H443" s="16" t="s">
-        <v>2165</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="444" spans="1:10" ht="14" customHeight="1">
       <c r="A444" s="16">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>2170</v>
+        <v>2182</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>2173</v>
+        <v>2190</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>2179</v>
+        <v>2193</v>
       </c>
       <c r="H444" s="16" t="s">
-        <v>2174</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="445" spans="1:10" ht="14" customHeight="1">
       <c r="A445" s="16">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>2171</v>
+        <v>2183</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>2175</v>
+        <v>2191</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>2179</v>
+        <v>2193</v>
       </c>
       <c r="H445" s="16" t="s">
-        <v>2176</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="446" spans="1:10" ht="14" customHeight="1">
       <c r="A446" s="16">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>2177</v>
+        <v>2199</v>
       </c>
       <c r="D446" s="16" t="s">
-        <v>2179</v>
+        <v>2200</v>
       </c>
       <c r="H446" s="16" t="s">
-        <v>2178</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="447" spans="1:10" ht="14" customHeight="1">
       <c r="A447" s="16">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>2180</v>
+        <v>2207</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>2188</v>
+        <v>2208</v>
       </c>
       <c r="D447" s="16" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="H447" s="16" t="s">
-        <v>2184</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="14" customHeight="1">
       <c r="A448" s="16">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>2181</v>
+        <v>2210</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>2189</v>
+        <v>2226</v>
       </c>
       <c r="D448" s="16" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="H448" s="16" t="s">
-        <v>2186</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="14" customHeight="1">
       <c r="A449" s="16">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>2182</v>
+        <v>2211</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>2190</v>
+        <v>2227</v>
       </c>
       <c r="D449" s="16" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="H449" s="16" t="s">
-        <v>2185</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="14" customHeight="1">
       <c r="A450" s="16">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>2183</v>
+        <v>2212</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>2191</v>
+        <v>2228</v>
       </c>
       <c r="D450" s="16" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="H450" s="16" t="s">
-        <v>2187</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="14" customHeight="1">
       <c r="A451" s="16">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>2162</v>
+        <v>2213</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>2199</v>
+        <v>2229</v>
       </c>
       <c r="D451" s="16" t="s">
         <v>2200</v>
       </c>
       <c r="H451" s="16" t="s">
-        <v>2201</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="14" customHeight="1">
       <c r="A452" s="16">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>2207</v>
+        <v>2220</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>2208</v>
+        <v>2236</v>
       </c>
       <c r="D452" s="16" t="s">
-        <v>2200</v>
+        <v>2221</v>
       </c>
       <c r="H452" s="16" t="s">
-        <v>2209</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="14" customHeight="1">
       <c r="A453" s="16">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>2210</v>
+        <v>2223</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>2200</v>
+        <v>2221</v>
       </c>
       <c r="H453" s="16" t="s">
-        <v>2214</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="454" spans="1:8" ht="14" customHeight="1">
       <c r="A454" s="16">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>2211</v>
+        <v>2225</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>2227</v>
+        <v>2238</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>2200</v>
+        <v>2221</v>
       </c>
       <c r="H454" s="16" t="s">
-        <v>2215</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="455" spans="1:8" ht="14" customHeight="1">
       <c r="A455" s="16">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>2228</v>
+        <v>2251</v>
       </c>
       <c r="D455" s="16" t="s">
-        <v>2200</v>
+        <v>2243</v>
       </c>
       <c r="H455" s="16" t="s">
-        <v>2216</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="14" customHeight="1">
       <c r="A456" s="16">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>2213</v>
+        <v>2241</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>2229</v>
+        <v>2246</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>2200</v>
+        <v>2243</v>
       </c>
       <c r="H456" s="16" t="s">
-        <v>2217</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="14" customHeight="1">
       <c r="A457" s="16">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>2220</v>
+        <v>2240</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>2236</v>
+        <v>2247</v>
       </c>
       <c r="D457" s="16" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
       <c r="H457" s="16" t="s">
-        <v>2222</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="14" customHeight="1">
       <c r="A458" s="16">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>2223</v>
+        <v>2242</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>2237</v>
+        <v>2250</v>
       </c>
       <c r="D458" s="16" t="s">
-        <v>2221</v>
+        <v>2243</v>
       </c>
       <c r="H458" s="16" t="s">
-        <v>2224</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="14" customHeight="1">
       <c r="A459" s="16">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>2225</v>
+        <v>2258</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>2238</v>
+        <v>2261</v>
       </c>
       <c r="D459" s="16" t="s">
-        <v>2221</v>
+        <v>2262</v>
       </c>
       <c r="H459" s="16" t="s">
-        <v>2235</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="460" spans="1:8" ht="14" customHeight="1">
       <c r="A460" s="16">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>2239</v>
+        <v>2259</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>2251</v>
+        <v>2263</v>
       </c>
       <c r="D460" s="16" t="s">
-        <v>2243</v>
+        <v>2262</v>
       </c>
       <c r="H460" s="16" t="s">
-        <v>2244</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="14" customHeight="1">
       <c r="A461" s="16">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>2241</v>
+        <v>2260</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>2246</v>
+        <v>2264</v>
       </c>
       <c r="D461" s="16" t="s">
-        <v>2243</v>
+        <v>2262</v>
       </c>
       <c r="H461" s="16" t="s">
-        <v>2245</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="14" customHeight="1">
       <c r="A462" s="16">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C462" s="16" t="s">
-        <v>2247</v>
+        <v>2271</v>
+      </c>
+      <c r="C462" s="11" t="s">
+        <v>2282</v>
       </c>
       <c r="D462" s="16" t="s">
-        <v>2243</v>
+        <v>2276</v>
       </c>
       <c r="H462" s="16" t="s">
-        <v>2248</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="463" spans="1:8" ht="14" customHeight="1">
       <c r="A463" s="16">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>2242</v>
+        <v>2272</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>2250</v>
+        <v>2283</v>
       </c>
       <c r="D463" s="16" t="s">
-        <v>2243</v>
+        <v>2276</v>
       </c>
       <c r="H463" s="16" t="s">
-        <v>2249</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="464" spans="1:8" ht="14" customHeight="1">
       <c r="A464" s="16">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>2258</v>
+        <v>2273</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>2261</v>
+        <v>2284</v>
       </c>
       <c r="D464" s="16" t="s">
-        <v>2262</v>
+        <v>2276</v>
       </c>
       <c r="H464" s="16" t="s">
-        <v>2266</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="14" customHeight="1">
       <c r="A465" s="16">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>2259</v>
+        <v>2274</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>2263</v>
+        <v>2285</v>
       </c>
       <c r="D465" s="16" t="s">
-        <v>2262</v>
+        <v>2276</v>
       </c>
       <c r="H465" s="16" t="s">
-        <v>2265</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="14" customHeight="1">
       <c r="A466" s="16">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>2260</v>
+        <v>2275</v>
       </c>
       <c r="C466" s="16" t="s">
-        <v>2264</v>
+        <v>2286</v>
       </c>
       <c r="D466" s="16" t="s">
-        <v>2262</v>
+        <v>2276</v>
       </c>
       <c r="H466" s="16" t="s">
-        <v>2267</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="14" customHeight="1">
       <c r="A467" s="16">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C467" s="11" t="s">
-        <v>2282</v>
+        <v>2287</v>
+      </c>
+      <c r="C467" s="16" t="s">
+        <v>2294</v>
       </c>
       <c r="D467" s="16" t="s">
-        <v>2276</v>
+        <v>2301</v>
       </c>
       <c r="H467" s="16" t="s">
-        <v>2277</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="14" customHeight="1">
       <c r="A468" s="16">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>2272</v>
+        <v>2288</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>2283</v>
+        <v>2295</v>
       </c>
       <c r="D468" s="16" t="s">
-        <v>2276</v>
+        <v>2301</v>
       </c>
       <c r="H468" s="16" t="s">
-        <v>2278</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="14" customHeight="1">
       <c r="A469" s="16">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>2273</v>
+        <v>2289</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>2284</v>
+        <v>2296</v>
       </c>
       <c r="D469" s="16" t="s">
-        <v>2276</v>
+        <v>2301</v>
       </c>
       <c r="H469" s="16" t="s">
-        <v>2279</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="14" customHeight="1">
       <c r="A470" s="16">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C470" s="16" t="s">
-        <v>2285</v>
+        <v>2290</v>
+      </c>
+      <c r="C470" s="17" t="s">
+        <v>2297</v>
       </c>
       <c r="D470" s="16" t="s">
-        <v>2276</v>
+        <v>2301</v>
       </c>
       <c r="H470" s="16" t="s">
-        <v>2280</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="14" customHeight="1">
       <c r="A471" s="16">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C471" s="16" t="s">
-        <v>2286</v>
+        <v>2291</v>
+      </c>
+      <c r="C471" s="17" t="s">
+        <v>2298</v>
       </c>
       <c r="D471" s="16" t="s">
-        <v>2276</v>
+        <v>2301</v>
       </c>
       <c r="H471" s="16" t="s">
-        <v>2281</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="14" customHeight="1">
       <c r="A472" s="16">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C472" s="16" t="s">
-        <v>2294</v>
+        <v>2292</v>
+      </c>
+      <c r="C472" s="17" t="s">
+        <v>2299</v>
       </c>
       <c r="D472" s="16" t="s">
         <v>2301</v>
       </c>
       <c r="H472" s="16" t="s">
-        <v>2302</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="14" customHeight="1">
       <c r="A473" s="16">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C473" s="16" t="s">
-        <v>2295</v>
+        <v>2293</v>
+      </c>
+      <c r="C473" s="17" t="s">
+        <v>2300</v>
       </c>
       <c r="D473" s="16" t="s">
         <v>2301</v>
       </c>
       <c r="H473" s="16" t="s">
-        <v>2303</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="474" spans="1:8" ht="14" customHeight="1">
       <c r="A474" s="16">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>2289</v>
+        <v>2309</v>
       </c>
       <c r="C474" s="16" t="s">
-        <v>2296</v>
+        <v>2310</v>
       </c>
       <c r="D474" s="16" t="s">
         <v>2301</v>
       </c>
       <c r="H474" s="16" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="14" customHeight="1">
       <c r="A475" s="16">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>2290</v>
-      </c>
-      <c r="C475" s="17" t="s">
-        <v>2297</v>
+        <v>2319</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>2321</v>
       </c>
       <c r="D475" s="16" t="s">
-        <v>2301</v>
+        <v>2322</v>
       </c>
       <c r="H475" s="16" t="s">
-        <v>2305</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="14" customHeight="1">
       <c r="A476" s="16">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>2291</v>
-      </c>
-      <c r="C476" s="17" t="s">
-        <v>2298</v>
+        <v>2323</v>
+      </c>
+      <c r="C476" s="16" t="s">
+        <v>2327</v>
       </c>
       <c r="D476" s="16" t="s">
-        <v>2301</v>
+        <v>2322</v>
       </c>
       <c r="H476" s="16" t="s">
-        <v>2306</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="477" spans="1:8" ht="14" customHeight="1">
       <c r="A477" s="16">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C477" s="17" t="s">
-        <v>2299</v>
+        <v>2324</v>
+      </c>
+      <c r="C477" s="16" t="s">
+        <v>2329</v>
       </c>
       <c r="D477" s="16" t="s">
-        <v>2301</v>
+        <v>2322</v>
       </c>
       <c r="H477" s="16" t="s">
-        <v>2307</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="478" spans="1:8" ht="14" customHeight="1">
       <c r="A478" s="16">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C478" s="17" t="s">
-        <v>2300</v>
+        <v>2325</v>
+      </c>
+      <c r="C478" s="16" t="s">
+        <v>2331</v>
       </c>
       <c r="D478" s="16" t="s">
-        <v>2301</v>
+        <v>2322</v>
       </c>
       <c r="H478" s="16" t="s">
-        <v>2308</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="14" customHeight="1">
       <c r="A479" s="16">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>2309</v>
+        <v>2326</v>
       </c>
       <c r="C479" s="16" t="s">
-        <v>2310</v>
+        <v>2333</v>
       </c>
       <c r="D479" s="16" t="s">
-        <v>2301</v>
+        <v>2322</v>
       </c>
       <c r="H479" s="16" t="s">
-        <v>2311</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="14" customHeight="1">
       <c r="A480" s="16">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B480" s="16" t="s">
-        <v>2319</v>
+        <v>2338</v>
       </c>
       <c r="C480" s="16" t="s">
-        <v>2321</v>
+        <v>2341</v>
       </c>
       <c r="D480" s="16" t="s">
-        <v>2322</v>
+        <v>2340</v>
       </c>
       <c r="H480" s="16" t="s">
-        <v>2320</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="14" customHeight="1">
       <c r="A481" s="16">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B481" s="16" t="s">
-        <v>2323</v>
+        <v>2342</v>
       </c>
       <c r="C481" s="16" t="s">
-        <v>2327</v>
+        <v>2344</v>
       </c>
       <c r="D481" s="16" t="s">
-        <v>2322</v>
+        <v>2340</v>
       </c>
       <c r="H481" s="16" t="s">
-        <v>2328</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="14" customHeight="1">
       <c r="A482" s="16">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>2324</v>
+        <v>2347</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>2329</v>
+        <v>2355</v>
       </c>
       <c r="D482" s="16" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="H482" s="16" t="s">
-        <v>2330</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="14" customHeight="1">
       <c r="A483" s="16">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>2325</v>
+        <v>2348</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>2331</v>
+        <v>2349</v>
       </c>
       <c r="D483" s="16" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="H483" s="16" t="s">
-        <v>2332</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="14" customHeight="1">
       <c r="A484" s="16">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>2326</v>
+        <v>2351</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>2333</v>
+        <v>2352</v>
       </c>
       <c r="D484" s="16" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="H484" s="16" t="s">
-        <v>2334</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="14" customHeight="1">
       <c r="A485" s="16">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>2338</v>
+        <v>2357</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>2341</v>
+        <v>2359</v>
       </c>
       <c r="D485" s="16" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="H485" s="16" t="s">
-        <v>2339</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="14" customHeight="1">
       <c r="A486" s="16">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>2342</v>
+        <v>2360</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>2344</v>
+        <v>2362</v>
       </c>
       <c r="D486" s="16" t="s">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="H486" s="16" t="s">
-        <v>2343</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="14" customHeight="1">
       <c r="A487" s="16">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>2347</v>
+        <v>2363</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>2355</v>
+        <v>2364</v>
       </c>
       <c r="D487" s="16" t="s">
         <v>2350</v>
       </c>
       <c r="H487" s="16" t="s">
-        <v>2356</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="14" customHeight="1">
       <c r="A488" s="16">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>2348</v>
+        <v>2368</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>2349</v>
+        <v>2367</v>
       </c>
       <c r="D488" s="16" t="s">
         <v>2350</v>
       </c>
       <c r="H488" s="16" t="s">
-        <v>2354</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="14" customHeight="1">
       <c r="A489" s="16">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>2351</v>
+        <v>2366</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>2352</v>
+        <v>2371</v>
       </c>
       <c r="D489" s="16" t="s">
         <v>2350</v>
       </c>
       <c r="H489" s="16" t="s">
-        <v>2353</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="14" customHeight="1">
       <c r="A490" s="16">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>2357</v>
+        <v>2377</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>2359</v>
+        <v>2379</v>
       </c>
       <c r="D490" s="16" t="s">
-        <v>2350</v>
+        <v>2375</v>
       </c>
       <c r="H490" s="16" t="s">
-        <v>2358</v>
+        <v>2380</v>
+      </c>
+      <c r="I490" s="16" t="s">
+        <v>2381</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="14" customHeight="1">
       <c r="A491" s="16">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>2360</v>
+        <v>2376</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>2362</v>
+        <v>2384</v>
       </c>
       <c r="D491" s="16" t="s">
-        <v>2350</v>
+        <v>2375</v>
       </c>
       <c r="H491" s="16" t="s">
-        <v>2361</v>
+        <v>2383</v>
+      </c>
+      <c r="I491" s="16" t="s">
+        <v>2382</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="14" customHeight="1">
       <c r="A492" s="16">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B492" s="16" t="s">
-        <v>2363</v>
+        <v>2378</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>2364</v>
+        <v>2388</v>
       </c>
       <c r="D492" s="16" t="s">
-        <v>2350</v>
+        <v>2375</v>
       </c>
       <c r="H492" s="16" t="s">
-        <v>2365</v>
+        <v>2387</v>
+      </c>
+      <c r="I492" s="16" t="s">
+        <v>2386</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="14" customHeight="1">
       <c r="A493" s="16">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>2368</v>
+        <v>2395</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>2367</v>
+        <v>2393</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>2350</v>
+        <v>2391</v>
       </c>
       <c r="H493" s="16" t="s">
-        <v>2369</v>
+        <v>2398</v>
+      </c>
+      <c r="I493" s="16" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="14" customHeight="1">
       <c r="A494" s="16">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>2366</v>
+        <v>2394</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>2371</v>
+        <v>2397</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>2350</v>
+        <v>2391</v>
       </c>
       <c r="H494" s="16" t="s">
-        <v>2372</v>
+        <v>2400</v>
+      </c>
+      <c r="I494" s="16" t="s">
+        <v>2401</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="14" customHeight="1">
       <c r="A495" s="16">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>2377</v>
+        <v>2392</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>2379</v>
+        <v>2396</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>2375</v>
+        <v>2391</v>
       </c>
       <c r="H495" s="16" t="s">
-        <v>2380</v>
+        <v>2403</v>
       </c>
       <c r="I495" s="16" t="s">
-        <v>2381</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="14" customHeight="1">
       <c r="A496" s="16">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B496" s="16" t="s">
-        <v>2376</v>
+        <v>2409</v>
       </c>
       <c r="C496" s="16" t="s">
-        <v>2384</v>
+        <v>2410</v>
       </c>
       <c r="D496" s="16" t="s">
-        <v>2375</v>
+        <v>2411</v>
       </c>
       <c r="H496" s="16" t="s">
-        <v>2383</v>
+        <v>2413</v>
       </c>
       <c r="I496" s="16" t="s">
-        <v>2382</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="497" spans="1:14" ht="14" customHeight="1">
       <c r="A497" s="16">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B497" s="16" t="s">
-        <v>2378</v>
+        <v>66</v>
       </c>
       <c r="C497" s="16" t="s">
-        <v>2388</v>
+        <v>2407</v>
       </c>
       <c r="D497" s="16" t="s">
-        <v>2375</v>
+        <v>2411</v>
       </c>
       <c r="H497" s="16" t="s">
-        <v>2387</v>
+        <v>2406</v>
       </c>
       <c r="I497" s="16" t="s">
-        <v>2386</v>
+        <v>2408</v>
+      </c>
+      <c r="J497" s="16" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="14" customHeight="1">
       <c r="A498" s="16">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B498" s="16" t="s">
-        <v>2395</v>
+        <v>2417</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>2393</v>
+        <v>2415</v>
       </c>
       <c r="D498" s="16" t="s">
-        <v>2391</v>
+        <v>2411</v>
       </c>
       <c r="H498" s="16" t="s">
-        <v>2398</v>
+        <v>2418</v>
       </c>
       <c r="I498" s="16" t="s">
-        <v>2399</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="499" spans="1:14" ht="14" customHeight="1">
       <c r="A499" s="16">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B499" s="16" t="s">
-        <v>2394</v>
+        <v>837</v>
       </c>
       <c r="C499" s="16" t="s">
-        <v>2397</v>
+        <v>838</v>
       </c>
       <c r="D499" s="16" t="s">
-        <v>2391</v>
+        <v>2411</v>
       </c>
       <c r="H499" s="16" t="s">
-        <v>2400</v>
+        <v>839</v>
       </c>
       <c r="I499" s="16" t="s">
-        <v>2401</v>
+        <v>840</v>
       </c>
     </row>
     <row r="500" spans="1:14" ht="14" customHeight="1">
       <c r="A500" s="16">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B500" s="16" t="s">
-        <v>2392</v>
+        <v>829</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>2396</v>
+        <v>2419</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>2391</v>
+        <v>2411</v>
       </c>
       <c r="H500" s="16" t="s">
-        <v>2403</v>
+        <v>841</v>
       </c>
       <c r="I500" s="16" t="s">
-        <v>2402</v>
+        <v>842</v>
       </c>
     </row>
     <row r="501" spans="1:14" ht="14" customHeight="1">
       <c r="A501" s="16">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B501" s="16" t="s">
-        <v>2409</v>
+        <v>2420</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>2410</v>
+        <v>2421</v>
       </c>
       <c r="D501" s="16" t="s">
         <v>2411</v>
       </c>
       <c r="H501" s="16" t="s">
-        <v>2413</v>
+        <v>2423</v>
       </c>
       <c r="I501" s="16" t="s">
-        <v>2414</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="502" spans="1:14" ht="14" customHeight="1">
       <c r="A502" s="16">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B502" s="16" t="s">
-        <v>66</v>
+        <v>2424</v>
       </c>
       <c r="C502" s="16" t="s">
-        <v>2407</v>
+        <v>2426</v>
       </c>
       <c r="D502" s="16" t="s">
         <v>2411</v>
       </c>
       <c r="H502" s="16" t="s">
-        <v>2406</v>
+        <v>2425</v>
       </c>
       <c r="I502" s="16" t="s">
-        <v>2408</v>
-      </c>
-      <c r="J502" s="16" t="s">
-        <v>1346</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="503" spans="1:14" ht="14" customHeight="1">
       <c r="A503" s="16">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B503" s="16" t="s">
-        <v>2417</v>
+        <v>2428</v>
       </c>
       <c r="C503" s="16" t="s">
-        <v>2415</v>
+        <v>2431</v>
       </c>
       <c r="D503" s="16" t="s">
         <v>2411</v>
       </c>
       <c r="H503" s="16" t="s">
-        <v>2418</v>
+        <v>2429</v>
       </c>
       <c r="I503" s="16" t="s">
-        <v>2416</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="504" spans="1:14" ht="14" customHeight="1">
       <c r="A504" s="16">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B504" s="16" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>838</v>
-      </c>
-      <c r="D504" s="16" t="s">
-        <v>2411</v>
+        <v>843</v>
       </c>
       <c r="H504" s="16" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="I504" s="16" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="505" spans="1:14" ht="14" customHeight="1">
       <c r="A505" s="16">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>829</v>
+        <v>2433</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>2419</v>
-      </c>
-      <c r="D505" s="16" t="s">
-        <v>2411</v>
+        <v>846</v>
       </c>
       <c r="H505" s="16" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="I505" s="16" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="506" spans="1:14" ht="14" customHeight="1">
-      <c r="A506" s="16">
-        <v>517</v>
-      </c>
       <c r="B506" s="16" t="s">
-        <v>2420</v>
+        <v>1193</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>2421</v>
+        <v>1197</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>2411</v>
+        <v>2493</v>
+      </c>
+      <c r="G506" s="16" t="s">
+        <v>1188</v>
       </c>
       <c r="H506" s="16" t="s">
-        <v>2423</v>
+        <v>1189</v>
       </c>
       <c r="I506" s="16" t="s">
-        <v>2422</v>
+        <v>1187</v>
+      </c>
+      <c r="N506" s="16" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="507" spans="1:14" ht="14" customHeight="1">
-      <c r="A507" s="16">
-        <v>518</v>
-      </c>
       <c r="B507" s="16" t="s">
-        <v>2424</v>
+        <v>1194</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>2426</v>
+        <v>1198</v>
       </c>
       <c r="D507" s="16" t="s">
-        <v>2411</v>
+        <v>2493</v>
+      </c>
+      <c r="G507" s="16" t="s">
+        <v>1188</v>
       </c>
       <c r="H507" s="16" t="s">
-        <v>2425</v>
+        <v>1190</v>
       </c>
       <c r="I507" s="16" t="s">
-        <v>2427</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="508" spans="1:14" ht="14" customHeight="1">
-      <c r="A508" s="16">
-        <v>519</v>
-      </c>
       <c r="B508" s="16" t="s">
-        <v>2428</v>
+        <v>1195</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>2431</v>
+        <v>1199</v>
       </c>
       <c r="D508" s="16" t="s">
-        <v>2411</v>
+        <v>2493</v>
+      </c>
+      <c r="G508" s="16" t="s">
+        <v>1188</v>
       </c>
       <c r="H508" s="16" t="s">
-        <v>2429</v>
+        <v>1191</v>
       </c>
       <c r="I508" s="16" t="s">
-        <v>2430</v>
+        <v>1187</v>
+      </c>
+      <c r="N508" s="16" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="509" spans="1:14" ht="14" customHeight="1">
-      <c r="A509" s="16">
-        <v>520</v>
-      </c>
       <c r="B509" s="16" t="s">
-        <v>830</v>
+        <v>1196</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>843</v>
+        <v>1200</v>
+      </c>
+      <c r="D509" s="16" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G509" s="16" t="s">
+        <v>1188</v>
       </c>
       <c r="H509" s="16" t="s">
-        <v>844</v>
+        <v>1192</v>
       </c>
       <c r="I509" s="16" t="s">
-        <v>845</v>
+        <v>1187</v>
+      </c>
+      <c r="N509" s="16" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="510" spans="1:14" ht="14" customHeight="1">
-      <c r="A510" s="16">
-        <v>521</v>
-      </c>
       <c r="B510" s="16" t="s">
-        <v>2433</v>
+        <v>1204</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>846</v>
+        <v>1205</v>
+      </c>
+      <c r="D510" s="16" t="s">
+        <v>2493</v>
+      </c>
+      <c r="G510" s="16" t="s">
+        <v>1202</v>
       </c>
       <c r="H510" s="16" t="s">
-        <v>847</v>
+        <v>1203</v>
       </c>
       <c r="I510" s="16" t="s">
-        <v>848</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="511" spans="1:14" ht="14" customHeight="1">
       <c r="B511" s="16" t="s">
-        <v>1193</v>
+        <v>1207</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
       <c r="D511" s="16" t="s">
         <v>2493</v>
       </c>
       <c r="G511" s="16" t="s">
-        <v>1188</v>
+        <v>1209</v>
       </c>
       <c r="H511" s="16" t="s">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="I511" s="16" t="s">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="N511" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="512" spans="1:14" ht="14" customHeight="1">
       <c r="B512" s="16" t="s">
-        <v>1194</v>
+        <v>1641</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>1198</v>
+        <v>2448</v>
       </c>
       <c r="D512" s="16" t="s">
-        <v>2493</v>
-      </c>
-      <c r="G512" s="16" t="s">
-        <v>1188</v>
+        <v>2488</v>
       </c>
       <c r="H512" s="16" t="s">
-        <v>1190</v>
+        <v>2449</v>
       </c>
       <c r="I512" s="16" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="513" spans="2:14" ht="14" customHeight="1">
+        <v>2451</v>
+      </c>
+      <c r="N512" s="16" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" ht="14" customHeight="1">
       <c r="B513" s="16" t="s">
-        <v>1195</v>
+        <v>2442</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>1199</v>
+        <v>2443</v>
       </c>
       <c r="D513" s="16" t="s">
-        <v>2493</v>
-      </c>
-      <c r="G513" s="16" t="s">
-        <v>1188</v>
+        <v>2488</v>
       </c>
       <c r="H513" s="16" t="s">
-        <v>1191</v>
+        <v>2452</v>
       </c>
       <c r="I513" s="16" t="s">
-        <v>1187</v>
-      </c>
-      <c r="N513" s="16" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="514" spans="2:14" ht="14" customHeight="1">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" ht="14" customHeight="1">
       <c r="B514" s="16" t="s">
-        <v>1196</v>
+        <v>1642</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>1200</v>
+        <v>2453</v>
       </c>
       <c r="D514" s="16" t="s">
-        <v>2493</v>
-      </c>
-      <c r="G514" s="16" t="s">
-        <v>1188</v>
+        <v>2489</v>
       </c>
       <c r="H514" s="16" t="s">
-        <v>1192</v>
+        <v>2454</v>
       </c>
       <c r="I514" s="16" t="s">
-        <v>1187</v>
+        <v>2455</v>
       </c>
       <c r="N514" s="16" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="515" spans="2:14" ht="14" customHeight="1">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" ht="14" customHeight="1">
       <c r="B515" s="16" t="s">
-        <v>1204</v>
+        <v>2444</v>
       </c>
       <c r="C515" s="16" t="s">
-        <v>1205</v>
+        <v>2445</v>
       </c>
       <c r="D515" s="16" t="s">
-        <v>2493</v>
-      </c>
-      <c r="G515" s="16" t="s">
-        <v>1202</v>
+        <v>2488</v>
       </c>
       <c r="H515" s="16" t="s">
-        <v>1203</v>
+        <v>2457</v>
       </c>
       <c r="I515" s="16" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="516" spans="2:14" ht="14" customHeight="1">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" ht="14" customHeight="1">
       <c r="B516" s="16" t="s">
-        <v>1207</v>
+        <v>1640</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>1210</v>
+        <v>2458</v>
       </c>
       <c r="D516" s="16" t="s">
-        <v>2493</v>
-      </c>
-      <c r="G516" s="16" t="s">
-        <v>1209</v>
+        <v>2488</v>
       </c>
       <c r="H516" s="16" t="s">
-        <v>1208</v>
+        <v>2460</v>
       </c>
       <c r="I516" s="16" t="s">
-        <v>1206</v>
+        <v>2459</v>
       </c>
       <c r="N516" s="16" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="517" spans="2:14" ht="14" customHeight="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" ht="14" customHeight="1">
       <c r="B517" s="16" t="s">
-        <v>1641</v>
+        <v>2446</v>
       </c>
       <c r="C517" s="16" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D517" s="16" t="s">
         <v>2488</v>
       </c>
       <c r="H517" s="16" t="s">
-        <v>2449</v>
+        <v>2462</v>
       </c>
       <c r="I517" s="16" t="s">
-        <v>2451</v>
-      </c>
-      <c r="N517" s="16" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="518" spans="2:14" ht="14" customHeight="1">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" ht="14" customHeight="1">
       <c r="B518" s="16" t="s">
-        <v>2442</v>
+        <v>2463</v>
       </c>
       <c r="C518" s="16" t="s">
-        <v>2443</v>
+        <v>2464</v>
       </c>
       <c r="D518" s="16" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="H518" s="16" t="s">
-        <v>2452</v>
+        <v>2465</v>
       </c>
       <c r="I518" s="16" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="519" spans="2:14" ht="14" customHeight="1">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" ht="14" customHeight="1">
       <c r="B519" s="16" t="s">
-        <v>1642</v>
+        <v>2467</v>
       </c>
       <c r="C519" s="16" t="s">
-        <v>2453</v>
+        <v>2469</v>
       </c>
       <c r="D519" s="16" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="H519" s="16" t="s">
-        <v>2454</v>
+        <v>2468</v>
       </c>
       <c r="I519" s="16" t="s">
-        <v>2455</v>
-      </c>
-      <c r="N519" s="16" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="520" spans="2:14" ht="14" customHeight="1">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" ht="14" customHeight="1">
       <c r="B520" s="16" t="s">
-        <v>2444</v>
+        <v>1646</v>
       </c>
       <c r="C520" s="16" t="s">
-        <v>2445</v>
+        <v>2470</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="H520" s="16" t="s">
-        <v>2457</v>
+        <v>2472</v>
       </c>
       <c r="I520" s="16" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="521" spans="2:14" ht="14" customHeight="1">
+        <v>2473</v>
+      </c>
+      <c r="N520" s="16" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" ht="14" customHeight="1">
       <c r="B521" s="16" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="C521" s="16" t="s">
-        <v>2458</v>
+        <v>2475</v>
       </c>
       <c r="D521" s="16" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="H521" s="16" t="s">
-        <v>2460</v>
+        <v>2476</v>
       </c>
       <c r="I521" s="16" t="s">
-        <v>2459</v>
+        <v>2477</v>
       </c>
       <c r="N521" s="16" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="522" spans="2:14" ht="14" customHeight="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" ht="14" customHeight="1">
       <c r="B522" s="16" t="s">
-        <v>2446</v>
+        <v>1644</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>2447</v>
+        <v>2478</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="H522" s="16" t="s">
-        <v>2462</v>
-      </c>
-      <c r="I522" s="16" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="523" spans="2:14" ht="14" customHeight="1">
+        <v>2479</v>
+      </c>
+      <c r="N522" s="16" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" ht="14" customHeight="1">
       <c r="B523" s="16" t="s">
-        <v>2463</v>
+        <v>2474</v>
       </c>
       <c r="C523" s="16" t="s">
-        <v>2464</v>
+        <v>2480</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="H523" s="16" t="s">
-        <v>2465</v>
+        <v>2481</v>
       </c>
       <c r="I523" s="16" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="524" spans="2:14" ht="14" customHeight="1">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" ht="14" customHeight="1">
       <c r="B524" s="16" t="s">
-        <v>2467</v>
+        <v>2483</v>
       </c>
       <c r="C524" s="16" t="s">
-        <v>2469</v>
+        <v>2484</v>
       </c>
       <c r="D524" s="16" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="H524" s="16" t="s">
-        <v>2468</v>
+        <v>2486</v>
       </c>
       <c r="I524" s="16" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="525" spans="2:14" ht="14" customHeight="1">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" ht="14" customHeight="1">
       <c r="B525" s="16" t="s">
-        <v>1646</v>
+        <v>2494</v>
       </c>
       <c r="C525" s="16" t="s">
-        <v>2470</v>
+        <v>2502</v>
       </c>
       <c r="D525" s="16" t="s">
-        <v>2492</v>
+        <v>2501</v>
       </c>
       <c r="H525" s="16" t="s">
-        <v>2472</v>
+        <v>2498</v>
       </c>
       <c r="I525" s="16" t="s">
-        <v>2473</v>
-      </c>
-      <c r="N525" s="16" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="526" spans="2:14" ht="14" customHeight="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" ht="14" customHeight="1">
       <c r="B526" s="16" t="s">
-        <v>1648</v>
+        <v>2495</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2475</v>
+        <v>2503</v>
       </c>
       <c r="D526" s="16" t="s">
-        <v>2492</v>
+        <v>2501</v>
       </c>
       <c r="H526" s="16" t="s">
-        <v>2476</v>
+        <v>2499</v>
       </c>
       <c r="I526" s="16" t="s">
-        <v>2477</v>
-      </c>
-      <c r="N526" s="16" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="527" spans="2:14" ht="14" customHeight="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" ht="14" customHeight="1">
       <c r="B527" s="16" t="s">
-        <v>1644</v>
+        <v>2496</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>2478</v>
+        <v>2504</v>
       </c>
       <c r="D527" s="16" t="s">
-        <v>2492</v>
-      </c>
-      <c r="H527" s="16" t="s">
-        <v>2479</v>
-      </c>
-      <c r="N527" s="16" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="528" spans="2:14" ht="14" customHeight="1">
+        <v>2501</v>
+      </c>
+      <c r="L527" s="16" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" ht="14" customHeight="1">
+      <c r="A528" s="16">
+        <v>395</v>
+      </c>
       <c r="B528" s="16" t="s">
-        <v>2474</v>
+        <v>1877</v>
       </c>
       <c r="C528" s="16" t="s">
-        <v>2480</v>
+        <v>1879</v>
       </c>
       <c r="D528" s="16" t="s">
-        <v>2492</v>
+        <v>1874</v>
       </c>
       <c r="H528" s="16" t="s">
-        <v>2481</v>
+        <v>1875</v>
       </c>
       <c r="I528" s="16" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="529" spans="2:12" ht="14" customHeight="1">
+        <v>1876</v>
+      </c>
+      <c r="J528" s="16" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" ht="14" customHeight="1">
+      <c r="A529" s="16">
+        <v>396</v>
+      </c>
       <c r="B529" s="16" t="s">
-        <v>2483</v>
+        <v>1882</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>2484</v>
+        <v>1878</v>
       </c>
       <c r="D529" s="16" t="s">
-        <v>2485</v>
+        <v>1874</v>
       </c>
       <c r="H529" s="16" t="s">
-        <v>2486</v>
-      </c>
-      <c r="I529" s="16" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="530" spans="2:12" ht="14" customHeight="1">
+        <v>1881</v>
+      </c>
+      <c r="J529" s="16" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" ht="14" customHeight="1">
+      <c r="A530" s="16">
+        <v>397</v>
+      </c>
       <c r="B530" s="16" t="s">
-        <v>2494</v>
+        <v>1883</v>
       </c>
       <c r="C530" s="16" t="s">
-        <v>2502</v>
+        <v>1880</v>
       </c>
       <c r="D530" s="16" t="s">
-        <v>2501</v>
+        <v>1874</v>
       </c>
       <c r="H530" s="16" t="s">
-        <v>2498</v>
-      </c>
-      <c r="I530" s="16" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="531" spans="2:12" ht="14" customHeight="1">
+        <v>1884</v>
+      </c>
+      <c r="J530" s="16" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" ht="14" customHeight="1">
+      <c r="A531" s="16">
+        <v>398</v>
+      </c>
       <c r="B531" s="16" t="s">
-        <v>2495</v>
+        <v>1885</v>
       </c>
       <c r="C531" s="16" t="s">
-        <v>2503</v>
+        <v>1889</v>
       </c>
       <c r="D531" s="16" t="s">
-        <v>2501</v>
+        <v>1874</v>
+      </c>
+      <c r="G531" s="16" t="s">
+        <v>1890</v>
       </c>
       <c r="H531" s="16" t="s">
-        <v>2499</v>
+        <v>1886</v>
       </c>
       <c r="I531" s="16" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="532" spans="2:12" ht="14" customHeight="1">
+        <v>1887</v>
+      </c>
+      <c r="J531" s="16" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" ht="14" customHeight="1">
+      <c r="A532" s="16">
+        <v>399</v>
+      </c>
       <c r="B532" s="16" t="s">
-        <v>2496</v>
+        <v>1894</v>
       </c>
       <c r="C532" s="16" t="s">
-        <v>2504</v>
+        <v>1896</v>
       </c>
       <c r="D532" s="16" t="s">
-        <v>2501</v>
-      </c>
-      <c r="L532" s="16" t="s">
-        <v>2497</v>
+        <v>1874</v>
+      </c>
+      <c r="J532" s="16" t="s">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O510" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O425">
-      <sortCondition ref="A1:A425"/>
+  <autoFilter ref="A1:O505" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O420">
+      <sortCondition ref="A1:A420"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19024,8 +19024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E91F8C-17F2-814B-9B05-09B7753A584A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB0D74-B5A9-FE40-9EF7-274347C7D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
@@ -8174,8 +8174,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H513" sqref="H513"/>
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I454" sqref="I454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -19024,8 +19024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A86" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB0D74-B5A9-FE40-9EF7-274347C7D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70AB6E-E38E-6543-BACB-C395138F826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="33680" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="33840" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="2536">
   <si>
     <t>NOTE</t>
   </si>
@@ -4775,9 +4775,6 @@
     <t>rps6</t>
   </si>
   <si>
-    <t>K02990</t>
-  </si>
-  <si>
     <t>small subunit ribosomal protein S6e</t>
   </si>
   <si>
@@ -7523,9 +7520,6 @@
     <t>MPn degradation to methane</t>
   </si>
   <si>
-    <t>phoAB</t>
-  </si>
-  <si>
     <t>phoD</t>
   </si>
   <si>
@@ -7572,6 +7566,87 @@
   </si>
   <si>
     <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/mlr.hmm</t>
+  </si>
+  <si>
+    <t>rps3</t>
+  </si>
+  <si>
+    <t>Ribosomal protein S3</t>
+  </si>
+  <si>
+    <t>K02982</t>
+  </si>
+  <si>
+    <t>Phylogeny</t>
+  </si>
+  <si>
+    <t>K02990,K02991</t>
+  </si>
+  <si>
+    <t>ugpQ</t>
+  </si>
+  <si>
+    <t>K01126</t>
+  </si>
+  <si>
+    <t>Glycerophosphoryl Diester Phosphodiesterase</t>
+  </si>
+  <si>
+    <t>cleaves diesters imported from ugpABCE</t>
+  </si>
+  <si>
+    <t>appA</t>
+  </si>
+  <si>
+    <t>phytase</t>
+  </si>
+  <si>
+    <t>K01083, K01093</t>
+  </si>
+  <si>
+    <t>ushA_nagD</t>
+  </si>
+  <si>
+    <t>nucleotidase</t>
+  </si>
+  <si>
+    <t>K02566,K11751</t>
+  </si>
+  <si>
+    <t>cleaves phosphate off of nucleotides</t>
+  </si>
+  <si>
+    <t>cleaves phosphate</t>
+  </si>
+  <si>
+    <t>phoA</t>
+  </si>
+  <si>
+    <t>K00937</t>
+  </si>
+  <si>
+    <t>ppk</t>
+  </si>
+  <si>
+    <t>polyphosphate kinase</t>
+  </si>
+  <si>
+    <t>phoB</t>
+  </si>
+  <si>
+    <t>phoR</t>
+  </si>
+  <si>
+    <t>K07657</t>
+  </si>
+  <si>
+    <t>phoBR Two-component system - pho regulon</t>
+  </si>
+  <si>
+    <t>phoB + phoR</t>
+  </si>
+  <si>
+    <t>K07636</t>
   </si>
 </sst>
 </file>
@@ -7732,9 +7807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7772,7 +7847,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7878,7 +7953,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8020,7 +8095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8059,10 +8134,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8076,7 +8151,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>484</v>
@@ -8090,7 +8165,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>911</v>
@@ -8126,7 +8201,7 @@
         <v>1550</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>911</v>
@@ -8137,30 +8212,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>911</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>911</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -8171,11 +8246,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:O539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I454" sqref="I454"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H539" sqref="H539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -8217,7 +8292,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>14</v>
@@ -8235,10 +8310,10 @@
         <v>1550</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14" customHeight="1">
@@ -8930,7 +9005,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>773</v>
@@ -8939,7 +9014,7 @@
         <v>135</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14" customHeight="1">
@@ -8953,7 +9028,7 @@
         <v>137</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>773</v>
@@ -8962,7 +9037,7 @@
         <v>138</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14" customHeight="1">
@@ -8976,7 +9051,7 @@
         <v>140</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>773</v>
@@ -8985,7 +9060,7 @@
         <v>141</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14" customHeight="1">
@@ -11580,7 +11655,7 @@
         <v>656</v>
       </c>
       <c r="M172" s="16" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="14" customHeight="1">
@@ -11605,22 +11680,22 @@
         <v>660</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E174" s="16" t="s">
         <v>1686</v>
       </c>
-      <c r="D174" s="16" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E174" s="16" t="s">
+      <c r="G174" s="16" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I174" s="16" t="s">
         <v>1687</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H174" s="16" t="s">
-        <v>1697</v>
-      </c>
-      <c r="I174" s="16" t="s">
-        <v>1688</v>
       </c>
       <c r="L174" s="16" t="s">
         <v>661</v>
@@ -11634,7 +11709,7 @@
         <v>662</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>698</v>
@@ -11643,7 +11718,7 @@
         <v>664</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="L175" s="16" t="s">
         <v>663</v>
@@ -11657,7 +11732,7 @@
         <v>665</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>698</v>
@@ -11666,13 +11741,13 @@
         <v>667</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L176" s="16" t="s">
         <v>666</v>
       </c>
       <c r="M176" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="14" customHeight="1">
@@ -11683,19 +11758,19 @@
         <v>668</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>670</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J177" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L177" s="16" t="s">
         <v>669</v>
@@ -11709,7 +11784,7 @@
         <v>671</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>698</v>
@@ -12046,7 +12121,7 @@
         <v>751</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>745</v>
@@ -12084,7 +12159,7 @@
         <v>761</v>
       </c>
       <c r="J194" s="16" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="14" customHeight="1">
@@ -12113,7 +12188,7 @@
         <v>761</v>
       </c>
       <c r="J195" s="16" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14" customHeight="1">
@@ -12162,7 +12237,7 @@
         <v>756</v>
       </c>
       <c r="J197" s="16" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14" customHeight="1">
@@ -12191,7 +12266,7 @@
         <v>761</v>
       </c>
       <c r="J198" s="16" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="14" customHeight="1">
@@ -15014,7 +15089,7 @@
         <v>1551</v>
       </c>
       <c r="M324" s="16" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="14" customHeight="1">
@@ -15028,7 +15103,7 @@
         <v>1552</v>
       </c>
       <c r="M325" s="16" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="14" customHeight="1">
@@ -15042,7 +15117,7 @@
         <v>1553</v>
       </c>
       <c r="M326" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="14" customHeight="1">
@@ -15056,7 +15131,7 @@
         <v>1554</v>
       </c>
       <c r="M327" s="16" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="14" customHeight="1">
@@ -15070,7 +15145,7 @@
         <v>1555</v>
       </c>
       <c r="M328" s="16" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="14" customHeight="1">
@@ -15106,7 +15181,7 @@
         <v>1558</v>
       </c>
       <c r="M331" s="16" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="14" customHeight="1">
@@ -15120,7 +15195,7 @@
         <v>1559</v>
       </c>
       <c r="M332" s="16" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="14" customHeight="1">
@@ -15131,7 +15206,7 @@
         <v>1574</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="H333" s="16" t="s">
         <v>1575</v>
@@ -15145,7 +15220,7 @@
         <v>1573</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="H334" s="16" t="s">
         <v>1576</v>
@@ -15196,10 +15271,10 @@
         <v>1577</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H337" s="16" t="s">
-        <v>1578</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="14" customHeight="1">
@@ -15207,16 +15282,16 @@
         <v>343</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D338" s="16" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H338" s="16" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="339" spans="1:15" ht="14" customHeight="1">
@@ -15224,16 +15299,16 @@
         <v>344</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D339" s="16" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H339" s="16" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="340" spans="1:15" ht="14" customHeight="1">
@@ -15241,16 +15316,16 @@
         <v>345</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H340" s="16" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="341" spans="1:15" ht="14" customHeight="1">
@@ -15258,16 +15333,16 @@
         <v>346</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D341" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H341" s="16" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="342" spans="1:15" ht="14" customHeight="1">
@@ -15275,16 +15350,16 @@
         <v>347</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H342" s="16" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="343" spans="1:15" ht="14" customHeight="1">
@@ -15292,16 +15367,16 @@
         <v>348</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H343" s="16" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="344" spans="1:15" ht="14" customHeight="1">
@@ -15309,16 +15384,16 @@
         <v>349</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D344" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H344" s="16" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="345" spans="1:15" ht="14" customHeight="1">
@@ -15326,16 +15401,16 @@
         <v>350</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D345" s="16" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H345" s="16" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="346" spans="1:15" ht="14" customHeight="1">
@@ -15343,16 +15418,16 @@
         <v>351</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H346" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="347" spans="1:15" ht="14" customHeight="1">
@@ -15360,16 +15435,16 @@
         <v>352</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H347" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="348" spans="1:15" ht="14" customHeight="1">
@@ -15377,19 +15452,19 @@
         <v>353</v>
       </c>
       <c r="B348" s="16" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D348" s="16" t="s">
         <v>1626</v>
       </c>
-      <c r="C348" s="16" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D348" s="16" t="s">
-        <v>1627</v>
-      </c>
       <c r="L348" s="16" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="O348" s="16" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="349" spans="1:15" ht="14" customHeight="1">
@@ -15397,19 +15472,19 @@
         <v>354</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="O349" s="16" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="350" spans="1:15" ht="14" customHeight="1">
@@ -15417,19 +15492,19 @@
         <v>355</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D350" s="16" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="O350" s="16" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="351" spans="1:15" ht="14" customHeight="1">
@@ -15437,19 +15512,19 @@
         <v>356</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L351" s="16" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="O351" s="16" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="352" spans="1:15" ht="14" customHeight="1">
@@ -15457,22 +15532,22 @@
         <v>357</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D352" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H352" s="16" t="s">
         <v>1669</v>
       </c>
-      <c r="D352" s="16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H352" s="16" t="s">
+      <c r="I352" s="16" t="s">
         <v>1670</v>
       </c>
-      <c r="I352" s="16" t="s">
-        <v>1671</v>
-      </c>
       <c r="J352" s="16" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="14" customHeight="1">
@@ -15480,22 +15555,22 @@
         <v>358</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C353" s="16" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D353" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H353" s="16" t="s">
         <v>1672</v>
       </c>
-      <c r="D353" s="16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H353" s="16" t="s">
-        <v>1673</v>
-      </c>
       <c r="I353" s="16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J353" s="16" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="14" customHeight="1">
@@ -15503,22 +15578,22 @@
         <v>359</v>
       </c>
       <c r="B354" s="16" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C354" s="16" t="s">
         <v>1674</v>
       </c>
-      <c r="C354" s="16" t="s">
+      <c r="D354" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H354" s="16" t="s">
         <v>1675</v>
       </c>
-      <c r="D354" s="16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H354" s="16" t="s">
+      <c r="I354" s="16" t="s">
         <v>1676</v>
       </c>
-      <c r="I354" s="16" t="s">
-        <v>1677</v>
-      </c>
       <c r="J354" s="16" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="14" customHeight="1">
@@ -15526,25 +15601,25 @@
         <v>360</v>
       </c>
       <c r="B355" s="16" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D355" s="16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G355" s="16" t="s">
         <v>1681</v>
       </c>
-      <c r="C355" s="16" t="s">
+      <c r="H355" s="16" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I355" s="16" t="s">
         <v>1678</v>
       </c>
-      <c r="D355" s="16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G355" s="16" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H355" s="16" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I355" s="16" t="s">
-        <v>1679</v>
-      </c>
       <c r="J355" s="16" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="14" customHeight="1">
@@ -15552,16 +15627,16 @@
         <v>362</v>
       </c>
       <c r="B356" s="16" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H356" s="16" t="s">
         <v>1835</v>
       </c>
-      <c r="C356" s="16" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H356" s="16" t="s">
-        <v>1836</v>
-      </c>
       <c r="J356" s="16" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="14" customHeight="1">
@@ -15569,28 +15644,28 @@
         <v>368</v>
       </c>
       <c r="B357" s="16" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C357" s="16" t="s">
         <v>1717</v>
       </c>
-      <c r="C357" s="16" t="s">
-        <v>1718</v>
-      </c>
       <c r="D357" s="16" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E357" s="16" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G357" s="16" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H357" s="16" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I357" s="16" t="s">
         <v>1720</v>
       </c>
-      <c r="G357" s="16" t="s">
-        <v>1723</v>
-      </c>
-      <c r="H357" s="16" t="s">
-        <v>1811</v>
-      </c>
-      <c r="I357" s="16" t="s">
+      <c r="J357" s="16" t="s">
         <v>1721</v>
-      </c>
-      <c r="J357" s="16" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="14" customHeight="1">
@@ -15598,28 +15673,28 @@
         <v>369</v>
       </c>
       <c r="B358" s="16" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C358" s="16" t="s">
         <v>1727</v>
       </c>
-      <c r="C358" s="16" t="s">
+      <c r="D358" s="16" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G358" s="16" t="s">
         <v>1728</v>
       </c>
-      <c r="D358" s="16" t="s">
+      <c r="H358" s="16" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I358" s="16" t="s">
         <v>1725</v>
       </c>
-      <c r="E358" s="16" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G358" s="16" t="s">
+      <c r="J358" s="16" t="s">
         <v>1729</v>
-      </c>
-      <c r="H358" s="16" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I358" s="16" t="s">
-        <v>1726</v>
-      </c>
-      <c r="J358" s="16" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="14" customHeight="1">
@@ -15627,25 +15702,25 @@
         <v>370</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D359" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E359" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="E359" s="16" t="s">
-        <v>1762</v>
-      </c>
       <c r="H359" s="16" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I359" s="16" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J359" s="16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="14" customHeight="1">
@@ -15653,25 +15728,25 @@
         <v>371</v>
       </c>
       <c r="B360" s="16" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D360" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E360" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="E360" s="16" t="s">
-        <v>1762</v>
-      </c>
       <c r="H360" s="16" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I360" s="16" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J360" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="14" customHeight="1">
@@ -15679,25 +15754,25 @@
         <v>372</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D361" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E361" s="16" t="s">
         <v>1761</v>
       </c>
-      <c r="E361" s="16" t="s">
-        <v>1762</v>
-      </c>
       <c r="H361" s="16" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="I361" s="16" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J361" s="16" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="14" customHeight="1">
@@ -15705,25 +15780,25 @@
         <v>373</v>
       </c>
       <c r="B362" s="16" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C362" s="16" t="s">
         <v>1746</v>
       </c>
-      <c r="C362" s="16" t="s">
+      <c r="D362" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H362" s="16" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I362" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="D362" s="16" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H362" s="16" t="s">
-        <v>1740</v>
-      </c>
-      <c r="I362" s="16" t="s">
-        <v>1748</v>
-      </c>
       <c r="J362" s="16" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="14" customHeight="1">
@@ -15731,25 +15806,25 @@
         <v>374</v>
       </c>
       <c r="B363" s="16" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D363" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E363" s="17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H363" s="16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I363" s="16" t="s">
         <v>1752</v>
       </c>
-      <c r="C363" s="16" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D363" s="16" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E363" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H363" s="16" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I363" s="16" t="s">
-        <v>1753</v>
-      </c>
       <c r="J363" s="16" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="14" customHeight="1">
@@ -15757,25 +15832,25 @@
         <v>375</v>
       </c>
       <c r="B364" s="16" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D364" s="16" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E364" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H364" s="16" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I364" s="16" t="s">
         <v>1755</v>
       </c>
-      <c r="C364" s="16" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D364" s="16" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E364" s="17" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H364" s="16" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I364" s="16" t="s">
-        <v>1756</v>
-      </c>
       <c r="J364" s="16" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="14" customHeight="1">
@@ -15783,22 +15858,22 @@
         <v>376</v>
       </c>
       <c r="B365" s="16" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C365" s="16" t="s">
         <v>1774</v>
       </c>
-      <c r="C365" s="16" t="s">
+      <c r="D365" s="16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H365" s="16" t="s">
         <v>1775</v>
       </c>
-      <c r="D365" s="16" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H365" s="16" t="s">
-        <v>1776</v>
-      </c>
       <c r="I365" s="16" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J365" s="16" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="14" customHeight="1">
@@ -15806,22 +15881,22 @@
         <v>377</v>
       </c>
       <c r="B366" s="16" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D366" s="16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H366" s="16" t="s">
         <v>1777</v>
       </c>
-      <c r="C366" s="16" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D366" s="16" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H366" s="16" t="s">
-        <v>1778</v>
-      </c>
       <c r="I366" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J366" s="16" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="367" spans="1:10" ht="14" customHeight="1">
@@ -15829,22 +15904,22 @@
         <v>378</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D367" s="16" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H367" s="16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I367" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J367" s="16" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="368" spans="1:10" ht="14" customHeight="1">
@@ -15852,22 +15927,22 @@
         <v>379</v>
       </c>
       <c r="B368" s="16" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C368" s="16" t="s">
         <v>1783</v>
       </c>
-      <c r="C368" s="16" t="s">
+      <c r="D368" s="16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H368" s="16" t="s">
         <v>1784</v>
       </c>
-      <c r="D368" s="16" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H368" s="16" t="s">
-        <v>1785</v>
-      </c>
       <c r="I368" s="16" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="J368" s="16" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="14" customHeight="1">
@@ -15875,22 +15950,22 @@
         <v>380</v>
       </c>
       <c r="B369" s="16" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D369" s="16" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H369" s="16" t="s">
         <v>1795</v>
       </c>
-      <c r="C369" s="16" t="s">
+      <c r="I369" s="16" t="s">
         <v>1792</v>
       </c>
-      <c r="D369" s="16" t="s">
-        <v>1791</v>
-      </c>
-      <c r="H369" s="16" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I369" s="16" t="s">
+      <c r="J369" s="16" t="s">
         <v>1793</v>
-      </c>
-      <c r="J369" s="16" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="370" spans="1:10" ht="14" customHeight="1">
@@ -15898,22 +15973,22 @@
         <v>381</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H370" s="16" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="I370" s="16" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="J370" s="16" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="14" customHeight="1">
@@ -15921,22 +15996,22 @@
         <v>382</v>
       </c>
       <c r="B371" s="16" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D371" s="16" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H371" s="16" t="s">
         <v>1803</v>
       </c>
-      <c r="C371" s="16" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D371" s="16" t="s">
+      <c r="I371" s="16" t="s">
         <v>1798</v>
       </c>
-      <c r="H371" s="16" t="s">
-        <v>1804</v>
-      </c>
-      <c r="I371" s="16" t="s">
-        <v>1799</v>
-      </c>
       <c r="J371" s="16" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="14" customHeight="1">
@@ -15944,22 +16019,22 @@
         <v>383</v>
       </c>
       <c r="B372" s="16" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C372" s="16" t="s">
         <v>1829</v>
       </c>
-      <c r="C372" s="16" t="s">
-        <v>1830</v>
-      </c>
       <c r="D372" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H372" s="16" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I372" s="16" t="s">
         <v>1813</v>
       </c>
-      <c r="I372" s="16" t="s">
-        <v>1814</v>
-      </c>
       <c r="J372" s="16" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="14" customHeight="1">
@@ -15967,25 +16042,25 @@
         <v>384</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D373" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H373" s="16" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I373" s="16" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="J373" s="16" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="14" customHeight="1">
@@ -15993,22 +16068,22 @@
         <v>385</v>
       </c>
       <c r="B374" s="16" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C374" s="16" t="s">
         <v>1833</v>
       </c>
-      <c r="C374" s="16" t="s">
-        <v>1834</v>
-      </c>
       <c r="D374" s="16" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H374" s="16" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I374" s="16" t="s">
         <v>1815</v>
       </c>
-      <c r="I374" s="16" t="s">
-        <v>1816</v>
-      </c>
       <c r="J374" s="16" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="14" customHeight="1">
@@ -16016,25 +16091,25 @@
         <v>386</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G375" s="16" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H375" s="16" t="s">
+        <v>1816</v>
+      </c>
+      <c r="I375" s="16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J375" s="16" t="s">
         <v>1846</v>
-      </c>
-      <c r="H375" s="16" t="s">
-        <v>1817</v>
-      </c>
-      <c r="I375" s="16" t="s">
-        <v>1819</v>
-      </c>
-      <c r="J375" s="16" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="14" customHeight="1">
@@ -16042,22 +16117,22 @@
         <v>387</v>
       </c>
       <c r="B376" s="16" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C376" s="16" t="s">
         <v>1849</v>
       </c>
-      <c r="C376" s="16" t="s">
+      <c r="D376" s="16" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H376" s="16" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I376" s="16" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J376" s="16" t="s">
         <v>1850</v>
-      </c>
-      <c r="D376" s="16" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H376" s="16" t="s">
-        <v>1820</v>
-      </c>
-      <c r="I376" s="16" t="s">
-        <v>1854</v>
-      </c>
-      <c r="J376" s="16" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="14" customHeight="1">
@@ -16065,22 +16140,22 @@
         <v>388</v>
       </c>
       <c r="B377" s="16" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C377" s="16" t="s">
         <v>1852</v>
       </c>
-      <c r="C377" s="16" t="s">
+      <c r="D377" s="16" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H377" s="16" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I377" s="16" t="s">
         <v>1853</v>
       </c>
-      <c r="D377" s="16" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H377" s="16" t="s">
-        <v>1821</v>
-      </c>
-      <c r="I377" s="16" t="s">
-        <v>1854</v>
-      </c>
       <c r="J377" s="16" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="14" customHeight="1">
@@ -16088,22 +16163,22 @@
         <v>389</v>
       </c>
       <c r="B378" s="16" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C378" s="16" t="s">
         <v>1855</v>
       </c>
-      <c r="C378" s="16" t="s">
+      <c r="D378" s="16" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H378" s="16" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I378" s="16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J378" s="16" t="s">
         <v>1856</v>
-      </c>
-      <c r="D378" s="16" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H378" s="16" t="s">
-        <v>1822</v>
-      </c>
-      <c r="I378" s="16" t="s">
-        <v>1823</v>
-      </c>
-      <c r="J378" s="16" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="379" spans="1:10" ht="14" customHeight="1">
@@ -16111,22 +16186,22 @@
         <v>390</v>
       </c>
       <c r="B379" s="16" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D379" s="16" t="s">
         <v>1858</v>
       </c>
-      <c r="C379" s="16" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D379" s="16" t="s">
+      <c r="H379" s="16" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I379" s="16" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J379" s="16" t="s">
         <v>1859</v>
-      </c>
-      <c r="H379" s="16" t="s">
-        <v>1824</v>
-      </c>
-      <c r="I379" s="16" t="s">
-        <v>1825</v>
-      </c>
-      <c r="J379" s="16" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="14" customHeight="1">
@@ -16134,22 +16209,22 @@
         <v>391</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D380" s="16" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H380" s="16" t="s">
         <v>402</v>
       </c>
       <c r="I380" s="16" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="J380" s="16" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="14" customHeight="1">
@@ -16157,22 +16232,22 @@
         <v>392</v>
       </c>
       <c r="B381" s="16" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C381" s="16" t="s">
         <v>1863</v>
       </c>
-      <c r="C381" s="16" t="s">
+      <c r="D381" s="16" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H381" s="16" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I381" s="16" t="s">
         <v>1864</v>
       </c>
-      <c r="D381" s="16" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H381" s="16" t="s">
-        <v>1826</v>
-      </c>
-      <c r="I381" s="16" t="s">
+      <c r="J381" s="16" t="s">
         <v>1865</v>
-      </c>
-      <c r="J381" s="16" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="14" customHeight="1">
@@ -16180,16 +16255,16 @@
         <v>393</v>
       </c>
       <c r="B382" s="16" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C382" s="16" t="s">
         <v>1867</v>
       </c>
-      <c r="C382" s="16" t="s">
-        <v>1868</v>
-      </c>
       <c r="D382" s="16" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H382" s="16" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="14" customHeight="1">
@@ -16197,22 +16272,22 @@
         <v>394</v>
       </c>
       <c r="B383" s="16" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C383" s="16" t="s">
         <v>1871</v>
       </c>
-      <c r="C383" s="16" t="s">
-        <v>1872</v>
-      </c>
       <c r="D383" s="16" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H383" s="16" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="I383" s="16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J383" s="16" t="s">
         <v>1869</v>
-      </c>
-      <c r="J383" s="16" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="14" customHeight="1">
@@ -16220,22 +16295,22 @@
         <v>400</v>
       </c>
       <c r="B384" s="16" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D384" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G384" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H384" s="16" t="s">
         <v>2084</v>
       </c>
-      <c r="C384" s="16" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D384" s="16" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G384" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="H384" s="16" t="s">
+      <c r="I384" s="16" t="s">
         <v>2085</v>
-      </c>
-      <c r="I384" s="16" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="385" spans="1:12" ht="14" customHeight="1">
@@ -16243,22 +16318,22 @@
         <v>401</v>
       </c>
       <c r="B385" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D385" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G385" s="16" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H385" s="16" t="s">
         <v>1908</v>
       </c>
-      <c r="C385" s="16" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D385" s="16" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G385" s="16" t="s">
-        <v>1911</v>
-      </c>
-      <c r="H385" s="16" t="s">
+      <c r="I385" s="16" t="s">
         <v>1909</v>
-      </c>
-      <c r="I385" s="16" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="386" spans="1:12" ht="14" customHeight="1">
@@ -16266,19 +16341,19 @@
         <v>402</v>
       </c>
       <c r="B386" s="16" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D386" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H386" s="16" t="s">
         <v>1915</v>
       </c>
-      <c r="C386" s="16" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D386" s="16" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H386" s="16" t="s">
+      <c r="I386" s="16" t="s">
         <v>1916</v>
-      </c>
-      <c r="I386" s="16" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="387" spans="1:12" ht="14" customHeight="1">
@@ -16286,19 +16361,19 @@
         <v>403</v>
       </c>
       <c r="B387" s="16" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C387" s="16" t="s">
         <v>1929</v>
       </c>
-      <c r="C387" s="16" t="s">
+      <c r="D387" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H387" s="16" t="s">
         <v>1930</v>
       </c>
-      <c r="D387" s="16" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H387" s="16" t="s">
+      <c r="I387" s="16" t="s">
         <v>1931</v>
-      </c>
-      <c r="I387" s="16" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="388" spans="1:12" ht="14" customHeight="1">
@@ -16306,19 +16381,19 @@
         <v>404</v>
       </c>
       <c r="B388" s="16" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C388" s="16" t="s">
         <v>1933</v>
       </c>
-      <c r="C388" s="16" t="s">
+      <c r="D388" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H388" s="16" t="s">
         <v>1934</v>
       </c>
-      <c r="D388" s="16" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H388" s="16" t="s">
+      <c r="I388" s="16" t="s">
         <v>1935</v>
-      </c>
-      <c r="I388" s="16" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="389" spans="1:12" ht="14" customHeight="1">
@@ -16326,19 +16401,19 @@
         <v>405</v>
       </c>
       <c r="B389" s="16" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C389" s="16" t="s">
         <v>1937</v>
       </c>
-      <c r="C389" s="16" t="s">
+      <c r="D389" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H389" s="16" t="s">
         <v>1938</v>
       </c>
-      <c r="D389" s="16" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H389" s="16" t="s">
+      <c r="I389" s="16" t="s">
         <v>1939</v>
-      </c>
-      <c r="I389" s="16" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="390" spans="1:12" ht="14" customHeight="1">
@@ -16349,16 +16424,16 @@
         <v>684</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D390" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H390" s="16" t="s">
         <v>686</v>
       </c>
       <c r="I390" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L390" s="16" t="s">
         <v>685</v>
@@ -16372,16 +16447,16 @@
         <v>687</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D391" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H391" s="16" t="s">
         <v>689</v>
       </c>
       <c r="I391" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="L391" s="16" t="s">
         <v>688</v>
@@ -16395,16 +16470,16 @@
         <v>675</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D392" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H392" s="16" t="s">
         <v>677</v>
       </c>
       <c r="I392" s="16" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L392" s="16" t="s">
         <v>676</v>
@@ -16418,16 +16493,16 @@
         <v>678</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D393" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H393" s="16" t="s">
         <v>680</v>
       </c>
       <c r="I393" s="16" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="L393" s="16" t="s">
         <v>679</v>
@@ -16438,16 +16513,16 @@
         <v>410</v>
       </c>
       <c r="B394" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C394" s="16" t="s">
         <v>1945</v>
       </c>
-      <c r="C394" s="16" t="s">
+      <c r="D394" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H394" s="16" t="s">
         <v>1946</v>
-      </c>
-      <c r="D394" s="16" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H394" s="16" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="395" spans="1:12" ht="14" customHeight="1">
@@ -16458,16 +16533,16 @@
         <v>681</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D395" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H395" s="16" t="s">
         <v>683</v>
       </c>
       <c r="I395" s="16" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L395" s="16" t="s">
         <v>682</v>
@@ -16478,19 +16553,19 @@
         <v>412</v>
       </c>
       <c r="B396" s="16" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C396" s="16" t="s">
         <v>1951</v>
       </c>
-      <c r="C396" s="16" t="s">
-        <v>1952</v>
-      </c>
       <c r="D396" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H396" s="16" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="I396" s="16" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="397" spans="1:12" ht="14" customHeight="1">
@@ -16498,19 +16573,19 @@
         <v>413</v>
       </c>
       <c r="B397" s="16" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C397" s="16" t="s">
         <v>1953</v>
       </c>
-      <c r="C397" s="16" t="s">
-        <v>1954</v>
-      </c>
       <c r="D397" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H397" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I397" s="16" t="s">
         <v>1956</v>
-      </c>
-      <c r="I397" s="16" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="398" spans="1:12" ht="14" customHeight="1">
@@ -16518,19 +16593,19 @@
         <v>414</v>
       </c>
       <c r="B398" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C398" s="16" t="s">
         <v>1958</v>
       </c>
-      <c r="C398" s="16" t="s">
-        <v>1959</v>
-      </c>
       <c r="D398" s="16" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H398" s="16" t="s">
         <v>693</v>
       </c>
       <c r="I398" s="16" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="399" spans="1:12" ht="14" customHeight="1">
@@ -16538,19 +16613,19 @@
         <v>415</v>
       </c>
       <c r="B399" s="16" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C399" s="16" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D399" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H399" s="16" t="s">
         <v>1972</v>
       </c>
-      <c r="C399" s="16" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D399" s="16" t="s">
+      <c r="I399" s="16" t="s">
         <v>1974</v>
-      </c>
-      <c r="H399" s="16" t="s">
-        <v>1973</v>
-      </c>
-      <c r="I399" s="16" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="400" spans="1:12" ht="14" customHeight="1">
@@ -16558,19 +16633,19 @@
         <v>416</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D400" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H400" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="I400" s="16" t="s">
         <v>1974</v>
-      </c>
-      <c r="H400" s="16" t="s">
-        <v>1980</v>
-      </c>
-      <c r="I400" s="16" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="14" customHeight="1">
@@ -16578,19 +16653,19 @@
         <v>417</v>
       </c>
       <c r="B401" s="16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C401" s="16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D401" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H401" s="16" t="s">
         <v>1978</v>
       </c>
-      <c r="C401" s="16" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D401" s="16" t="s">
+      <c r="I401" s="16" t="s">
         <v>1974</v>
-      </c>
-      <c r="H401" s="16" t="s">
-        <v>1979</v>
-      </c>
-      <c r="I401" s="16" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="14" customHeight="1">
@@ -16598,19 +16673,19 @@
         <v>418</v>
       </c>
       <c r="B402" s="16" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C402" s="16" t="s">
         <v>1984</v>
       </c>
-      <c r="C402" s="16" t="s">
+      <c r="D402" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H402" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="D402" s="16" t="s">
-        <v>1974</v>
-      </c>
-      <c r="H402" s="16" t="s">
+      <c r="I402" s="16" t="s">
         <v>1986</v>
-      </c>
-      <c r="I402" s="16" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="14" customHeight="1">
@@ -16618,19 +16693,19 @@
         <v>419</v>
       </c>
       <c r="B403" s="16" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C403" s="16" t="s">
         <v>1989</v>
       </c>
-      <c r="C403" s="16" t="s">
+      <c r="D403" s="16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H403" s="16" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I403" s="16" t="s">
         <v>1990</v>
-      </c>
-      <c r="D403" s="16" t="s">
-        <v>1974</v>
-      </c>
-      <c r="H403" s="16" t="s">
-        <v>1988</v>
-      </c>
-      <c r="I403" s="16" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="14" customHeight="1">
@@ -16638,19 +16713,19 @@
         <v>420</v>
       </c>
       <c r="B404" s="16" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C404" s="16" t="s">
         <v>1993</v>
       </c>
-      <c r="C404" s="16" t="s">
+      <c r="D404" s="16" t="s">
         <v>1994</v>
       </c>
-      <c r="D404" s="16" t="s">
-        <v>1995</v>
-      </c>
       <c r="H404" s="16" t="s">
+        <v>1996</v>
+      </c>
+      <c r="I404" s="16" t="s">
         <v>1997</v>
-      </c>
-      <c r="I404" s="16" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="14" customHeight="1">
@@ -16658,19 +16733,19 @@
         <v>421</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C405" s="16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D405" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H405" s="16" t="s">
         <v>2001</v>
       </c>
-      <c r="D405" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H405" s="16" t="s">
+      <c r="I405" s="16" t="s">
         <v>2002</v>
-      </c>
-      <c r="I405" s="16" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="14" customHeight="1">
@@ -16678,19 +16753,19 @@
         <v>422</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C406" s="16" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D406" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H406" s="16" t="s">
         <v>2004</v>
       </c>
-      <c r="D406" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H406" s="16" t="s">
+      <c r="I406" s="16" t="s">
         <v>2005</v>
-      </c>
-      <c r="I406" s="16" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="14" customHeight="1">
@@ -16698,19 +16773,19 @@
         <v>423</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D407" s="16" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H407" s="16" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I407" s="16" t="s">
         <v>2010</v>
-      </c>
-      <c r="I407" s="16" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="14" customHeight="1">
@@ -16718,19 +16793,19 @@
         <v>424</v>
       </c>
       <c r="B408" s="16" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C408" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D408" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H408" s="16" t="s">
         <v>2008</v>
       </c>
-      <c r="C408" s="16" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D408" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H408" s="16" t="s">
-        <v>2009</v>
-      </c>
       <c r="I408" s="16" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="14" customHeight="1">
@@ -16738,19 +16813,19 @@
         <v>425</v>
       </c>
       <c r="B409" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C409" s="16" t="s">
         <v>2015</v>
       </c>
-      <c r="C409" s="16" t="s">
+      <c r="D409" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H409" s="16" t="s">
         <v>2016</v>
       </c>
-      <c r="D409" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H409" s="16" t="s">
+      <c r="I409" s="16" t="s">
         <v>2017</v>
-      </c>
-      <c r="I409" s="16" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="14" customHeight="1">
@@ -16758,19 +16833,19 @@
         <v>426</v>
       </c>
       <c r="B410" s="16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C410" s="16" t="s">
         <v>2019</v>
       </c>
-      <c r="C410" s="16" t="s">
+      <c r="D410" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H410" s="16" t="s">
         <v>2020</v>
       </c>
-      <c r="D410" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H410" s="16" t="s">
+      <c r="I410" s="16" t="s">
         <v>2021</v>
-      </c>
-      <c r="I410" s="16" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="14" customHeight="1">
@@ -16778,19 +16853,19 @@
         <v>427</v>
       </c>
       <c r="B411" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C411" s="16" t="s">
         <v>2023</v>
       </c>
-      <c r="C411" s="16" t="s">
+      <c r="D411" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H411" s="16" t="s">
         <v>2024</v>
       </c>
-      <c r="D411" s="16" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H411" s="16" t="s">
+      <c r="I411" s="16" t="s">
         <v>2025</v>
-      </c>
-      <c r="I411" s="16" t="s">
-        <v>2026</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="14" customHeight="1">
@@ -16798,19 +16873,19 @@
         <v>428</v>
       </c>
       <c r="B412" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C412" s="16" t="s">
         <v>2031</v>
       </c>
-      <c r="C412" s="16" t="s">
+      <c r="D412" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H412" s="16" t="s">
         <v>2032</v>
       </c>
-      <c r="D412" s="16" t="s">
+      <c r="I412" s="16" t="s">
         <v>2034</v>
-      </c>
-      <c r="H412" s="16" t="s">
-        <v>2033</v>
-      </c>
-      <c r="I412" s="16" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="14" customHeight="1">
@@ -16818,16 +16893,16 @@
         <v>429</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C413" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D413" s="16" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H413" s="16" t="s">
         <v>2036</v>
-      </c>
-      <c r="D413" s="16" t="s">
-        <v>2059</v>
-      </c>
-      <c r="H413" s="16" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="14" customHeight="1">
@@ -16835,19 +16910,19 @@
         <v>430</v>
       </c>
       <c r="B414" s="16" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D414" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H414" s="16" t="s">
         <v>2040</v>
       </c>
-      <c r="C414" s="16" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D414" s="16" t="s">
-        <v>2030</v>
-      </c>
-      <c r="H414" s="16" t="s">
+      <c r="I414" s="16" t="s">
         <v>2041</v>
-      </c>
-      <c r="I414" s="16" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="14" customHeight="1">
@@ -16855,19 +16930,19 @@
         <v>431</v>
       </c>
       <c r="B415" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C415" s="16" t="s">
         <v>2046</v>
       </c>
-      <c r="C415" s="16" t="s">
+      <c r="D415" s="16" t="s">
         <v>2047</v>
       </c>
-      <c r="D415" s="16" t="s">
+      <c r="H415" s="16" t="s">
         <v>2048</v>
       </c>
-      <c r="H415" s="16" t="s">
+      <c r="I415" s="16" t="s">
         <v>2049</v>
-      </c>
-      <c r="I415" s="16" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="14" customHeight="1">
@@ -16875,19 +16950,19 @@
         <v>432</v>
       </c>
       <c r="B416" s="16" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C416" s="16" t="s">
         <v>2051</v>
       </c>
-      <c r="C416" s="16" t="s">
+      <c r="D416" s="16" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H416" s="16" t="s">
         <v>2052</v>
       </c>
-      <c r="D416" s="16" t="s">
-        <v>2048</v>
-      </c>
-      <c r="H416" s="16" t="s">
+      <c r="I416" s="16" t="s">
         <v>2053</v>
-      </c>
-      <c r="I416" s="16" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="14" customHeight="1">
@@ -16895,19 +16970,19 @@
         <v>433</v>
       </c>
       <c r="B417" s="16" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C417" s="16" t="s">
         <v>2055</v>
       </c>
-      <c r="C417" s="16" t="s">
+      <c r="D417" s="16" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H417" s="16" t="s">
         <v>2056</v>
       </c>
-      <c r="D417" s="16" t="s">
-        <v>2048</v>
-      </c>
-      <c r="H417" s="16" t="s">
+      <c r="I417" s="16" t="s">
         <v>2057</v>
-      </c>
-      <c r="I417" s="16" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="14" customHeight="1">
@@ -16915,19 +16990,19 @@
         <v>434</v>
       </c>
       <c r="B418" s="16" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C418" s="16" t="s">
         <v>2064</v>
       </c>
-      <c r="C418" s="16" t="s">
+      <c r="D418" s="16" t="s">
         <v>2065</v>
       </c>
-      <c r="D418" s="16" t="s">
+      <c r="H418" s="16" t="s">
         <v>2066</v>
       </c>
-      <c r="H418" s="16" t="s">
+      <c r="I418" s="16" t="s">
         <v>2067</v>
-      </c>
-      <c r="I418" s="16" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="14" customHeight="1">
@@ -16935,19 +17010,19 @@
         <v>435</v>
       </c>
       <c r="B419" s="16" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C419" s="16" t="s">
         <v>2071</v>
       </c>
-      <c r="C419" s="16" t="s">
+      <c r="D419" s="16" t="s">
         <v>2072</v>
       </c>
-      <c r="D419" s="16" t="s">
+      <c r="H419" s="16" t="s">
         <v>2073</v>
       </c>
-      <c r="H419" s="16" t="s">
+      <c r="I419" s="16" t="s">
         <v>2074</v>
-      </c>
-      <c r="I419" s="16" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="14" customHeight="1">
@@ -16955,19 +17030,19 @@
         <v>436</v>
       </c>
       <c r="B420" s="16" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C420" s="16" t="s">
         <v>2076</v>
       </c>
-      <c r="C420" s="16" t="s">
+      <c r="D420" s="16" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H420" s="16" t="s">
         <v>2077</v>
       </c>
-      <c r="D420" s="16" t="s">
-        <v>2073</v>
-      </c>
-      <c r="H420" s="16" t="s">
+      <c r="I420" s="16" t="s">
         <v>2078</v>
-      </c>
-      <c r="I420" s="16" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="14" customHeight="1">
@@ -16975,19 +17050,19 @@
         <v>437</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H421" s="16" t="s">
+        <v>2092</v>
+      </c>
+      <c r="I421" s="16" t="s">
         <v>2093</v>
-      </c>
-      <c r="I421" s="16" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="14" customHeight="1">
@@ -16995,19 +17070,19 @@
         <v>438</v>
       </c>
       <c r="B422" s="16" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C422" s="16" t="s">
         <v>2095</v>
       </c>
-      <c r="C422" s="16" t="s">
+      <c r="D422" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H422" s="16" t="s">
         <v>2096</v>
       </c>
-      <c r="D422" s="16" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H422" s="16" t="s">
+      <c r="I422" s="16" t="s">
         <v>2097</v>
-      </c>
-      <c r="I422" s="16" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="14" customHeight="1">
@@ -17015,19 +17090,19 @@
         <v>439</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C423" s="16" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D423" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H423" s="16" t="s">
         <v>2106</v>
       </c>
-      <c r="D423" s="16" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H423" s="16" t="s">
+      <c r="I423" s="16" t="s">
         <v>2107</v>
-      </c>
-      <c r="I423" s="16" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="14" customHeight="1">
@@ -17035,19 +17110,19 @@
         <v>440</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C424" s="16" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D424" s="16" t="s">
         <v>2110</v>
       </c>
-      <c r="D424" s="16" t="s">
+      <c r="H424" s="16" t="s">
         <v>2111</v>
       </c>
-      <c r="H424" s="16" t="s">
+      <c r="I424" s="16" t="s">
         <v>2112</v>
-      </c>
-      <c r="I424" s="16" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="14" customHeight="1">
@@ -17055,19 +17130,19 @@
         <v>441</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C425" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D425" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H425" s="16" t="s">
         <v>2114</v>
       </c>
-      <c r="D425" s="16" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H425" s="16" t="s">
+      <c r="I425" s="16" t="s">
         <v>2115</v>
-      </c>
-      <c r="I425" s="16" t="s">
-        <v>2116</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="14" customHeight="1">
@@ -17075,19 +17150,19 @@
         <v>442</v>
       </c>
       <c r="B426" s="16" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C426" s="16" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D426" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H426" s="16" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I426" s="16" t="s">
         <v>2117</v>
-      </c>
-      <c r="D426" s="16" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H426" s="16" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I426" s="16" t="s">
-        <v>2118</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="14" customHeight="1">
@@ -17095,19 +17170,19 @@
         <v>443</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C427" s="16" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D427" s="16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H427" s="16" t="s">
         <v>2120</v>
       </c>
-      <c r="D427" s="16" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H427" s="16" t="s">
+      <c r="I427" s="16" t="s">
         <v>2121</v>
-      </c>
-      <c r="I427" s="16" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="14" customHeight="1">
@@ -17115,16 +17190,16 @@
         <v>444</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D428" s="16" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="H428" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="14" customHeight="1">
@@ -17132,16 +17207,16 @@
         <v>445</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D429" s="16" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="H429" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="14" customHeight="1">
@@ -17149,16 +17224,16 @@
         <v>446</v>
       </c>
       <c r="B430" s="16" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C430" s="16" t="s">
         <v>2131</v>
       </c>
-      <c r="C430" s="16" t="s">
+      <c r="D430" s="16" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H430" s="16" t="s">
         <v>2132</v>
-      </c>
-      <c r="D430" s="16" t="s">
-        <v>2130</v>
-      </c>
-      <c r="H430" s="16" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="14" customHeight="1">
@@ -17169,10 +17244,10 @@
         <v>310</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D431" s="16" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H431" s="16" t="s">
         <v>311</v>
@@ -17189,7 +17264,7 @@
         <v>313</v>
       </c>
       <c r="D432" s="16" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H432" s="16" t="s">
         <v>314</v>
@@ -17206,7 +17281,7 @@
         <v>316</v>
       </c>
       <c r="D433" s="16" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H433" s="16" t="s">
         <v>317</v>
@@ -17217,16 +17292,16 @@
         <v>450</v>
       </c>
       <c r="B434" s="16" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D434" s="16" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H434" s="16" t="s">
         <v>2142</v>
-      </c>
-      <c r="C434" s="16" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D434" s="16" t="s">
-        <v>2156</v>
-      </c>
-      <c r="H434" s="16" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="14" customHeight="1">
@@ -17240,7 +17315,7 @@
         <v>130</v>
       </c>
       <c r="D435" s="16" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="H435" s="16" t="s">
         <v>131</v>
@@ -17257,16 +17332,16 @@
         <v>452</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D436" s="16" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="H436" s="16" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="14" customHeight="1">
@@ -17274,16 +17349,16 @@
         <v>453</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C437" s="16" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D437" s="16" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H437" s="16" t="s">
         <v>2159</v>
-      </c>
-      <c r="D437" s="16" t="s">
-        <v>2139</v>
-      </c>
-      <c r="H437" s="16" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="14" customHeight="1">
@@ -17291,16 +17366,16 @@
         <v>454</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C438" s="16" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D438" s="16" t="s">
         <v>2163</v>
       </c>
-      <c r="D438" s="16" t="s">
+      <c r="H438" s="16" t="s">
         <v>2164</v>
-      </c>
-      <c r="H438" s="16" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="14" customHeight="1">
@@ -17308,16 +17383,16 @@
         <v>455</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C439" s="16" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D439" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H439" s="16" t="s">
         <v>2173</v>
-      </c>
-      <c r="D439" s="16" t="s">
-        <v>2179</v>
-      </c>
-      <c r="H439" s="16" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="14" customHeight="1">
@@ -17325,16 +17400,16 @@
         <v>456</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C440" s="16" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D440" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H440" s="16" t="s">
         <v>2175</v>
-      </c>
-      <c r="D440" s="16" t="s">
-        <v>2179</v>
-      </c>
-      <c r="H440" s="16" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14" customHeight="1">
@@ -17342,16 +17417,16 @@
         <v>457</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C441" s="16" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D441" s="16" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H441" s="16" t="s">
         <v>2177</v>
-      </c>
-      <c r="D441" s="16" t="s">
-        <v>2179</v>
-      </c>
-      <c r="H441" s="16" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="14" customHeight="1">
@@ -17359,16 +17434,16 @@
         <v>458</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H442" s="16" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="14" customHeight="1">
@@ -17376,16 +17451,16 @@
         <v>459</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H443" s="16" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="444" spans="1:10" ht="14" customHeight="1">
@@ -17393,16 +17468,16 @@
         <v>460</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H444" s="16" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="445" spans="1:10" ht="14" customHeight="1">
@@ -17410,16 +17485,16 @@
         <v>461</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H445" s="16" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="446" spans="1:10" ht="14" customHeight="1">
@@ -17427,16 +17502,16 @@
         <v>462</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C446" s="16" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D446" s="16" t="s">
         <v>2199</v>
       </c>
-      <c r="D446" s="16" t="s">
+      <c r="H446" s="16" t="s">
         <v>2200</v>
-      </c>
-      <c r="H446" s="16" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="447" spans="1:10" ht="14" customHeight="1">
@@ -17444,16 +17519,16 @@
         <v>463</v>
       </c>
       <c r="B447" s="16" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C447" s="16" t="s">
         <v>2207</v>
       </c>
-      <c r="C447" s="16" t="s">
+      <c r="D447" s="16" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H447" s="16" t="s">
         <v>2208</v>
-      </c>
-      <c r="D447" s="16" t="s">
-        <v>2200</v>
-      </c>
-      <c r="H447" s="16" t="s">
-        <v>2209</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="14" customHeight="1">
@@ -17461,16 +17536,16 @@
         <v>464</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D448" s="16" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H448" s="16" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="14" customHeight="1">
@@ -17478,16 +17553,16 @@
         <v>465</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D449" s="16" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H449" s="16" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="14" customHeight="1">
@@ -17495,16 +17570,16 @@
         <v>466</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D450" s="16" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H450" s="16" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="14" customHeight="1">
@@ -17512,16 +17587,16 @@
         <v>467</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D451" s="16" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="H451" s="16" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="14" customHeight="1">
@@ -17529,16 +17604,16 @@
         <v>468</v>
       </c>
       <c r="B452" s="16" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C452" s="16" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D452" s="16" t="s">
         <v>2220</v>
       </c>
-      <c r="C452" s="16" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D452" s="16" t="s">
+      <c r="H452" s="16" t="s">
         <v>2221</v>
-      </c>
-      <c r="H452" s="16" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="14" customHeight="1">
@@ -17546,16 +17621,16 @@
         <v>469</v>
       </c>
       <c r="B453" s="16" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C453" s="16" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D453" s="16" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H453" s="16" t="s">
         <v>2223</v>
-      </c>
-      <c r="C453" s="16" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D453" s="16" t="s">
-        <v>2221</v>
-      </c>
-      <c r="H453" s="16" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="454" spans="1:8" ht="14" customHeight="1">
@@ -17563,16 +17638,16 @@
         <v>470</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="H454" s="16" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="455" spans="1:8" ht="14" customHeight="1">
@@ -17580,16 +17655,16 @@
         <v>471</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D455" s="16" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H455" s="16" t="s">
         <v>2243</v>
-      </c>
-      <c r="H455" s="16" t="s">
-        <v>2244</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="14" customHeight="1">
@@ -17597,16 +17672,16 @@
         <v>472</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D456" s="16" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="H456" s="16" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="14" customHeight="1">
@@ -17614,16 +17689,16 @@
         <v>473</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C457" s="16" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D457" s="16" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H457" s="16" t="s">
         <v>2247</v>
-      </c>
-      <c r="D457" s="16" t="s">
-        <v>2243</v>
-      </c>
-      <c r="H457" s="16" t="s">
-        <v>2248</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="14" customHeight="1">
@@ -17631,16 +17706,16 @@
         <v>474</v>
       </c>
       <c r="B458" s="16" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C458" s="16" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D458" s="16" t="s">
         <v>2242</v>
       </c>
-      <c r="C458" s="16" t="s">
-        <v>2250</v>
-      </c>
-      <c r="D458" s="16" t="s">
-        <v>2243</v>
-      </c>
       <c r="H458" s="16" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="14" customHeight="1">
@@ -17648,16 +17723,16 @@
         <v>475</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C459" s="16" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D459" s="16" t="s">
         <v>2261</v>
       </c>
-      <c r="D459" s="16" t="s">
-        <v>2262</v>
-      </c>
       <c r="H459" s="16" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="460" spans="1:8" ht="14" customHeight="1">
@@ -17665,16 +17740,16 @@
         <v>476</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D460" s="16" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="H460" s="16" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="14" customHeight="1">
@@ -17682,16 +17757,16 @@
         <v>477</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D461" s="16" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="H461" s="16" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="14" customHeight="1">
@@ -17699,16 +17774,16 @@
         <v>478</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D462" s="16" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H462" s="16" t="s">
         <v>2276</v>
-      </c>
-      <c r="H462" s="16" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="463" spans="1:8" ht="14" customHeight="1">
@@ -17716,16 +17791,16 @@
         <v>479</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D463" s="16" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H463" s="16" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="464" spans="1:8" ht="14" customHeight="1">
@@ -17733,16 +17808,16 @@
         <v>480</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D464" s="16" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H464" s="16" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="14" customHeight="1">
@@ -17750,16 +17825,16 @@
         <v>481</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D465" s="16" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H465" s="16" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="14" customHeight="1">
@@ -17767,16 +17842,16 @@
         <v>482</v>
       </c>
       <c r="B466" s="16" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C466" s="16" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D466" s="16" t="s">
         <v>2275</v>
       </c>
-      <c r="C466" s="16" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D466" s="16" t="s">
-        <v>2276</v>
-      </c>
       <c r="H466" s="16" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="14" customHeight="1">
@@ -17784,16 +17859,16 @@
         <v>483</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C467" s="16" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D467" s="16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H467" s="16" t="s">
         <v>2301</v>
-      </c>
-      <c r="H467" s="16" t="s">
-        <v>2302</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="14" customHeight="1">
@@ -17801,16 +17876,16 @@
         <v>484</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C468" s="16" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D468" s="16" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H468" s="16" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="14" customHeight="1">
@@ -17818,16 +17893,16 @@
         <v>485</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C469" s="16" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D469" s="16" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H469" s="16" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="14" customHeight="1">
@@ -17835,16 +17910,16 @@
         <v>486</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C470" s="17" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D470" s="16" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H470" s="16" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="14" customHeight="1">
@@ -17852,16 +17927,16 @@
         <v>487</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C471" s="17" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D471" s="16" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H471" s="16" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="14" customHeight="1">
@@ -17869,16 +17944,16 @@
         <v>488</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C472" s="17" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D472" s="16" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="H472" s="16" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="14" customHeight="1">
@@ -17886,16 +17961,16 @@
         <v>489</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C473" s="17" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D473" s="16" t="s">
         <v>2300</v>
       </c>
-      <c r="D473" s="16" t="s">
-        <v>2301</v>
-      </c>
       <c r="H473" s="16" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="474" spans="1:8" ht="14" customHeight="1">
@@ -17903,16 +17978,16 @@
         <v>490</v>
       </c>
       <c r="B474" s="16" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C474" s="16" t="s">
         <v>2309</v>
       </c>
-      <c r="C474" s="16" t="s">
+      <c r="D474" s="16" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H474" s="16" t="s">
         <v>2310</v>
-      </c>
-      <c r="D474" s="16" t="s">
-        <v>2301</v>
-      </c>
-      <c r="H474" s="16" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="14" customHeight="1">
@@ -17920,16 +17995,16 @@
         <v>491</v>
       </c>
       <c r="B475" s="16" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C475" s="16" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D475" s="16" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H475" s="16" t="s">
         <v>2319</v>
-      </c>
-      <c r="C475" s="16" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D475" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="H475" s="16" t="s">
-        <v>2320</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="14" customHeight="1">
@@ -17937,16 +18012,16 @@
         <v>492</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C476" s="16" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D476" s="16" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H476" s="16" t="s">
         <v>2327</v>
-      </c>
-      <c r="D476" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="H476" s="16" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="477" spans="1:8" ht="14" customHeight="1">
@@ -17954,16 +18029,16 @@
         <v>493</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C477" s="16" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D477" s="16" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H477" s="16" t="s">
         <v>2329</v>
-      </c>
-      <c r="D477" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="H477" s="16" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="478" spans="1:8" ht="14" customHeight="1">
@@ -17971,16 +18046,16 @@
         <v>494</v>
       </c>
       <c r="B478" s="16" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C478" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D478" s="16" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H478" s="16" t="s">
         <v>2331</v>
-      </c>
-      <c r="D478" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="H478" s="16" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="14" customHeight="1">
@@ -17988,16 +18063,16 @@
         <v>495</v>
       </c>
       <c r="B479" s="16" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C479" s="16" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D479" s="16" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H479" s="16" t="s">
         <v>2333</v>
-      </c>
-      <c r="D479" s="16" t="s">
-        <v>2322</v>
-      </c>
-      <c r="H479" s="16" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="14" customHeight="1">
@@ -18005,16 +18080,16 @@
         <v>496</v>
       </c>
       <c r="B480" s="16" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C480" s="16" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D480" s="16" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H480" s="16" t="s">
         <v>2338</v>
-      </c>
-      <c r="C480" s="16" t="s">
-        <v>2341</v>
-      </c>
-      <c r="D480" s="16" t="s">
-        <v>2340</v>
-      </c>
-      <c r="H480" s="16" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="14" customHeight="1">
@@ -18022,16 +18097,16 @@
         <v>497</v>
       </c>
       <c r="B481" s="16" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C481" s="16" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D481" s="16" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H481" s="16" t="s">
         <v>2342</v>
-      </c>
-      <c r="C481" s="16" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D481" s="16" t="s">
-        <v>2340</v>
-      </c>
-      <c r="H481" s="16" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="14" customHeight="1">
@@ -18039,16 +18114,16 @@
         <v>498</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C482" s="16" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D482" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H482" s="16" t="s">
         <v>2355</v>
-      </c>
-      <c r="D482" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H482" s="16" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="14" customHeight="1">
@@ -18056,16 +18131,16 @@
         <v>499</v>
       </c>
       <c r="B483" s="16" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C483" s="16" t="s">
         <v>2348</v>
       </c>
-      <c r="C483" s="16" t="s">
+      <c r="D483" s="16" t="s">
         <v>2349</v>
       </c>
-      <c r="D483" s="16" t="s">
-        <v>2350</v>
-      </c>
       <c r="H483" s="16" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="14" customHeight="1">
@@ -18073,16 +18148,16 @@
         <v>500</v>
       </c>
       <c r="B484" s="16" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C484" s="16" t="s">
         <v>2351</v>
       </c>
-      <c r="C484" s="16" t="s">
+      <c r="D484" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H484" s="16" t="s">
         <v>2352</v>
-      </c>
-      <c r="D484" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H484" s="16" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="14" customHeight="1">
@@ -18090,16 +18165,16 @@
         <v>501</v>
       </c>
       <c r="B485" s="16" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C485" s="16" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D485" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H485" s="16" t="s">
         <v>2357</v>
-      </c>
-      <c r="C485" s="16" t="s">
-        <v>2359</v>
-      </c>
-      <c r="D485" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H485" s="16" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="14" customHeight="1">
@@ -18107,16 +18182,16 @@
         <v>502</v>
       </c>
       <c r="B486" s="16" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C486" s="16" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D486" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H486" s="16" t="s">
         <v>2360</v>
-      </c>
-      <c r="C486" s="16" t="s">
-        <v>2362</v>
-      </c>
-      <c r="D486" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H486" s="16" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="14" customHeight="1">
@@ -18124,16 +18199,16 @@
         <v>503</v>
       </c>
       <c r="B487" s="16" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C487" s="16" t="s">
         <v>2363</v>
       </c>
-      <c r="C487" s="16" t="s">
+      <c r="D487" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H487" s="16" t="s">
         <v>2364</v>
-      </c>
-      <c r="D487" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H487" s="16" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="14" customHeight="1">
@@ -18141,16 +18216,16 @@
         <v>504</v>
       </c>
       <c r="B488" s="16" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C488" s="16" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D488" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H488" s="16" t="s">
         <v>2368</v>
-      </c>
-      <c r="C488" s="16" t="s">
-        <v>2367</v>
-      </c>
-      <c r="D488" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H488" s="16" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="14" customHeight="1">
@@ -18158,16 +18233,16 @@
         <v>505</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C489" s="16" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D489" s="16" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H489" s="16" t="s">
         <v>2371</v>
-      </c>
-      <c r="D489" s="16" t="s">
-        <v>2350</v>
-      </c>
-      <c r="H489" s="16" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="14" customHeight="1">
@@ -18175,19 +18250,19 @@
         <v>506</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C490" s="16" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D490" s="16" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H490" s="16" t="s">
         <v>2379</v>
       </c>
-      <c r="D490" s="16" t="s">
-        <v>2375</v>
-      </c>
-      <c r="H490" s="16" t="s">
+      <c r="I490" s="16" t="s">
         <v>2380</v>
-      </c>
-      <c r="I490" s="16" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="14" customHeight="1">
@@ -18195,19 +18270,19 @@
         <v>507</v>
       </c>
       <c r="B491" s="16" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D491" s="16" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="H491" s="16" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="I491" s="16" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="14" customHeight="1">
@@ -18215,19 +18290,19 @@
         <v>508</v>
       </c>
       <c r="B492" s="16" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D492" s="16" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="H492" s="16" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="I492" s="16" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="14" customHeight="1">
@@ -18235,19 +18310,19 @@
         <v>509</v>
       </c>
       <c r="B493" s="16" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="H493" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I493" s="16" t="s">
         <v>2398</v>
-      </c>
-      <c r="I493" s="16" t="s">
-        <v>2399</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="14" customHeight="1">
@@ -18255,19 +18330,19 @@
         <v>510</v>
       </c>
       <c r="B494" s="16" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="H494" s="16" t="s">
+        <v>2399</v>
+      </c>
+      <c r="I494" s="16" t="s">
         <v>2400</v>
-      </c>
-      <c r="I494" s="16" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="14" customHeight="1">
@@ -18275,19 +18350,19 @@
         <v>511</v>
       </c>
       <c r="B495" s="16" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="H495" s="16" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I495" s="16" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="14" customHeight="1">
@@ -18295,19 +18370,19 @@
         <v>512</v>
       </c>
       <c r="B496" s="16" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C496" s="16" t="s">
         <v>2409</v>
       </c>
-      <c r="C496" s="16" t="s">
+      <c r="D496" s="16" t="s">
         <v>2410</v>
       </c>
-      <c r="D496" s="16" t="s">
-        <v>2411</v>
-      </c>
       <c r="H496" s="16" t="s">
+        <v>2412</v>
+      </c>
+      <c r="I496" s="16" t="s">
         <v>2413</v>
-      </c>
-      <c r="I496" s="16" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="497" spans="1:14" ht="14" customHeight="1">
@@ -18318,16 +18393,16 @@
         <v>66</v>
       </c>
       <c r="C497" s="16" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D497" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H497" s="16" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I497" s="16" t="s">
         <v>2407</v>
-      </c>
-      <c r="D497" s="16" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H497" s="16" t="s">
-        <v>2406</v>
-      </c>
-      <c r="I497" s="16" t="s">
-        <v>2408</v>
       </c>
       <c r="J497" s="16" t="s">
         <v>1346</v>
@@ -18338,19 +18413,19 @@
         <v>514</v>
       </c>
       <c r="B498" s="16" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C498" s="16" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D498" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H498" s="16" t="s">
         <v>2417</v>
       </c>
-      <c r="C498" s="16" t="s">
+      <c r="I498" s="16" t="s">
         <v>2415</v>
-      </c>
-      <c r="D498" s="16" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H498" s="16" t="s">
-        <v>2418</v>
-      </c>
-      <c r="I498" s="16" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="499" spans="1:14" ht="14" customHeight="1">
@@ -18364,7 +18439,7 @@
         <v>838</v>
       </c>
       <c r="D499" s="16" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="H499" s="16" t="s">
         <v>839</v>
@@ -18381,10 +18456,10 @@
         <v>829</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D500" s="16" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="H500" s="16" t="s">
         <v>841</v>
@@ -18398,19 +18473,19 @@
         <v>517</v>
       </c>
       <c r="B501" s="16" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C501" s="16" t="s">
         <v>2420</v>
       </c>
-      <c r="C501" s="16" t="s">
+      <c r="D501" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H501" s="16" t="s">
+        <v>2422</v>
+      </c>
+      <c r="I501" s="16" t="s">
         <v>2421</v>
-      </c>
-      <c r="D501" s="16" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H501" s="16" t="s">
-        <v>2423</v>
-      </c>
-      <c r="I501" s="16" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="502" spans="1:14" ht="14" customHeight="1">
@@ -18418,19 +18493,19 @@
         <v>518</v>
       </c>
       <c r="B502" s="16" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C502" s="16" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D502" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H502" s="16" t="s">
         <v>2424</v>
       </c>
-      <c r="C502" s="16" t="s">
+      <c r="I502" s="16" t="s">
         <v>2426</v>
-      </c>
-      <c r="D502" s="16" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H502" s="16" t="s">
-        <v>2425</v>
-      </c>
-      <c r="I502" s="16" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="503" spans="1:14" ht="14" customHeight="1">
@@ -18438,19 +18513,19 @@
         <v>519</v>
       </c>
       <c r="B503" s="16" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C503" s="16" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D503" s="16" t="s">
+        <v>2410</v>
+      </c>
+      <c r="H503" s="16" t="s">
         <v>2428</v>
       </c>
-      <c r="C503" s="16" t="s">
-        <v>2431</v>
-      </c>
-      <c r="D503" s="16" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H503" s="16" t="s">
+      <c r="I503" s="16" t="s">
         <v>2429</v>
-      </c>
-      <c r="I503" s="16" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="504" spans="1:14" ht="14" customHeight="1">
@@ -18475,7 +18550,7 @@
         <v>521</v>
       </c>
       <c r="B505" s="16" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C505" s="16" t="s">
         <v>846</v>
@@ -18495,7 +18570,7 @@
         <v>1197</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G506" s="16" t="s">
         <v>1188</v>
@@ -18507,7 +18582,7 @@
         <v>1187</v>
       </c>
       <c r="N506" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="507" spans="1:14" ht="14" customHeight="1">
@@ -18518,7 +18593,7 @@
         <v>1198</v>
       </c>
       <c r="D507" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G507" s="16" t="s">
         <v>1188</v>
@@ -18538,7 +18613,7 @@
         <v>1199</v>
       </c>
       <c r="D508" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G508" s="16" t="s">
         <v>1188</v>
@@ -18550,7 +18625,7 @@
         <v>1187</v>
       </c>
       <c r="N508" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="509" spans="1:14" ht="14" customHeight="1">
@@ -18561,7 +18636,7 @@
         <v>1200</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G509" s="16" t="s">
         <v>1188</v>
@@ -18573,7 +18648,7 @@
         <v>1187</v>
       </c>
       <c r="N509" s="16" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="510" spans="1:14" ht="14" customHeight="1">
@@ -18584,7 +18659,7 @@
         <v>1205</v>
       </c>
       <c r="D510" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G510" s="16" t="s">
         <v>1202</v>
@@ -18604,7 +18679,7 @@
         <v>1210</v>
       </c>
       <c r="D511" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="G511" s="16" t="s">
         <v>1209</v>
@@ -18616,291 +18691,291 @@
         <v>1206</v>
       </c>
       <c r="N511" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="512" spans="1:14" ht="14" customHeight="1">
       <c r="B512" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C512" s="16" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D512" s="16" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H512" s="16" t="s">
         <v>2448</v>
       </c>
-      <c r="D512" s="16" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H512" s="16" t="s">
-        <v>2449</v>
-      </c>
       <c r="I512" s="16" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="N512" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="513" spans="1:14" ht="14" customHeight="1">
       <c r="B513" s="16" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C513" s="16" t="s">
         <v>2442</v>
       </c>
-      <c r="C513" s="16" t="s">
-        <v>2443</v>
-      </c>
       <c r="D513" s="16" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H513" s="16" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="I513" s="16" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="514" spans="1:14" ht="14" customHeight="1">
       <c r="B514" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C514" s="16" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D514" s="16" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H514" s="16" t="s">
+        <v>2453</v>
+      </c>
+      <c r="I514" s="16" t="s">
+        <v>2454</v>
+      </c>
+      <c r="N514" s="16" t="s">
         <v>1642</v>
-      </c>
-      <c r="C514" s="16" t="s">
-        <v>2453</v>
-      </c>
-      <c r="D514" s="16" t="s">
-        <v>2489</v>
-      </c>
-      <c r="H514" s="16" t="s">
-        <v>2454</v>
-      </c>
-      <c r="I514" s="16" t="s">
-        <v>2455</v>
-      </c>
-      <c r="N514" s="16" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="515" spans="1:14" ht="14" customHeight="1">
       <c r="B515" s="16" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C515" s="16" t="s">
         <v>2444</v>
       </c>
-      <c r="C515" s="16" t="s">
-        <v>2445</v>
-      </c>
       <c r="D515" s="16" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H515" s="16" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="I515" s="16" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="516" spans="1:14" ht="14" customHeight="1">
       <c r="B516" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C516" s="16" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D516" s="16" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H516" s="16" t="s">
+        <v>2459</v>
+      </c>
+      <c r="I516" s="16" t="s">
         <v>2458</v>
       </c>
-      <c r="D516" s="16" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H516" s="16" t="s">
-        <v>2460</v>
-      </c>
-      <c r="I516" s="16" t="s">
-        <v>2459</v>
-      </c>
       <c r="N516" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="517" spans="1:14" ht="14" customHeight="1">
       <c r="B517" s="16" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C517" s="16" t="s">
         <v>2446</v>
       </c>
-      <c r="C517" s="16" t="s">
-        <v>2447</v>
-      </c>
       <c r="D517" s="16" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="H517" s="16" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="I517" s="16" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="518" spans="1:14" ht="14" customHeight="1">
       <c r="B518" s="16" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C518" s="16" t="s">
         <v>2463</v>
       </c>
-      <c r="C518" s="16" t="s">
+      <c r="D518" s="16" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H518" s="16" t="s">
         <v>2464</v>
       </c>
-      <c r="D518" s="16" t="s">
-        <v>2490</v>
-      </c>
-      <c r="H518" s="16" t="s">
+      <c r="I518" s="16" t="s">
         <v>2465</v>
-      </c>
-      <c r="I518" s="16" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="519" spans="1:14" ht="14" customHeight="1">
       <c r="B519" s="16" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C519" s="16" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D519" s="16" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H519" s="16" t="s">
         <v>2467</v>
       </c>
-      <c r="C519" s="16" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D519" s="16" t="s">
-        <v>2491</v>
-      </c>
-      <c r="H519" s="16" t="s">
-        <v>2468</v>
-      </c>
       <c r="I519" s="16" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="520" spans="1:14" ht="14" customHeight="1">
       <c r="B520" s="16" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C520" s="16" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D520" s="16" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H520" s="16" t="s">
+        <v>2471</v>
+      </c>
+      <c r="I520" s="16" t="s">
+        <v>2472</v>
+      </c>
+      <c r="N520" s="16" t="s">
         <v>1646</v>
-      </c>
-      <c r="C520" s="16" t="s">
-        <v>2470</v>
-      </c>
-      <c r="D520" s="16" t="s">
-        <v>2492</v>
-      </c>
-      <c r="H520" s="16" t="s">
-        <v>2472</v>
-      </c>
-      <c r="I520" s="16" t="s">
-        <v>2473</v>
-      </c>
-      <c r="N520" s="16" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="521" spans="1:14" ht="14" customHeight="1">
       <c r="B521" s="16" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C521" s="16" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D521" s="16" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H521" s="16" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I521" s="16" t="s">
+        <v>2476</v>
+      </c>
+      <c r="N521" s="16" t="s">
         <v>1648</v>
-      </c>
-      <c r="C521" s="16" t="s">
-        <v>2475</v>
-      </c>
-      <c r="D521" s="16" t="s">
-        <v>2492</v>
-      </c>
-      <c r="H521" s="16" t="s">
-        <v>2476</v>
-      </c>
-      <c r="I521" s="16" t="s">
-        <v>2477</v>
-      </c>
-      <c r="N521" s="16" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="522" spans="1:14" ht="14" customHeight="1">
       <c r="B522" s="16" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C522" s="16" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D522" s="16" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H522" s="16" t="s">
+        <v>2478</v>
+      </c>
+      <c r="N522" s="16" t="s">
         <v>1644</v>
-      </c>
-      <c r="C522" s="16" t="s">
-        <v>2478</v>
-      </c>
-      <c r="D522" s="16" t="s">
-        <v>2492</v>
-      </c>
-      <c r="H522" s="16" t="s">
-        <v>2479</v>
-      </c>
-      <c r="N522" s="16" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="523" spans="1:14" ht="14" customHeight="1">
       <c r="B523" s="16" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C523" s="16" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D523" s="16" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H523" s="16" t="s">
         <v>2480</v>
       </c>
-      <c r="D523" s="16" t="s">
-        <v>2492</v>
-      </c>
-      <c r="H523" s="16" t="s">
+      <c r="I523" s="16" t="s">
         <v>2481</v>
-      </c>
-      <c r="I523" s="16" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="524" spans="1:14" ht="14" customHeight="1">
       <c r="B524" s="16" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C524" s="16" t="s">
         <v>2483</v>
       </c>
-      <c r="C524" s="16" t="s">
+      <c r="D524" s="16" t="s">
         <v>2484</v>
       </c>
-      <c r="D524" s="16" t="s">
+      <c r="H524" s="16" t="s">
         <v>2485</v>
       </c>
-      <c r="H524" s="16" t="s">
+      <c r="I524" s="16" t="s">
         <v>2486</v>
-      </c>
-      <c r="I524" s="16" t="s">
-        <v>2487</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="14" customHeight="1">
       <c r="B525" s="16" t="s">
-        <v>2494</v>
+        <v>2526</v>
       </c>
       <c r="C525" s="16" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="D525" s="16" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="H525" s="16" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I525" s="16" t="s">
         <v>2498</v>
-      </c>
-      <c r="I525" s="16" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="14" customHeight="1">
       <c r="B526" s="16" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D526" s="16" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="H526" s="16" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="I526" s="16" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="527" spans="1:14" ht="14" customHeight="1">
       <c r="B527" s="16" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D527" s="16" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="L527" s="16" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="528" spans="1:14" ht="14" customHeight="1">
@@ -18908,22 +18983,22 @@
         <v>395</v>
       </c>
       <c r="B528" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C528" s="16" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D528" s="16" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H528" s="16" t="s">
         <v>1874</v>
       </c>
-      <c r="H528" s="16" t="s">
+      <c r="I528" s="16" t="s">
         <v>1875</v>
       </c>
-      <c r="I528" s="16" t="s">
-        <v>1876</v>
-      </c>
       <c r="J528" s="16" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="529" spans="1:10" ht="14" customHeight="1">
@@ -18931,19 +19006,19 @@
         <v>396</v>
       </c>
       <c r="B529" s="16" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D529" s="16" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H529" s="16" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="J529" s="16" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="530" spans="1:10" ht="14" customHeight="1">
@@ -18951,19 +19026,19 @@
         <v>397</v>
       </c>
       <c r="B530" s="16" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C530" s="16" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D530" s="16" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H530" s="16" t="s">
         <v>1883</v>
       </c>
-      <c r="C530" s="16" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D530" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="H530" s="16" t="s">
-        <v>1884</v>
-      </c>
       <c r="J530" s="16" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="531" spans="1:10" ht="14" customHeight="1">
@@ -18971,25 +19046,25 @@
         <v>398</v>
       </c>
       <c r="B531" s="16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C531" s="16" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D531" s="16" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G531" s="16" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H531" s="16" t="s">
         <v>1885</v>
       </c>
-      <c r="C531" s="16" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D531" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G531" s="16" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H531" s="16" t="s">
+      <c r="I531" s="16" t="s">
         <v>1886</v>
       </c>
-      <c r="I531" s="16" t="s">
+      <c r="J531" s="16" t="s">
         <v>1887</v>
-      </c>
-      <c r="J531" s="16" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="532" spans="1:10" ht="14" customHeight="1">
@@ -18997,16 +19072,108 @@
         <v>399</v>
       </c>
       <c r="B532" s="16" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C532" s="16" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D532" s="16" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J532" s="16" t="s">
         <v>1894</v>
       </c>
-      <c r="C532" s="16" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D532" s="16" t="s">
-        <v>1874</v>
-      </c>
-      <c r="J532" s="16" t="s">
-        <v>1895</v>
+    </row>
+    <row r="533" spans="1:10" ht="14" customHeight="1">
+      <c r="B533" s="16" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C533" s="16" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D533" s="16" t="s">
+        <v>2512</v>
+      </c>
+      <c r="H533" s="16" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" ht="14" customHeight="1">
+      <c r="B534" s="16" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C534" s="16" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D534" s="16" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H534" s="16" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" ht="14" customHeight="1">
+      <c r="B535" s="16" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C535" s="16" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D535" s="16" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H535" s="16" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" ht="14" customHeight="1">
+      <c r="B536" s="16" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D536" s="16" t="s">
+        <v>2524</v>
+      </c>
+      <c r="H536" s="16" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" ht="14" customHeight="1">
+      <c r="B537" s="16" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C537" s="16" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D537" s="16" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H537" s="16" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" ht="14" customHeight="1">
+      <c r="B538" s="16" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H538" s="16" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" ht="14" customHeight="1">
+      <c r="B539" s="16" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C539" s="16" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H539" s="16" t="s">
+        <v>2535</v>
       </c>
     </row>
   </sheetData>
@@ -19024,8 +19191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19075,10 +19242,10 @@
         <v>1135</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>752</v>
@@ -19089,10 +19256,10 @@
         <v>1136</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42">
@@ -19100,7 +19267,7 @@
         <v>1137</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>849</v>
@@ -19141,7 +19308,7 @@
     </row>
     <row r="10" spans="1:4" ht="28">
       <c r="A10" s="11" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>909</v>
@@ -19330,10 +19497,10 @@
     </row>
     <row r="28" spans="1:4" ht="28">
       <c r="A28" s="11" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>1711</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>1712</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>788</v>
@@ -19341,10 +19508,10 @@
     </row>
     <row r="29" spans="1:4" ht="28">
       <c r="A29" s="11" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>1713</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>1714</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>788</v>
@@ -19361,7 +19528,7 @@
         <v>1212</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28">
@@ -19421,7 +19588,7 @@
     </row>
     <row r="38" spans="1:4" ht="56">
       <c r="A38" s="11" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>908</v>
@@ -19430,7 +19597,7 @@
         <v>435</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28">
@@ -19446,18 +19613,18 @@
         <v>483</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14">
       <c r="A41" s="11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14">
@@ -19526,7 +19693,7 @@
         <v>1061</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="42">
@@ -19540,7 +19707,7 @@
         <v>1070</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="42">
@@ -19625,593 +19792,593 @@
     </row>
     <row r="56" spans="1:4" ht="14">
       <c r="A56" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14">
       <c r="A57" s="8" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>2130</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>2131</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" ht="14">
       <c r="A58" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28">
       <c r="A59" s="11" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>1616</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14">
       <c r="A60" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28">
       <c r="A61" s="11" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>1892</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14">
       <c r="A62" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28">
       <c r="A63" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="42">
       <c r="A64" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>1788</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28">
       <c r="A65" s="8" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28">
       <c r="A66" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>1809</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>1810</v>
-      </c>
       <c r="D66" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="42">
       <c r="A67" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="70">
       <c r="A68" s="8" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>2027</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>2028</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="42">
       <c r="A69" s="8" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="42">
       <c r="A70" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="42">
       <c r="A71" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>2060</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>2061</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>2062</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="42">
       <c r="A72" s="8" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>2069</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="42">
       <c r="A73" s="8" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>2080</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>2081</v>
-      </c>
       <c r="D73" s="8" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="112">
       <c r="A74" s="8" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="84">
       <c r="A75" s="8" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>2151</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>2152</v>
-      </c>
       <c r="D75" s="8" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="42">
       <c r="A76" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="140">
       <c r="A77" s="8" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="56">
       <c r="A78" s="8" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>2389</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="56">
       <c r="A79" s="11" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>2404</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="42">
       <c r="A83" s="8" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="42">
       <c r="A84" s="8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="42">
       <c r="A85" s="8" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="56">
       <c r="A86" s="8" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="56">
       <c r="A87" s="8" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="28">
       <c r="A88" s="8" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="56">
       <c r="A89" s="8" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>2127</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>2128</v>
-      </c>
       <c r="D89" s="8" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="84">
       <c r="A90" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>2147</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>2148</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28">
       <c r="A91" s="8" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>2166</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>2167</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>2168</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28">
       <c r="A92" s="8" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>2194</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>2195</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14">
       <c r="A93" s="8" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>2202</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>2203</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>2204</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14">
       <c r="A94" s="8" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>2205</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>2207</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28">
       <c r="A95" s="8" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>2218</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28">
       <c r="A96" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>2231</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>2232</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>2233</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="28">
       <c r="A97" s="8" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B97" s="8" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>2252</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>2253</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="84">
       <c r="A98" s="8" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>2314</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="84">
       <c r="A99" s="8" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="28">
       <c r="A100" s="8" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>2268</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>2269</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="98">
       <c r="A101" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>2345</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>2346</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="42">
       <c r="A102" s="8" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>2335</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>2336</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="84">
@@ -20219,13 +20386,21 @@
         <v>1132</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>2434</v>
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14">
+      <c r="A104" s="16" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>2534</v>
       </c>
     </row>
     <row r="105" spans="1:4">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70AB6E-E38E-6543-BACB-C395138F826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE2BA3-196D-1441-B7E8-9A12663FAC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="33840" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="2536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="2600">
   <si>
     <t>NOTE</t>
   </si>
@@ -7647,6 +7647,198 @@
   </si>
   <si>
     <t>K07636</t>
+  </si>
+  <si>
+    <t>alaS</t>
+  </si>
+  <si>
+    <t>5-Aminolevulinate Synthase</t>
+  </si>
+  <si>
+    <t>K00643</t>
+  </si>
+  <si>
+    <t>tetrapyrrole synthesis - Shemin C4 pathway</t>
+  </si>
+  <si>
+    <t>Glutamyl-tRNA Reductase</t>
+  </si>
+  <si>
+    <t>tetrapyrrole synthesis - C5 pathway</t>
+  </si>
+  <si>
+    <t>K02492</t>
+  </si>
+  <si>
+    <t>Glutamate-1-Semialdehyde 2,1-Aminomutase</t>
+  </si>
+  <si>
+    <t>K01845</t>
+  </si>
+  <si>
+    <t>2.3.1.37</t>
+  </si>
+  <si>
+    <t>1.2.1.70</t>
+  </si>
+  <si>
+    <t>5.4.3.8</t>
+  </si>
+  <si>
+    <t>Porphobilinogen Synthase</t>
+  </si>
+  <si>
+    <t>tetrapyrrole synthesis - uroporphyrinogen III synthesis</t>
+  </si>
+  <si>
+    <t>K01698</t>
+  </si>
+  <si>
+    <t>4.2.1.24</t>
+  </si>
+  <si>
+    <t>Hydroxymethylbilane Synthase</t>
+  </si>
+  <si>
+    <t>K01749</t>
+  </si>
+  <si>
+    <t>2.5.1.61</t>
+  </si>
+  <si>
+    <t>Uroporphyrinogen III Synthase</t>
+  </si>
+  <si>
+    <t>K01719</t>
+  </si>
+  <si>
+    <t>4.2.1.75</t>
+  </si>
+  <si>
+    <t>gtrR_hemA</t>
+  </si>
+  <si>
+    <t>gsaM_hemL</t>
+  </si>
+  <si>
+    <t>pbgS_hemB</t>
+  </si>
+  <si>
+    <t>hmbS_hemC</t>
+  </si>
+  <si>
+    <t>uroS_hemD</t>
+  </si>
+  <si>
+    <t>uroD_hemE</t>
+  </si>
+  <si>
+    <t>Uroporphyrinogen Decarboxylase</t>
+  </si>
+  <si>
+    <t>tetrapyrrole synthesis - PPD/CPD</t>
+  </si>
+  <si>
+    <t>K01599</t>
+  </si>
+  <si>
+    <t>4.1.1.37</t>
+  </si>
+  <si>
+    <t>C5 tetrapyrrole synthesis</t>
+  </si>
+  <si>
+    <t>gtrR_hemA -&gt; gsaM_hemL -&gt; pbgS_hemB -&gt; hmbS_hemC -&gt; uroS_hemD</t>
+  </si>
+  <si>
+    <t>C4 Shemin tetrapyrrole synthesis</t>
+  </si>
+  <si>
+    <t>alaS -&gt; pbgS_hemB -&gt; hmbS_hemC -&gt; uroS_hemD</t>
+  </si>
+  <si>
+    <t>Uroporphyrinogen III synthesis from glycine</t>
+  </si>
+  <si>
+    <t>Uroporphyrinogen III synthesis from L-glutamyl-tRNA</t>
+  </si>
+  <si>
+    <t>tetrapyrrole synthesis - PPD</t>
+  </si>
+  <si>
+    <t>cgdC</t>
+  </si>
+  <si>
+    <t>cgdH</t>
+  </si>
+  <si>
+    <t>K00228</t>
+  </si>
+  <si>
+    <t>K02495</t>
+  </si>
+  <si>
+    <t>1.3.3.3</t>
+  </si>
+  <si>
+    <t>coproporphyrinogen III decarboxylase (oxygen-dependent)</t>
+  </si>
+  <si>
+    <t>coproporphyrinogen III dehydrogenase (oxygene-independent)</t>
+  </si>
+  <si>
+    <t>1.3.98.3</t>
+  </si>
+  <si>
+    <t>K08973</t>
+  </si>
+  <si>
+    <t>protoporphyrinogen IX oxidase</t>
+  </si>
+  <si>
+    <t>hemJ</t>
+  </si>
+  <si>
+    <t>menaquinone-dependent protoporphyrinogen oxidase</t>
+  </si>
+  <si>
+    <t>hemG</t>
+  </si>
+  <si>
+    <t>K00230</t>
+  </si>
+  <si>
+    <t>protoporphyrinogen/coproporphyrinogen III oxidase</t>
+  </si>
+  <si>
+    <t>hemY</t>
+  </si>
+  <si>
+    <t>K00231</t>
+  </si>
+  <si>
+    <t>ppfC</t>
+  </si>
+  <si>
+    <t>Protoporphyrin IX Ferrochelatase</t>
+  </si>
+  <si>
+    <t>K01772</t>
+  </si>
+  <si>
+    <t>Heme synthesis - PPD</t>
+  </si>
+  <si>
+    <t>uroD_hemE -&gt; cgdC | cgdH -&gt; hemJ | hemG | hemY -&gt; ppfC</t>
+  </si>
+  <si>
+    <t>Uroporphyrinogen III to heme B via the PPD pathway</t>
+  </si>
+  <si>
+    <t>Heme synthesis - CPD</t>
+  </si>
+  <si>
+    <t>uroD_hemE -&gt;</t>
   </si>
 </sst>
 </file>
@@ -7678,7 +7870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7721,6 +7913,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7734,7 +7938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7787,6 +7991,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -8246,11 +8456,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:O539"/>
+  <dimension ref="A1:O552"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H539" sqref="H539"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D536" sqref="D536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -19176,6 +19386,215 @@
         <v>2535</v>
       </c>
     </row>
+    <row r="540" spans="1:10" ht="14" customHeight="1">
+      <c r="B540" s="16" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C540" s="16" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D540" s="16" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H540" s="16" t="s">
+        <v>2538</v>
+      </c>
+      <c r="I540" s="16" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" ht="14" customHeight="1">
+      <c r="B541" s="16" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C541" s="16" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D541" s="16" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H541" s="16" t="s">
+        <v>2542</v>
+      </c>
+      <c r="I541" s="16" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" ht="14" customHeight="1">
+      <c r="B542" s="16" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C542" s="16" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D542" s="16" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H542" s="16" t="s">
+        <v>2544</v>
+      </c>
+      <c r="I542" s="16" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" ht="14" customHeight="1">
+      <c r="B543" s="16" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C543" s="16" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D543" s="16" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H543" s="16" t="s">
+        <v>2550</v>
+      </c>
+      <c r="I543" s="16" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" ht="14" customHeight="1">
+      <c r="B544" s="16" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C544" s="16" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D544" s="16" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H544" s="16" t="s">
+        <v>2553</v>
+      </c>
+      <c r="I544" s="16" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="545" spans="2:9" ht="14" customHeight="1">
+      <c r="B545" s="16" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C545" s="16" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D545" s="16" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H545" s="16" t="s">
+        <v>2556</v>
+      </c>
+      <c r="I545" s="16" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="546" spans="2:9" ht="14" customHeight="1">
+      <c r="B546" s="16" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C546" s="16" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D546" s="16" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H546" s="16" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I546" s="16" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="547" spans="2:9" ht="14" customHeight="1">
+      <c r="B547" s="22" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C547" s="16" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D547" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H547" s="16" t="s">
+        <v>2577</v>
+      </c>
+      <c r="I547" s="16" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="548" spans="2:9" ht="14" customHeight="1">
+      <c r="B548" s="22" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C548" s="16" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D548" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H548" s="16" t="s">
+        <v>2578</v>
+      </c>
+      <c r="I548" s="16" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="549" spans="2:9" ht="14" customHeight="1">
+      <c r="B549" s="23" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D549" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H549" s="16" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="550" spans="2:9" ht="14" customHeight="1">
+      <c r="B550" s="23" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C550" s="16" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D550" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H550" s="16" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="551" spans="2:9" ht="14" customHeight="1">
+      <c r="B551" s="23" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C551" s="16" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D551" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H551" s="16" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="552" spans="2:9" ht="14" customHeight="1">
+      <c r="B552" s="16" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C552" s="16" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D552" s="16" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H552" s="16" t="s">
+        <v>2594</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O505" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O420">
@@ -19191,8 +19610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -20403,20 +20822,50 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="17"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="17"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="17"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="17"/>
+    <row r="105" spans="1:4" ht="14">
+      <c r="A105" s="17" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="14">
+      <c r="A106" s="17" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28">
+      <c r="A107" s="17" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="14">
+      <c r="A108" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>2599</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D51" xr:uid="{9F000E29-588A-2148-808B-8DA910E8A462}">

--- a/gator_db.xlsx
+++ b/gator_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbrel1/Github/gator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAE2BA3-196D-1441-B7E8-9A12663FAC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F4179-84A9-E144-87A6-E6E92C7E6135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="27820" windowHeight="17500" activeTab="2" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
+    <workbookView xWindow="34980" yWindow="500" windowWidth="33840" windowHeight="28300" activeTab="1" xr2:uid="{CED2E7C7-DFF3-F648-B190-1601735D45BC}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="2600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="2618">
   <si>
     <t>NOTE</t>
   </si>
@@ -7349,9 +7349,6 @@
     <t>gnaD -&gt; kdgK -&gt; eda -&gt; gapA + pgk | gapN_NADP | gapN_NAD</t>
   </si>
   <si>
-    <t>kofam106</t>
-  </si>
-  <si>
     <t>D-xylulose-5P -&gt; D-ribose-5P -&gt; 7-sedoheptulose-7P + D-Glyceraldehyde 3-phosphate -&gt; D-Erythrose 4-phosphate + beta-D-Fructose 6-phosphate -&gt; D-Glyceraldehyde 3-phosphate</t>
   </si>
   <si>
@@ -7550,9 +7547,6 @@
     <t>Alkaline Phosphatase X</t>
   </si>
   <si>
-    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/106/</t>
-  </si>
-  <si>
     <t>/Users/kimbrel1/Dropbox/Lab/Resources/gator/gator.faa</t>
   </si>
   <si>
@@ -7835,17 +7829,77 @@
     <t>Uroporphyrinogen III to heme B via the PPD pathway</t>
   </si>
   <si>
-    <t>Heme synthesis - CPD</t>
-  </si>
-  <si>
-    <t>uroD_hemE -&gt;</t>
+    <t>actP</t>
+  </si>
+  <si>
+    <t>K14393</t>
+  </si>
+  <si>
+    <t>Acetate symporter</t>
+  </si>
+  <si>
+    <t>acetate, pyruvate and glyoxylate import</t>
+  </si>
+  <si>
+    <t>kofam113</t>
+  </si>
+  <si>
+    <t>/Users/kimbrel1/Dropbox/Lab/Resources/kofam/113/</t>
+  </si>
+  <si>
+    <t>Heme synthesis - CPD (not finished)</t>
+  </si>
+  <si>
+    <t>glcC</t>
+  </si>
+  <si>
+    <t>K11474</t>
+  </si>
+  <si>
+    <t>glc operon GntR family transcriptional regulator</t>
+  </si>
+  <si>
+    <t>glycolate</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>bp608</t>
+  </si>
+  <si>
+    <t>bp608_WP_308366913.1</t>
+  </si>
+  <si>
+    <t>bp609</t>
+  </si>
+  <si>
+    <t>bp609_WP_308366914.1</t>
+  </si>
+  <si>
+    <t>bp610</t>
+  </si>
+  <si>
+    <t>bp610_WP_308366915.1</t>
+  </si>
+  <si>
+    <t>ferredoxin-NADP reductase</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate synthetase</t>
+  </si>
+  <si>
+    <t>cytochrome P450</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41396-023-01510-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7865,6 +7919,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7935,10 +7997,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7999,8 +8062,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8316,7 +8383,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8344,10 +8411,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2436</v>
+        <v>2600</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2503</v>
+        <v>2601</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -8361,7 +8428,7 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>484</v>
@@ -8375,7 +8442,7 @@
         <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>911</v>
@@ -8411,7 +8478,7 @@
         <v>1550</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>911</v>
@@ -8425,7 +8492,7 @@
         <v>1653</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>911</v>
@@ -8439,7 +8506,7 @@
         <v>1700</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>911</v>
@@ -8456,11 +8523,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3BBC23-1443-5647-81B8-25D2242699B7}">
-  <dimension ref="A1:O552"/>
+  <dimension ref="A1:O557"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D536" sqref="D536"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D570" sqref="D570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.5" defaultRowHeight="14" customHeight="1"/>
@@ -8502,7 +8569,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>2436</v>
+        <v>2600</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>14</v>
@@ -15484,7 +15551,7 @@
         <v>1578</v>
       </c>
       <c r="H337" s="16" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="338" spans="1:15" ht="14" customHeight="1">
@@ -17376,8 +17443,8 @@
       </c>
     </row>
     <row r="427" spans="1:9" ht="14" customHeight="1">
-      <c r="A427" s="16">
-        <v>443</v>
+      <c r="A427" s="16" t="s">
+        <v>2607</v>
       </c>
       <c r="B427" s="16" t="s">
         <v>2102</v>
@@ -18780,7 +18847,7 @@
         <v>1197</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G506" s="16" t="s">
         <v>1188</v>
@@ -18803,7 +18870,7 @@
         <v>1198</v>
       </c>
       <c r="D507" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G507" s="16" t="s">
         <v>1188</v>
@@ -18823,7 +18890,7 @@
         <v>1199</v>
       </c>
       <c r="D508" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G508" s="16" t="s">
         <v>1188</v>
@@ -18846,7 +18913,7 @@
         <v>1200</v>
       </c>
       <c r="D509" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G509" s="16" t="s">
         <v>1188</v>
@@ -18869,7 +18936,7 @@
         <v>1205</v>
       </c>
       <c r="D510" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G510" s="16" t="s">
         <v>1202</v>
@@ -18889,7 +18956,7 @@
         <v>1210</v>
       </c>
       <c r="D511" s="16" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="G511" s="16" t="s">
         <v>1209</v>
@@ -18909,16 +18976,16 @@
         <v>1640</v>
       </c>
       <c r="C512" s="16" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D512" s="16" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H512" s="16" t="s">
         <v>2447</v>
       </c>
-      <c r="D512" s="16" t="s">
-        <v>2487</v>
-      </c>
-      <c r="H512" s="16" t="s">
-        <v>2448</v>
-      </c>
       <c r="I512" s="16" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="N512" s="16" t="s">
         <v>1640</v>
@@ -18926,19 +18993,19 @@
     </row>
     <row r="513" spans="1:14" ht="14" customHeight="1">
       <c r="B513" s="16" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C513" s="16" t="s">
         <v>2441</v>
       </c>
-      <c r="C513" s="16" t="s">
-        <v>2442</v>
-      </c>
       <c r="D513" s="16" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="H513" s="16" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="I513" s="16" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="514" spans="1:14" ht="14" customHeight="1">
@@ -18946,16 +19013,16 @@
         <v>1641</v>
       </c>
       <c r="C514" s="16" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D514" s="16" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H514" s="16" t="s">
         <v>2452</v>
       </c>
-      <c r="D514" s="16" t="s">
-        <v>2488</v>
-      </c>
-      <c r="H514" s="16" t="s">
+      <c r="I514" s="16" t="s">
         <v>2453</v>
-      </c>
-      <c r="I514" s="16" t="s">
-        <v>2454</v>
       </c>
       <c r="N514" s="16" t="s">
         <v>1642</v>
@@ -18963,19 +19030,19 @@
     </row>
     <row r="515" spans="1:14" ht="14" customHeight="1">
       <c r="B515" s="16" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C515" s="16" t="s">
         <v>2443</v>
       </c>
-      <c r="C515" s="16" t="s">
-        <v>2444</v>
-      </c>
       <c r="D515" s="16" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="H515" s="16" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="I515" s="16" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="516" spans="1:14" ht="14" customHeight="1">
@@ -18983,16 +19050,16 @@
         <v>1639</v>
       </c>
       <c r="C516" s="16" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D516" s="16" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H516" s="16" t="s">
+        <v>2458</v>
+      </c>
+      <c r="I516" s="16" t="s">
         <v>2457</v>
-      </c>
-      <c r="D516" s="16" t="s">
-        <v>2487</v>
-      </c>
-      <c r="H516" s="16" t="s">
-        <v>2459</v>
-      </c>
-      <c r="I516" s="16" t="s">
-        <v>2458</v>
       </c>
       <c r="N516" s="16" t="s">
         <v>1639</v>
@@ -19000,53 +19067,53 @@
     </row>
     <row r="517" spans="1:14" ht="14" customHeight="1">
       <c r="B517" s="16" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C517" s="16" t="s">
         <v>2445</v>
       </c>
-      <c r="C517" s="16" t="s">
-        <v>2446</v>
-      </c>
       <c r="D517" s="16" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="H517" s="16" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="I517" s="16" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="518" spans="1:14" ht="14" customHeight="1">
       <c r="B518" s="16" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C518" s="16" t="s">
         <v>2462</v>
       </c>
-      <c r="C518" s="16" t="s">
+      <c r="D518" s="16" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H518" s="16" t="s">
         <v>2463</v>
       </c>
-      <c r="D518" s="16" t="s">
-        <v>2489</v>
-      </c>
-      <c r="H518" s="16" t="s">
+      <c r="I518" s="16" t="s">
         <v>2464</v>
-      </c>
-      <c r="I518" s="16" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="519" spans="1:14" ht="14" customHeight="1">
       <c r="B519" s="16" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C519" s="16" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D519" s="16" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H519" s="16" t="s">
         <v>2466</v>
       </c>
-      <c r="C519" s="16" t="s">
-        <v>2468</v>
-      </c>
-      <c r="D519" s="16" t="s">
-        <v>2490</v>
-      </c>
-      <c r="H519" s="16" t="s">
-        <v>2467</v>
-      </c>
       <c r="I519" s="16" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="520" spans="1:14" ht="14" customHeight="1">
@@ -19054,16 +19121,16 @@
         <v>1645</v>
       </c>
       <c r="C520" s="16" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="H520" s="16" t="s">
+        <v>2470</v>
+      </c>
+      <c r="I520" s="16" t="s">
         <v>2471</v>
-      </c>
-      <c r="I520" s="16" t="s">
-        <v>2472</v>
       </c>
       <c r="N520" s="16" t="s">
         <v>1646</v>
@@ -19074,16 +19141,16 @@
         <v>1647</v>
       </c>
       <c r="C521" s="16" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D521" s="16" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H521" s="16" t="s">
         <v>2474</v>
       </c>
-      <c r="D521" s="16" t="s">
-        <v>2491</v>
-      </c>
-      <c r="H521" s="16" t="s">
+      <c r="I521" s="16" t="s">
         <v>2475</v>
-      </c>
-      <c r="I521" s="16" t="s">
-        <v>2476</v>
       </c>
       <c r="N521" s="16" t="s">
         <v>1648</v>
@@ -19094,13 +19161,13 @@
         <v>1643</v>
       </c>
       <c r="C522" s="16" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D522" s="16" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H522" s="16" t="s">
         <v>2477</v>
-      </c>
-      <c r="D522" s="16" t="s">
-        <v>2491</v>
-      </c>
-      <c r="H522" s="16" t="s">
-        <v>2478</v>
       </c>
       <c r="N522" s="16" t="s">
         <v>1644</v>
@@ -19108,84 +19175,84 @@
     </row>
     <row r="523" spans="1:14" ht="14" customHeight="1">
       <c r="B523" s="16" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C523" s="16" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D523" s="16" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H523" s="16" t="s">
         <v>2479</v>
       </c>
-      <c r="D523" s="16" t="s">
-        <v>2491</v>
-      </c>
-      <c r="H523" s="16" t="s">
+      <c r="I523" s="16" t="s">
         <v>2480</v>
-      </c>
-      <c r="I523" s="16" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="524" spans="1:14" ht="14" customHeight="1">
       <c r="B524" s="16" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C524" s="16" t="s">
         <v>2482</v>
       </c>
-      <c r="C524" s="16" t="s">
+      <c r="D524" s="16" t="s">
         <v>2483</v>
       </c>
-      <c r="D524" s="16" t="s">
+      <c r="H524" s="16" t="s">
         <v>2484</v>
       </c>
-      <c r="H524" s="16" t="s">
+      <c r="I524" s="16" t="s">
         <v>2485</v>
-      </c>
-      <c r="I524" s="16" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="14" customHeight="1">
       <c r="B525" s="16" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="C525" s="16" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D525" s="16" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="H525" s="16" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="I525" s="16" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="14" customHeight="1">
       <c r="B526" s="16" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D526" s="16" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="H526" s="16" t="s">
+        <v>2496</v>
+      </c>
+      <c r="I526" s="16" t="s">
         <v>2497</v>
-      </c>
-      <c r="I526" s="16" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="527" spans="1:14" ht="14" customHeight="1">
       <c r="B527" s="16" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C527" s="16" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D527" s="16" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L527" s="16" t="s">
         <v>2494</v>
-      </c>
-      <c r="C527" s="16" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D527" s="16" t="s">
-        <v>2499</v>
-      </c>
-      <c r="L527" s="16" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="528" spans="1:14" ht="14" customHeight="1">
@@ -19296,303 +19363,373 @@
     </row>
     <row r="533" spans="1:10" ht="14" customHeight="1">
       <c r="B533" s="16" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C533" s="16" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D533" s="16" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H533" s="16" t="s">
         <v>2509</v>
-      </c>
-      <c r="C533" s="16" t="s">
-        <v>2510</v>
-      </c>
-      <c r="D533" s="16" t="s">
-        <v>2512</v>
-      </c>
-      <c r="H533" s="16" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="534" spans="1:10" ht="14" customHeight="1">
       <c r="B534" s="16" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C534" s="16" t="s">
         <v>2514</v>
       </c>
-      <c r="C534" s="16" t="s">
-        <v>2516</v>
-      </c>
       <c r="D534" s="16" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="H534" s="16" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="535" spans="1:10" ht="14" customHeight="1">
       <c r="B535" s="16" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C535" s="16" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D535" s="16" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H535" s="16" t="s">
         <v>2518</v>
-      </c>
-      <c r="C535" s="16" t="s">
-        <v>2519</v>
-      </c>
-      <c r="D535" s="16" t="s">
-        <v>2525</v>
-      </c>
-      <c r="H535" s="16" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="536" spans="1:10" ht="14" customHeight="1">
       <c r="B536" s="16" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D536" s="16" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H536" s="16" t="s">
         <v>2521</v>
-      </c>
-      <c r="C536" s="16" t="s">
-        <v>2522</v>
-      </c>
-      <c r="D536" s="16" t="s">
-        <v>2524</v>
-      </c>
-      <c r="H536" s="16" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="537" spans="1:10" ht="14" customHeight="1">
       <c r="B537" s="16" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C537" s="16" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="D537" s="16" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H537" s="16" t="s">
         <v>2525</v>
-      </c>
-      <c r="H537" s="16" t="s">
-        <v>2527</v>
       </c>
     </row>
     <row r="538" spans="1:10" ht="14" customHeight="1">
       <c r="B538" s="16" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H538" s="16" t="s">
         <v>2530</v>
-      </c>
-      <c r="C538" s="16" t="s">
-        <v>2533</v>
-      </c>
-      <c r="H538" s="16" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="539" spans="1:10" ht="14" customHeight="1">
       <c r="B539" s="16" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C539" s="16" t="s">
         <v>2531</v>
       </c>
-      <c r="C539" s="16" t="s">
+      <c r="H539" s="16" t="s">
         <v>2533</v>
-      </c>
-      <c r="H539" s="16" t="s">
-        <v>2535</v>
       </c>
     </row>
     <row r="540" spans="1:10" ht="14" customHeight="1">
       <c r="B540" s="16" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C540" s="16" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D540" s="16" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H540" s="16" t="s">
         <v>2536</v>
       </c>
-      <c r="C540" s="16" t="s">
-        <v>2537</v>
-      </c>
-      <c r="D540" s="16" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H540" s="16" t="s">
-        <v>2538</v>
-      </c>
       <c r="I540" s="16" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="541" spans="1:10" ht="14" customHeight="1">
       <c r="B541" s="16" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="C541" s="16" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D541" s="16" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H541" s="16" t="s">
         <v>2540</v>
       </c>
-      <c r="D541" s="16" t="s">
-        <v>2541</v>
-      </c>
-      <c r="H541" s="16" t="s">
-        <v>2542</v>
-      </c>
       <c r="I541" s="16" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="542" spans="1:10" ht="14" customHeight="1">
       <c r="B542" s="16" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="D542" s="16" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="H542" s="16" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="I542" s="16" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="543" spans="1:10" ht="14" customHeight="1">
       <c r="B543" s="16" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="C543" s="16" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D543" s="16" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H543" s="16" t="s">
         <v>2548</v>
       </c>
-      <c r="D543" s="16" t="s">
+      <c r="I543" s="16" t="s">
         <v>2549</v>
-      </c>
-      <c r="H543" s="16" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I543" s="16" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="544" spans="1:10" ht="14" customHeight="1">
       <c r="B544" s="16" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C544" s="16" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D544" s="16" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H544" s="16" t="s">
+        <v>2551</v>
+      </c>
+      <c r="I544" s="16" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="545" spans="2:12" ht="14" customHeight="1">
+      <c r="B545" s="16" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C545" s="16" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D545" s="16" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H545" s="16" t="s">
+        <v>2554</v>
+      </c>
+      <c r="I545" s="16" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="546" spans="2:12" ht="14" customHeight="1">
+      <c r="B546" s="16" t="s">
         <v>2561</v>
       </c>
-      <c r="C544" s="16" t="s">
-        <v>2552</v>
-      </c>
-      <c r="D544" s="16" t="s">
-        <v>2549</v>
-      </c>
-      <c r="H544" s="16" t="s">
-        <v>2553</v>
-      </c>
-      <c r="I544" s="16" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="545" spans="2:9" ht="14" customHeight="1">
-      <c r="B545" s="16" t="s">
+      <c r="C546" s="16" t="s">
         <v>2562</v>
       </c>
-      <c r="C545" s="16" t="s">
-        <v>2555</v>
-      </c>
-      <c r="D545" s="16" t="s">
-        <v>2549</v>
-      </c>
-      <c r="H545" s="16" t="s">
-        <v>2556</v>
-      </c>
-      <c r="I545" s="16" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="546" spans="2:9" ht="14" customHeight="1">
-      <c r="B546" s="16" t="s">
+      <c r="D546" s="16" t="s">
         <v>2563</v>
       </c>
-      <c r="C546" s="16" t="s">
+      <c r="H546" s="16" t="s">
         <v>2564</v>
       </c>
-      <c r="D546" s="16" t="s">
+      <c r="I546" s="16" t="s">
         <v>2565</v>
       </c>
-      <c r="H546" s="16" t="s">
-        <v>2566</v>
-      </c>
-      <c r="I546" s="16" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="547" spans="2:9" ht="14" customHeight="1">
+    </row>
+    <row r="547" spans="2:12" ht="14" customHeight="1">
       <c r="B547" s="22" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C547" s="16" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D547" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H547" s="16" t="s">
         <v>2575</v>
       </c>
-      <c r="C547" s="16" t="s">
+      <c r="I547" s="16" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="548" spans="2:12" ht="14" customHeight="1">
+      <c r="B548" s="22" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C548" s="16" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D548" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H548" s="16" t="s">
+        <v>2576</v>
+      </c>
+      <c r="I548" s="16" t="s">
         <v>2580</v>
       </c>
-      <c r="D547" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H547" s="16" t="s">
-        <v>2577</v>
-      </c>
-      <c r="I547" s="16" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="548" spans="2:9" ht="14" customHeight="1">
-      <c r="B548" s="22" t="s">
-        <v>2576</v>
-      </c>
-      <c r="C548" s="16" t="s">
+    </row>
+    <row r="549" spans="2:12" ht="14" customHeight="1">
+      <c r="B549" s="23" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C549" s="16" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D549" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H549" s="16" t="s">
         <v>2581</v>
       </c>
-      <c r="D548" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H548" s="16" t="s">
-        <v>2578</v>
-      </c>
-      <c r="I548" s="16" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="549" spans="2:9" ht="14" customHeight="1">
-      <c r="B549" s="23" t="s">
+    </row>
+    <row r="550" spans="2:12" ht="14" customHeight="1">
+      <c r="B550" s="23" t="s">
         <v>2585</v>
       </c>
-      <c r="C549" s="16" t="s">
+      <c r="C550" s="16" t="s">
         <v>2584</v>
       </c>
-      <c r="D549" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H549" s="16" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="550" spans="2:9" ht="14" customHeight="1">
-      <c r="B550" s="23" t="s">
+      <c r="D550" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H550" s="16" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="551" spans="2:12" ht="14" customHeight="1">
+      <c r="B551" s="23" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C551" s="16" t="s">
         <v>2587</v>
       </c>
-      <c r="C550" s="16" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D550" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H550" s="16" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="551" spans="2:9" ht="14" customHeight="1">
-      <c r="B551" s="23" t="s">
+      <c r="D551" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H551" s="16" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="552" spans="2:12" ht="14" customHeight="1">
+      <c r="B552" s="16" t="s">
         <v>2590</v>
       </c>
-      <c r="C551" s="16" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D551" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H551" s="16" t="s">
+      <c r="C552" s="16" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="552" spans="2:9" ht="14" customHeight="1">
-      <c r="B552" s="16" t="s">
+      <c r="D552" s="16" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H552" s="16" t="s">
         <v>2592</v>
       </c>
-      <c r="C552" s="16" t="s">
-        <v>2593</v>
-      </c>
-      <c r="D552" s="16" t="s">
-        <v>2574</v>
-      </c>
-      <c r="H552" s="16" t="s">
-        <v>2594</v>
+    </row>
+    <row r="553" spans="2:12" ht="14" customHeight="1">
+      <c r="B553" s="16" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C553" s="16" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D553" s="16" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H553" s="16" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="554" spans="2:12" ht="14" customHeight="1">
+      <c r="B554" s="16" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C554" s="16" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D554" s="16" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H554" s="16" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="555" spans="2:12" ht="14" customHeight="1">
+      <c r="B555" s="16" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C555" s="16" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D555" s="24" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L555" s="16" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="556" spans="2:12" ht="14" customHeight="1">
+      <c r="B556" s="16" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C556" s="16" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D556" s="24" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L556" s="16" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="557" spans="2:12" ht="14" customHeight="1">
+      <c r="B557" s="16" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C557" s="16" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D557" s="24" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L557" s="16" t="s">
+        <v>2613</v>
       </c>
     </row>
   </sheetData>
@@ -19602,6 +19739,11 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D555" r:id="rId1" xr:uid="{7F41FB0F-F2C6-8549-8349-31836402E8B4}"/>
+    <hyperlink ref="D557" r:id="rId2" xr:uid="{9EF9B505-0E70-EB4F-BDD1-28DCA3D6BC6D}"/>
+    <hyperlink ref="D556" r:id="rId3" xr:uid="{EC2D282B-2AB8-9845-A9AE-77DB3B36B690}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19610,7 +19752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECC133-A712-7349-87AA-903CA1833BF5}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
@@ -19661,10 +19803,10 @@
         <v>1135</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>752</v>
@@ -19675,10 +19817,10 @@
         <v>1136</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42">
@@ -20816,51 +20958,51 @@
     </row>
     <row r="104" spans="1:4" ht="14">
       <c r="A104" s="16" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14">
       <c r="A105" s="17" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14">
       <c r="A106" s="17" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>2570</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="28">
       <c r="A107" s="17" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>2595</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>2596</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>2597</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14">
       <c r="A108" s="17" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>2599</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="109" spans="1:4">
